--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC299"/>
+  <dimension ref="A1:AC298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10400,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6664685</v>
+        <v>6664684</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10412,76 +10412,76 @@
         <v>45068.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112">
+        <v>2</v>
+      </c>
+      <c r="J112" t="s">
+        <v>44</v>
+      </c>
+      <c r="K112">
+        <v>1.909</v>
+      </c>
+      <c r="L112">
+        <v>3.3</v>
+      </c>
+      <c r="M112">
+        <v>3.6</v>
+      </c>
+      <c r="N112">
+        <v>2.375</v>
+      </c>
+      <c r="O112">
+        <v>3.3</v>
+      </c>
+      <c r="P112">
+        <v>2.625</v>
+      </c>
+      <c r="Q112">
         <v>0</v>
       </c>
-      <c r="J112" t="s">
-        <v>43</v>
-      </c>
-      <c r="K112">
-        <v>2.625</v>
-      </c>
-      <c r="L112">
-        <v>3.1</v>
-      </c>
-      <c r="M112">
+      <c r="R112">
+        <v>1.85</v>
+      </c>
+      <c r="S112">
+        <v>1.95</v>
+      </c>
+      <c r="T112">
         <v>2.5</v>
       </c>
-      <c r="N112">
-        <v>2.3</v>
-      </c>
-      <c r="O112">
-        <v>3.2</v>
-      </c>
-      <c r="P112">
-        <v>2.8</v>
-      </c>
-      <c r="Q112">
-        <v>-0.25</v>
-      </c>
-      <c r="R112">
-        <v>1.925</v>
-      </c>
-      <c r="S112">
-        <v>1.875</v>
-      </c>
-      <c r="T112">
-        <v>2.25</v>
-      </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W112">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10489,7 +10489,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6664684</v>
+        <v>6664685</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10501,76 +10501,76 @@
         <v>45068.45833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
         <v>0</v>
       </c>
-      <c r="I113">
-        <v>2</v>
-      </c>
       <c r="J113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K113">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L113">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M113">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="N113">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O113">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P113">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
+        <v>1.925</v>
+      </c>
+      <c r="S113">
+        <v>1.875</v>
+      </c>
+      <c r="T113">
+        <v>2.25</v>
+      </c>
+      <c r="U113">
         <v>1.85</v>
       </c>
-      <c r="S113">
+      <c r="V113">
         <v>1.95</v>
       </c>
-      <c r="T113">
-        <v>2.5</v>
-      </c>
-      <c r="U113">
-        <v>1.825</v>
-      </c>
-      <c r="V113">
-        <v>1.975</v>
-      </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA113">
+        <v>-1</v>
+      </c>
+      <c r="AB113">
+        <v>-1</v>
+      </c>
+      <c r="AC113">
         <v>0.95</v>
-      </c>
-      <c r="AB113">
-        <v>-1</v>
-      </c>
-      <c r="AC113">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -11290,7 +11290,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6720843</v>
+        <v>6720873</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11302,76 +11302,76 @@
         <v>45079.85416666666</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>2</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K122">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L122">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M122">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N122">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O122">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P122">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q122">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T122">
         <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V122">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W122">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC122">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11379,7 +11379,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6720873</v>
+        <v>6720843</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11391,76 +11391,76 @@
         <v>45079.85416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H123">
         <v>2</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K123">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="L123">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M123">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N123">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="O123">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P123">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R123">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S123">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T123">
         <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V123">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X123">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA123">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -22682,7 +22682,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7454842</v>
+        <v>7453204</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22694,76 +22694,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F250" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G250" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I250">
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K250">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="L250">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M250">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="N250">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O250">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P250">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="Q250">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R250">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S250">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T250">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U250">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V250">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W250">
         <v>-1</v>
       </c>
       <c r="X250">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y250">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z250">
         <v>-1</v>
       </c>
       <c r="AA250">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB250">
         <v>-1</v>
       </c>
       <c r="AC250">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22771,7 +22771,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7453204</v>
+        <v>7454842</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22783,76 +22783,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F251" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G251" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251">
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K251">
-        <v>1.285</v>
+        <v>4</v>
       </c>
       <c r="L251">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M251">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="N251">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O251">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P251">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="Q251">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R251">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S251">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T251">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U251">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V251">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W251">
         <v>-1</v>
       </c>
       <c r="X251">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y251">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB251">
         <v>-1</v>
       </c>
       <c r="AC251">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -23038,7 +23038,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7493427</v>
+        <v>7493428</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23050,76 +23050,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F254" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G254" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I254">
         <v>1</v>
       </c>
       <c r="J254" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K254">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L254">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M254">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N254">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O254">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P254">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q254">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R254">
+        <v>1.775</v>
+      </c>
+      <c r="S254">
         <v>2.025</v>
       </c>
-      <c r="S254">
-        <v>1.775</v>
-      </c>
       <c r="T254">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U254">
+        <v>1.825</v>
+      </c>
+      <c r="V254">
         <v>1.975</v>
       </c>
-      <c r="V254">
-        <v>1.825</v>
-      </c>
       <c r="W254">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X254">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y254">
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA254">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB254">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC254">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23127,7 +23127,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7493428</v>
+        <v>7493427</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23139,76 +23139,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F255" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G255" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H255">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I255">
         <v>1</v>
       </c>
       <c r="J255" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K255">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L255">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M255">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N255">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O255">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P255">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q255">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R255">
+        <v>2.025</v>
+      </c>
+      <c r="S255">
         <v>1.775</v>
       </c>
-      <c r="S255">
-        <v>2.025</v>
-      </c>
       <c r="T255">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U255">
+        <v>1.975</v>
+      </c>
+      <c r="V255">
         <v>1.825</v>
       </c>
-      <c r="V255">
-        <v>1.975</v>
-      </c>
       <c r="W255">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X255">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y255">
         <v>-1</v>
       </c>
       <c r="Z255">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AA255">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB255">
+        <v>-1</v>
+      </c>
+      <c r="AC255">
         <v>0.825</v>
-      </c>
-      <c r="AC255">
-        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -26687,7 +26687,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7824497</v>
+        <v>7824498</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26696,49 +26696,49 @@
         <v>28</v>
       </c>
       <c r="E295" s="2">
-        <v>45338.86458333334</v>
+        <v>45339.76041666666</v>
       </c>
       <c r="F295" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G295" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K295">
+        <v>3.4</v>
+      </c>
+      <c r="L295">
+        <v>3.4</v>
+      </c>
+      <c r="M295">
+        <v>1.95</v>
+      </c>
+      <c r="N295">
+        <v>3.5</v>
+      </c>
+      <c r="O295">
+        <v>3.4</v>
+      </c>
+      <c r="P295">
+        <v>1.909</v>
+      </c>
+      <c r="Q295">
+        <v>0.5</v>
+      </c>
+      <c r="R295">
+        <v>1.85</v>
+      </c>
+      <c r="S295">
+        <v>1.95</v>
+      </c>
+      <c r="T295">
         <v>2.5</v>
       </c>
-      <c r="L295">
-        <v>3.2</v>
-      </c>
-      <c r="M295">
-        <v>2.55</v>
-      </c>
-      <c r="N295">
-        <v>2.75</v>
-      </c>
-      <c r="O295">
-        <v>3.1</v>
-      </c>
-      <c r="P295">
-        <v>2.3</v>
-      </c>
-      <c r="Q295">
-        <v>0</v>
-      </c>
-      <c r="R295">
-        <v>2.025</v>
-      </c>
-      <c r="S295">
-        <v>1.775</v>
-      </c>
-      <c r="T295">
-        <v>2.25</v>
-      </c>
       <c r="U295">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V295">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W295">
         <v>0</v>
@@ -26761,7 +26761,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7824498</v>
+        <v>7824499</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26770,49 +26770,49 @@
         <v>28</v>
       </c>
       <c r="E296" s="2">
-        <v>45339.76041666666</v>
+        <v>45340.76041666666</v>
       </c>
       <c r="F296" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G296" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K296">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="L296">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M296">
+        <v>1.444</v>
+      </c>
+      <c r="N296">
+        <v>5.25</v>
+      </c>
+      <c r="O296">
+        <v>4.2</v>
+      </c>
+      <c r="P296">
+        <v>1.5</v>
+      </c>
+      <c r="Q296">
+        <v>1</v>
+      </c>
+      <c r="R296">
         <v>1.95</v>
       </c>
-      <c r="N296">
-        <v>3.1</v>
-      </c>
-      <c r="O296">
-        <v>3.3</v>
-      </c>
-      <c r="P296">
-        <v>2.1</v>
-      </c>
-      <c r="Q296">
-        <v>0.25</v>
-      </c>
-      <c r="R296">
+      <c r="S296">
+        <v>1.85</v>
+      </c>
+      <c r="T296">
+        <v>2.75</v>
+      </c>
+      <c r="U296">
         <v>1.9</v>
       </c>
-      <c r="S296">
+      <c r="V296">
         <v>1.9</v>
-      </c>
-      <c r="T296">
-        <v>2.5</v>
-      </c>
-      <c r="U296">
-        <v>1.925</v>
-      </c>
-      <c r="V296">
-        <v>1.875</v>
       </c>
       <c r="W296">
         <v>0</v>
@@ -26835,7 +26835,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7824499</v>
+        <v>7824500</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26844,49 +26844,49 @@
         <v>28</v>
       </c>
       <c r="E297" s="2">
-        <v>45340.76041666666</v>
+        <v>45340.86458333334</v>
       </c>
       <c r="F297" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G297" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K297">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="L297">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M297">
-        <v>1.444</v>
+        <v>3.75</v>
       </c>
       <c r="N297">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="O297">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P297">
-        <v>1.45</v>
+        <v>3.8</v>
       </c>
       <c r="Q297">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R297">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S297">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T297">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U297">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V297">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W297">
         <v>0</v>
@@ -26909,7 +26909,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>7824500</v>
+        <v>7824528</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26918,49 +26918,49 @@
         <v>28</v>
       </c>
       <c r="E298" s="2">
-        <v>45340.86458333334</v>
+        <v>45341.8125</v>
       </c>
       <c r="F298" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G298" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="K298">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L298">
         <v>3.25</v>
       </c>
       <c r="M298">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N298">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O298">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P298">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q298">
         <v>-0.5</v>
       </c>
       <c r="R298">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S298">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T298">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U298">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V298">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W298">
         <v>0</v>
@@ -26975,80 +26975,6 @@
         <v>0</v>
       </c>
       <c r="AA298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:29">
-      <c r="A299" s="1">
-        <v>297</v>
-      </c>
-      <c r="B299">
-        <v>7824528</v>
-      </c>
-      <c r="C299" t="s">
-        <v>28</v>
-      </c>
-      <c r="D299" t="s">
-        <v>28</v>
-      </c>
-      <c r="E299" s="2">
-        <v>45341.8125</v>
-      </c>
-      <c r="F299" t="s">
-        <v>35</v>
-      </c>
-      <c r="G299" t="s">
-        <v>42</v>
-      </c>
-      <c r="K299">
-        <v>2.25</v>
-      </c>
-      <c r="L299">
-        <v>3.25</v>
-      </c>
-      <c r="M299">
-        <v>2.875</v>
-      </c>
-      <c r="N299">
-        <v>1.95</v>
-      </c>
-      <c r="O299">
-        <v>3.4</v>
-      </c>
-      <c r="P299">
-        <v>3.5</v>
-      </c>
-      <c r="Q299">
-        <v>-0.5</v>
-      </c>
-      <c r="R299">
-        <v>2</v>
-      </c>
-      <c r="S299">
-        <v>1.8</v>
-      </c>
-      <c r="T299">
-        <v>2.5</v>
-      </c>
-      <c r="U299">
-        <v>2</v>
-      </c>
-      <c r="V299">
-        <v>1.8</v>
-      </c>
-      <c r="W299">
-        <v>0</v>
-      </c>
-      <c r="X299">
-        <v>0</v>
-      </c>
-      <c r="Y299">
-        <v>0</v>
-      </c>
-      <c r="Z299">
-        <v>0</v>
-      </c>
-      <c r="AA299">
         <v>0</v>
       </c>
     </row>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC298"/>
+  <dimension ref="A1:AC297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10400,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6664684</v>
+        <v>6664685</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10412,76 +10412,76 @@
         <v>45068.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
         <v>0</v>
       </c>
-      <c r="I112">
-        <v>2</v>
-      </c>
       <c r="J112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L112">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M112">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="N112">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O112">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P112">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
+        <v>1.925</v>
+      </c>
+      <c r="S112">
+        <v>1.875</v>
+      </c>
+      <c r="T112">
+        <v>2.25</v>
+      </c>
+      <c r="U112">
         <v>1.85</v>
       </c>
-      <c r="S112">
+      <c r="V112">
         <v>1.95</v>
       </c>
-      <c r="T112">
-        <v>2.5</v>
-      </c>
-      <c r="U112">
-        <v>1.825</v>
-      </c>
-      <c r="V112">
-        <v>1.975</v>
-      </c>
       <c r="W112">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA112">
+        <v>-1</v>
+      </c>
+      <c r="AB112">
+        <v>-1</v>
+      </c>
+      <c r="AC112">
         <v>0.95</v>
-      </c>
-      <c r="AB112">
-        <v>-1</v>
-      </c>
-      <c r="AC112">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10489,7 +10489,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6664685</v>
+        <v>6664684</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10501,76 +10501,76 @@
         <v>45068.45833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113">
+        <v>2</v>
+      </c>
+      <c r="J113" t="s">
+        <v>44</v>
+      </c>
+      <c r="K113">
+        <v>1.909</v>
+      </c>
+      <c r="L113">
+        <v>3.3</v>
+      </c>
+      <c r="M113">
+        <v>3.6</v>
+      </c>
+      <c r="N113">
+        <v>2.375</v>
+      </c>
+      <c r="O113">
+        <v>3.3</v>
+      </c>
+      <c r="P113">
+        <v>2.625</v>
+      </c>
+      <c r="Q113">
         <v>0</v>
       </c>
-      <c r="J113" t="s">
-        <v>43</v>
-      </c>
-      <c r="K113">
-        <v>2.625</v>
-      </c>
-      <c r="L113">
-        <v>3.1</v>
-      </c>
-      <c r="M113">
+      <c r="R113">
+        <v>1.85</v>
+      </c>
+      <c r="S113">
+        <v>1.95</v>
+      </c>
+      <c r="T113">
         <v>2.5</v>
       </c>
-      <c r="N113">
-        <v>2.3</v>
-      </c>
-      <c r="O113">
-        <v>3.2</v>
-      </c>
-      <c r="P113">
-        <v>2.8</v>
-      </c>
-      <c r="Q113">
-        <v>-0.25</v>
-      </c>
-      <c r="R113">
-        <v>1.925</v>
-      </c>
-      <c r="S113">
-        <v>1.875</v>
-      </c>
-      <c r="T113">
-        <v>2.25</v>
-      </c>
       <c r="U113">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V113">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W113">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -23839,7 +23839,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7493311</v>
+        <v>7493312</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23851,76 +23851,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F263" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G263" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H263">
+        <v>4</v>
+      </c>
+      <c r="I263">
         <v>0</v>
       </c>
-      <c r="I263">
-        <v>1</v>
-      </c>
       <c r="J263" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K263">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L263">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M263">
+        <v>4.333</v>
+      </c>
+      <c r="N263">
+        <v>1.727</v>
+      </c>
+      <c r="O263">
+        <v>3.75</v>
+      </c>
+      <c r="P263">
+        <v>4.2</v>
+      </c>
+      <c r="Q263">
+        <v>-0.5</v>
+      </c>
+      <c r="R263">
+        <v>1.8</v>
+      </c>
+      <c r="S263">
         <v>2</v>
       </c>
-      <c r="N263">
-        <v>3.2</v>
-      </c>
-      <c r="O263">
-        <v>3.25</v>
-      </c>
-      <c r="P263">
-        <v>2.1</v>
-      </c>
-      <c r="Q263">
-        <v>0.25</v>
-      </c>
-      <c r="R263">
-        <v>1.95</v>
-      </c>
-      <c r="S263">
-        <v>1.85</v>
-      </c>
       <c r="T263">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U263">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V263">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W263">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA263">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB263">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC263">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -24017,7 +24017,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7493312</v>
+        <v>7493311</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24029,76 +24029,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F265" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G265" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H265">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J265" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K265">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L265">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M265">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N265">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O265">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P265">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q265">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R265">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S265">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T265">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U265">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V265">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W265">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X265">
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z265">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA265">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB265">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC265">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -26687,7 +26687,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7824498</v>
+        <v>7824499</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26696,49 +26696,49 @@
         <v>28</v>
       </c>
       <c r="E295" s="2">
-        <v>45339.76041666666</v>
+        <v>45340.76041666666</v>
       </c>
       <c r="F295" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G295" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K295">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="L295">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M295">
+        <v>1.444</v>
+      </c>
+      <c r="N295">
+        <v>5.25</v>
+      </c>
+      <c r="O295">
+        <v>4.2</v>
+      </c>
+      <c r="P295">
+        <v>1.5</v>
+      </c>
+      <c r="Q295">
+        <v>1</v>
+      </c>
+      <c r="R295">
         <v>1.95</v>
       </c>
-      <c r="N295">
-        <v>3.5</v>
-      </c>
-      <c r="O295">
-        <v>3.4</v>
-      </c>
-      <c r="P295">
-        <v>1.909</v>
-      </c>
-      <c r="Q295">
-        <v>0.5</v>
-      </c>
-      <c r="R295">
+      <c r="S295">
         <v>1.85</v>
       </c>
-      <c r="S295">
-        <v>1.95</v>
-      </c>
       <c r="T295">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U295">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V295">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W295">
         <v>0</v>
@@ -26761,7 +26761,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7824499</v>
+        <v>7824500</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26770,49 +26770,49 @@
         <v>28</v>
       </c>
       <c r="E296" s="2">
-        <v>45340.76041666666</v>
+        <v>45340.86458333334</v>
       </c>
       <c r="F296" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G296" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K296">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="L296">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M296">
-        <v>1.444</v>
+        <v>3.75</v>
       </c>
       <c r="N296">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="O296">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P296">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q296">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R296">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S296">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T296">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U296">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V296">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W296">
         <v>0</v>
@@ -26835,7 +26835,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7824500</v>
+        <v>7824528</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26844,49 +26844,49 @@
         <v>28</v>
       </c>
       <c r="E297" s="2">
-        <v>45340.86458333334</v>
+        <v>45341.8125</v>
       </c>
       <c r="F297" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G297" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="K297">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="L297">
         <v>3.25</v>
       </c>
       <c r="M297">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="N297">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O297">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P297">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q297">
         <v>-0.5</v>
       </c>
       <c r="R297">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S297">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T297">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U297">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V297">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W297">
         <v>0</v>
@@ -26901,80 +26901,6 @@
         <v>0</v>
       </c>
       <c r="AA297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:29">
-      <c r="A298" s="1">
-        <v>296</v>
-      </c>
-      <c r="B298">
-        <v>7824528</v>
-      </c>
-      <c r="C298" t="s">
-        <v>28</v>
-      </c>
-      <c r="D298" t="s">
-        <v>28</v>
-      </c>
-      <c r="E298" s="2">
-        <v>45341.8125</v>
-      </c>
-      <c r="F298" t="s">
-        <v>35</v>
-      </c>
-      <c r="G298" t="s">
-        <v>42</v>
-      </c>
-      <c r="K298">
-        <v>2.25</v>
-      </c>
-      <c r="L298">
-        <v>3.25</v>
-      </c>
-      <c r="M298">
-        <v>2.875</v>
-      </c>
-      <c r="N298">
-        <v>1.95</v>
-      </c>
-      <c r="O298">
-        <v>3.4</v>
-      </c>
-      <c r="P298">
-        <v>3.5</v>
-      </c>
-      <c r="Q298">
-        <v>-0.5</v>
-      </c>
-      <c r="R298">
-        <v>2</v>
-      </c>
-      <c r="S298">
-        <v>1.8</v>
-      </c>
-      <c r="T298">
-        <v>2.5</v>
-      </c>
-      <c r="U298">
-        <v>2</v>
-      </c>
-      <c r="V298">
-        <v>1.8</v>
-      </c>
-      <c r="W298">
-        <v>0</v>
-      </c>
-      <c r="X298">
-        <v>0</v>
-      </c>
-      <c r="Y298">
-        <v>0</v>
-      </c>
-      <c r="Z298">
-        <v>0</v>
-      </c>
-      <c r="AA298">
         <v>0</v>
       </c>
     </row>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC297"/>
+  <dimension ref="A1:AC299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10222,7 +10222,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6664682</v>
+        <v>6664683</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10234,76 +10234,76 @@
         <v>45066.79166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H110">
         <v>1</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K110">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L110">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M110">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N110">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="O110">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P110">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="Q110">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R110">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W110">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z110">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
+        <v>0.8</v>
+      </c>
+      <c r="AB110">
+        <v>0.3875</v>
+      </c>
+      <c r="AC110">
         <v>-0.5</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
-      <c r="AC110">
-        <v>0.95</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10311,7 +10311,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6664683</v>
+        <v>6664682</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10323,76 +10323,76 @@
         <v>45066.79166666666</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K111">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L111">
+        <v>3.3</v>
+      </c>
+      <c r="M111">
+        <v>3.5</v>
+      </c>
+      <c r="N111">
+        <v>1.7</v>
+      </c>
+      <c r="O111">
+        <v>3.6</v>
+      </c>
+      <c r="P111">
         <v>4.5</v>
       </c>
-      <c r="M111">
-        <v>7</v>
-      </c>
-      <c r="N111">
-        <v>1.45</v>
-      </c>
-      <c r="O111">
-        <v>4.2</v>
-      </c>
-      <c r="P111">
-        <v>6</v>
-      </c>
       <c r="Q111">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T111">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA111">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB111">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10400,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6664685</v>
+        <v>6664684</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10412,76 +10412,76 @@
         <v>45068.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112">
+        <v>2</v>
+      </c>
+      <c r="J112" t="s">
+        <v>44</v>
+      </c>
+      <c r="K112">
+        <v>1.909</v>
+      </c>
+      <c r="L112">
+        <v>3.3</v>
+      </c>
+      <c r="M112">
+        <v>3.6</v>
+      </c>
+      <c r="N112">
+        <v>2.375</v>
+      </c>
+      <c r="O112">
+        <v>3.3</v>
+      </c>
+      <c r="P112">
+        <v>2.625</v>
+      </c>
+      <c r="Q112">
         <v>0</v>
       </c>
-      <c r="J112" t="s">
-        <v>43</v>
-      </c>
-      <c r="K112">
-        <v>2.625</v>
-      </c>
-      <c r="L112">
-        <v>3.1</v>
-      </c>
-      <c r="M112">
+      <c r="R112">
+        <v>1.85</v>
+      </c>
+      <c r="S112">
+        <v>1.95</v>
+      </c>
+      <c r="T112">
         <v>2.5</v>
       </c>
-      <c r="N112">
-        <v>2.3</v>
-      </c>
-      <c r="O112">
-        <v>3.2</v>
-      </c>
-      <c r="P112">
-        <v>2.8</v>
-      </c>
-      <c r="Q112">
-        <v>-0.25</v>
-      </c>
-      <c r="R112">
-        <v>1.925</v>
-      </c>
-      <c r="S112">
-        <v>1.875</v>
-      </c>
-      <c r="T112">
-        <v>2.25</v>
-      </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W112">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10489,7 +10489,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6664684</v>
+        <v>6664685</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10501,76 +10501,76 @@
         <v>45068.45833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
         <v>0</v>
       </c>
-      <c r="I113">
-        <v>2</v>
-      </c>
       <c r="J113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K113">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L113">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M113">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="N113">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O113">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P113">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
+        <v>1.925</v>
+      </c>
+      <c r="S113">
+        <v>1.875</v>
+      </c>
+      <c r="T113">
+        <v>2.25</v>
+      </c>
+      <c r="U113">
         <v>1.85</v>
       </c>
-      <c r="S113">
+      <c r="V113">
         <v>1.95</v>
       </c>
-      <c r="T113">
-        <v>2.5</v>
-      </c>
-      <c r="U113">
-        <v>1.825</v>
-      </c>
-      <c r="V113">
-        <v>1.975</v>
-      </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA113">
+        <v>-1</v>
+      </c>
+      <c r="AB113">
+        <v>-1</v>
+      </c>
+      <c r="AC113">
         <v>0.95</v>
-      </c>
-      <c r="AB113">
-        <v>-1</v>
-      </c>
-      <c r="AC113">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -11379,7 +11379,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6720843</v>
+        <v>6720844</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11391,34 +11391,34 @@
         <v>45079.85416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
         <v>2</v>
       </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K123">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="L123">
+        <v>3</v>
+      </c>
+      <c r="M123">
+        <v>2.75</v>
+      </c>
+      <c r="N123">
+        <v>4</v>
+      </c>
+      <c r="O123">
         <v>3.2</v>
-      </c>
-      <c r="M123">
-        <v>2.7</v>
-      </c>
-      <c r="N123">
-        <v>3.75</v>
-      </c>
-      <c r="O123">
-        <v>3.3</v>
       </c>
       <c r="P123">
         <v>1.85</v>
@@ -11427,10 +11427,10 @@
         <v>0.5</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T123">
         <v>2.5</v>
@@ -11442,25 +11442,25 @@
         <v>1.875</v>
       </c>
       <c r="W123">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC123">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11468,7 +11468,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6720844</v>
+        <v>6720843</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11480,34 +11480,34 @@
         <v>45079.85416666666</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K124">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="L124">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M124">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N124">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O124">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P124">
         <v>1.85</v>
@@ -11516,10 +11516,10 @@
         <v>0.5</v>
       </c>
       <c r="R124">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T124">
         <v>2.5</v>
@@ -11531,25 +11531,25 @@
         <v>1.875</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA124">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -22682,7 +22682,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7453204</v>
+        <v>7454842</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22694,76 +22694,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F250" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G250" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250">
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K250">
-        <v>1.285</v>
+        <v>4</v>
       </c>
       <c r="L250">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M250">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="N250">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O250">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P250">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="Q250">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R250">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S250">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T250">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U250">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V250">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W250">
         <v>-1</v>
       </c>
       <c r="X250">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y250">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z250">
         <v>-1</v>
       </c>
       <c r="AA250">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB250">
         <v>-1</v>
       </c>
       <c r="AC250">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22771,7 +22771,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7454842</v>
+        <v>7453204</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22783,76 +22783,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F251" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G251" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251">
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K251">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="L251">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M251">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="N251">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O251">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P251">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="Q251">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R251">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S251">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T251">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U251">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V251">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W251">
         <v>-1</v>
       </c>
       <c r="X251">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y251">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB251">
         <v>-1</v>
       </c>
       <c r="AC251">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -23038,7 +23038,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7493428</v>
+        <v>7493427</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23050,76 +23050,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F254" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G254" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H254">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I254">
         <v>1</v>
       </c>
       <c r="J254" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K254">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L254">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M254">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N254">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O254">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P254">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q254">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R254">
+        <v>2.025</v>
+      </c>
+      <c r="S254">
         <v>1.775</v>
       </c>
-      <c r="S254">
-        <v>2.025</v>
-      </c>
       <c r="T254">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U254">
+        <v>1.975</v>
+      </c>
+      <c r="V254">
         <v>1.825</v>
       </c>
-      <c r="V254">
-        <v>1.975</v>
-      </c>
       <c r="W254">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X254">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y254">
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AA254">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB254">
+        <v>-1</v>
+      </c>
+      <c r="AC254">
         <v>0.825</v>
-      </c>
-      <c r="AC254">
-        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23127,7 +23127,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7493427</v>
+        <v>7493428</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23139,76 +23139,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F255" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G255" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I255">
         <v>1</v>
       </c>
       <c r="J255" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K255">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L255">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M255">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N255">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O255">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P255">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q255">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R255">
+        <v>1.775</v>
+      </c>
+      <c r="S255">
         <v>2.025</v>
       </c>
-      <c r="S255">
-        <v>1.775</v>
-      </c>
       <c r="T255">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U255">
+        <v>1.825</v>
+      </c>
+      <c r="V255">
         <v>1.975</v>
       </c>
-      <c r="V255">
-        <v>1.825</v>
-      </c>
       <c r="W255">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X255">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y255">
         <v>-1</v>
       </c>
       <c r="Z255">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA255">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB255">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC255">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23572,7 +23572,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7493310</v>
+        <v>7493431</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23584,76 +23584,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F260" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G260" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I260">
         <v>2</v>
       </c>
       <c r="J260" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K260">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="L260">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M260">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="N260">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="O260">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P260">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q260">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R260">
+        <v>1.925</v>
+      </c>
+      <c r="S260">
+        <v>1.875</v>
+      </c>
+      <c r="T260">
+        <v>2.5</v>
+      </c>
+      <c r="U260">
+        <v>2</v>
+      </c>
+      <c r="V260">
         <v>1.8</v>
       </c>
-      <c r="S260">
-        <v>2</v>
-      </c>
-      <c r="T260">
-        <v>2.75</v>
-      </c>
-      <c r="U260">
-        <v>1.8</v>
-      </c>
-      <c r="V260">
-        <v>2</v>
-      </c>
       <c r="W260">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X260">
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z260">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA260">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB260">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AC260">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23661,7 +23661,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7493431</v>
+        <v>7493310</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23673,76 +23673,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F261" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G261" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H261">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I261">
         <v>2</v>
       </c>
       <c r="J261" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K261">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="L261">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M261">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="N261">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="O261">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P261">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q261">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R261">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S261">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T261">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U261">
+        <v>1.8</v>
+      </c>
+      <c r="V261">
         <v>2</v>
       </c>
-      <c r="V261">
-        <v>1.8</v>
-      </c>
       <c r="W261">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X261">
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z261">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA261">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB261">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AC261">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23839,7 +23839,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7493312</v>
+        <v>7493311</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23851,76 +23851,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F263" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G263" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H263">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K263">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L263">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M263">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N263">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O263">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P263">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q263">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R263">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S263">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T263">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U263">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V263">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W263">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z263">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA263">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB263">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23928,7 +23928,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7493433</v>
+        <v>7493312</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23940,76 +23940,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F264" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G264" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K264">
+        <v>1.7</v>
+      </c>
+      <c r="L264">
+        <v>3.6</v>
+      </c>
+      <c r="M264">
+        <v>4.333</v>
+      </c>
+      <c r="N264">
+        <v>1.727</v>
+      </c>
+      <c r="O264">
+        <v>3.75</v>
+      </c>
+      <c r="P264">
+        <v>4.2</v>
+      </c>
+      <c r="Q264">
+        <v>-0.5</v>
+      </c>
+      <c r="R264">
+        <v>1.8</v>
+      </c>
+      <c r="S264">
+        <v>2</v>
+      </c>
+      <c r="T264">
         <v>2.75</v>
       </c>
-      <c r="L264">
-        <v>3.2</v>
-      </c>
-      <c r="M264">
-        <v>2.4</v>
-      </c>
-      <c r="N264">
-        <v>2.75</v>
-      </c>
-      <c r="O264">
-        <v>3.1</v>
-      </c>
-      <c r="P264">
-        <v>2.45</v>
-      </c>
-      <c r="Q264">
-        <v>0.25</v>
-      </c>
-      <c r="R264">
-        <v>1.75</v>
-      </c>
-      <c r="S264">
-        <v>2.05</v>
-      </c>
-      <c r="T264">
-        <v>2.25</v>
-      </c>
       <c r="U264">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V264">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W264">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X264">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA264">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB264">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC264">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24017,7 +24017,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7493311</v>
+        <v>7493433</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24029,76 +24029,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F265" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G265" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I265">
         <v>1</v>
       </c>
       <c r="J265" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K265">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="L265">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M265">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N265">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="O265">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P265">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q265">
         <v>0.25</v>
       </c>
       <c r="R265">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S265">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T265">
         <v>2.25</v>
       </c>
       <c r="U265">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V265">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W265">
         <v>-1</v>
       </c>
       <c r="X265">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y265">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z265">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA265">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB265">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC265">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -26687,7 +26687,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>7824499</v>
+        <v>7824496</v>
       </c>
       <c r="C295" t="s">
         <v>28</v>
@@ -26696,34 +26696,43 @@
         <v>28</v>
       </c>
       <c r="E295" s="2">
-        <v>45340.76041666666</v>
+        <v>45338.76041666666</v>
       </c>
       <c r="F295" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G295" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+      <c r="H295">
+        <v>0</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295" t="s">
+        <v>45</v>
       </c>
       <c r="K295">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="L295">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M295">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="N295">
-        <v>5.25</v>
+        <v>2.6</v>
       </c>
       <c r="O295">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="P295">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q295">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R295">
         <v>1.95</v>
@@ -26732,7 +26741,7 @@
         <v>1.85</v>
       </c>
       <c r="T295">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U295">
         <v>1.9</v>
@@ -26741,19 +26750,25 @@
         <v>1.9</v>
       </c>
       <c r="W295">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X295">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="Y295">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z295">
         <v>0</v>
       </c>
       <c r="AA295">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB295">
+        <v>-1</v>
+      </c>
+      <c r="AC295">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="296" spans="1:29">
@@ -26761,7 +26776,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>7824500</v>
+        <v>7824497</v>
       </c>
       <c r="C296" t="s">
         <v>28</v>
@@ -26770,64 +26785,79 @@
         <v>28</v>
       </c>
       <c r="E296" s="2">
-        <v>45340.86458333334</v>
+        <v>45338.86458333334</v>
       </c>
       <c r="F296" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G296" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="H296">
+        <v>1</v>
+      </c>
+      <c r="I296">
+        <v>3</v>
+      </c>
+      <c r="J296" t="s">
+        <v>44</v>
       </c>
       <c r="K296">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L296">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M296">
-        <v>3.75</v>
+        <v>2.55</v>
       </c>
       <c r="N296">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O296">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P296">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="Q296">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R296">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S296">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T296">
         <v>2.25</v>
       </c>
       <c r="U296">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V296">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W296">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X296">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y296">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Z296">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA296">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB296">
+        <v>0.825</v>
+      </c>
+      <c r="AC296">
+        <v>-1</v>
       </c>
     </row>
     <row r="297" spans="1:29">
@@ -26835,7 +26865,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>7824528</v>
+        <v>7824498</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26844,63 +26874,241 @@
         <v>28</v>
       </c>
       <c r="E297" s="2">
-        <v>45341.8125</v>
+        <v>45339.76041666666</v>
       </c>
       <c r="F297" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G297" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="H297">
+        <v>1</v>
+      </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
+      <c r="J297" t="s">
+        <v>45</v>
       </c>
       <c r="K297">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="L297">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M297">
-        <v>2.875</v>
+        <v>1.95</v>
       </c>
       <c r="N297">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="O297">
         <v>3.4</v>
       </c>
       <c r="P297">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q297">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R297">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S297">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T297">
         <v>2.5</v>
       </c>
       <c r="U297">
+        <v>1.925</v>
+      </c>
+      <c r="V297">
+        <v>1.875</v>
+      </c>
+      <c r="W297">
+        <v>-1</v>
+      </c>
+      <c r="X297">
+        <v>2.4</v>
+      </c>
+      <c r="Y297">
+        <v>-1</v>
+      </c>
+      <c r="Z297">
+        <v>0.825</v>
+      </c>
+      <c r="AA297">
+        <v>-1</v>
+      </c>
+      <c r="AB297">
+        <v>-1</v>
+      </c>
+      <c r="AC297">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="298" spans="1:29">
+      <c r="A298" s="1">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>7824499</v>
+      </c>
+      <c r="C298" t="s">
+        <v>28</v>
+      </c>
+      <c r="D298" t="s">
+        <v>28</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45340.76041666666</v>
+      </c>
+      <c r="F298" t="s">
+        <v>41</v>
+      </c>
+      <c r="G298" t="s">
+        <v>29</v>
+      </c>
+      <c r="H298">
+        <v>1</v>
+      </c>
+      <c r="I298">
         <v>2</v>
       </c>
-      <c r="V297">
+      <c r="J298" t="s">
+        <v>44</v>
+      </c>
+      <c r="K298">
+        <v>6</v>
+      </c>
+      <c r="L298">
+        <v>4</v>
+      </c>
+      <c r="M298">
+        <v>1.444</v>
+      </c>
+      <c r="N298">
+        <v>5.25</v>
+      </c>
+      <c r="O298">
+        <v>4.2</v>
+      </c>
+      <c r="P298">
+        <v>1.5</v>
+      </c>
+      <c r="Q298">
+        <v>1</v>
+      </c>
+      <c r="R298">
+        <v>1.975</v>
+      </c>
+      <c r="S298">
+        <v>1.825</v>
+      </c>
+      <c r="T298">
+        <v>2.75</v>
+      </c>
+      <c r="U298">
+        <v>1.9</v>
+      </c>
+      <c r="V298">
+        <v>1.9</v>
+      </c>
+      <c r="W298">
+        <v>-1</v>
+      </c>
+      <c r="X298">
+        <v>-1</v>
+      </c>
+      <c r="Y298">
+        <v>0.5</v>
+      </c>
+      <c r="Z298">
+        <v>0</v>
+      </c>
+      <c r="AA298">
+        <v>-0</v>
+      </c>
+      <c r="AB298">
+        <v>0.45</v>
+      </c>
+      <c r="AC298">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:29">
+      <c r="A299" s="1">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>7824528</v>
+      </c>
+      <c r="C299" t="s">
+        <v>28</v>
+      </c>
+      <c r="D299" t="s">
+        <v>28</v>
+      </c>
+      <c r="E299" s="2">
+        <v>45341.8125</v>
+      </c>
+      <c r="F299" t="s">
+        <v>35</v>
+      </c>
+      <c r="G299" t="s">
+        <v>42</v>
+      </c>
+      <c r="K299">
+        <v>2.25</v>
+      </c>
+      <c r="L299">
+        <v>3.25</v>
+      </c>
+      <c r="M299">
+        <v>2.875</v>
+      </c>
+      <c r="N299">
+        <v>1.95</v>
+      </c>
+      <c r="O299">
+        <v>3.4</v>
+      </c>
+      <c r="P299">
+        <v>3.5</v>
+      </c>
+      <c r="Q299">
+        <v>-0.5</v>
+      </c>
+      <c r="R299">
+        <v>2</v>
+      </c>
+      <c r="S299">
         <v>1.8</v>
       </c>
-      <c r="W297">
+      <c r="T299">
+        <v>2.5</v>
+      </c>
+      <c r="U299">
+        <v>2</v>
+      </c>
+      <c r="V299">
+        <v>1.8</v>
+      </c>
+      <c r="W299">
         <v>0</v>
       </c>
-      <c r="X297">
+      <c r="X299">
         <v>0</v>
       </c>
-      <c r="Y297">
+      <c r="Y299">
         <v>0</v>
       </c>
-      <c r="Z297">
+      <c r="Z299">
         <v>0</v>
       </c>
-      <c r="AA297">
+      <c r="AA299">
         <v>0</v>
       </c>
     </row>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -10222,7 +10222,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6664683</v>
+        <v>6664682</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10234,76 +10234,76 @@
         <v>45066.79166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H110">
         <v>1</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K110">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L110">
+        <v>3.3</v>
+      </c>
+      <c r="M110">
+        <v>3.5</v>
+      </c>
+      <c r="N110">
+        <v>1.7</v>
+      </c>
+      <c r="O110">
+        <v>3.6</v>
+      </c>
+      <c r="P110">
         <v>4.5</v>
       </c>
-      <c r="M110">
-        <v>7</v>
-      </c>
-      <c r="N110">
-        <v>1.45</v>
-      </c>
-      <c r="O110">
-        <v>4.2</v>
-      </c>
-      <c r="P110">
-        <v>6</v>
-      </c>
       <c r="Q110">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R110">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S110">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T110">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U110">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V110">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA110">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB110">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10311,7 +10311,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6664682</v>
+        <v>6664683</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10323,76 +10323,76 @@
         <v>45066.79166666666</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K111">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L111">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M111">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N111">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="O111">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P111">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="Q111">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R111">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S111">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T111">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W111">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z111">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
+        <v>0.8</v>
+      </c>
+      <c r="AB111">
+        <v>0.3875</v>
+      </c>
+      <c r="AC111">
         <v>-0.5</v>
-      </c>
-      <c r="AB111">
-        <v>-1</v>
-      </c>
-      <c r="AC111">
-        <v>0.95</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10400,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6664684</v>
+        <v>6664685</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10412,76 +10412,76 @@
         <v>45068.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
         <v>0</v>
       </c>
-      <c r="I112">
-        <v>2</v>
-      </c>
       <c r="J112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L112">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M112">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="N112">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O112">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P112">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
+        <v>1.925</v>
+      </c>
+      <c r="S112">
+        <v>1.875</v>
+      </c>
+      <c r="T112">
+        <v>2.25</v>
+      </c>
+      <c r="U112">
         <v>1.85</v>
       </c>
-      <c r="S112">
+      <c r="V112">
         <v>1.95</v>
       </c>
-      <c r="T112">
-        <v>2.5</v>
-      </c>
-      <c r="U112">
-        <v>1.825</v>
-      </c>
-      <c r="V112">
-        <v>1.975</v>
-      </c>
       <c r="W112">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA112">
+        <v>-1</v>
+      </c>
+      <c r="AB112">
+        <v>-1</v>
+      </c>
+      <c r="AC112">
         <v>0.95</v>
-      </c>
-      <c r="AB112">
-        <v>-1</v>
-      </c>
-      <c r="AC112">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10489,7 +10489,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6664685</v>
+        <v>6664684</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10501,76 +10501,76 @@
         <v>45068.45833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113">
+        <v>2</v>
+      </c>
+      <c r="J113" t="s">
+        <v>44</v>
+      </c>
+      <c r="K113">
+        <v>1.909</v>
+      </c>
+      <c r="L113">
+        <v>3.3</v>
+      </c>
+      <c r="M113">
+        <v>3.6</v>
+      </c>
+      <c r="N113">
+        <v>2.375</v>
+      </c>
+      <c r="O113">
+        <v>3.3</v>
+      </c>
+      <c r="P113">
+        <v>2.625</v>
+      </c>
+      <c r="Q113">
         <v>0</v>
       </c>
-      <c r="J113" t="s">
-        <v>43</v>
-      </c>
-      <c r="K113">
-        <v>2.625</v>
-      </c>
-      <c r="L113">
-        <v>3.1</v>
-      </c>
-      <c r="M113">
+      <c r="R113">
+        <v>1.85</v>
+      </c>
+      <c r="S113">
+        <v>1.95</v>
+      </c>
+      <c r="T113">
         <v>2.5</v>
       </c>
-      <c r="N113">
-        <v>2.3</v>
-      </c>
-      <c r="O113">
-        <v>3.2</v>
-      </c>
-      <c r="P113">
-        <v>2.8</v>
-      </c>
-      <c r="Q113">
-        <v>-0.25</v>
-      </c>
-      <c r="R113">
-        <v>1.925</v>
-      </c>
-      <c r="S113">
-        <v>1.875</v>
-      </c>
-      <c r="T113">
-        <v>2.25</v>
-      </c>
       <c r="U113">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V113">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W113">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -23038,7 +23038,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7493427</v>
+        <v>7493428</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23050,76 +23050,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F254" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G254" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I254">
         <v>1</v>
       </c>
       <c r="J254" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K254">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L254">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M254">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N254">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O254">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P254">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q254">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R254">
+        <v>1.775</v>
+      </c>
+      <c r="S254">
         <v>2.025</v>
       </c>
-      <c r="S254">
-        <v>1.775</v>
-      </c>
       <c r="T254">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U254">
+        <v>1.825</v>
+      </c>
+      <c r="V254">
         <v>1.975</v>
       </c>
-      <c r="V254">
-        <v>1.825</v>
-      </c>
       <c r="W254">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X254">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y254">
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA254">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB254">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC254">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23127,7 +23127,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7493428</v>
+        <v>7493427</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23139,76 +23139,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F255" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G255" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H255">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I255">
         <v>1</v>
       </c>
       <c r="J255" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K255">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L255">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M255">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N255">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O255">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P255">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q255">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R255">
+        <v>2.025</v>
+      </c>
+      <c r="S255">
         <v>1.775</v>
       </c>
-      <c r="S255">
-        <v>2.025</v>
-      </c>
       <c r="T255">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U255">
+        <v>1.975</v>
+      </c>
+      <c r="V255">
         <v>1.825</v>
       </c>
-      <c r="V255">
-        <v>1.975</v>
-      </c>
       <c r="W255">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X255">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y255">
         <v>-1</v>
       </c>
       <c r="Z255">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AA255">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB255">
+        <v>-1</v>
+      </c>
+      <c r="AC255">
         <v>0.825</v>
-      </c>
-      <c r="AC255">
-        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23928,7 +23928,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7493312</v>
+        <v>7493433</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23940,76 +23940,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F264" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G264" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H264">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J264" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K264">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L264">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M264">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N264">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="O264">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P264">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q264">
+        <v>0.25</v>
+      </c>
+      <c r="R264">
+        <v>1.75</v>
+      </c>
+      <c r="S264">
+        <v>2.05</v>
+      </c>
+      <c r="T264">
+        <v>2.25</v>
+      </c>
+      <c r="U264">
+        <v>2</v>
+      </c>
+      <c r="V264">
+        <v>1.8</v>
+      </c>
+      <c r="W264">
+        <v>-1</v>
+      </c>
+      <c r="X264">
+        <v>2.1</v>
+      </c>
+      <c r="Y264">
+        <v>-1</v>
+      </c>
+      <c r="Z264">
+        <v>0.375</v>
+      </c>
+      <c r="AA264">
         <v>-0.5</v>
       </c>
-      <c r="R264">
-        <v>1.8</v>
-      </c>
-      <c r="S264">
-        <v>2</v>
-      </c>
-      <c r="T264">
-        <v>2.75</v>
-      </c>
-      <c r="U264">
-        <v>1.875</v>
-      </c>
-      <c r="V264">
-        <v>1.925</v>
-      </c>
-      <c r="W264">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X264">
-        <v>-1</v>
-      </c>
-      <c r="Y264">
-        <v>-1</v>
-      </c>
-      <c r="Z264">
-        <v>0.8</v>
-      </c>
-      <c r="AA264">
-        <v>-1</v>
-      </c>
       <c r="AB264">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC264">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24017,7 +24017,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7493433</v>
+        <v>7493312</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24029,76 +24029,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F265" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G265" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J265" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K265">
+        <v>1.7</v>
+      </c>
+      <c r="L265">
+        <v>3.6</v>
+      </c>
+      <c r="M265">
+        <v>4.333</v>
+      </c>
+      <c r="N265">
+        <v>1.727</v>
+      </c>
+      <c r="O265">
+        <v>3.75</v>
+      </c>
+      <c r="P265">
+        <v>4.2</v>
+      </c>
+      <c r="Q265">
+        <v>-0.5</v>
+      </c>
+      <c r="R265">
+        <v>1.8</v>
+      </c>
+      <c r="S265">
+        <v>2</v>
+      </c>
+      <c r="T265">
         <v>2.75</v>
       </c>
-      <c r="L265">
-        <v>3.2</v>
-      </c>
-      <c r="M265">
-        <v>2.4</v>
-      </c>
-      <c r="N265">
-        <v>2.75</v>
-      </c>
-      <c r="O265">
-        <v>3.1</v>
-      </c>
-      <c r="P265">
-        <v>2.45</v>
-      </c>
-      <c r="Q265">
-        <v>0.25</v>
-      </c>
-      <c r="R265">
-        <v>1.75</v>
-      </c>
-      <c r="S265">
-        <v>2.05</v>
-      </c>
-      <c r="T265">
-        <v>2.25</v>
-      </c>
       <c r="U265">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V265">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W265">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X265">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y265">
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA265">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB265">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC265">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -27043,7 +27043,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>7824528</v>
+        <v>7824500</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27052,64 +27052,79 @@
         <v>28</v>
       </c>
       <c r="E299" s="2">
-        <v>45341.8125</v>
+        <v>45340.86458333334</v>
       </c>
       <c r="F299" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G299" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="H299">
+        <v>2</v>
+      </c>
+      <c r="I299">
+        <v>1</v>
+      </c>
+      <c r="J299" t="s">
+        <v>43</v>
       </c>
       <c r="K299">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="L299">
         <v>3.25</v>
       </c>
       <c r="M299">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="N299">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O299">
+        <v>3.25</v>
+      </c>
+      <c r="P299">
         <v>3.4</v>
       </c>
-      <c r="P299">
-        <v>3.5</v>
-      </c>
       <c r="Q299">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R299">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S299">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T299">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U299">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V299">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X299">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y299">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z299">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA299">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB299">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC299">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC299"/>
+  <dimension ref="A1:AC306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10222,7 +10222,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6664682</v>
+        <v>6664683</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10234,76 +10234,76 @@
         <v>45066.79166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H110">
         <v>1</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K110">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L110">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M110">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N110">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="O110">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P110">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="Q110">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R110">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W110">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z110">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
+        <v>0.8</v>
+      </c>
+      <c r="AB110">
+        <v>0.3875</v>
+      </c>
+      <c r="AC110">
         <v>-0.5</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
-      <c r="AC110">
-        <v>0.95</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10311,7 +10311,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6664683</v>
+        <v>6664682</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10323,76 +10323,76 @@
         <v>45066.79166666666</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K111">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L111">
+        <v>3.3</v>
+      </c>
+      <c r="M111">
+        <v>3.5</v>
+      </c>
+      <c r="N111">
+        <v>1.7</v>
+      </c>
+      <c r="O111">
+        <v>3.6</v>
+      </c>
+      <c r="P111">
         <v>4.5</v>
       </c>
-      <c r="M111">
-        <v>7</v>
-      </c>
-      <c r="N111">
-        <v>1.45</v>
-      </c>
-      <c r="O111">
-        <v>4.2</v>
-      </c>
-      <c r="P111">
-        <v>6</v>
-      </c>
       <c r="Q111">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T111">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA111">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB111">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -11290,7 +11290,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6720873</v>
+        <v>6720844</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11302,73 +11302,73 @@
         <v>45079.85416666666</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122">
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K122">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="L122">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M122">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N122">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O122">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P122">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R122">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S122">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T122">
         <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V122">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AB122">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -11379,7 +11379,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6720844</v>
+        <v>6720873</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11391,73 +11391,73 @@
         <v>45079.85416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123">
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K123">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="L123">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M123">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N123">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O123">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P123">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q123">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S123">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T123">
         <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V123">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA123">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
       <c r="AB123">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC123">
         <v>-1</v>
@@ -22682,7 +22682,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7454842</v>
+        <v>7453204</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22694,76 +22694,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F250" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G250" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I250">
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K250">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="L250">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M250">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="N250">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O250">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P250">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="Q250">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R250">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S250">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T250">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U250">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V250">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W250">
         <v>-1</v>
       </c>
       <c r="X250">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y250">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z250">
         <v>-1</v>
       </c>
       <c r="AA250">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB250">
         <v>-1</v>
       </c>
       <c r="AC250">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22771,7 +22771,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7453204</v>
+        <v>7454842</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22783,76 +22783,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F251" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G251" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251">
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K251">
-        <v>1.285</v>
+        <v>4</v>
       </c>
       <c r="L251">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M251">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="N251">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O251">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P251">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="Q251">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R251">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S251">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T251">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U251">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V251">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W251">
         <v>-1</v>
       </c>
       <c r="X251">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y251">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB251">
         <v>-1</v>
       </c>
       <c r="AC251">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -23038,7 +23038,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7493428</v>
+        <v>7493427</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23050,76 +23050,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F254" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G254" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H254">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I254">
         <v>1</v>
       </c>
       <c r="J254" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K254">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L254">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M254">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N254">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O254">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P254">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q254">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R254">
+        <v>2.025</v>
+      </c>
+      <c r="S254">
         <v>1.775</v>
       </c>
-      <c r="S254">
-        <v>2.025</v>
-      </c>
       <c r="T254">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U254">
+        <v>1.975</v>
+      </c>
+      <c r="V254">
         <v>1.825</v>
       </c>
-      <c r="V254">
-        <v>1.975</v>
-      </c>
       <c r="W254">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X254">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y254">
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AA254">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB254">
+        <v>-1</v>
+      </c>
+      <c r="AC254">
         <v>0.825</v>
-      </c>
-      <c r="AC254">
-        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23127,7 +23127,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7493427</v>
+        <v>7493428</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23139,76 +23139,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F255" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G255" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I255">
         <v>1</v>
       </c>
       <c r="J255" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K255">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L255">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M255">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N255">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O255">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P255">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q255">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R255">
+        <v>1.775</v>
+      </c>
+      <c r="S255">
         <v>2.025</v>
       </c>
-      <c r="S255">
-        <v>1.775</v>
-      </c>
       <c r="T255">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U255">
+        <v>1.825</v>
+      </c>
+      <c r="V255">
         <v>1.975</v>
       </c>
-      <c r="V255">
-        <v>1.825</v>
-      </c>
       <c r="W255">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X255">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y255">
         <v>-1</v>
       </c>
       <c r="Z255">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA255">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB255">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC255">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23305,7 +23305,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>7499440</v>
+        <v>7499442</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23317,55 +23317,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F257" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G257" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J257" t="s">
         <v>44</v>
       </c>
       <c r="K257">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L257">
         <v>3.4</v>
       </c>
       <c r="M257">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N257">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O257">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P257">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q257">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R257">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S257">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T257">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U257">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V257">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W257">
         <v>-1</v>
@@ -23374,19 +23374,19 @@
         <v>-1</v>
       </c>
       <c r="Y257">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="Z257">
         <v>-1</v>
       </c>
       <c r="AA257">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB257">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC257">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="258" spans="1:29">
@@ -23394,7 +23394,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>7499442</v>
+        <v>7499440</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23406,55 +23406,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F258" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G258" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I258">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J258" t="s">
         <v>44</v>
       </c>
       <c r="K258">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L258">
         <v>3.4</v>
       </c>
       <c r="M258">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N258">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O258">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P258">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q258">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R258">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S258">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T258">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U258">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V258">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W258">
         <v>-1</v>
@@ -23463,19 +23463,19 @@
         <v>-1</v>
       </c>
       <c r="Y258">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="Z258">
         <v>-1</v>
       </c>
       <c r="AA258">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB258">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC258">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="259" spans="1:29">
@@ -23839,7 +23839,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7493311</v>
+        <v>7493312</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23851,76 +23851,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F263" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G263" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H263">
+        <v>4</v>
+      </c>
+      <c r="I263">
         <v>0</v>
       </c>
-      <c r="I263">
-        <v>1</v>
-      </c>
       <c r="J263" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K263">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L263">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M263">
+        <v>4.333</v>
+      </c>
+      <c r="N263">
+        <v>1.727</v>
+      </c>
+      <c r="O263">
+        <v>3.75</v>
+      </c>
+      <c r="P263">
+        <v>4.2</v>
+      </c>
+      <c r="Q263">
+        <v>-0.5</v>
+      </c>
+      <c r="R263">
+        <v>1.8</v>
+      </c>
+      <c r="S263">
         <v>2</v>
       </c>
-      <c r="N263">
-        <v>3.2</v>
-      </c>
-      <c r="O263">
-        <v>3.25</v>
-      </c>
-      <c r="P263">
-        <v>2.1</v>
-      </c>
-      <c r="Q263">
-        <v>0.25</v>
-      </c>
-      <c r="R263">
-        <v>1.95</v>
-      </c>
-      <c r="S263">
-        <v>1.85</v>
-      </c>
       <c r="T263">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U263">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V263">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W263">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA263">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB263">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC263">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -24017,7 +24017,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7493312</v>
+        <v>7493311</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24029,76 +24029,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F265" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G265" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H265">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J265" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K265">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L265">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M265">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N265">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O265">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P265">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q265">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R265">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S265">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T265">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U265">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V265">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W265">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X265">
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z265">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA265">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB265">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC265">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -27125,6 +27125,539 @@
       </c>
       <c r="AC299">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:29">
+      <c r="A300" s="1">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>7824528</v>
+      </c>
+      <c r="C300" t="s">
+        <v>28</v>
+      </c>
+      <c r="D300" t="s">
+        <v>28</v>
+      </c>
+      <c r="E300" s="2">
+        <v>45341.8125</v>
+      </c>
+      <c r="F300" t="s">
+        <v>35</v>
+      </c>
+      <c r="G300" t="s">
+        <v>42</v>
+      </c>
+      <c r="H300">
+        <v>1</v>
+      </c>
+      <c r="I300">
+        <v>1</v>
+      </c>
+      <c r="J300" t="s">
+        <v>45</v>
+      </c>
+      <c r="K300">
+        <v>2.25</v>
+      </c>
+      <c r="L300">
+        <v>3.25</v>
+      </c>
+      <c r="M300">
+        <v>2.875</v>
+      </c>
+      <c r="N300">
+        <v>2.15</v>
+      </c>
+      <c r="O300">
+        <v>3.3</v>
+      </c>
+      <c r="P300">
+        <v>3.1</v>
+      </c>
+      <c r="Q300">
+        <v>-0.25</v>
+      </c>
+      <c r="R300">
+        <v>1.875</v>
+      </c>
+      <c r="S300">
+        <v>1.925</v>
+      </c>
+      <c r="T300">
+        <v>2.25</v>
+      </c>
+      <c r="U300">
+        <v>1.775</v>
+      </c>
+      <c r="V300">
+        <v>2.025</v>
+      </c>
+      <c r="W300">
+        <v>-1</v>
+      </c>
+      <c r="X300">
+        <v>2.3</v>
+      </c>
+      <c r="Y300">
+        <v>-1</v>
+      </c>
+      <c r="Z300">
+        <v>-0.5</v>
+      </c>
+      <c r="AA300">
+        <v>0.4625</v>
+      </c>
+      <c r="AB300">
+        <v>-0.5</v>
+      </c>
+      <c r="AC300">
+        <v>0.5125</v>
+      </c>
+    </row>
+    <row r="301" spans="1:29">
+      <c r="A301" s="1">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>7609136</v>
+      </c>
+      <c r="C301" t="s">
+        <v>28</v>
+      </c>
+      <c r="D301" t="s">
+        <v>28</v>
+      </c>
+      <c r="E301" s="2">
+        <v>45345.8125</v>
+      </c>
+      <c r="F301" t="s">
+        <v>38</v>
+      </c>
+      <c r="G301" t="s">
+        <v>32</v>
+      </c>
+      <c r="K301">
+        <v>1.7</v>
+      </c>
+      <c r="L301">
+        <v>3.5</v>
+      </c>
+      <c r="M301">
+        <v>4.5</v>
+      </c>
+      <c r="N301">
+        <v>1.7</v>
+      </c>
+      <c r="O301">
+        <v>3.5</v>
+      </c>
+      <c r="P301">
+        <v>4.5</v>
+      </c>
+      <c r="Q301">
+        <v>-0.75</v>
+      </c>
+      <c r="R301">
+        <v>1.925</v>
+      </c>
+      <c r="S301">
+        <v>1.875</v>
+      </c>
+      <c r="T301">
+        <v>2.25</v>
+      </c>
+      <c r="U301">
+        <v>1.9</v>
+      </c>
+      <c r="V301">
+        <v>1.9</v>
+      </c>
+      <c r="W301">
+        <v>0</v>
+      </c>
+      <c r="X301">
+        <v>0</v>
+      </c>
+      <c r="Y301">
+        <v>0</v>
+      </c>
+      <c r="Z301">
+        <v>0</v>
+      </c>
+      <c r="AA301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:29">
+      <c r="A302" s="1">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>7609676</v>
+      </c>
+      <c r="C302" t="s">
+        <v>28</v>
+      </c>
+      <c r="D302" t="s">
+        <v>28</v>
+      </c>
+      <c r="E302" s="2">
+        <v>45346.76041666666</v>
+      </c>
+      <c r="F302" t="s">
+        <v>42</v>
+      </c>
+      <c r="G302" t="s">
+        <v>40</v>
+      </c>
+      <c r="K302">
+        <v>2.7</v>
+      </c>
+      <c r="L302">
+        <v>3.2</v>
+      </c>
+      <c r="M302">
+        <v>2.4</v>
+      </c>
+      <c r="N302">
+        <v>2.3</v>
+      </c>
+      <c r="O302">
+        <v>3.25</v>
+      </c>
+      <c r="P302">
+        <v>2.8</v>
+      </c>
+      <c r="Q302">
+        <v>-0.25</v>
+      </c>
+      <c r="R302">
+        <v>2.025</v>
+      </c>
+      <c r="S302">
+        <v>1.775</v>
+      </c>
+      <c r="T302">
+        <v>2.25</v>
+      </c>
+      <c r="U302">
+        <v>1.85</v>
+      </c>
+      <c r="V302">
+        <v>1.95</v>
+      </c>
+      <c r="W302">
+        <v>0</v>
+      </c>
+      <c r="X302">
+        <v>0</v>
+      </c>
+      <c r="Y302">
+        <v>0</v>
+      </c>
+      <c r="Z302">
+        <v>0</v>
+      </c>
+      <c r="AA302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:29">
+      <c r="A303" s="1">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>7609191</v>
+      </c>
+      <c r="C303" t="s">
+        <v>28</v>
+      </c>
+      <c r="D303" t="s">
+        <v>28</v>
+      </c>
+      <c r="E303" s="2">
+        <v>45346.86458333334</v>
+      </c>
+      <c r="F303" t="s">
+        <v>33</v>
+      </c>
+      <c r="G303" t="s">
+        <v>41</v>
+      </c>
+      <c r="K303">
+        <v>1.45</v>
+      </c>
+      <c r="L303">
+        <v>4</v>
+      </c>
+      <c r="M303">
+        <v>6</v>
+      </c>
+      <c r="N303">
+        <v>1.363</v>
+      </c>
+      <c r="O303">
+        <v>4.5</v>
+      </c>
+      <c r="P303">
+        <v>7.5</v>
+      </c>
+      <c r="Q303">
+        <v>-1.25</v>
+      </c>
+      <c r="R303">
+        <v>1.825</v>
+      </c>
+      <c r="S303">
+        <v>1.975</v>
+      </c>
+      <c r="T303">
+        <v>2.75</v>
+      </c>
+      <c r="U303">
+        <v>1.95</v>
+      </c>
+      <c r="V303">
+        <v>1.85</v>
+      </c>
+      <c r="W303">
+        <v>0</v>
+      </c>
+      <c r="X303">
+        <v>0</v>
+      </c>
+      <c r="Y303">
+        <v>0</v>
+      </c>
+      <c r="Z303">
+        <v>0</v>
+      </c>
+      <c r="AA303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:29">
+      <c r="A304" s="1">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>7609135</v>
+      </c>
+      <c r="C304" t="s">
+        <v>28</v>
+      </c>
+      <c r="D304" t="s">
+        <v>28</v>
+      </c>
+      <c r="E304" s="2">
+        <v>45347.76041666666</v>
+      </c>
+      <c r="F304" t="s">
+        <v>30</v>
+      </c>
+      <c r="G304" t="s">
+        <v>39</v>
+      </c>
+      <c r="K304">
+        <v>2.7</v>
+      </c>
+      <c r="L304">
+        <v>3.2</v>
+      </c>
+      <c r="M304">
+        <v>2.4</v>
+      </c>
+      <c r="N304">
+        <v>2.2</v>
+      </c>
+      <c r="O304">
+        <v>3.2</v>
+      </c>
+      <c r="P304">
+        <v>3</v>
+      </c>
+      <c r="Q304">
+        <v>-0.25</v>
+      </c>
+      <c r="R304">
+        <v>2</v>
+      </c>
+      <c r="S304">
+        <v>1.8</v>
+      </c>
+      <c r="T304">
+        <v>2.5</v>
+      </c>
+      <c r="U304">
+        <v>1.9</v>
+      </c>
+      <c r="V304">
+        <v>1.9</v>
+      </c>
+      <c r="W304">
+        <v>0</v>
+      </c>
+      <c r="X304">
+        <v>0</v>
+      </c>
+      <c r="Y304">
+        <v>0</v>
+      </c>
+      <c r="Z304">
+        <v>0</v>
+      </c>
+      <c r="AA304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:27">
+      <c r="A305" s="1">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>7609137</v>
+      </c>
+      <c r="C305" t="s">
+        <v>28</v>
+      </c>
+      <c r="D305" t="s">
+        <v>28</v>
+      </c>
+      <c r="E305" s="2">
+        <v>45347.86458333334</v>
+      </c>
+      <c r="F305" t="s">
+        <v>36</v>
+      </c>
+      <c r="G305" t="s">
+        <v>34</v>
+      </c>
+      <c r="K305">
+        <v>2.6</v>
+      </c>
+      <c r="L305">
+        <v>3.2</v>
+      </c>
+      <c r="M305">
+        <v>2.5</v>
+      </c>
+      <c r="N305">
+        <v>2.8</v>
+      </c>
+      <c r="O305">
+        <v>3.2</v>
+      </c>
+      <c r="P305">
+        <v>2.375</v>
+      </c>
+      <c r="Q305">
+        <v>0</v>
+      </c>
+      <c r="R305">
+        <v>2.05</v>
+      </c>
+      <c r="S305">
+        <v>1.75</v>
+      </c>
+      <c r="T305">
+        <v>2.25</v>
+      </c>
+      <c r="U305">
+        <v>1.825</v>
+      </c>
+      <c r="V305">
+        <v>1.975</v>
+      </c>
+      <c r="W305">
+        <v>0</v>
+      </c>
+      <c r="X305">
+        <v>0</v>
+      </c>
+      <c r="Y305">
+        <v>0</v>
+      </c>
+      <c r="Z305">
+        <v>0</v>
+      </c>
+      <c r="AA305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:27">
+      <c r="A306" s="1">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>7609192</v>
+      </c>
+      <c r="C306" t="s">
+        <v>28</v>
+      </c>
+      <c r="D306" t="s">
+        <v>28</v>
+      </c>
+      <c r="E306" s="2">
+        <v>45348.8125</v>
+      </c>
+      <c r="F306" t="s">
+        <v>29</v>
+      </c>
+      <c r="G306" t="s">
+        <v>35</v>
+      </c>
+      <c r="K306">
+        <v>1.363</v>
+      </c>
+      <c r="L306">
+        <v>4.333</v>
+      </c>
+      <c r="M306">
+        <v>7.5</v>
+      </c>
+      <c r="N306">
+        <v>1.363</v>
+      </c>
+      <c r="O306">
+        <v>4.333</v>
+      </c>
+      <c r="P306">
+        <v>7.5</v>
+      </c>
+      <c r="Q306">
+        <v>-1.25</v>
+      </c>
+      <c r="R306">
+        <v>1.825</v>
+      </c>
+      <c r="S306">
+        <v>1.975</v>
+      </c>
+      <c r="T306">
+        <v>2.75</v>
+      </c>
+      <c r="U306">
+        <v>1.9</v>
+      </c>
+      <c r="V306">
+        <v>1.9</v>
+      </c>
+      <c r="W306">
+        <v>0</v>
+      </c>
+      <c r="X306">
+        <v>0</v>
+      </c>
+      <c r="Y306">
+        <v>0</v>
+      </c>
+      <c r="Z306">
+        <v>0</v>
+      </c>
+      <c r="AA306">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -10222,7 +10222,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6664683</v>
+        <v>6664682</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10234,76 +10234,76 @@
         <v>45066.79166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H110">
         <v>1</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K110">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L110">
+        <v>3.3</v>
+      </c>
+      <c r="M110">
+        <v>3.5</v>
+      </c>
+      <c r="N110">
+        <v>1.7</v>
+      </c>
+      <c r="O110">
+        <v>3.6</v>
+      </c>
+      <c r="P110">
         <v>4.5</v>
       </c>
-      <c r="M110">
-        <v>7</v>
-      </c>
-      <c r="N110">
-        <v>1.45</v>
-      </c>
-      <c r="O110">
-        <v>4.2</v>
-      </c>
-      <c r="P110">
-        <v>6</v>
-      </c>
       <c r="Q110">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R110">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S110">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T110">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U110">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V110">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA110">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB110">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10311,7 +10311,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6664682</v>
+        <v>6664683</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10323,76 +10323,76 @@
         <v>45066.79166666666</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K111">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L111">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M111">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N111">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="O111">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P111">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="Q111">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R111">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S111">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T111">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W111">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z111">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
+        <v>0.8</v>
+      </c>
+      <c r="AB111">
+        <v>0.3875</v>
+      </c>
+      <c r="AC111">
         <v>-0.5</v>
-      </c>
-      <c r="AB111">
-        <v>-1</v>
-      </c>
-      <c r="AC111">
-        <v>0.95</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -11290,7 +11290,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6720844</v>
+        <v>6720873</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11302,73 +11302,73 @@
         <v>45079.85416666666</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122">
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K122">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="L122">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M122">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N122">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O122">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P122">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q122">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S122">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T122">
         <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V122">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA122">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
       <c r="AB122">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -11379,7 +11379,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6720873</v>
+        <v>6720844</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11391,73 +11391,73 @@
         <v>45079.85416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G123" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123">
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K123">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="L123">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M123">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N123">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O123">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P123">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R123">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S123">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T123">
         <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V123">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z123">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AB123">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC123">
         <v>-1</v>
@@ -23572,7 +23572,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7493431</v>
+        <v>7493310</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23584,76 +23584,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F260" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G260" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H260">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I260">
         <v>2</v>
       </c>
       <c r="J260" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K260">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="L260">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M260">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="N260">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="O260">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P260">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q260">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R260">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S260">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T260">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U260">
+        <v>1.8</v>
+      </c>
+      <c r="V260">
         <v>2</v>
       </c>
-      <c r="V260">
-        <v>1.8</v>
-      </c>
       <c r="W260">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X260">
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z260">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA260">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB260">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AC260">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23661,7 +23661,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7493310</v>
+        <v>7493431</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23673,76 +23673,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F261" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G261" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I261">
         <v>2</v>
       </c>
       <c r="J261" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K261">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="L261">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M261">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="N261">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="O261">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P261">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q261">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R261">
+        <v>1.925</v>
+      </c>
+      <c r="S261">
+        <v>1.875</v>
+      </c>
+      <c r="T261">
+        <v>2.5</v>
+      </c>
+      <c r="U261">
+        <v>2</v>
+      </c>
+      <c r="V261">
         <v>1.8</v>
       </c>
-      <c r="S261">
-        <v>2</v>
-      </c>
-      <c r="T261">
-        <v>2.75</v>
-      </c>
-      <c r="U261">
-        <v>1.8</v>
-      </c>
-      <c r="V261">
-        <v>2</v>
-      </c>
       <c r="W261">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X261">
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z261">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA261">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB261">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AC261">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23839,7 +23839,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7493312</v>
+        <v>7493433</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23851,76 +23851,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F263" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G263" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H263">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K263">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L263">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M263">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N263">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="O263">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P263">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q263">
+        <v>0.25</v>
+      </c>
+      <c r="R263">
+        <v>1.75</v>
+      </c>
+      <c r="S263">
+        <v>2.05</v>
+      </c>
+      <c r="T263">
+        <v>2.25</v>
+      </c>
+      <c r="U263">
+        <v>2</v>
+      </c>
+      <c r="V263">
+        <v>1.8</v>
+      </c>
+      <c r="W263">
+        <v>-1</v>
+      </c>
+      <c r="X263">
+        <v>2.1</v>
+      </c>
+      <c r="Y263">
+        <v>-1</v>
+      </c>
+      <c r="Z263">
+        <v>0.375</v>
+      </c>
+      <c r="AA263">
         <v>-0.5</v>
       </c>
-      <c r="R263">
-        <v>1.8</v>
-      </c>
-      <c r="S263">
-        <v>2</v>
-      </c>
-      <c r="T263">
-        <v>2.75</v>
-      </c>
-      <c r="U263">
-        <v>1.875</v>
-      </c>
-      <c r="V263">
-        <v>1.925</v>
-      </c>
-      <c r="W263">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X263">
-        <v>-1</v>
-      </c>
-      <c r="Y263">
-        <v>-1</v>
-      </c>
-      <c r="Z263">
-        <v>0.8</v>
-      </c>
-      <c r="AA263">
-        <v>-1</v>
-      </c>
       <c r="AB263">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC263">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23928,7 +23928,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7493433</v>
+        <v>7493312</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23940,76 +23940,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F264" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G264" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K264">
+        <v>1.7</v>
+      </c>
+      <c r="L264">
+        <v>3.6</v>
+      </c>
+      <c r="M264">
+        <v>4.333</v>
+      </c>
+      <c r="N264">
+        <v>1.727</v>
+      </c>
+      <c r="O264">
+        <v>3.75</v>
+      </c>
+      <c r="P264">
+        <v>4.2</v>
+      </c>
+      <c r="Q264">
+        <v>-0.5</v>
+      </c>
+      <c r="R264">
+        <v>1.8</v>
+      </c>
+      <c r="S264">
+        <v>2</v>
+      </c>
+      <c r="T264">
         <v>2.75</v>
       </c>
-      <c r="L264">
-        <v>3.2</v>
-      </c>
-      <c r="M264">
-        <v>2.4</v>
-      </c>
-      <c r="N264">
-        <v>2.75</v>
-      </c>
-      <c r="O264">
-        <v>3.1</v>
-      </c>
-      <c r="P264">
-        <v>2.45</v>
-      </c>
-      <c r="Q264">
-        <v>0.25</v>
-      </c>
-      <c r="R264">
-        <v>1.75</v>
-      </c>
-      <c r="S264">
-        <v>2.05</v>
-      </c>
-      <c r="T264">
-        <v>2.25</v>
-      </c>
       <c r="U264">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V264">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W264">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X264">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y264">
         <v>-1</v>
       </c>
       <c r="Z264">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA264">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB264">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC264">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -27260,10 +27260,10 @@
         <v>-0.75</v>
       </c>
       <c r="R301">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S301">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T301">
         <v>2.25</v>
@@ -27470,31 +27470,31 @@
         <v>2.4</v>
       </c>
       <c r="N304">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="O304">
         <v>3.2</v>
       </c>
       <c r="P304">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="Q304">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R304">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S304">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T304">
         <v>2.5</v>
       </c>
       <c r="U304">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V304">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W304">
         <v>0</v>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -10222,7 +10222,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6664682</v>
+        <v>6664683</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10234,76 +10234,76 @@
         <v>45066.79166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H110">
         <v>1</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K110">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L110">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M110">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N110">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="O110">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P110">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="Q110">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R110">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W110">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z110">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
+        <v>0.8</v>
+      </c>
+      <c r="AB110">
+        <v>0.3875</v>
+      </c>
+      <c r="AC110">
         <v>-0.5</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
-      <c r="AC110">
-        <v>0.95</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10311,7 +10311,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6664683</v>
+        <v>6664682</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10323,76 +10323,76 @@
         <v>45066.79166666666</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K111">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L111">
+        <v>3.3</v>
+      </c>
+      <c r="M111">
+        <v>3.5</v>
+      </c>
+      <c r="N111">
+        <v>1.7</v>
+      </c>
+      <c r="O111">
+        <v>3.6</v>
+      </c>
+      <c r="P111">
         <v>4.5</v>
       </c>
-      <c r="M111">
-        <v>7</v>
-      </c>
-      <c r="N111">
-        <v>1.45</v>
-      </c>
-      <c r="O111">
-        <v>4.2</v>
-      </c>
-      <c r="P111">
-        <v>6</v>
-      </c>
       <c r="Q111">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T111">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA111">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB111">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -22682,7 +22682,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7453204</v>
+        <v>7454842</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22694,76 +22694,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F250" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G250" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250">
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K250">
-        <v>1.285</v>
+        <v>4</v>
       </c>
       <c r="L250">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M250">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="N250">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O250">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P250">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="Q250">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R250">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S250">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T250">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U250">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V250">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W250">
         <v>-1</v>
       </c>
       <c r="X250">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y250">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z250">
         <v>-1</v>
       </c>
       <c r="AA250">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB250">
         <v>-1</v>
       </c>
       <c r="AC250">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22771,7 +22771,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7454842</v>
+        <v>7453204</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22783,76 +22783,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F251" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G251" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251">
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K251">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="L251">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M251">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="N251">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O251">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P251">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="Q251">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R251">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S251">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T251">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U251">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V251">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W251">
         <v>-1</v>
       </c>
       <c r="X251">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y251">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB251">
         <v>-1</v>
       </c>
       <c r="AC251">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -23572,7 +23572,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7493310</v>
+        <v>7493431</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23584,76 +23584,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F260" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G260" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I260">
         <v>2</v>
       </c>
       <c r="J260" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K260">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="L260">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M260">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="N260">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="O260">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P260">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q260">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R260">
+        <v>1.925</v>
+      </c>
+      <c r="S260">
+        <v>1.875</v>
+      </c>
+      <c r="T260">
+        <v>2.5</v>
+      </c>
+      <c r="U260">
+        <v>2</v>
+      </c>
+      <c r="V260">
         <v>1.8</v>
       </c>
-      <c r="S260">
-        <v>2</v>
-      </c>
-      <c r="T260">
-        <v>2.75</v>
-      </c>
-      <c r="U260">
-        <v>1.8</v>
-      </c>
-      <c r="V260">
-        <v>2</v>
-      </c>
       <c r="W260">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X260">
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z260">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA260">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB260">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AC260">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23661,7 +23661,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7493431</v>
+        <v>7493310</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23673,76 +23673,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F261" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G261" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H261">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I261">
         <v>2</v>
       </c>
       <c r="J261" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K261">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="L261">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M261">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="N261">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="O261">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P261">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q261">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R261">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S261">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T261">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U261">
+        <v>1.8</v>
+      </c>
+      <c r="V261">
         <v>2</v>
       </c>
-      <c r="V261">
-        <v>1.8</v>
-      </c>
       <c r="W261">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X261">
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z261">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA261">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB261">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AC261">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23839,7 +23839,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7493433</v>
+        <v>7493311</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23851,76 +23851,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F263" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G263" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263">
         <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K263">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L263">
+        <v>3.3</v>
+      </c>
+      <c r="M263">
+        <v>2</v>
+      </c>
+      <c r="N263">
         <v>3.2</v>
       </c>
-      <c r="M263">
-        <v>2.4</v>
-      </c>
-      <c r="N263">
-        <v>2.75</v>
-      </c>
       <c r="O263">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P263">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q263">
         <v>0.25</v>
       </c>
       <c r="R263">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S263">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T263">
         <v>2.25</v>
       </c>
       <c r="U263">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V263">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W263">
         <v>-1</v>
       </c>
       <c r="X263">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y263">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z263">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA263">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB263">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC263">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23928,7 +23928,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7493312</v>
+        <v>7493433</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23940,76 +23940,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F264" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G264" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H264">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J264" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K264">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L264">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M264">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N264">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="O264">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P264">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q264">
+        <v>0.25</v>
+      </c>
+      <c r="R264">
+        <v>1.75</v>
+      </c>
+      <c r="S264">
+        <v>2.05</v>
+      </c>
+      <c r="T264">
+        <v>2.25</v>
+      </c>
+      <c r="U264">
+        <v>2</v>
+      </c>
+      <c r="V264">
+        <v>1.8</v>
+      </c>
+      <c r="W264">
+        <v>-1</v>
+      </c>
+      <c r="X264">
+        <v>2.1</v>
+      </c>
+      <c r="Y264">
+        <v>-1</v>
+      </c>
+      <c r="Z264">
+        <v>0.375</v>
+      </c>
+      <c r="AA264">
         <v>-0.5</v>
       </c>
-      <c r="R264">
-        <v>1.8</v>
-      </c>
-      <c r="S264">
-        <v>2</v>
-      </c>
-      <c r="T264">
-        <v>2.75</v>
-      </c>
-      <c r="U264">
-        <v>1.875</v>
-      </c>
-      <c r="V264">
-        <v>1.925</v>
-      </c>
-      <c r="W264">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X264">
-        <v>-1</v>
-      </c>
-      <c r="Y264">
-        <v>-1</v>
-      </c>
-      <c r="Z264">
-        <v>0.8</v>
-      </c>
-      <c r="AA264">
-        <v>-1</v>
-      </c>
       <c r="AB264">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC264">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24017,7 +24017,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7493311</v>
+        <v>7493312</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24029,76 +24029,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F265" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G265" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H265">
+        <v>4</v>
+      </c>
+      <c r="I265">
         <v>0</v>
       </c>
-      <c r="I265">
-        <v>1</v>
-      </c>
       <c r="J265" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K265">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L265">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M265">
+        <v>4.333</v>
+      </c>
+      <c r="N265">
+        <v>1.727</v>
+      </c>
+      <c r="O265">
+        <v>3.75</v>
+      </c>
+      <c r="P265">
+        <v>4.2</v>
+      </c>
+      <c r="Q265">
+        <v>-0.5</v>
+      </c>
+      <c r="R265">
+        <v>1.8</v>
+      </c>
+      <c r="S265">
         <v>2</v>
       </c>
-      <c r="N265">
-        <v>3.2</v>
-      </c>
-      <c r="O265">
-        <v>3.25</v>
-      </c>
-      <c r="P265">
-        <v>2.1</v>
-      </c>
-      <c r="Q265">
-        <v>0.25</v>
-      </c>
-      <c r="R265">
-        <v>1.95</v>
-      </c>
-      <c r="S265">
-        <v>1.85</v>
-      </c>
       <c r="T265">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U265">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V265">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W265">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X265">
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z265">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA265">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB265">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC265">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -27251,10 +27251,10 @@
         <v>1.7</v>
       </c>
       <c r="O301">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P301">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q301">
         <v>-0.75</v>
@@ -27266,13 +27266,13 @@
         <v>1.85</v>
       </c>
       <c r="T301">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U301">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V301">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W301">
         <v>0</v>
@@ -27322,31 +27322,31 @@
         <v>2.4</v>
       </c>
       <c r="N302">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O302">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P302">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q302">
         <v>-0.25</v>
       </c>
       <c r="R302">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S302">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T302">
         <v>2.25</v>
       </c>
       <c r="U302">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V302">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W302">
         <v>0</v>
@@ -27482,10 +27482,10 @@
         <v>0</v>
       </c>
       <c r="R304">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S304">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T304">
         <v>2.5</v>
@@ -27556,10 +27556,10 @@
         <v>0</v>
       </c>
       <c r="R305">
-        <v>2.05</v>
+        <v>2.075</v>
       </c>
       <c r="S305">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="T305">
         <v>2.25</v>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -10222,7 +10222,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6664683</v>
+        <v>6664682</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10234,76 +10234,76 @@
         <v>45066.79166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H110">
         <v>1</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K110">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L110">
+        <v>3.3</v>
+      </c>
+      <c r="M110">
+        <v>3.5</v>
+      </c>
+      <c r="N110">
+        <v>1.7</v>
+      </c>
+      <c r="O110">
+        <v>3.6</v>
+      </c>
+      <c r="P110">
         <v>4.5</v>
       </c>
-      <c r="M110">
-        <v>7</v>
-      </c>
-      <c r="N110">
-        <v>1.45</v>
-      </c>
-      <c r="O110">
-        <v>4.2</v>
-      </c>
-      <c r="P110">
-        <v>6</v>
-      </c>
       <c r="Q110">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R110">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S110">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T110">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U110">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V110">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA110">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB110">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC110">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10311,7 +10311,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6664682</v>
+        <v>6664683</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10323,76 +10323,76 @@
         <v>45066.79166666666</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K111">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L111">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M111">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N111">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="O111">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P111">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="Q111">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R111">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S111">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T111">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W111">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z111">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
+        <v>0.8</v>
+      </c>
+      <c r="AB111">
+        <v>0.3875</v>
+      </c>
+      <c r="AC111">
         <v>-0.5</v>
-      </c>
-      <c r="AB111">
-        <v>-1</v>
-      </c>
-      <c r="AC111">
-        <v>0.95</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10400,7 +10400,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6664685</v>
+        <v>6664684</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10412,76 +10412,76 @@
         <v>45068.45833333334</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112">
+        <v>2</v>
+      </c>
+      <c r="J112" t="s">
+        <v>44</v>
+      </c>
+      <c r="K112">
+        <v>1.909</v>
+      </c>
+      <c r="L112">
+        <v>3.3</v>
+      </c>
+      <c r="M112">
+        <v>3.6</v>
+      </c>
+      <c r="N112">
+        <v>2.375</v>
+      </c>
+      <c r="O112">
+        <v>3.3</v>
+      </c>
+      <c r="P112">
+        <v>2.625</v>
+      </c>
+      <c r="Q112">
         <v>0</v>
       </c>
-      <c r="J112" t="s">
-        <v>43</v>
-      </c>
-      <c r="K112">
-        <v>2.625</v>
-      </c>
-      <c r="L112">
-        <v>3.1</v>
-      </c>
-      <c r="M112">
+      <c r="R112">
+        <v>1.85</v>
+      </c>
+      <c r="S112">
+        <v>1.95</v>
+      </c>
+      <c r="T112">
         <v>2.5</v>
       </c>
-      <c r="N112">
-        <v>2.3</v>
-      </c>
-      <c r="O112">
-        <v>3.2</v>
-      </c>
-      <c r="P112">
-        <v>2.8</v>
-      </c>
-      <c r="Q112">
-        <v>-0.25</v>
-      </c>
-      <c r="R112">
-        <v>1.925</v>
-      </c>
-      <c r="S112">
-        <v>1.875</v>
-      </c>
-      <c r="T112">
-        <v>2.25</v>
-      </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W112">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB112">
         <v>-1</v>
       </c>
       <c r="AC112">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10489,7 +10489,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6664684</v>
+        <v>6664685</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10501,76 +10501,76 @@
         <v>45068.45833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
         <v>0</v>
       </c>
-      <c r="I113">
-        <v>2</v>
-      </c>
       <c r="J113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K113">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L113">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M113">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="N113">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="O113">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P113">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
+        <v>1.925</v>
+      </c>
+      <c r="S113">
+        <v>1.875</v>
+      </c>
+      <c r="T113">
+        <v>2.25</v>
+      </c>
+      <c r="U113">
         <v>1.85</v>
       </c>
-      <c r="S113">
+      <c r="V113">
         <v>1.95</v>
       </c>
-      <c r="T113">
-        <v>2.5</v>
-      </c>
-      <c r="U113">
-        <v>1.825</v>
-      </c>
-      <c r="V113">
-        <v>1.975</v>
-      </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA113">
+        <v>-1</v>
+      </c>
+      <c r="AB113">
+        <v>-1</v>
+      </c>
+      <c r="AC113">
         <v>0.95</v>
-      </c>
-      <c r="AB113">
-        <v>-1</v>
-      </c>
-      <c r="AC113">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -11290,7 +11290,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6720873</v>
+        <v>6720843</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11302,76 +11302,76 @@
         <v>45079.85416666666</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H122">
         <v>2</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K122">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="L122">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M122">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N122">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="O122">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P122">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R122">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T122">
         <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V122">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X122">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA122">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11468,7 +11468,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6720843</v>
+        <v>6720873</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11480,76 +11480,76 @@
         <v>45079.85416666666</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H124">
         <v>2</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K124">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L124">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M124">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N124">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O124">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P124">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q124">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T124">
         <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V124">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W124">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC124">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -22682,7 +22682,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7454842</v>
+        <v>7453204</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22694,76 +22694,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F250" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G250" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I250">
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K250">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="L250">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M250">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="N250">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O250">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P250">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="Q250">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R250">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S250">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T250">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U250">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V250">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W250">
         <v>-1</v>
       </c>
       <c r="X250">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y250">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z250">
         <v>-1</v>
       </c>
       <c r="AA250">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB250">
         <v>-1</v>
       </c>
       <c r="AC250">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22771,7 +22771,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7453204</v>
+        <v>7454842</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22783,76 +22783,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F251" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G251" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251">
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K251">
-        <v>1.285</v>
+        <v>4</v>
       </c>
       <c r="L251">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M251">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="N251">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O251">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P251">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="Q251">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R251">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S251">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T251">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U251">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V251">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W251">
         <v>-1</v>
       </c>
       <c r="X251">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y251">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z251">
         <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB251">
         <v>-1</v>
       </c>
       <c r="AC251">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -23038,7 +23038,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7493427</v>
+        <v>7493428</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23050,76 +23050,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F254" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G254" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I254">
         <v>1</v>
       </c>
       <c r="J254" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K254">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L254">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M254">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N254">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O254">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P254">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q254">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R254">
+        <v>1.775</v>
+      </c>
+      <c r="S254">
         <v>2.025</v>
       </c>
-      <c r="S254">
-        <v>1.775</v>
-      </c>
       <c r="T254">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U254">
+        <v>1.825</v>
+      </c>
+      <c r="V254">
         <v>1.975</v>
       </c>
-      <c r="V254">
-        <v>1.825</v>
-      </c>
       <c r="W254">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X254">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y254">
         <v>-1</v>
       </c>
       <c r="Z254">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA254">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB254">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC254">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23127,7 +23127,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7493428</v>
+        <v>7493427</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23139,76 +23139,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F255" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G255" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H255">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I255">
         <v>1</v>
       </c>
       <c r="J255" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K255">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L255">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M255">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N255">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O255">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P255">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q255">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R255">
+        <v>2.025</v>
+      </c>
+      <c r="S255">
         <v>1.775</v>
       </c>
-      <c r="S255">
-        <v>2.025</v>
-      </c>
       <c r="T255">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U255">
+        <v>1.975</v>
+      </c>
+      <c r="V255">
         <v>1.825</v>
       </c>
-      <c r="V255">
-        <v>1.975</v>
-      </c>
       <c r="W255">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X255">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y255">
         <v>-1</v>
       </c>
       <c r="Z255">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AA255">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB255">
+        <v>-1</v>
+      </c>
+      <c r="AC255">
         <v>0.825</v>
-      </c>
-      <c r="AC255">
-        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23572,7 +23572,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7493431</v>
+        <v>7493310</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23584,76 +23584,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F260" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G260" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H260">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I260">
         <v>2</v>
       </c>
       <c r="J260" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K260">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="L260">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M260">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="N260">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="O260">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P260">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q260">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R260">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S260">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T260">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U260">
+        <v>1.8</v>
+      </c>
+      <c r="V260">
         <v>2</v>
       </c>
-      <c r="V260">
-        <v>1.8</v>
-      </c>
       <c r="W260">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X260">
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z260">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA260">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB260">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AC260">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23661,7 +23661,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7493310</v>
+        <v>7493431</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23673,76 +23673,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F261" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G261" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I261">
         <v>2</v>
       </c>
       <c r="J261" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K261">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="L261">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M261">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="N261">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="O261">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P261">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q261">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R261">
+        <v>1.925</v>
+      </c>
+      <c r="S261">
+        <v>1.875</v>
+      </c>
+      <c r="T261">
+        <v>2.5</v>
+      </c>
+      <c r="U261">
+        <v>2</v>
+      </c>
+      <c r="V261">
         <v>1.8</v>
       </c>
-      <c r="S261">
-        <v>2</v>
-      </c>
-      <c r="T261">
-        <v>2.75</v>
-      </c>
-      <c r="U261">
-        <v>1.8</v>
-      </c>
-      <c r="V261">
-        <v>2</v>
-      </c>
       <c r="W261">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X261">
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z261">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA261">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB261">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AC261">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23839,7 +23839,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7493311</v>
+        <v>7493312</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23851,76 +23851,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F263" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G263" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H263">
+        <v>4</v>
+      </c>
+      <c r="I263">
         <v>0</v>
       </c>
-      <c r="I263">
-        <v>1</v>
-      </c>
       <c r="J263" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K263">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L263">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M263">
+        <v>4.333</v>
+      </c>
+      <c r="N263">
+        <v>1.727</v>
+      </c>
+      <c r="O263">
+        <v>3.75</v>
+      </c>
+      <c r="P263">
+        <v>4.2</v>
+      </c>
+      <c r="Q263">
+        <v>-0.5</v>
+      </c>
+      <c r="R263">
+        <v>1.8</v>
+      </c>
+      <c r="S263">
         <v>2</v>
       </c>
-      <c r="N263">
-        <v>3.2</v>
-      </c>
-      <c r="O263">
-        <v>3.25</v>
-      </c>
-      <c r="P263">
-        <v>2.1</v>
-      </c>
-      <c r="Q263">
-        <v>0.25</v>
-      </c>
-      <c r="R263">
-        <v>1.95</v>
-      </c>
-      <c r="S263">
-        <v>1.85</v>
-      </c>
       <c r="T263">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U263">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V263">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W263">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA263">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB263">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC263">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23928,7 +23928,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7493433</v>
+        <v>7493311</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23940,76 +23940,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F264" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G264" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264">
         <v>1</v>
       </c>
       <c r="J264" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K264">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L264">
+        <v>3.3</v>
+      </c>
+      <c r="M264">
+        <v>2</v>
+      </c>
+      <c r="N264">
         <v>3.2</v>
       </c>
-      <c r="M264">
-        <v>2.4</v>
-      </c>
-      <c r="N264">
-        <v>2.75</v>
-      </c>
       <c r="O264">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P264">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q264">
         <v>0.25</v>
       </c>
       <c r="R264">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S264">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T264">
         <v>2.25</v>
       </c>
       <c r="U264">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V264">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W264">
         <v>-1</v>
       </c>
       <c r="X264">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y264">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z264">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA264">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB264">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC264">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24017,7 +24017,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7493312</v>
+        <v>7493433</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24029,76 +24029,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F265" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G265" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H265">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J265" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K265">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L265">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M265">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N265">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="O265">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P265">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q265">
+        <v>0.25</v>
+      </c>
+      <c r="R265">
+        <v>1.75</v>
+      </c>
+      <c r="S265">
+        <v>2.05</v>
+      </c>
+      <c r="T265">
+        <v>2.25</v>
+      </c>
+      <c r="U265">
+        <v>2</v>
+      </c>
+      <c r="V265">
+        <v>1.8</v>
+      </c>
+      <c r="W265">
+        <v>-1</v>
+      </c>
+      <c r="X265">
+        <v>2.1</v>
+      </c>
+      <c r="Y265">
+        <v>-1</v>
+      </c>
+      <c r="Z265">
+        <v>0.375</v>
+      </c>
+      <c r="AA265">
         <v>-0.5</v>
       </c>
-      <c r="R265">
-        <v>1.8</v>
-      </c>
-      <c r="S265">
-        <v>2</v>
-      </c>
-      <c r="T265">
-        <v>2.75</v>
-      </c>
-      <c r="U265">
-        <v>1.875</v>
-      </c>
-      <c r="V265">
-        <v>1.925</v>
-      </c>
-      <c r="W265">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X265">
-        <v>-1</v>
-      </c>
-      <c r="Y265">
-        <v>-1</v>
-      </c>
-      <c r="Z265">
-        <v>0.8</v>
-      </c>
-      <c r="AA265">
-        <v>-1</v>
-      </c>
       <c r="AB265">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC265">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -27238,6 +27238,15 @@
       <c r="G301" t="s">
         <v>32</v>
       </c>
+      <c r="H301">
+        <v>1</v>
+      </c>
+      <c r="I301">
+        <v>1</v>
+      </c>
+      <c r="J301" t="s">
+        <v>45</v>
+      </c>
       <c r="K301">
         <v>1.7</v>
       </c>
@@ -27248,46 +27257,52 @@
         <v>4.5</v>
       </c>
       <c r="N301">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O301">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P301">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="Q301">
         <v>-0.75</v>
       </c>
       <c r="R301">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S301">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T301">
         <v>2.5</v>
       </c>
       <c r="U301">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V301">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W301">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X301">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Y301">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z301">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA301">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB301">
+        <v>-1</v>
+      </c>
+      <c r="AC301">
+        <v>0.925</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27343,10 +27358,10 @@
         <v>2.25</v>
       </c>
       <c r="U302">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V302">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W302">
         <v>0</v>
@@ -27544,7 +27559,7 @@
         <v>2.5</v>
       </c>
       <c r="N305">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="O305">
         <v>3.2</v>
@@ -27556,10 +27571,10 @@
         <v>0</v>
       </c>
       <c r="R305">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="S305">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="T305">
         <v>2.25</v>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -10222,7 +10222,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6664682</v>
+        <v>6664683</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10234,76 +10234,76 @@
         <v>45066.79166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H110">
         <v>1</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K110">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L110">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M110">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="N110">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="O110">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P110">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="Q110">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R110">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W110">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z110">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
+        <v>0.8</v>
+      </c>
+      <c r="AB110">
+        <v>0.3875</v>
+      </c>
+      <c r="AC110">
         <v>-0.5</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
-      <c r="AC110">
-        <v>0.95</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10311,7 +10311,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6664683</v>
+        <v>6664682</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10323,76 +10323,76 @@
         <v>45066.79166666666</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K111">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L111">
+        <v>3.3</v>
+      </c>
+      <c r="M111">
+        <v>3.5</v>
+      </c>
+      <c r="N111">
+        <v>1.7</v>
+      </c>
+      <c r="O111">
+        <v>3.6</v>
+      </c>
+      <c r="P111">
         <v>4.5</v>
       </c>
-      <c r="M111">
-        <v>7</v>
-      </c>
-      <c r="N111">
-        <v>1.45</v>
-      </c>
-      <c r="O111">
-        <v>4.2</v>
-      </c>
-      <c r="P111">
-        <v>6</v>
-      </c>
       <c r="Q111">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T111">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA111">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB111">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -23839,7 +23839,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7493312</v>
+        <v>7493433</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23851,76 +23851,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F263" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G263" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H263">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J263" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K263">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L263">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M263">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N263">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="O263">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P263">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q263">
+        <v>0.25</v>
+      </c>
+      <c r="R263">
+        <v>1.75</v>
+      </c>
+      <c r="S263">
+        <v>2.05</v>
+      </c>
+      <c r="T263">
+        <v>2.25</v>
+      </c>
+      <c r="U263">
+        <v>2</v>
+      </c>
+      <c r="V263">
+        <v>1.8</v>
+      </c>
+      <c r="W263">
+        <v>-1</v>
+      </c>
+      <c r="X263">
+        <v>2.1</v>
+      </c>
+      <c r="Y263">
+        <v>-1</v>
+      </c>
+      <c r="Z263">
+        <v>0.375</v>
+      </c>
+      <c r="AA263">
         <v>-0.5</v>
       </c>
-      <c r="R263">
-        <v>1.8</v>
-      </c>
-      <c r="S263">
-        <v>2</v>
-      </c>
-      <c r="T263">
-        <v>2.75</v>
-      </c>
-      <c r="U263">
-        <v>1.875</v>
-      </c>
-      <c r="V263">
-        <v>1.925</v>
-      </c>
-      <c r="W263">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X263">
-        <v>-1</v>
-      </c>
-      <c r="Y263">
-        <v>-1</v>
-      </c>
-      <c r="Z263">
-        <v>0.8</v>
-      </c>
-      <c r="AA263">
-        <v>-1</v>
-      </c>
       <c r="AB263">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC263">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -24017,7 +24017,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7493433</v>
+        <v>7493312</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24029,76 +24029,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F265" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G265" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J265" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K265">
+        <v>1.7</v>
+      </c>
+      <c r="L265">
+        <v>3.6</v>
+      </c>
+      <c r="M265">
+        <v>4.333</v>
+      </c>
+      <c r="N265">
+        <v>1.727</v>
+      </c>
+      <c r="O265">
+        <v>3.75</v>
+      </c>
+      <c r="P265">
+        <v>4.2</v>
+      </c>
+      <c r="Q265">
+        <v>-0.5</v>
+      </c>
+      <c r="R265">
+        <v>1.8</v>
+      </c>
+      <c r="S265">
+        <v>2</v>
+      </c>
+      <c r="T265">
         <v>2.75</v>
       </c>
-      <c r="L265">
-        <v>3.2</v>
-      </c>
-      <c r="M265">
-        <v>2.4</v>
-      </c>
-      <c r="N265">
-        <v>2.75</v>
-      </c>
-      <c r="O265">
-        <v>3.1</v>
-      </c>
-      <c r="P265">
-        <v>2.45</v>
-      </c>
-      <c r="Q265">
-        <v>0.25</v>
-      </c>
-      <c r="R265">
-        <v>1.75</v>
-      </c>
-      <c r="S265">
-        <v>2.05</v>
-      </c>
-      <c r="T265">
-        <v>2.25</v>
-      </c>
       <c r="U265">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V265">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W265">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X265">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y265">
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA265">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB265">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC265">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -27337,13 +27337,13 @@
         <v>2.4</v>
       </c>
       <c r="N302">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O302">
         <v>3.3</v>
       </c>
       <c r="P302">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q302">
         <v>-0.25</v>
@@ -27358,10 +27358,10 @@
         <v>2.25</v>
       </c>
       <c r="U302">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V302">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W302">
         <v>0</v>
@@ -27411,31 +27411,31 @@
         <v>6</v>
       </c>
       <c r="N303">
-        <v>1.363</v>
+        <v>1.333</v>
       </c>
       <c r="O303">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P303">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Q303">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R303">
+        <v>1.975</v>
+      </c>
+      <c r="S303">
         <v>1.825</v>
-      </c>
-      <c r="S303">
-        <v>1.975</v>
       </c>
       <c r="T303">
         <v>2.75</v>
       </c>
       <c r="U303">
+        <v>1.85</v>
+      </c>
+      <c r="V303">
         <v>1.95</v>
-      </c>
-      <c r="V303">
-        <v>1.85</v>
       </c>
       <c r="W303">
         <v>0</v>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC306"/>
+  <dimension ref="A1:AC305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11290,7 +11290,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6720843</v>
+        <v>6720873</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11302,76 +11302,76 @@
         <v>45079.85416666666</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>2</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K122">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L122">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M122">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N122">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O122">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P122">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q122">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T122">
         <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V122">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W122">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC122">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11468,7 +11468,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6720873</v>
+        <v>6720843</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11480,76 +11480,76 @@
         <v>45079.85416666666</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H124">
         <v>2</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K124">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="L124">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M124">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N124">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="O124">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P124">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q124">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R124">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T124">
         <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X124">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA124">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -23572,7 +23572,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>7493310</v>
+        <v>7493431</v>
       </c>
       <c r="C260" t="s">
         <v>28</v>
@@ -23584,76 +23584,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F260" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G260" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I260">
         <v>2</v>
       </c>
       <c r="J260" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K260">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="L260">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M260">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="N260">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="O260">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P260">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q260">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R260">
+        <v>1.925</v>
+      </c>
+      <c r="S260">
+        <v>1.875</v>
+      </c>
+      <c r="T260">
+        <v>2.5</v>
+      </c>
+      <c r="U260">
+        <v>2</v>
+      </c>
+      <c r="V260">
         <v>1.8</v>
       </c>
-      <c r="S260">
-        <v>2</v>
-      </c>
-      <c r="T260">
-        <v>2.75</v>
-      </c>
-      <c r="U260">
-        <v>1.8</v>
-      </c>
-      <c r="V260">
-        <v>2</v>
-      </c>
       <c r="W260">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X260">
         <v>-1</v>
       </c>
       <c r="Y260">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z260">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA260">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB260">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AC260">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23661,7 +23661,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>7493431</v>
+        <v>7493310</v>
       </c>
       <c r="C261" t="s">
         <v>28</v>
@@ -23673,76 +23673,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F261" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G261" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H261">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I261">
         <v>2</v>
       </c>
       <c r="J261" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K261">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="L261">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M261">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="N261">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="O261">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P261">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q261">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R261">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S261">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T261">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U261">
+        <v>1.8</v>
+      </c>
+      <c r="V261">
         <v>2</v>
       </c>
-      <c r="V261">
-        <v>1.8</v>
-      </c>
       <c r="W261">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X261">
         <v>-1</v>
       </c>
       <c r="Y261">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z261">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA261">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB261">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AC261">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23839,7 +23839,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>7493433</v>
+        <v>7493312</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23851,76 +23851,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F263" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G263" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K263">
+        <v>1.7</v>
+      </c>
+      <c r="L263">
+        <v>3.6</v>
+      </c>
+      <c r="M263">
+        <v>4.333</v>
+      </c>
+      <c r="N263">
+        <v>1.727</v>
+      </c>
+      <c r="O263">
+        <v>3.75</v>
+      </c>
+      <c r="P263">
+        <v>4.2</v>
+      </c>
+      <c r="Q263">
+        <v>-0.5</v>
+      </c>
+      <c r="R263">
+        <v>1.8</v>
+      </c>
+      <c r="S263">
+        <v>2</v>
+      </c>
+      <c r="T263">
         <v>2.75</v>
       </c>
-      <c r="L263">
-        <v>3.2</v>
-      </c>
-      <c r="M263">
-        <v>2.4</v>
-      </c>
-      <c r="N263">
-        <v>2.75</v>
-      </c>
-      <c r="O263">
-        <v>3.1</v>
-      </c>
-      <c r="P263">
-        <v>2.45</v>
-      </c>
-      <c r="Q263">
-        <v>0.25</v>
-      </c>
-      <c r="R263">
-        <v>1.75</v>
-      </c>
-      <c r="S263">
-        <v>2.05</v>
-      </c>
-      <c r="T263">
-        <v>2.25</v>
-      </c>
       <c r="U263">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V263">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W263">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X263">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y263">
         <v>-1</v>
       </c>
       <c r="Z263">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA263">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB263">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC263">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23928,7 +23928,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7493311</v>
+        <v>7493433</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23940,76 +23940,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F264" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G264" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I264">
         <v>1</v>
       </c>
       <c r="J264" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K264">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="L264">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M264">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N264">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="O264">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P264">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q264">
         <v>0.25</v>
       </c>
       <c r="R264">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S264">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T264">
         <v>2.25</v>
       </c>
       <c r="U264">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V264">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W264">
         <v>-1</v>
       </c>
       <c r="X264">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y264">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z264">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA264">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB264">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC264">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24017,7 +24017,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7493312</v>
+        <v>7493311</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24029,76 +24029,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F265" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G265" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H265">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J265" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K265">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L265">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M265">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N265">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O265">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P265">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q265">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R265">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S265">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T265">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U265">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V265">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W265">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X265">
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z265">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA265">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB265">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC265">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -27327,6 +27327,15 @@
       <c r="G302" t="s">
         <v>40</v>
       </c>
+      <c r="H302">
+        <v>2</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302" t="s">
+        <v>43</v>
+      </c>
       <c r="K302">
         <v>2.7</v>
       </c>
@@ -27337,10 +27346,10 @@
         <v>2.4</v>
       </c>
       <c r="N302">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O302">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P302">
         <v>3</v>
@@ -27349,34 +27358,40 @@
         <v>-0.25</v>
       </c>
       <c r="R302">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S302">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T302">
         <v>2.25</v>
       </c>
       <c r="U302">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V302">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W302">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X302">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y302">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z302">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA302">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB302">
+        <v>-0.5</v>
+      </c>
+      <c r="AC302">
+        <v>0.3875</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27384,7 +27399,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>7609191</v>
+        <v>7609135</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27393,49 +27408,49 @@
         <v>28</v>
       </c>
       <c r="E303" s="2">
-        <v>45346.86458333334</v>
+        <v>45347.76041666666</v>
       </c>
       <c r="F303" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G303" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K303">
-        <v>1.45</v>
+        <v>2.7</v>
       </c>
       <c r="L303">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M303">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="N303">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="O303">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P303">
-        <v>7</v>
+        <v>2.45</v>
       </c>
       <c r="Q303">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R303">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S303">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T303">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U303">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V303">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W303">
         <v>0</v>
@@ -27458,7 +27473,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>7609135</v>
+        <v>7609137</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27467,49 +27482,49 @@
         <v>28</v>
       </c>
       <c r="E304" s="2">
-        <v>45347.76041666666</v>
+        <v>45347.86458333334</v>
       </c>
       <c r="F304" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G304" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K304">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="L304">
         <v>3.2</v>
       </c>
       <c r="M304">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N304">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="O304">
         <v>3.2</v>
       </c>
       <c r="P304">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q304">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R304">
+        <v>1.75</v>
+      </c>
+      <c r="S304">
+        <v>2.05</v>
+      </c>
+      <c r="T304">
+        <v>2.25</v>
+      </c>
+      <c r="U304">
+        <v>1.825</v>
+      </c>
+      <c r="V304">
         <v>1.975</v>
-      </c>
-      <c r="S304">
-        <v>1.825</v>
-      </c>
-      <c r="T304">
-        <v>2.5</v>
-      </c>
-      <c r="U304">
-        <v>1.925</v>
-      </c>
-      <c r="V304">
-        <v>1.875</v>
       </c>
       <c r="W304">
         <v>0</v>
@@ -27532,7 +27547,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>7609137</v>
+        <v>7609192</v>
       </c>
       <c r="C305" t="s">
         <v>28</v>
@@ -27541,49 +27556,49 @@
         <v>28</v>
       </c>
       <c r="E305" s="2">
-        <v>45347.86458333334</v>
+        <v>45348.8125</v>
       </c>
       <c r="F305" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G305" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K305">
-        <v>2.6</v>
+        <v>1.363</v>
       </c>
       <c r="L305">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M305">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="N305">
+        <v>1.363</v>
+      </c>
+      <c r="O305">
+        <v>4.333</v>
+      </c>
+      <c r="P305">
+        <v>7.5</v>
+      </c>
+      <c r="Q305">
+        <v>-1.25</v>
+      </c>
+      <c r="R305">
+        <v>1.825</v>
+      </c>
+      <c r="S305">
+        <v>1.975</v>
+      </c>
+      <c r="T305">
         <v>2.75</v>
       </c>
-      <c r="O305">
-        <v>3.2</v>
-      </c>
-      <c r="P305">
-        <v>2.375</v>
-      </c>
-      <c r="Q305">
-        <v>0</v>
-      </c>
-      <c r="R305">
-        <v>2.05</v>
-      </c>
-      <c r="S305">
-        <v>1.75</v>
-      </c>
-      <c r="T305">
-        <v>2.25</v>
-      </c>
       <c r="U305">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V305">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W305">
         <v>0</v>
@@ -27598,80 +27613,6 @@
         <v>0</v>
       </c>
       <c r="AA305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:27">
-      <c r="A306" s="1">
-        <v>304</v>
-      </c>
-      <c r="B306">
-        <v>7609192</v>
-      </c>
-      <c r="C306" t="s">
-        <v>28</v>
-      </c>
-      <c r="D306" t="s">
-        <v>28</v>
-      </c>
-      <c r="E306" s="2">
-        <v>45348.8125</v>
-      </c>
-      <c r="F306" t="s">
-        <v>29</v>
-      </c>
-      <c r="G306" t="s">
-        <v>35</v>
-      </c>
-      <c r="K306">
-        <v>1.363</v>
-      </c>
-      <c r="L306">
-        <v>4.333</v>
-      </c>
-      <c r="M306">
-        <v>7.5</v>
-      </c>
-      <c r="N306">
-        <v>1.363</v>
-      </c>
-      <c r="O306">
-        <v>4.333</v>
-      </c>
-      <c r="P306">
-        <v>7.5</v>
-      </c>
-      <c r="Q306">
-        <v>-1.25</v>
-      </c>
-      <c r="R306">
-        <v>1.825</v>
-      </c>
-      <c r="S306">
-        <v>1.975</v>
-      </c>
-      <c r="T306">
-        <v>2.75</v>
-      </c>
-      <c r="U306">
-        <v>1.9</v>
-      </c>
-      <c r="V306">
-        <v>1.9</v>
-      </c>
-      <c r="W306">
-        <v>0</v>
-      </c>
-      <c r="X306">
-        <v>0</v>
-      </c>
-      <c r="Y306">
-        <v>0</v>
-      </c>
-      <c r="Z306">
-        <v>0</v>
-      </c>
-      <c r="AA306">
         <v>0</v>
       </c>
     </row>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -12358,7 +12358,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7493427</v>
+        <v>7493428</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12370,76 +12370,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K134">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L134">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N134">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O134">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P134">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q134">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R134">
+        <v>1.775</v>
+      </c>
+      <c r="S134">
         <v>2.025</v>
       </c>
-      <c r="S134">
-        <v>1.775</v>
-      </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
+        <v>1.825</v>
+      </c>
+      <c r="V134">
         <v>1.975</v>
       </c>
-      <c r="V134">
-        <v>1.825</v>
-      </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X134">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC134">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12447,7 +12447,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7493428</v>
+        <v>7493427</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12459,76 +12459,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H135">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K135">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M135">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N135">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O135">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P135">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q135">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R135">
+        <v>2.025</v>
+      </c>
+      <c r="S135">
         <v>1.775</v>
       </c>
-      <c r="S135">
-        <v>2.025</v>
-      </c>
       <c r="T135">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
+        <v>1.975</v>
+      </c>
+      <c r="V135">
         <v>1.825</v>
       </c>
-      <c r="V135">
-        <v>1.975</v>
-      </c>
       <c r="W135">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB135">
+        <v>-1</v>
+      </c>
+      <c r="AC135">
         <v>0.825</v>
-      </c>
-      <c r="AC135">
-        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7493310</v>
+        <v>7493431</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,76 +12904,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I140">
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K140">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="L140">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M140">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="N140">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="O140">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P140">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R140">
+        <v>1.925</v>
+      </c>
+      <c r="S140">
+        <v>1.875</v>
+      </c>
+      <c r="T140">
+        <v>2.5</v>
+      </c>
+      <c r="U140">
+        <v>2</v>
+      </c>
+      <c r="V140">
         <v>1.8</v>
       </c>
-      <c r="S140">
-        <v>2</v>
-      </c>
-      <c r="T140">
-        <v>2.75</v>
-      </c>
-      <c r="U140">
-        <v>1.8</v>
-      </c>
-      <c r="V140">
-        <v>2</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA140">
+        <v>-1</v>
+      </c>
+      <c r="AB140">
         <v>1</v>
       </c>
-      <c r="AB140">
-        <v>0.4</v>
-      </c>
       <c r="AC140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12981,7 +12981,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7493431</v>
+        <v>7493310</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12993,76 +12993,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H141">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K141">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="L141">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M141">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="N141">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="O141">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P141">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S141">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
+        <v>1.8</v>
+      </c>
+      <c r="V141">
         <v>2</v>
       </c>
-      <c r="V141">
-        <v>1.8</v>
-      </c>
       <c r="W141">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB141">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7493312</v>
+        <v>7493311</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H143">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K143">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L143">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M143">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N143">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O143">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P143">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R143">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V143">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W143">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7493433</v>
+        <v>7493312</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,76 +13260,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G144" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K144">
+        <v>1.7</v>
+      </c>
+      <c r="L144">
+        <v>3.6</v>
+      </c>
+      <c r="M144">
+        <v>4.333</v>
+      </c>
+      <c r="N144">
+        <v>1.727</v>
+      </c>
+      <c r="O144">
+        <v>3.75</v>
+      </c>
+      <c r="P144">
+        <v>4.2</v>
+      </c>
+      <c r="Q144">
+        <v>-0.5</v>
+      </c>
+      <c r="R144">
+        <v>1.8</v>
+      </c>
+      <c r="S144">
+        <v>2</v>
+      </c>
+      <c r="T144">
         <v>2.75</v>
       </c>
-      <c r="L144">
-        <v>3.2</v>
-      </c>
-      <c r="M144">
-        <v>2.4</v>
-      </c>
-      <c r="N144">
-        <v>2.75</v>
-      </c>
-      <c r="O144">
-        <v>3.1</v>
-      </c>
-      <c r="P144">
-        <v>2.45</v>
-      </c>
-      <c r="Q144">
-        <v>0.25</v>
-      </c>
-      <c r="R144">
-        <v>1.75</v>
-      </c>
-      <c r="S144">
-        <v>2.05</v>
-      </c>
-      <c r="T144">
-        <v>2.25</v>
-      </c>
       <c r="U144">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V144">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X144">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC144">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7493311</v>
+        <v>7493433</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K145">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="L145">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M145">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N145">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="O145">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P145">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q145">
         <v>0.25</v>
       </c>
       <c r="R145">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S145">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V145">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y145">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA145">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC145">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -16897,7 +16897,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7609192</v>
+        <v>7609137</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16906,43 +16906,52 @@
         <v>28</v>
       </c>
       <c r="E185" s="2">
-        <v>45348.8125</v>
+        <v>45347.86458333334</v>
       </c>
       <c r="F185" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G185" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <v>3</v>
+      </c>
+      <c r="J185" t="s">
+        <v>44</v>
       </c>
       <c r="K185">
-        <v>1.363</v>
+        <v>2.6</v>
       </c>
       <c r="L185">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M185">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="N185">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="O185">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="P185">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q185">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R185">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S185">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T185">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U185">
         <v>1.9</v>
@@ -16951,19 +16960,25 @@
         <v>1.9</v>
       </c>
       <c r="W185">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X185">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Z185">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB185">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC185">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,13 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
-    <t>Cerro Porteno</t>
+    <t>Sportivo Luqueno</t>
   </si>
   <si>
     <t>Guarani Asuncion</t>
   </si>
   <si>
-    <t>Sportivo Luqueno</t>
+    <t>Cerro Porteno</t>
   </si>
   <si>
     <t>Sportivo Ameliano</t>
@@ -145,13 +145,13 @@
     <t>2 de Mayo</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC185"/>
+  <dimension ref="A1:AC191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6720843</v>
+        <v>6720873</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,73 +625,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L2">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M2">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N2">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O2">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P2">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q2">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R2">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S2">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T2">
         <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V2">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W2">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6720873</v>
+        <v>6720843</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>45</v>
       </c>
       <c r="K4">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="L4">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M4">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N4">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="O4">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P4">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X4">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA4">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>1.571</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K9">
         <v>1.333</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K10">
         <v>2.3</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1515,7 +1515,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K12">
         <v>5.5</v>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K13">
         <v>1.363</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>2.7</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K15">
         <v>1.55</v>
@@ -1880,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -2046,7 +2046,7 @@
         <v>45116.70833333334</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
         <v>30</v>
@@ -2135,7 +2135,7 @@
         <v>45116.8125</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -2236,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K20">
         <v>4.75</v>
@@ -2316,7 +2316,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K22">
         <v>2.625</v>
@@ -2583,7 +2583,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2592,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K24">
         <v>2.625</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K25">
         <v>1.666</v>
@@ -2936,7 +2936,7 @@
         <v>45129.8125</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K28">
         <v>1.45</v>
@@ -3025,7 +3025,7 @@
         <v>45130.70833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -3215,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K31">
         <v>1.25</v>
@@ -3295,7 +3295,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K32">
         <v>2.625</v>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3740,7 +3740,7 @@
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K38">
         <v>1.363</v>
@@ -3915,7 +3915,7 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K39">
         <v>1.666</v>
@@ -4004,7 +4004,7 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
         <v>34</v>
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4105,7 +4105,7 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K41">
         <v>1.615</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K42">
         <v>1.65</v>
@@ -4283,7 +4283,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K43">
         <v>2.625</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K44">
         <v>2.75</v>
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4627,7 +4627,7 @@
         <v>45151.72916666666</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>40</v>
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K47">
         <v>2.15</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K48">
         <v>2.05</v>
@@ -4808,7 +4808,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K50">
         <v>1.5</v>
@@ -5161,10 +5161,10 @@
         <v>45158.75</v>
       </c>
       <c r="F53" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" t="s">
         <v>31</v>
-      </c>
-      <c r="G53" t="s">
-        <v>29</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5173,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K53">
         <v>3.5</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K55">
         <v>2.3</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K56">
         <v>1.7</v>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5606,7 +5606,7 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K58">
         <v>2.375</v>
@@ -5695,7 +5695,7 @@
         <v>45165.72916666666</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
         <v>40</v>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K61">
         <v>3.4</v>
@@ -5974,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6054,7 +6054,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6063,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K63">
         <v>4.75</v>
@@ -6143,7 +6143,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K64">
         <v>1.5</v>
@@ -6241,7 +6241,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K65">
         <v>1.85</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K67">
         <v>2.45</v>
@@ -6585,7 +6585,7 @@
         <v>45179.72916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
         <v>39</v>
@@ -6597,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K69">
         <v>1.85</v>
@@ -6674,7 +6674,7 @@
         <v>45179.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K70">
         <v>1.833</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K71">
         <v>2.2</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K72">
         <v>2.55</v>
@@ -6944,7 +6944,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -7131,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K75">
         <v>1.533</v>
@@ -7300,7 +7300,7 @@
         <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K77">
         <v>3.8</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K78">
         <v>1.615</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K79">
         <v>2.2</v>
@@ -7567,7 +7567,7 @@
         <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K81">
         <v>6</v>
@@ -7834,7 +7834,7 @@
         <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K83">
         <v>2.15</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K85">
         <v>1.85</v>
@@ -8276,7 +8276,7 @@
         <v>45200.75</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8288,7 +8288,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K88">
         <v>1.55</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K89">
         <v>1.5</v>
@@ -8454,7 +8454,7 @@
         <v>45201.75</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K90">
         <v>1.8</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K91">
         <v>1.333</v>
@@ -8635,7 +8635,7 @@
         <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K92">
         <v>4.2</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K94">
         <v>2.875</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K96">
         <v>1.75</v>
@@ -9080,7 +9080,7 @@
         <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K98">
         <v>1.95</v>
@@ -9344,7 +9344,7 @@
         <v>45218.8125</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9356,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K100">
         <v>1.909</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K101">
         <v>1.444</v>
@@ -9534,7 +9534,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K102">
         <v>1.7</v>
@@ -9611,7 +9611,7 @@
         <v>45220.85416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -9623,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K103">
         <v>1.363</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K104">
         <v>3.6</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K105">
         <v>6</v>
@@ -9890,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K106">
         <v>1.75</v>
@@ -9970,7 +9970,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -10148,7 +10148,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K109">
         <v>3.2</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K110">
         <v>2.75</v>
@@ -10335,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K111">
         <v>1.909</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K112">
         <v>1.85</v>
@@ -10504,7 +10504,7 @@
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K113">
         <v>2.25</v>
@@ -10590,7 +10590,7 @@
         <v>45229.75</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
         <v>38</v>
@@ -10602,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K114">
         <v>2.05</v>
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K115">
         <v>1.25</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K116">
         <v>2.2</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K117">
         <v>4</v>
@@ -11047,7 +11047,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K119">
         <v>4.333</v>
@@ -11213,10 +11213,10 @@
         <v>45233.85416666666</v>
       </c>
       <c r="F121" t="s">
+        <v>31</v>
+      </c>
+      <c r="G121" t="s">
         <v>29</v>
-      </c>
-      <c r="G121" t="s">
-        <v>31</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K121">
         <v>1.533</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K122">
         <v>2.6</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K123">
         <v>1.909</v>
@@ -11483,7 +11483,7 @@
         <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11492,7 +11492,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K124">
         <v>2.05</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K125">
         <v>1.615</v>
@@ -11670,7 +11670,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K126">
         <v>2.5</v>
@@ -11750,7 +11750,7 @@
         <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K127">
         <v>1.833</v>
@@ -11848,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K128">
         <v>3</v>
@@ -11937,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K129">
         <v>2</v>
@@ -12014,7 +12014,7 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
         <v>36</v>
@@ -12103,7 +12103,7 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
         <v>39</v>
@@ -12115,7 +12115,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K131">
         <v>1.285</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K133">
         <v>2.75</v>
@@ -12358,7 +12358,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7493428</v>
+        <v>7493427</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12370,13 +12370,13 @@
         <v>45253.8125</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H134">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>1</v>
@@ -12385,61 +12385,61 @@
         <v>43</v>
       </c>
       <c r="K134">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M134">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N134">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O134">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P134">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q134">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R134">
+        <v>2.025</v>
+      </c>
+      <c r="S134">
         <v>1.775</v>
       </c>
-      <c r="S134">
-        <v>2.025</v>
-      </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
+        <v>1.975</v>
+      </c>
+      <c r="V134">
         <v>1.825</v>
       </c>
-      <c r="V134">
-        <v>1.975</v>
-      </c>
       <c r="W134">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
         <v>0.825</v>
-      </c>
-      <c r="AC134">
-        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12447,7 +12447,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7493427</v>
+        <v>7493428</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12459,13 +12459,13 @@
         <v>45253.8125</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -12474,61 +12474,61 @@
         <v>45</v>
       </c>
       <c r="K135">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L135">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N135">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O135">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P135">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q135">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R135">
+        <v>1.775</v>
+      </c>
+      <c r="S135">
         <v>2.025</v>
       </c>
-      <c r="S135">
-        <v>1.775</v>
-      </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U135">
+        <v>1.825</v>
+      </c>
+      <c r="V135">
         <v>1.975</v>
       </c>
-      <c r="V135">
-        <v>1.825</v>
-      </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X135">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12818,7 +12818,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12827,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K139">
         <v>2.375</v>
@@ -12916,7 +12916,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K140">
         <v>2.05</v>
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7493311</v>
+        <v>7493433</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K143">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="L143">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M143">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N143">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="O143">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P143">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q143">
         <v>0.25</v>
       </c>
       <c r="R143">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S143">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T143">
         <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V143">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y143">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA143">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC143">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7493312</v>
+        <v>7493311</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,76 +13260,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K144">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L144">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M144">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N144">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O144">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P144">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V144">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W144">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z144">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7493433</v>
+        <v>7493312</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13352,73 +13352,73 @@
         <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
         <v>45</v>
       </c>
       <c r="K145">
+        <v>1.7</v>
+      </c>
+      <c r="L145">
+        <v>3.6</v>
+      </c>
+      <c r="M145">
+        <v>4.333</v>
+      </c>
+      <c r="N145">
+        <v>1.727</v>
+      </c>
+      <c r="O145">
+        <v>3.75</v>
+      </c>
+      <c r="P145">
+        <v>4.2</v>
+      </c>
+      <c r="Q145">
+        <v>-0.5</v>
+      </c>
+      <c r="R145">
+        <v>1.8</v>
+      </c>
+      <c r="S145">
+        <v>2</v>
+      </c>
+      <c r="T145">
         <v>2.75</v>
       </c>
-      <c r="L145">
-        <v>3.2</v>
-      </c>
-      <c r="M145">
-        <v>2.4</v>
-      </c>
-      <c r="N145">
-        <v>2.75</v>
-      </c>
-      <c r="O145">
-        <v>3.1</v>
-      </c>
-      <c r="P145">
-        <v>2.45</v>
-      </c>
-      <c r="Q145">
-        <v>0.25</v>
-      </c>
-      <c r="R145">
-        <v>1.75</v>
-      </c>
-      <c r="S145">
-        <v>2.05</v>
-      </c>
-      <c r="T145">
-        <v>2.25</v>
-      </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X145">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC145">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K146">
         <v>2.625</v>
@@ -13539,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K147">
         <v>1.444</v>
@@ -13616,7 +13616,7 @@
         <v>45311.75</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
         <v>42</v>
@@ -13628,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K148">
         <v>1.8</v>
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K149">
         <v>2.2</v>
@@ -13794,7 +13794,7 @@
         <v>45312.75</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
         <v>38</v>
@@ -13806,7 +13806,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K150">
         <v>1.533</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K151">
         <v>3.75</v>
@@ -13984,7 +13984,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K152">
         <v>1.65</v>
@@ -14162,7 +14162,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K154">
         <v>3.3</v>
@@ -14242,7 +14242,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K155">
         <v>1.533</v>
@@ -14340,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K156">
         <v>3.5</v>
@@ -14420,7 +14420,7 @@
         <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14506,7 +14506,7 @@
         <v>45318.77083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
         <v>41</v>
@@ -14518,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K158">
         <v>2.25</v>
@@ -14607,7 +14607,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K159">
         <v>2.3</v>
@@ -14696,7 +14696,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K160">
         <v>2.7</v>
@@ -14785,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K161">
         <v>1.833</v>
@@ -15132,7 +15132,7 @@
         <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15141,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K165">
         <v>2.8</v>
@@ -15221,7 +15221,7 @@
         <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15230,7 +15230,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K166">
         <v>4.5</v>
@@ -15319,7 +15319,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K167">
         <v>1.25</v>
@@ -15408,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K168">
         <v>3.5</v>
@@ -15497,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K169">
         <v>2.875</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K171">
         <v>2.15</v>
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K172">
         <v>1.55</v>
@@ -15841,7 +15841,7 @@
         <v>45333.76041666666</v>
       </c>
       <c r="F173" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G173" t="s">
         <v>36</v>
@@ -15853,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15930,7 +15930,7 @@
         <v>45333.86458333334</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G174" t="s">
         <v>33</v>
@@ -15942,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K174">
         <v>1.95</v>
@@ -16031,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K175">
         <v>2.7</v>
@@ -16111,7 +16111,7 @@
         <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16200,7 +16200,7 @@
         <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16209,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K177">
         <v>3.4</v>
@@ -16387,7 +16387,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K179">
         <v>1.909</v>
@@ -16476,7 +16476,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K180">
         <v>2.25</v>
@@ -16553,7 +16553,7 @@
         <v>45345.8125</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G181" t="s">
         <v>37</v>
@@ -16565,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K181">
         <v>1.7</v>
@@ -16654,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K182">
         <v>2.7</v>
@@ -16731,7 +16731,7 @@
         <v>45346.86458333334</v>
       </c>
       <c r="F183" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G183" t="s">
         <v>41</v>
@@ -16743,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K183">
         <v>1.45</v>
@@ -16979,6 +16979,465 @@
       </c>
       <c r="AC185">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>7609192</v>
+      </c>
+      <c r="C186" t="s">
+        <v>28</v>
+      </c>
+      <c r="D186" t="s">
+        <v>28</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45348.8125</v>
+      </c>
+      <c r="F186" t="s">
+        <v>36</v>
+      </c>
+      <c r="G186" t="s">
+        <v>39</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186" t="s">
+        <v>43</v>
+      </c>
+      <c r="K186">
+        <v>1.363</v>
+      </c>
+      <c r="L186">
+        <v>4.333</v>
+      </c>
+      <c r="M186">
+        <v>7.5</v>
+      </c>
+      <c r="N186">
+        <v>1.333</v>
+      </c>
+      <c r="O186">
+        <v>4.5</v>
+      </c>
+      <c r="P186">
+        <v>8</v>
+      </c>
+      <c r="Q186">
+        <v>-1.5</v>
+      </c>
+      <c r="R186">
+        <v>1.975</v>
+      </c>
+      <c r="S186">
+        <v>1.825</v>
+      </c>
+      <c r="T186">
+        <v>2.75</v>
+      </c>
+      <c r="U186">
+        <v>1.825</v>
+      </c>
+      <c r="V186">
+        <v>1.975</v>
+      </c>
+      <c r="W186">
+        <v>-1</v>
+      </c>
+      <c r="X186">
+        <v>3.5</v>
+      </c>
+      <c r="Y186">
+        <v>-1</v>
+      </c>
+      <c r="Z186">
+        <v>-1</v>
+      </c>
+      <c r="AA186">
+        <v>0.825</v>
+      </c>
+      <c r="AB186">
+        <v>-1</v>
+      </c>
+      <c r="AC186">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>7609138</v>
+      </c>
+      <c r="C187" t="s">
+        <v>28</v>
+      </c>
+      <c r="D187" t="s">
+        <v>28</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45352.8125</v>
+      </c>
+      <c r="F187" t="s">
+        <v>30</v>
+      </c>
+      <c r="G187" t="s">
+        <v>31</v>
+      </c>
+      <c r="K187">
+        <v>3.8</v>
+      </c>
+      <c r="L187">
+        <v>3.4</v>
+      </c>
+      <c r="M187">
+        <v>1.909</v>
+      </c>
+      <c r="N187">
+        <v>3.8</v>
+      </c>
+      <c r="O187">
+        <v>3.4</v>
+      </c>
+      <c r="P187">
+        <v>1.909</v>
+      </c>
+      <c r="Q187">
+        <v>0.5</v>
+      </c>
+      <c r="R187">
+        <v>1.9</v>
+      </c>
+      <c r="S187">
+        <v>1.9</v>
+      </c>
+      <c r="T187">
+        <v>2.5</v>
+      </c>
+      <c r="U187">
+        <v>1.975</v>
+      </c>
+      <c r="V187">
+        <v>1.825</v>
+      </c>
+      <c r="W187">
+        <v>0</v>
+      </c>
+      <c r="X187">
+        <v>0</v>
+      </c>
+      <c r="Y187">
+        <v>0</v>
+      </c>
+      <c r="Z187">
+        <v>0</v>
+      </c>
+      <c r="AA187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>7609675</v>
+      </c>
+      <c r="C188" t="s">
+        <v>28</v>
+      </c>
+      <c r="D188" t="s">
+        <v>28</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45353.75</v>
+      </c>
+      <c r="F188" t="s">
+        <v>32</v>
+      </c>
+      <c r="G188" t="s">
+        <v>42</v>
+      </c>
+      <c r="K188">
+        <v>2.2</v>
+      </c>
+      <c r="L188">
+        <v>3.4</v>
+      </c>
+      <c r="M188">
+        <v>3</v>
+      </c>
+      <c r="N188">
+        <v>2.25</v>
+      </c>
+      <c r="O188">
+        <v>3.4</v>
+      </c>
+      <c r="P188">
+        <v>3</v>
+      </c>
+      <c r="Q188">
+        <v>-0.25</v>
+      </c>
+      <c r="R188">
+        <v>1.925</v>
+      </c>
+      <c r="S188">
+        <v>1.875</v>
+      </c>
+      <c r="T188">
+        <v>2.25</v>
+      </c>
+      <c r="U188">
+        <v>1.775</v>
+      </c>
+      <c r="V188">
+        <v>2.025</v>
+      </c>
+      <c r="W188">
+        <v>0</v>
+      </c>
+      <c r="X188">
+        <v>0</v>
+      </c>
+      <c r="Y188">
+        <v>0</v>
+      </c>
+      <c r="Z188">
+        <v>0</v>
+      </c>
+      <c r="AA188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>7609139</v>
+      </c>
+      <c r="C189" t="s">
+        <v>28</v>
+      </c>
+      <c r="D189" t="s">
+        <v>28</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45353.85416666666</v>
+      </c>
+      <c r="F189" t="s">
+        <v>40</v>
+      </c>
+      <c r="G189" t="s">
+        <v>29</v>
+      </c>
+      <c r="K189">
+        <v>2</v>
+      </c>
+      <c r="L189">
+        <v>3.4</v>
+      </c>
+      <c r="M189">
+        <v>3.4</v>
+      </c>
+      <c r="N189">
+        <v>1.909</v>
+      </c>
+      <c r="O189">
+        <v>3.4</v>
+      </c>
+      <c r="P189">
+        <v>3.6</v>
+      </c>
+      <c r="Q189">
+        <v>-0.5</v>
+      </c>
+      <c r="R189">
+        <v>1.975</v>
+      </c>
+      <c r="S189">
+        <v>1.825</v>
+      </c>
+      <c r="T189">
+        <v>2.25</v>
+      </c>
+      <c r="U189">
+        <v>1.85</v>
+      </c>
+      <c r="V189">
+        <v>1.95</v>
+      </c>
+      <c r="W189">
+        <v>0</v>
+      </c>
+      <c r="X189">
+        <v>0</v>
+      </c>
+      <c r="Y189">
+        <v>0</v>
+      </c>
+      <c r="Z189">
+        <v>0</v>
+      </c>
+      <c r="AA189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>7609140</v>
+      </c>
+      <c r="C190" t="s">
+        <v>28</v>
+      </c>
+      <c r="D190" t="s">
+        <v>28</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45354.75</v>
+      </c>
+      <c r="F190" t="s">
+        <v>37</v>
+      </c>
+      <c r="G190" t="s">
+        <v>38</v>
+      </c>
+      <c r="K190">
+        <v>2.375</v>
+      </c>
+      <c r="L190">
+        <v>3.3</v>
+      </c>
+      <c r="M190">
+        <v>2.8</v>
+      </c>
+      <c r="N190">
+        <v>2.25</v>
+      </c>
+      <c r="O190">
+        <v>3.3</v>
+      </c>
+      <c r="P190">
+        <v>3</v>
+      </c>
+      <c r="Q190">
+        <v>-0.25</v>
+      </c>
+      <c r="R190">
+        <v>1.925</v>
+      </c>
+      <c r="S190">
+        <v>1.875</v>
+      </c>
+      <c r="T190">
+        <v>2.5</v>
+      </c>
+      <c r="U190">
+        <v>1.925</v>
+      </c>
+      <c r="V190">
+        <v>1.875</v>
+      </c>
+      <c r="W190">
+        <v>0</v>
+      </c>
+      <c r="X190">
+        <v>0</v>
+      </c>
+      <c r="Y190">
+        <v>0</v>
+      </c>
+      <c r="Z190">
+        <v>0</v>
+      </c>
+      <c r="AA190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>7609193</v>
+      </c>
+      <c r="C191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" t="s">
+        <v>28</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45354.85416666666</v>
+      </c>
+      <c r="F191" t="s">
+        <v>33</v>
+      </c>
+      <c r="G191" t="s">
+        <v>36</v>
+      </c>
+      <c r="K191">
+        <v>4.75</v>
+      </c>
+      <c r="L191">
+        <v>3.6</v>
+      </c>
+      <c r="M191">
+        <v>1.666</v>
+      </c>
+      <c r="N191">
+        <v>4.75</v>
+      </c>
+      <c r="O191">
+        <v>3.6</v>
+      </c>
+      <c r="P191">
+        <v>1.666</v>
+      </c>
+      <c r="Q191">
+        <v>0.75</v>
+      </c>
+      <c r="R191">
+        <v>1.9</v>
+      </c>
+      <c r="S191">
+        <v>1.9</v>
+      </c>
+      <c r="T191">
+        <v>2.25</v>
+      </c>
+      <c r="U191">
+        <v>1.825</v>
+      </c>
+      <c r="V191">
+        <v>1.975</v>
+      </c>
+      <c r="W191">
+        <v>0</v>
+      </c>
+      <c r="X191">
+        <v>0</v>
+      </c>
+      <c r="Y191">
+        <v>0</v>
+      </c>
+      <c r="Z191">
+        <v>0</v>
+      </c>
+      <c r="AA191">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,13 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
-    <t>Sportivo Luqueno</t>
+    <t>Cerro Porteno</t>
   </si>
   <si>
     <t>Guarani Asuncion</t>
   </si>
   <si>
-    <t>Cerro Porteno</t>
+    <t>Sportivo Luqueno</t>
   </si>
   <si>
     <t>Sportivo Ameliano</t>
@@ -145,13 +145,13 @@
     <t>2 de Mayo</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC191"/>
+  <dimension ref="A1:AC192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6720873</v>
+        <v>6720843</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,73 +625,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="L2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M2">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N2">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="O2">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P2">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R2">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S2">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T2">
         <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V2">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X2">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA2">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6720843</v>
+        <v>6720873</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>45</v>
       </c>
       <c r="K4">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L4">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M4">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N4">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O4">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P4">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q4">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V4">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K6">
         <v>1.571</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K9">
         <v>1.333</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K10">
         <v>2.3</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1515,7 +1515,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K12">
         <v>5.5</v>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K13">
         <v>1.363</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K14">
         <v>2.7</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K15">
         <v>1.55</v>
@@ -1880,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -2046,7 +2046,7 @@
         <v>45116.70833333334</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
         <v>30</v>
@@ -2135,7 +2135,7 @@
         <v>45116.8125</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -2236,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K20">
         <v>4.75</v>
@@ -2316,7 +2316,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K22">
         <v>2.625</v>
@@ -2583,7 +2583,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2592,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K24">
         <v>2.625</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K25">
         <v>1.666</v>
@@ -2936,7 +2936,7 @@
         <v>45129.8125</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K28">
         <v>1.45</v>
@@ -3025,7 +3025,7 @@
         <v>45130.70833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -3215,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>1.25</v>
@@ -3295,7 +3295,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K32">
         <v>2.625</v>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3740,7 +3740,7 @@
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K38">
         <v>1.363</v>
@@ -3915,7 +3915,7 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K39">
         <v>1.666</v>
@@ -4004,7 +4004,7 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
         <v>34</v>
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4105,7 +4105,7 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K41">
         <v>1.615</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K42">
         <v>1.65</v>
@@ -4283,7 +4283,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K43">
         <v>2.625</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K44">
         <v>2.75</v>
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4627,7 +4627,7 @@
         <v>45151.72916666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
         <v>40</v>
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K47">
         <v>2.15</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K48">
         <v>2.05</v>
@@ -4808,7 +4808,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K50">
         <v>1.5</v>
@@ -5161,10 +5161,10 @@
         <v>45158.75</v>
       </c>
       <c r="F53" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" t="s">
         <v>29</v>
-      </c>
-      <c r="G53" t="s">
-        <v>31</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5173,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K53">
         <v>3.5</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K55">
         <v>2.3</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K56">
         <v>1.7</v>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5606,7 +5606,7 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K58">
         <v>2.375</v>
@@ -5695,7 +5695,7 @@
         <v>45165.72916666666</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
         <v>40</v>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K61">
         <v>3.4</v>
@@ -5974,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6054,7 +6054,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6063,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K63">
         <v>4.75</v>
@@ -6143,7 +6143,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K64">
         <v>1.5</v>
@@ -6241,7 +6241,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K65">
         <v>1.85</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K67">
         <v>2.45</v>
@@ -6585,7 +6585,7 @@
         <v>45179.72916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
         <v>39</v>
@@ -6597,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K69">
         <v>1.85</v>
@@ -6674,7 +6674,7 @@
         <v>45179.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K70">
         <v>1.833</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K71">
         <v>2.2</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K72">
         <v>2.55</v>
@@ -6944,7 +6944,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -7131,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K75">
         <v>1.533</v>
@@ -7300,7 +7300,7 @@
         <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K77">
         <v>3.8</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K78">
         <v>1.615</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K79">
         <v>2.2</v>
@@ -7567,7 +7567,7 @@
         <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K81">
         <v>6</v>
@@ -7834,7 +7834,7 @@
         <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K83">
         <v>2.15</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K85">
         <v>1.85</v>
@@ -8276,7 +8276,7 @@
         <v>45200.75</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8288,7 +8288,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K88">
         <v>1.55</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K89">
         <v>1.5</v>
@@ -8454,7 +8454,7 @@
         <v>45201.75</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K90">
         <v>1.8</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K91">
         <v>1.333</v>
@@ -8635,7 +8635,7 @@
         <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K92">
         <v>4.2</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K94">
         <v>2.875</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K96">
         <v>1.75</v>
@@ -9080,7 +9080,7 @@
         <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K98">
         <v>1.95</v>
@@ -9344,7 +9344,7 @@
         <v>45218.8125</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9356,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K100">
         <v>1.909</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K101">
         <v>1.444</v>
@@ -9534,7 +9534,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K102">
         <v>1.7</v>
@@ -9611,7 +9611,7 @@
         <v>45220.85416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -9623,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K103">
         <v>1.363</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K104">
         <v>3.6</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K105">
         <v>6</v>
@@ -9890,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K106">
         <v>1.75</v>
@@ -9970,7 +9970,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -10148,7 +10148,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K109">
         <v>3.2</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K110">
         <v>2.75</v>
@@ -10335,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K111">
         <v>1.909</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K112">
         <v>1.85</v>
@@ -10504,7 +10504,7 @@
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K113">
         <v>2.25</v>
@@ -10590,7 +10590,7 @@
         <v>45229.75</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
         <v>38</v>
@@ -10602,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K114">
         <v>2.05</v>
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K115">
         <v>1.25</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K116">
         <v>2.2</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K117">
         <v>4</v>
@@ -11047,7 +11047,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K119">
         <v>4.333</v>
@@ -11213,10 +11213,10 @@
         <v>45233.85416666666</v>
       </c>
       <c r="F121" t="s">
+        <v>29</v>
+      </c>
+      <c r="G121" t="s">
         <v>31</v>
-      </c>
-      <c r="G121" t="s">
-        <v>29</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K121">
         <v>1.533</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K122">
         <v>2.6</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K123">
         <v>1.909</v>
@@ -11483,7 +11483,7 @@
         <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11492,7 +11492,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K124">
         <v>2.05</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K125">
         <v>1.615</v>
@@ -11670,7 +11670,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K126">
         <v>2.5</v>
@@ -11750,7 +11750,7 @@
         <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K127">
         <v>1.833</v>
@@ -11848,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K128">
         <v>3</v>
@@ -11937,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K129">
         <v>2</v>
@@ -12014,7 +12014,7 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
         <v>36</v>
@@ -12103,7 +12103,7 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
         <v>39</v>
@@ -12115,7 +12115,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K131">
         <v>1.285</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K133">
         <v>2.75</v>
@@ -12373,7 +12373,7 @@
         <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12382,7 +12382,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K134">
         <v>3.4</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K135">
         <v>1.727</v>
@@ -12818,7 +12818,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12827,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K139">
         <v>2.375</v>
@@ -12916,7 +12916,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K140">
         <v>2.05</v>
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7493433</v>
+        <v>7493311</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K143">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L143">
+        <v>3.3</v>
+      </c>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="N143">
         <v>3.2</v>
       </c>
-      <c r="M143">
-        <v>2.4</v>
-      </c>
-      <c r="N143">
-        <v>2.75</v>
-      </c>
       <c r="O143">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P143">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q143">
         <v>0.25</v>
       </c>
       <c r="R143">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
         <v>2.25</v>
       </c>
       <c r="U143">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V143">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z143">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7493311</v>
+        <v>7493312</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,76 +13260,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G144" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H144">
+        <v>4</v>
+      </c>
+      <c r="I144">
         <v>0</v>
       </c>
-      <c r="I144">
-        <v>1</v>
-      </c>
       <c r="J144" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K144">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L144">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M144">
+        <v>4.333</v>
+      </c>
+      <c r="N144">
+        <v>1.727</v>
+      </c>
+      <c r="O144">
+        <v>3.75</v>
+      </c>
+      <c r="P144">
+        <v>4.2</v>
+      </c>
+      <c r="Q144">
+        <v>-0.5</v>
+      </c>
+      <c r="R144">
+        <v>1.8</v>
+      </c>
+      <c r="S144">
         <v>2</v>
       </c>
-      <c r="N144">
-        <v>3.2</v>
-      </c>
-      <c r="O144">
-        <v>3.25</v>
-      </c>
-      <c r="P144">
-        <v>2.1</v>
-      </c>
-      <c r="Q144">
-        <v>0.25</v>
-      </c>
-      <c r="R144">
-        <v>1.95</v>
-      </c>
-      <c r="S144">
-        <v>1.85</v>
-      </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V144">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC144">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7493312</v>
+        <v>7493433</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13352,73 +13352,73 @@
         <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
         <v>45</v>
       </c>
       <c r="K145">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M145">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N145">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="O145">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P145">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q145">
+        <v>0.25</v>
+      </c>
+      <c r="R145">
+        <v>1.75</v>
+      </c>
+      <c r="S145">
+        <v>2.05</v>
+      </c>
+      <c r="T145">
+        <v>2.25</v>
+      </c>
+      <c r="U145">
+        <v>2</v>
+      </c>
+      <c r="V145">
+        <v>1.8</v>
+      </c>
+      <c r="W145">
+        <v>-1</v>
+      </c>
+      <c r="X145">
+        <v>2.1</v>
+      </c>
+      <c r="Y145">
+        <v>-1</v>
+      </c>
+      <c r="Z145">
+        <v>0.375</v>
+      </c>
+      <c r="AA145">
         <v>-0.5</v>
       </c>
-      <c r="R145">
-        <v>1.8</v>
-      </c>
-      <c r="S145">
-        <v>2</v>
-      </c>
-      <c r="T145">
-        <v>2.75</v>
-      </c>
-      <c r="U145">
-        <v>1.875</v>
-      </c>
-      <c r="V145">
-        <v>1.925</v>
-      </c>
-      <c r="W145">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X145">
-        <v>-1</v>
-      </c>
-      <c r="Y145">
-        <v>-1</v>
-      </c>
-      <c r="Z145">
-        <v>0.8</v>
-      </c>
-      <c r="AA145">
-        <v>-1</v>
-      </c>
       <c r="AB145">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K146">
         <v>2.625</v>
@@ -13539,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K147">
         <v>1.444</v>
@@ -13616,7 +13616,7 @@
         <v>45311.75</v>
       </c>
       <c r="F148" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
         <v>42</v>
@@ -13628,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K148">
         <v>1.8</v>
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K149">
         <v>2.2</v>
@@ -13794,7 +13794,7 @@
         <v>45312.75</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
         <v>38</v>
@@ -13806,7 +13806,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K150">
         <v>1.533</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K151">
         <v>3.75</v>
@@ -13984,7 +13984,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K152">
         <v>1.65</v>
@@ -14162,7 +14162,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K154">
         <v>3.3</v>
@@ -14242,7 +14242,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K155">
         <v>1.533</v>
@@ -14340,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K156">
         <v>3.5</v>
@@ -14420,7 +14420,7 @@
         <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14506,7 +14506,7 @@
         <v>45318.77083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G158" t="s">
         <v>41</v>
@@ -14518,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K158">
         <v>2.25</v>
@@ -14607,7 +14607,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K159">
         <v>2.3</v>
@@ -14696,7 +14696,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K160">
         <v>2.7</v>
@@ -14785,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K161">
         <v>1.833</v>
@@ -15132,7 +15132,7 @@
         <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15141,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K165">
         <v>2.8</v>
@@ -15221,7 +15221,7 @@
         <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15230,7 +15230,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K166">
         <v>4.5</v>
@@ -15319,7 +15319,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K167">
         <v>1.25</v>
@@ -15408,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K168">
         <v>3.5</v>
@@ -15497,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K169">
         <v>2.875</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K171">
         <v>2.15</v>
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K172">
         <v>1.55</v>
@@ -15841,7 +15841,7 @@
         <v>45333.76041666666</v>
       </c>
       <c r="F173" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G173" t="s">
         <v>36</v>
@@ -15853,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15930,7 +15930,7 @@
         <v>45333.86458333334</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G174" t="s">
         <v>33</v>
@@ -15942,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K174">
         <v>1.95</v>
@@ -16031,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K175">
         <v>2.7</v>
@@ -16111,7 +16111,7 @@
         <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16200,7 +16200,7 @@
         <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16209,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K177">
         <v>3.4</v>
@@ -16387,7 +16387,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K179">
         <v>1.909</v>
@@ -16476,7 +16476,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K180">
         <v>2.25</v>
@@ -16553,7 +16553,7 @@
         <v>45345.8125</v>
       </c>
       <c r="F181" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G181" t="s">
         <v>37</v>
@@ -16565,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K181">
         <v>1.7</v>
@@ -16654,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K182">
         <v>2.7</v>
@@ -16731,7 +16731,7 @@
         <v>45346.86458333334</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G183" t="s">
         <v>41</v>
@@ -16743,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K183">
         <v>1.45</v>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K186">
         <v>1.363</v>
@@ -17090,7 +17090,16 @@
         <v>30</v>
       </c>
       <c r="G187" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187" t="s">
+        <v>45</v>
       </c>
       <c r="K187">
         <v>3.8</v>
@@ -17102,46 +17111,52 @@
         <v>1.909</v>
       </c>
       <c r="N187">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="O187">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P187">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="Q187">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R187">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S187">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T187">
         <v>2.5</v>
       </c>
       <c r="U187">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V187">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X187">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA187">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB187">
+        <v>-1</v>
+      </c>
+      <c r="AC187">
+        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17176,10 +17191,10 @@
         <v>3</v>
       </c>
       <c r="N188">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="O188">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P188">
         <v>3</v>
@@ -17188,19 +17203,19 @@
         <v>-0.25</v>
       </c>
       <c r="R188">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S188">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T188">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V188">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W188">
         <v>0</v>
@@ -17238,7 +17253,7 @@
         <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K189">
         <v>2</v>
@@ -17250,31 +17265,31 @@
         <v>3.4</v>
       </c>
       <c r="N189">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O189">
+        <v>3.3</v>
+      </c>
+      <c r="P189">
         <v>3.4</v>
       </c>
-      <c r="P189">
-        <v>3.6</v>
-      </c>
       <c r="Q189">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S189">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T189">
         <v>2.25</v>
       </c>
       <c r="U189">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V189">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W189">
         <v>0</v>
@@ -17324,31 +17339,31 @@
         <v>2.8</v>
       </c>
       <c r="N190">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="O190">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P190">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q190">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R190">
+        <v>1.875</v>
+      </c>
+      <c r="S190">
         <v>1.925</v>
-      </c>
-      <c r="S190">
-        <v>1.875</v>
       </c>
       <c r="T190">
         <v>2.5</v>
       </c>
       <c r="U190">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V190">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W190">
         <v>0</v>
@@ -17410,19 +17425,19 @@
         <v>0.75</v>
       </c>
       <c r="R191">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S191">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T191">
         <v>2.25</v>
       </c>
       <c r="U191">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V191">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W191">
         <v>0</v>
@@ -17437,6 +17452,80 @@
         <v>0</v>
       </c>
       <c r="AA191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>7609194</v>
+      </c>
+      <c r="C192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" t="s">
+        <v>28</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45355.8125</v>
+      </c>
+      <c r="F192" t="s">
+        <v>39</v>
+      </c>
+      <c r="G192" t="s">
+        <v>41</v>
+      </c>
+      <c r="K192">
+        <v>2</v>
+      </c>
+      <c r="L192">
+        <v>3.2</v>
+      </c>
+      <c r="M192">
+        <v>3.6</v>
+      </c>
+      <c r="N192">
+        <v>2.15</v>
+      </c>
+      <c r="O192">
+        <v>3.1</v>
+      </c>
+      <c r="P192">
+        <v>3.25</v>
+      </c>
+      <c r="Q192">
+        <v>-0.25</v>
+      </c>
+      <c r="R192">
+        <v>1.9</v>
+      </c>
+      <c r="S192">
+        <v>1.9</v>
+      </c>
+      <c r="T192">
+        <v>2.25</v>
+      </c>
+      <c r="U192">
+        <v>1.9</v>
+      </c>
+      <c r="V192">
+        <v>1.9</v>
+      </c>
+      <c r="W192">
+        <v>0</v>
+      </c>
+      <c r="X192">
+        <v>0</v>
+      </c>
+      <c r="Y192">
+        <v>0</v>
+      </c>
+      <c r="Z192">
+        <v>0</v>
+      </c>
+      <c r="AA192">
         <v>0</v>
       </c>
     </row>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC192"/>
+  <dimension ref="A1:AC191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7493431</v>
+        <v>7493310</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,76 +12904,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H140">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K140">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="L140">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M140">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="N140">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="O140">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P140">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R140">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U140">
+        <v>1.8</v>
+      </c>
+      <c r="V140">
         <v>2</v>
       </c>
-      <c r="V140">
-        <v>1.8</v>
-      </c>
       <c r="W140">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z140">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12981,7 +12981,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7493310</v>
+        <v>7493431</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12993,76 +12993,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I141">
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K141">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="L141">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M141">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="N141">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="O141">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P141">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R141">
+        <v>1.925</v>
+      </c>
+      <c r="S141">
+        <v>1.875</v>
+      </c>
+      <c r="T141">
+        <v>2.5</v>
+      </c>
+      <c r="U141">
+        <v>2</v>
+      </c>
+      <c r="V141">
         <v>1.8</v>
       </c>
-      <c r="S141">
-        <v>2</v>
-      </c>
-      <c r="T141">
-        <v>2.75</v>
-      </c>
-      <c r="U141">
-        <v>1.8</v>
-      </c>
-      <c r="V141">
-        <v>2</v>
-      </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA141">
+        <v>-1</v>
+      </c>
+      <c r="AB141">
         <v>1</v>
       </c>
-      <c r="AB141">
-        <v>0.4</v>
-      </c>
       <c r="AC141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7493311</v>
+        <v>7493433</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K143">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="L143">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M143">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N143">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="O143">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P143">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q143">
         <v>0.25</v>
       </c>
       <c r="R143">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S143">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T143">
         <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V143">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y143">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA143">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC143">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7493433</v>
+        <v>7493311</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K145">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L145">
+        <v>3.3</v>
+      </c>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="N145">
         <v>3.2</v>
       </c>
-      <c r="M145">
-        <v>2.4</v>
-      </c>
-      <c r="N145">
-        <v>2.75</v>
-      </c>
       <c r="O145">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P145">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q145">
         <v>0.25</v>
       </c>
       <c r="R145">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S145">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V145">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z145">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -17181,6 +17181,15 @@
       <c r="G188" t="s">
         <v>42</v>
       </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>2</v>
+      </c>
+      <c r="J188" t="s">
+        <v>44</v>
+      </c>
       <c r="K188">
         <v>2.2</v>
       </c>
@@ -17203,34 +17212,40 @@
         <v>-0.25</v>
       </c>
       <c r="R188">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S188">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T188">
         <v>2.5</v>
       </c>
       <c r="U188">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V188">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB188">
+        <v>-1</v>
+      </c>
+      <c r="AC188">
+        <v>0.925</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17238,7 +17253,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7609139</v>
+        <v>7609140</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17247,49 +17262,49 @@
         <v>28</v>
       </c>
       <c r="E189" s="2">
-        <v>45353.85416666666</v>
+        <v>45354.75</v>
       </c>
       <c r="F189" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G189" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K189">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L189">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M189">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N189">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="O189">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P189">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R189">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S189">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T189">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U189">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V189">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W189">
         <v>0</v>
@@ -17312,7 +17327,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7609140</v>
+        <v>7609193</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17321,49 +17336,49 @@
         <v>28</v>
       </c>
       <c r="E190" s="2">
-        <v>45354.75</v>
+        <v>45354.85416666666</v>
       </c>
       <c r="F190" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G190" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K190">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="L190">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M190">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="N190">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="O190">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P190">
-        <v>3.8</v>
+        <v>1.666</v>
       </c>
       <c r="Q190">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R190">
+        <v>1.925</v>
+      </c>
+      <c r="S190">
         <v>1.875</v>
       </c>
-      <c r="S190">
-        <v>1.925</v>
-      </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U190">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V190">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W190">
         <v>0</v>
@@ -17386,7 +17401,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7609193</v>
+        <v>7609194</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17395,49 +17410,49 @@
         <v>28</v>
       </c>
       <c r="E191" s="2">
-        <v>45354.85416666666</v>
+        <v>45355.8125</v>
       </c>
       <c r="F191" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G191" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K191">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="L191">
+        <v>3.2</v>
+      </c>
+      <c r="M191">
         <v>3.6</v>
       </c>
-      <c r="M191">
-        <v>1.666</v>
-      </c>
       <c r="N191">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="O191">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P191">
-        <v>1.666</v>
+        <v>3.25</v>
       </c>
       <c r="Q191">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R191">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S191">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T191">
         <v>2.25</v>
       </c>
       <c r="U191">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V191">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W191">
         <v>0</v>
@@ -17452,80 +17467,6 @@
         <v>0</v>
       </c>
       <c r="AA191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:29">
-      <c r="A192" s="1">
-        <v>190</v>
-      </c>
-      <c r="B192">
-        <v>7609194</v>
-      </c>
-      <c r="C192" t="s">
-        <v>28</v>
-      </c>
-      <c r="D192" t="s">
-        <v>28</v>
-      </c>
-      <c r="E192" s="2">
-        <v>45355.8125</v>
-      </c>
-      <c r="F192" t="s">
-        <v>39</v>
-      </c>
-      <c r="G192" t="s">
-        <v>41</v>
-      </c>
-      <c r="K192">
-        <v>2</v>
-      </c>
-      <c r="L192">
-        <v>3.2</v>
-      </c>
-      <c r="M192">
-        <v>3.6</v>
-      </c>
-      <c r="N192">
-        <v>2.15</v>
-      </c>
-      <c r="O192">
-        <v>3.1</v>
-      </c>
-      <c r="P192">
-        <v>3.25</v>
-      </c>
-      <c r="Q192">
-        <v>-0.25</v>
-      </c>
-      <c r="R192">
-        <v>1.9</v>
-      </c>
-      <c r="S192">
-        <v>1.9</v>
-      </c>
-      <c r="T192">
-        <v>2.25</v>
-      </c>
-      <c r="U192">
-        <v>1.9</v>
-      </c>
-      <c r="V192">
-        <v>1.9</v>
-      </c>
-      <c r="W192">
-        <v>0</v>
-      </c>
-      <c r="X192">
-        <v>0</v>
-      </c>
-      <c r="Y192">
-        <v>0</v>
-      </c>
-      <c r="Z192">
-        <v>0</v>
-      </c>
-      <c r="AA192">
         <v>0</v>
       </c>
     </row>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,13 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
+    <t>Sportivo Luqueno</t>
+  </si>
+  <si>
     <t>Cerro Porteno</t>
   </si>
   <si>
     <t>Guarani Asuncion</t>
-  </si>
-  <si>
-    <t>Sportivo Luqueno</t>
   </si>
   <si>
     <t>Sportivo Ameliano</t>
@@ -145,13 +145,13 @@
     <t>2 de Mayo</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC191"/>
+  <dimension ref="A1:AC197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6720843</v>
+        <v>6720873</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,73 +625,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L2">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M2">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N2">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O2">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P2">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q2">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R2">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S2">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T2">
         <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V2">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W2">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6720844</v>
+        <v>6720843</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,31 +714,31 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
       </c>
       <c r="K3">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M3">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O3">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P3">
         <v>1.85</v>
@@ -747,10 +747,10 @@
         <v>0.5</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T3">
         <v>2.5</v>
@@ -762,25 +762,25 @@
         <v>1.875</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6720873</v>
+        <v>6720844</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,10 +803,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -815,58 +815,58 @@
         <v>45</v>
       </c>
       <c r="K4">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="L4">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N4">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O4">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P4">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K5">
         <v>1.95</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K6">
         <v>1.571</v>
@@ -1079,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>2.4</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8">
         <v>2.75</v>
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K9">
         <v>1.333</v>
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K10">
         <v>2.3</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1515,7 +1515,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K12">
         <v>5.5</v>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K13">
         <v>1.363</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>2.7</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K15">
         <v>1.55</v>
@@ -1880,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -1969,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K17">
         <v>1.4</v>
@@ -2046,10 +2046,10 @@
         <v>45116.70833333334</v>
       </c>
       <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
         <v>31</v>
-      </c>
-      <c r="G18" t="s">
-        <v>30</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K18">
         <v>2.375</v>
@@ -2135,7 +2135,7 @@
         <v>45116.8125</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -2147,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K19">
         <v>1.4</v>
@@ -2236,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K20">
         <v>4.75</v>
@@ -2316,7 +2316,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K21">
         <v>3.6</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K22">
         <v>2.625</v>
@@ -2491,7 +2491,7 @@
         <v>45123.8125</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
@@ -2503,7 +2503,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2583,7 +2583,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2592,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K24">
         <v>2.625</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K25">
         <v>1.666</v>
@@ -2761,7 +2761,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
         <v>2.9</v>
@@ -2859,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27">
         <v>1.65</v>
@@ -2936,7 +2936,7 @@
         <v>45129.8125</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K28">
         <v>1.45</v>
@@ -3025,7 +3025,7 @@
         <v>45130.70833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -3037,7 +3037,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29">
         <v>2.15</v>
@@ -3126,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K30">
         <v>1.7</v>
@@ -3215,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K31">
         <v>1.25</v>
@@ -3295,7 +3295,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K32">
         <v>2.625</v>
@@ -3381,7 +3381,7 @@
         <v>45135.85416666666</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3571,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K35">
         <v>4.2</v>
@@ -3660,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K36">
         <v>2.2</v>
@@ -3740,7 +3740,7 @@
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K37">
         <v>4.5</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K38">
         <v>1.363</v>
@@ -3915,7 +3915,7 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K39">
         <v>1.666</v>
@@ -4004,7 +4004,7 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
         <v>34</v>
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4096,7 +4096,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -4105,7 +4105,7 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K41">
         <v>1.615</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K42">
         <v>1.65</v>
@@ -4283,7 +4283,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K43">
         <v>2.625</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K44">
         <v>2.75</v>
@@ -4461,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -4541,7 +4541,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4627,7 +4627,7 @@
         <v>45151.72916666666</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
         <v>40</v>
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K47">
         <v>2.15</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K48">
         <v>2.05</v>
@@ -4808,7 +4808,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4817,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K49">
         <v>2.375</v>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K50">
         <v>1.5</v>
@@ -4983,7 +4983,7 @@
         <v>45157.75</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
@@ -4995,7 +4995,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K51">
         <v>2.25</v>
@@ -5084,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K52">
         <v>1.444</v>
@@ -5161,10 +5161,10 @@
         <v>45158.75</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5173,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K53">
         <v>3.5</v>
@@ -5262,7 +5262,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K54">
         <v>1.666</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K55">
         <v>2.3</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K56">
         <v>1.7</v>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5606,7 +5606,7 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K58">
         <v>2.375</v>
@@ -5695,7 +5695,7 @@
         <v>45165.72916666666</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
         <v>40</v>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -5787,7 +5787,7 @@
         <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K60">
         <v>2.8</v>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K61">
         <v>3.4</v>
@@ -5974,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6054,7 +6054,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6063,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K63">
         <v>4.75</v>
@@ -6143,7 +6143,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K64">
         <v>1.5</v>
@@ -6229,7 +6229,7 @@
         <v>45172.72916666666</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -6241,7 +6241,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K65">
         <v>1.85</v>
@@ -6330,7 +6330,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K66">
         <v>1.909</v>
@@ -6410,7 +6410,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K67">
         <v>2.45</v>
@@ -6508,7 +6508,7 @@
         <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K68">
         <v>2.875</v>
@@ -6585,7 +6585,7 @@
         <v>45179.72916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
         <v>39</v>
@@ -6597,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K69">
         <v>1.85</v>
@@ -6674,7 +6674,7 @@
         <v>45179.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K70">
         <v>1.833</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K71">
         <v>2.2</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K72">
         <v>2.55</v>
@@ -6944,7 +6944,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -7042,7 +7042,7 @@
         <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K74">
         <v>5.75</v>
@@ -7131,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K75">
         <v>1.533</v>
@@ -7220,7 +7220,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7297,10 +7297,10 @@
         <v>45186.83333333334</v>
       </c>
       <c r="F77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" t="s">
         <v>30</v>
-      </c>
-      <c r="G77" t="s">
-        <v>29</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K77">
         <v>3.8</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K78">
         <v>1.615</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K79">
         <v>2.2</v>
@@ -7567,7 +7567,7 @@
         <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K80">
         <v>5.25</v>
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K81">
         <v>6</v>
@@ -7754,7 +7754,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K82">
         <v>4</v>
@@ -7831,10 +7831,10 @@
         <v>45193.77083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K83">
         <v>2.15</v>
@@ -7932,7 +7932,7 @@
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K84">
         <v>1.95</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K85">
         <v>1.85</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K86">
         <v>2.1</v>
@@ -8199,7 +8199,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K87">
         <v>3.8</v>
@@ -8276,7 +8276,7 @@
         <v>45200.75</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8288,7 +8288,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K88">
         <v>1.55</v>
@@ -8368,7 +8368,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K89">
         <v>1.5</v>
@@ -8454,7 +8454,7 @@
         <v>45201.75</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K90">
         <v>1.8</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K91">
         <v>1.333</v>
@@ -8635,7 +8635,7 @@
         <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K92">
         <v>4.2</v>
@@ -8733,7 +8733,7 @@
         <v>5</v>
       </c>
       <c r="J93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K93">
         <v>5.75</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K94">
         <v>2.875</v>
@@ -8911,7 +8911,7 @@
         <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K95">
         <v>2.7</v>
@@ -8988,7 +8988,7 @@
         <v>45207.85416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
         <v>39</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K96">
         <v>1.75</v>
@@ -9080,7 +9080,7 @@
         <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9089,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K97">
         <v>2.15</v>
@@ -9169,7 +9169,7 @@
         <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K98">
         <v>1.95</v>
@@ -9267,7 +9267,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K99">
         <v>2.375</v>
@@ -9344,7 +9344,7 @@
         <v>45218.8125</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9356,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K100">
         <v>1.909</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K101">
         <v>1.444</v>
@@ -9534,7 +9534,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K102">
         <v>1.7</v>
@@ -9611,7 +9611,7 @@
         <v>45220.85416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -9623,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K103">
         <v>1.363</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K104">
         <v>3.6</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K105">
         <v>6</v>
@@ -9890,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K106">
         <v>1.75</v>
@@ -9970,7 +9970,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9979,7 +9979,7 @@
         <v>5</v>
       </c>
       <c r="J107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K107">
         <v>3.75</v>
@@ -10056,7 +10056,7 @@
         <v>45223.85416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10068,7 +10068,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K108">
         <v>3.6</v>
@@ -10148,7 +10148,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K109">
         <v>3.2</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K110">
         <v>2.75</v>
@@ -10335,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K111">
         <v>1.909</v>
@@ -10412,7 +10412,7 @@
         <v>45227.85416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
         <v>35</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K112">
         <v>1.85</v>
@@ -10504,7 +10504,7 @@
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K113">
         <v>2.25</v>
@@ -10590,7 +10590,7 @@
         <v>45229.75</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
         <v>38</v>
@@ -10602,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K114">
         <v>2.05</v>
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K115">
         <v>1.25</v>
@@ -10771,7 +10771,7 @@
         <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K116">
         <v>2.2</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K117">
         <v>4</v>
@@ -10958,7 +10958,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K118">
         <v>2.2</v>
@@ -11047,7 +11047,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K119">
         <v>4.333</v>
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K120">
         <v>5</v>
@@ -11213,10 +11213,10 @@
         <v>45233.85416666666</v>
       </c>
       <c r="F121" t="s">
+        <v>30</v>
+      </c>
+      <c r="G121" t="s">
         <v>29</v>
-      </c>
-      <c r="G121" t="s">
-        <v>31</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K121">
         <v>1.533</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K122">
         <v>2.6</v>
@@ -11391,7 +11391,7 @@
         <v>45235.85416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
         <v>37</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K123">
         <v>1.909</v>
@@ -11483,7 +11483,7 @@
         <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11492,7 +11492,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K124">
         <v>2.05</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K125">
         <v>1.615</v>
@@ -11670,7 +11670,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K126">
         <v>2.5</v>
@@ -11750,7 +11750,7 @@
         <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K127">
         <v>1.833</v>
@@ -11848,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K128">
         <v>3</v>
@@ -11937,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K129">
         <v>2</v>
@@ -12014,7 +12014,7 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
         <v>36</v>
@@ -12026,7 +12026,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K130">
         <v>4</v>
@@ -12103,7 +12103,7 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
         <v>39</v>
@@ -12115,7 +12115,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K131">
         <v>1.285</v>
@@ -12195,7 +12195,7 @@
         <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12204,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K132">
         <v>3.4</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K133">
         <v>2.75</v>
@@ -12373,7 +12373,7 @@
         <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12382,7 +12382,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K134">
         <v>3.4</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K135">
         <v>1.727</v>
@@ -12560,7 +12560,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K136">
         <v>1.85</v>
@@ -12649,7 +12649,7 @@
         <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K137">
         <v>2.7</v>
@@ -12726,7 +12726,7 @@
         <v>45255.8125</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
         <v>38</v>
@@ -12738,7 +12738,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K138">
         <v>2</v>
@@ -12818,7 +12818,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12827,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K139">
         <v>2.375</v>
@@ -12916,7 +12916,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K140">
         <v>1.363</v>
@@ -13005,7 +13005,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K141">
         <v>2.05</v>
@@ -13094,7 +13094,7 @@
         <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K142">
         <v>4</v>
@@ -13171,7 +13171,7 @@
         <v>45261.8125</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G143" t="s">
         <v>33</v>
@@ -13183,7 +13183,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K143">
         <v>2.75</v>
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7493312</v>
+        <v>7493311</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,76 +13260,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K144">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L144">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M144">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N144">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O144">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P144">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V144">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W144">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z144">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7493311</v>
+        <v>7493312</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H145">
+        <v>4</v>
+      </c>
+      <c r="I145">
         <v>0</v>
-      </c>
-      <c r="I145">
-        <v>1</v>
       </c>
       <c r="J145" t="s">
         <v>44</v>
       </c>
       <c r="K145">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L145">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M145">
+        <v>4.333</v>
+      </c>
+      <c r="N145">
+        <v>1.727</v>
+      </c>
+      <c r="O145">
+        <v>3.75</v>
+      </c>
+      <c r="P145">
+        <v>4.2</v>
+      </c>
+      <c r="Q145">
+        <v>-0.5</v>
+      </c>
+      <c r="R145">
+        <v>1.8</v>
+      </c>
+      <c r="S145">
         <v>2</v>
       </c>
-      <c r="N145">
-        <v>3.2</v>
-      </c>
-      <c r="O145">
-        <v>3.25</v>
-      </c>
-      <c r="P145">
-        <v>2.1</v>
-      </c>
-      <c r="Q145">
-        <v>0.25</v>
-      </c>
-      <c r="R145">
-        <v>1.95</v>
-      </c>
-      <c r="S145">
-        <v>1.85</v>
-      </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC145">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K146">
         <v>2.625</v>
@@ -13539,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K147">
         <v>1.444</v>
@@ -13616,7 +13616,7 @@
         <v>45311.75</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
         <v>42</v>
@@ -13628,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K148">
         <v>1.8</v>
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K149">
         <v>2.2</v>
@@ -13794,7 +13794,7 @@
         <v>45312.75</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G150" t="s">
         <v>38</v>
@@ -13806,7 +13806,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K150">
         <v>1.533</v>
@@ -13883,7 +13883,7 @@
         <v>45312.85416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K151">
         <v>3.75</v>
@@ -13984,7 +13984,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K152">
         <v>1.65</v>
@@ -14073,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K153">
         <v>4.333</v>
@@ -14153,7 +14153,7 @@
         <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14162,7 +14162,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K154">
         <v>3.3</v>
@@ -14242,7 +14242,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K155">
         <v>1.533</v>
@@ -14340,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K156">
         <v>3.5</v>
@@ -14420,7 +14420,7 @@
         <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14429,7 +14429,7 @@
         <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K157">
         <v>3.75</v>
@@ -14506,7 +14506,7 @@
         <v>45318.77083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
         <v>41</v>
@@ -14518,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K158">
         <v>2.25</v>
@@ -14607,7 +14607,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K159">
         <v>2.3</v>
@@ -14696,7 +14696,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K160">
         <v>2.7</v>
@@ -14773,7 +14773,7 @@
         <v>45319.86805555555</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
         <v>39</v>
@@ -14785,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K161">
         <v>1.833</v>
@@ -14874,7 +14874,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K162">
         <v>6.5</v>
@@ -14954,7 +14954,7 @@
         <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14963,7 +14963,7 @@
         <v>4</v>
       </c>
       <c r="J163" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K163">
         <v>1.909</v>
@@ -15052,7 +15052,7 @@
         <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K164">
         <v>2.5</v>
@@ -15132,7 +15132,7 @@
         <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15141,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K165">
         <v>2.8</v>
@@ -15221,7 +15221,7 @@
         <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15230,7 +15230,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K166">
         <v>4.5</v>
@@ -15319,7 +15319,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K167">
         <v>1.25</v>
@@ -15408,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K168">
         <v>3.5</v>
@@ -15497,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K169">
         <v>2.875</v>
@@ -15586,7 +15586,7 @@
         <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K170">
         <v>2</v>
@@ -15663,7 +15663,7 @@
         <v>45332.76041666666</v>
       </c>
       <c r="F171" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
         <v>32</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K171">
         <v>2.15</v>
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K172">
         <v>1.55</v>
@@ -15841,7 +15841,7 @@
         <v>45333.76041666666</v>
       </c>
       <c r="F173" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G173" t="s">
         <v>36</v>
@@ -15853,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15930,7 +15930,7 @@
         <v>45333.86458333334</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G174" t="s">
         <v>33</v>
@@ -15942,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K174">
         <v>1.95</v>
@@ -16022,7 +16022,7 @@
         <v>37</v>
       </c>
       <c r="G175" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16031,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K175">
         <v>2.7</v>
@@ -16111,7 +16111,7 @@
         <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16120,7 +16120,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K176">
         <v>2.5</v>
@@ -16200,7 +16200,7 @@
         <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16209,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K177">
         <v>3.4</v>
@@ -16298,7 +16298,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K178">
         <v>6</v>
@@ -16387,7 +16387,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K179">
         <v>1.909</v>
@@ -16476,7 +16476,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K180">
         <v>2.25</v>
@@ -16553,7 +16553,7 @@
         <v>45345.8125</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G181" t="s">
         <v>37</v>
@@ -16565,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K181">
         <v>1.7</v>
@@ -16654,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K182">
         <v>2.7</v>
@@ -16731,7 +16731,7 @@
         <v>45346.86458333334</v>
       </c>
       <c r="F183" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G183" t="s">
         <v>41</v>
@@ -16743,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K183">
         <v>1.45</v>
@@ -16832,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K184">
         <v>2.7</v>
@@ -16909,7 +16909,7 @@
         <v>45347.86458333334</v>
       </c>
       <c r="F185" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
         <v>40</v>
@@ -16921,7 +16921,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K185">
         <v>2.6</v>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K186">
         <v>1.363</v>
@@ -17087,10 +17087,10 @@
         <v>45352.8125</v>
       </c>
       <c r="F187" t="s">
+        <v>31</v>
+      </c>
+      <c r="G187" t="s">
         <v>30</v>
-      </c>
-      <c r="G187" t="s">
-        <v>29</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17099,7 +17099,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K187">
         <v>3.8</v>
@@ -17188,7 +17188,7 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K188">
         <v>2.2</v>
@@ -17253,7 +17253,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7609140</v>
+        <v>7609139</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17262,64 +17262,79 @@
         <v>28</v>
       </c>
       <c r="E189" s="2">
-        <v>45354.75</v>
+        <v>45353.85416666666</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189" t="s">
+        <v>44</v>
       </c>
       <c r="K189">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L189">
+        <v>3.4</v>
+      </c>
+      <c r="M189">
+        <v>3.4</v>
+      </c>
+      <c r="N189">
+        <v>2.05</v>
+      </c>
+      <c r="O189">
         <v>3.3</v>
       </c>
-      <c r="M189">
-        <v>2.8</v>
-      </c>
-      <c r="N189">
+      <c r="P189">
+        <v>3.4</v>
+      </c>
+      <c r="Q189">
+        <v>-0.25</v>
+      </c>
+      <c r="R189">
+        <v>1.8</v>
+      </c>
+      <c r="S189">
+        <v>2</v>
+      </c>
+      <c r="T189">
+        <v>2.25</v>
+      </c>
+      <c r="U189">
+        <v>1.95</v>
+      </c>
+      <c r="V189">
         <v>1.85</v>
       </c>
-      <c r="O189">
-        <v>3.5</v>
-      </c>
-      <c r="P189">
-        <v>3.8</v>
-      </c>
-      <c r="Q189">
-        <v>-0.5</v>
-      </c>
-      <c r="R189">
-        <v>1.9</v>
-      </c>
-      <c r="S189">
-        <v>1.9</v>
-      </c>
-      <c r="T189">
-        <v>2.5</v>
-      </c>
-      <c r="U189">
-        <v>1.9</v>
-      </c>
-      <c r="V189">
-        <v>1.9</v>
-      </c>
       <c r="W189">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA189">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB189">
+        <v>-1</v>
+      </c>
+      <c r="AC189">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17327,7 +17342,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7609193</v>
+        <v>7609140</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17336,64 +17351,79 @@
         <v>28</v>
       </c>
       <c r="E190" s="2">
-        <v>45354.85416666666</v>
+        <v>45354.75</v>
       </c>
       <c r="F190" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G190" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="H190">
+        <v>3</v>
+      </c>
+      <c r="I190">
+        <v>2</v>
+      </c>
+      <c r="J190" t="s">
+        <v>44</v>
       </c>
       <c r="K190">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="L190">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M190">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="N190">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="O190">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P190">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="Q190">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R190">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S190">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T190">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U190">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V190">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W190">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="X190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA190">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB190">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC190">
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17418,6 +17448,15 @@
       <c r="G191" t="s">
         <v>41</v>
       </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>2</v>
+      </c>
+      <c r="J191" t="s">
+        <v>45</v>
+      </c>
       <c r="K191">
         <v>2</v>
       </c>
@@ -17428,45 +17467,495 @@
         <v>3.6</v>
       </c>
       <c r="N191">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O191">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P191">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q191">
         <v>-0.25</v>
       </c>
       <c r="R191">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S191">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T191">
         <v>2.25</v>
       </c>
       <c r="U191">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V191">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W191">
+        <v>-1</v>
+      </c>
+      <c r="X191">
+        <v>-1</v>
+      </c>
+      <c r="Y191">
+        <v>2.2</v>
+      </c>
+      <c r="Z191">
+        <v>-1</v>
+      </c>
+      <c r="AA191">
+        <v>0.825</v>
+      </c>
+      <c r="AB191">
+        <v>-0.5</v>
+      </c>
+      <c r="AC191">
+        <v>0.4125</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>7609196</v>
+      </c>
+      <c r="C192" t="s">
+        <v>28</v>
+      </c>
+      <c r="D192" t="s">
+        <v>28</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45359.75</v>
+      </c>
+      <c r="F192" t="s">
+        <v>41</v>
+      </c>
+      <c r="G192" t="s">
+        <v>33</v>
+      </c>
+      <c r="K192">
+        <v>2.75</v>
+      </c>
+      <c r="L192">
+        <v>3</v>
+      </c>
+      <c r="M192">
+        <v>2.5</v>
+      </c>
+      <c r="N192">
+        <v>2.375</v>
+      </c>
+      <c r="O192">
+        <v>2.9</v>
+      </c>
+      <c r="P192">
+        <v>3</v>
+      </c>
+      <c r="Q192">
+        <v>-0.25</v>
+      </c>
+      <c r="R192">
+        <v>2.075</v>
+      </c>
+      <c r="S192">
+        <v>1.725</v>
+      </c>
+      <c r="T192">
+        <v>2.25</v>
+      </c>
+      <c r="U192">
+        <v>1.95</v>
+      </c>
+      <c r="V192">
+        <v>1.85</v>
+      </c>
+      <c r="W192">
         <v>0</v>
       </c>
-      <c r="X191">
+      <c r="X192">
         <v>0</v>
       </c>
-      <c r="Y191">
+      <c r="Y192">
         <v>0</v>
       </c>
-      <c r="Z191">
+      <c r="Z192">
         <v>0</v>
       </c>
-      <c r="AA191">
+      <c r="AA192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>7609674</v>
+      </c>
+      <c r="C193" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" t="s">
+        <v>28</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45359.85416666666</v>
+      </c>
+      <c r="F193" t="s">
+        <v>42</v>
+      </c>
+      <c r="G193" t="s">
+        <v>37</v>
+      </c>
+      <c r="K193">
+        <v>2</v>
+      </c>
+      <c r="L193">
+        <v>3.25</v>
+      </c>
+      <c r="M193">
+        <v>3.5</v>
+      </c>
+      <c r="N193">
+        <v>2.2</v>
+      </c>
+      <c r="O193">
+        <v>3</v>
+      </c>
+      <c r="P193">
+        <v>3.25</v>
+      </c>
+      <c r="Q193">
+        <v>-0.25</v>
+      </c>
+      <c r="R193">
+        <v>1.925</v>
+      </c>
+      <c r="S193">
+        <v>1.875</v>
+      </c>
+      <c r="T193">
+        <v>2.25</v>
+      </c>
+      <c r="U193">
+        <v>2.025</v>
+      </c>
+      <c r="V193">
+        <v>1.775</v>
+      </c>
+      <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
+      </c>
+      <c r="Y193">
+        <v>0</v>
+      </c>
+      <c r="Z193">
+        <v>0</v>
+      </c>
+      <c r="AA193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:27">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>7609195</v>
+      </c>
+      <c r="C194" t="s">
+        <v>28</v>
+      </c>
+      <c r="D194" t="s">
+        <v>28</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45360.8125</v>
+      </c>
+      <c r="F194" t="s">
+        <v>30</v>
+      </c>
+      <c r="G194" t="s">
+        <v>39</v>
+      </c>
+      <c r="K194">
+        <v>1.363</v>
+      </c>
+      <c r="L194">
+        <v>4.5</v>
+      </c>
+      <c r="M194">
+        <v>7.5</v>
+      </c>
+      <c r="N194">
+        <v>1.363</v>
+      </c>
+      <c r="O194">
+        <v>4.5</v>
+      </c>
+      <c r="P194">
+        <v>7.5</v>
+      </c>
+      <c r="Q194">
+        <v>-1.25</v>
+      </c>
+      <c r="R194">
+        <v>1.825</v>
+      </c>
+      <c r="S194">
+        <v>1.975</v>
+      </c>
+      <c r="T194">
+        <v>2.75</v>
+      </c>
+      <c r="U194">
+        <v>1.925</v>
+      </c>
+      <c r="V194">
+        <v>1.875</v>
+      </c>
+      <c r="W194">
+        <v>0</v>
+      </c>
+      <c r="X194">
+        <v>0</v>
+      </c>
+      <c r="Y194">
+        <v>0</v>
+      </c>
+      <c r="Z194">
+        <v>0</v>
+      </c>
+      <c r="AA194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:27">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>7609141</v>
+      </c>
+      <c r="C195" t="s">
+        <v>28</v>
+      </c>
+      <c r="D195" t="s">
+        <v>28</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45361.75</v>
+      </c>
+      <c r="F195" t="s">
+        <v>38</v>
+      </c>
+      <c r="G195" t="s">
+        <v>40</v>
+      </c>
+      <c r="K195">
+        <v>5.25</v>
+      </c>
+      <c r="L195">
+        <v>3.6</v>
+      </c>
+      <c r="M195">
+        <v>1.615</v>
+      </c>
+      <c r="N195">
+        <v>5.5</v>
+      </c>
+      <c r="O195">
+        <v>3.75</v>
+      </c>
+      <c r="P195">
+        <v>1.571</v>
+      </c>
+      <c r="Q195">
+        <v>1</v>
+      </c>
+      <c r="R195">
+        <v>1.775</v>
+      </c>
+      <c r="S195">
+        <v>2.025</v>
+      </c>
+      <c r="T195">
+        <v>2.5</v>
+      </c>
+      <c r="U195">
+        <v>1.825</v>
+      </c>
+      <c r="V195">
+        <v>1.975</v>
+      </c>
+      <c r="W195">
+        <v>0</v>
+      </c>
+      <c r="X195">
+        <v>0</v>
+      </c>
+      <c r="Y195">
+        <v>0</v>
+      </c>
+      <c r="Z195">
+        <v>0</v>
+      </c>
+      <c r="AA195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:27">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>7609142</v>
+      </c>
+      <c r="C196" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45361.85416666666</v>
+      </c>
+      <c r="F196" t="s">
+        <v>29</v>
+      </c>
+      <c r="G196" t="s">
+        <v>31</v>
+      </c>
+      <c r="K196">
+        <v>2.1</v>
+      </c>
+      <c r="L196">
+        <v>3.2</v>
+      </c>
+      <c r="M196">
+        <v>3.4</v>
+      </c>
+      <c r="N196">
+        <v>2.1</v>
+      </c>
+      <c r="O196">
+        <v>3.2</v>
+      </c>
+      <c r="P196">
+        <v>3.4</v>
+      </c>
+      <c r="Q196">
+        <v>-0.25</v>
+      </c>
+      <c r="R196">
+        <v>1.825</v>
+      </c>
+      <c r="S196">
+        <v>1.975</v>
+      </c>
+      <c r="T196">
+        <v>2.25</v>
+      </c>
+      <c r="U196">
+        <v>1.975</v>
+      </c>
+      <c r="V196">
+        <v>1.825</v>
+      </c>
+      <c r="W196">
+        <v>0</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+      <c r="Y196">
+        <v>0</v>
+      </c>
+      <c r="Z196">
+        <v>0</v>
+      </c>
+      <c r="AA196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:27">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>7609197</v>
+      </c>
+      <c r="C197" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" t="s">
+        <v>28</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45362.8125</v>
+      </c>
+      <c r="F197" t="s">
+        <v>36</v>
+      </c>
+      <c r="G197" t="s">
+        <v>32</v>
+      </c>
+      <c r="K197">
+        <v>1.5</v>
+      </c>
+      <c r="L197">
+        <v>4</v>
+      </c>
+      <c r="M197">
+        <v>6.5</v>
+      </c>
+      <c r="N197">
+        <v>1.5</v>
+      </c>
+      <c r="O197">
+        <v>4</v>
+      </c>
+      <c r="P197">
+        <v>6.5</v>
+      </c>
+      <c r="Q197">
+        <v>-1</v>
+      </c>
+      <c r="R197">
+        <v>1.8</v>
+      </c>
+      <c r="S197">
+        <v>2</v>
+      </c>
+      <c r="T197">
+        <v>2.75</v>
+      </c>
+      <c r="U197">
+        <v>1.95</v>
+      </c>
+      <c r="V197">
+        <v>1.85</v>
+      </c>
+      <c r="W197">
+        <v>0</v>
+      </c>
+      <c r="X197">
+        <v>0</v>
+      </c>
+      <c r="Y197">
+        <v>0</v>
+      </c>
+      <c r="Z197">
+        <v>0</v>
+      </c>
+      <c r="AA197">
         <v>0</v>
       </c>
     </row>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
-    <t>Sportivo Luqueno</t>
+    <t>Cerro Porteno</t>
   </si>
   <si>
-    <t>Cerro Porteno</t>
+    <t>Sportivo Luqueno</t>
   </si>
   <si>
     <t>Guarani Asuncion</t>
@@ -145,10 +145,10 @@
     <t>2 de Mayo</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
     <t>A</t>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6720873</v>
+        <v>6720843</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,73 +625,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="L2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M2">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N2">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="O2">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P2">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R2">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S2">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T2">
         <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V2">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X2">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA2">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6720843</v>
+        <v>6720873</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,73 +714,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
       </c>
       <c r="K3">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M3">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N3">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O3">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P3">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q3">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T3">
         <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6">
         <v>1.571</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9">
         <v>1.333</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10">
         <v>2.3</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1515,7 +1515,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12">
         <v>5.5</v>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13">
         <v>1.363</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14">
         <v>2.7</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15">
         <v>1.55</v>
@@ -1880,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -2046,7 +2046,7 @@
         <v>45116.70833333334</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>31</v>
@@ -2135,7 +2135,7 @@
         <v>45116.8125</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -2236,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K20">
         <v>4.75</v>
@@ -2316,7 +2316,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K22">
         <v>2.625</v>
@@ -2583,7 +2583,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2592,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K24">
         <v>2.625</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25">
         <v>1.666</v>
@@ -2936,7 +2936,7 @@
         <v>45129.8125</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K28">
         <v>1.45</v>
@@ -3025,7 +3025,7 @@
         <v>45130.70833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -3215,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>1.25</v>
@@ -3295,7 +3295,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K32">
         <v>2.625</v>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3740,7 +3740,7 @@
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K38">
         <v>1.363</v>
@@ -3915,7 +3915,7 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K39">
         <v>1.666</v>
@@ -4004,7 +4004,7 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
         <v>34</v>
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4105,7 +4105,7 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K41">
         <v>1.615</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K42">
         <v>1.65</v>
@@ -4283,7 +4283,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K43">
         <v>2.625</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K44">
         <v>2.75</v>
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4627,7 +4627,7 @@
         <v>45151.72916666666</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
         <v>40</v>
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K47">
         <v>2.15</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K48">
         <v>2.05</v>
@@ -4808,7 +4808,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K50">
         <v>1.5</v>
@@ -5161,10 +5161,10 @@
         <v>45158.75</v>
       </c>
       <c r="F53" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" t="s">
         <v>29</v>
-      </c>
-      <c r="G53" t="s">
-        <v>30</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5173,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K53">
         <v>3.5</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K55">
         <v>2.3</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K56">
         <v>1.7</v>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5606,7 +5606,7 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K58">
         <v>2.375</v>
@@ -5695,7 +5695,7 @@
         <v>45165.72916666666</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
         <v>40</v>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K61">
         <v>3.4</v>
@@ -5974,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6054,7 +6054,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6063,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K63">
         <v>4.75</v>
@@ -6143,7 +6143,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K64">
         <v>1.5</v>
@@ -6241,7 +6241,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K65">
         <v>1.85</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K67">
         <v>2.45</v>
@@ -6585,7 +6585,7 @@
         <v>45179.72916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
         <v>39</v>
@@ -6597,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K69">
         <v>1.85</v>
@@ -6674,7 +6674,7 @@
         <v>45179.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K70">
         <v>1.833</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K71">
         <v>2.2</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K72">
         <v>2.55</v>
@@ -6944,7 +6944,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -7131,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K75">
         <v>1.533</v>
@@ -7300,7 +7300,7 @@
         <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K77">
         <v>3.8</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K78">
         <v>1.615</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K79">
         <v>2.2</v>
@@ -7567,7 +7567,7 @@
         <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K81">
         <v>6</v>
@@ -7834,7 +7834,7 @@
         <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K83">
         <v>2.15</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K85">
         <v>1.85</v>
@@ -8276,7 +8276,7 @@
         <v>45200.75</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8288,7 +8288,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K88">
         <v>1.55</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K89">
         <v>1.5</v>
@@ -8454,7 +8454,7 @@
         <v>45201.75</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K90">
         <v>1.8</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K91">
         <v>1.333</v>
@@ -8635,7 +8635,7 @@
         <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K92">
         <v>4.2</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K94">
         <v>2.875</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K96">
         <v>1.75</v>
@@ -9080,7 +9080,7 @@
         <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K98">
         <v>1.95</v>
@@ -9344,7 +9344,7 @@
         <v>45218.8125</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9356,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K100">
         <v>1.909</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K101">
         <v>1.444</v>
@@ -9534,7 +9534,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K102">
         <v>1.7</v>
@@ -9611,7 +9611,7 @@
         <v>45220.85416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -9623,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K103">
         <v>1.363</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K104">
         <v>3.6</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K105">
         <v>6</v>
@@ -9890,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K106">
         <v>1.75</v>
@@ -9970,7 +9970,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -10148,7 +10148,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K109">
         <v>3.2</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K110">
         <v>2.75</v>
@@ -10335,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K111">
         <v>1.909</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K112">
         <v>1.85</v>
@@ -10504,7 +10504,7 @@
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K113">
         <v>2.25</v>
@@ -10590,7 +10590,7 @@
         <v>45229.75</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
         <v>38</v>
@@ -10602,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K114">
         <v>2.05</v>
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K115">
         <v>1.25</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K116">
         <v>2.2</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K117">
         <v>4</v>
@@ -11047,7 +11047,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K119">
         <v>4.333</v>
@@ -11213,10 +11213,10 @@
         <v>45233.85416666666</v>
       </c>
       <c r="F121" t="s">
+        <v>29</v>
+      </c>
+      <c r="G121" t="s">
         <v>30</v>
-      </c>
-      <c r="G121" t="s">
-        <v>29</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K121">
         <v>1.533</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K122">
         <v>2.6</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K123">
         <v>1.909</v>
@@ -11483,7 +11483,7 @@
         <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11492,7 +11492,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K124">
         <v>2.05</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K125">
         <v>1.615</v>
@@ -11670,7 +11670,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K126">
         <v>2.5</v>
@@ -11750,7 +11750,7 @@
         <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K127">
         <v>1.833</v>
@@ -11848,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K128">
         <v>3</v>
@@ -11937,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K129">
         <v>2</v>
@@ -12014,7 +12014,7 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
         <v>36</v>
@@ -12103,7 +12103,7 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
         <v>39</v>
@@ -12115,7 +12115,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K131">
         <v>1.285</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K133">
         <v>2.75</v>
@@ -12373,7 +12373,7 @@
         <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12382,7 +12382,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K134">
         <v>3.4</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K135">
         <v>1.727</v>
@@ -12818,7 +12818,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12827,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K139">
         <v>2.375</v>
@@ -13005,7 +13005,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K141">
         <v>2.05</v>
@@ -13171,7 +13171,7 @@
         <v>45261.8125</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
         <v>33</v>
@@ -13183,7 +13183,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K143">
         <v>2.75</v>
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7493311</v>
+        <v>7493312</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,76 +13260,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G144" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H144">
+        <v>4</v>
+      </c>
+      <c r="I144">
         <v>0</v>
       </c>
-      <c r="I144">
-        <v>1</v>
-      </c>
       <c r="J144" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K144">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L144">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M144">
+        <v>4.333</v>
+      </c>
+      <c r="N144">
+        <v>1.727</v>
+      </c>
+      <c r="O144">
+        <v>3.75</v>
+      </c>
+      <c r="P144">
+        <v>4.2</v>
+      </c>
+      <c r="Q144">
+        <v>-0.5</v>
+      </c>
+      <c r="R144">
+        <v>1.8</v>
+      </c>
+      <c r="S144">
         <v>2</v>
       </c>
-      <c r="N144">
-        <v>3.2</v>
-      </c>
-      <c r="O144">
-        <v>3.25</v>
-      </c>
-      <c r="P144">
-        <v>2.1</v>
-      </c>
-      <c r="Q144">
-        <v>0.25</v>
-      </c>
-      <c r="R144">
-        <v>1.95</v>
-      </c>
-      <c r="S144">
-        <v>1.85</v>
-      </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V144">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC144">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7493312</v>
+        <v>7493311</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K145">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M145">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N145">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O145">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P145">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V145">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W145">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z145">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB145">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K146">
         <v>2.625</v>
@@ -13539,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K147">
         <v>1.444</v>
@@ -13616,7 +13616,7 @@
         <v>45311.75</v>
       </c>
       <c r="F148" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G148" t="s">
         <v>42</v>
@@ -13628,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K148">
         <v>1.8</v>
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K149">
         <v>2.2</v>
@@ -13794,7 +13794,7 @@
         <v>45312.75</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
         <v>38</v>
@@ -13806,7 +13806,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K150">
         <v>1.533</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K151">
         <v>3.75</v>
@@ -13984,7 +13984,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K152">
         <v>1.65</v>
@@ -14162,7 +14162,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K154">
         <v>3.3</v>
@@ -14242,7 +14242,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K155">
         <v>1.533</v>
@@ -14340,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K156">
         <v>3.5</v>
@@ -14420,7 +14420,7 @@
         <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14506,7 +14506,7 @@
         <v>45318.77083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
         <v>41</v>
@@ -14518,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K158">
         <v>2.25</v>
@@ -14607,7 +14607,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K159">
         <v>2.3</v>
@@ -14696,7 +14696,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K160">
         <v>2.7</v>
@@ -14785,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K161">
         <v>1.833</v>
@@ -15132,7 +15132,7 @@
         <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15141,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K165">
         <v>2.8</v>
@@ -15221,7 +15221,7 @@
         <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15230,7 +15230,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K166">
         <v>4.5</v>
@@ -15319,7 +15319,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K167">
         <v>1.25</v>
@@ -15408,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K168">
         <v>3.5</v>
@@ -15497,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K169">
         <v>2.875</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K171">
         <v>2.15</v>
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K172">
         <v>1.55</v>
@@ -15841,7 +15841,7 @@
         <v>45333.76041666666</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G173" t="s">
         <v>36</v>
@@ -15853,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15930,7 +15930,7 @@
         <v>45333.86458333334</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G174" t="s">
         <v>33</v>
@@ -15942,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K174">
         <v>1.95</v>
@@ -16031,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K175">
         <v>2.7</v>
@@ -16111,7 +16111,7 @@
         <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16200,7 +16200,7 @@
         <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16209,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K177">
         <v>3.4</v>
@@ -16387,7 +16387,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K179">
         <v>1.909</v>
@@ -16476,7 +16476,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K180">
         <v>2.25</v>
@@ -16553,7 +16553,7 @@
         <v>45345.8125</v>
       </c>
       <c r="F181" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G181" t="s">
         <v>37</v>
@@ -16565,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K181">
         <v>1.7</v>
@@ -16654,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K182">
         <v>2.7</v>
@@ -16731,7 +16731,7 @@
         <v>45346.86458333334</v>
       </c>
       <c r="F183" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G183" t="s">
         <v>41</v>
@@ -16743,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K183">
         <v>1.45</v>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K186">
         <v>1.363</v>
@@ -17090,7 +17090,7 @@
         <v>31</v>
       </c>
       <c r="G187" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17099,7 +17099,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K187">
         <v>3.8</v>
@@ -17268,7 +17268,7 @@
         <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17277,7 +17277,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K189">
         <v>2</v>
@@ -17366,7 +17366,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K190">
         <v>2.375</v>
@@ -17537,6 +17537,15 @@
       <c r="G192" t="s">
         <v>33</v>
       </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192" t="s">
+        <v>43</v>
+      </c>
       <c r="K192">
         <v>2.75</v>
       </c>
@@ -17547,22 +17556,22 @@
         <v>2.5</v>
       </c>
       <c r="N192">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O192">
         <v>2.9</v>
       </c>
       <c r="P192">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q192">
         <v>-0.25</v>
       </c>
       <c r="R192">
-        <v>2.075</v>
+        <v>2.025</v>
       </c>
       <c r="S192">
-        <v>1.725</v>
+        <v>1.775</v>
       </c>
       <c r="T192">
         <v>2.25</v>
@@ -17574,22 +17583,28 @@
         <v>1.85</v>
       </c>
       <c r="W192">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB192">
+        <v>-1</v>
+      </c>
+      <c r="AC192">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -17611,6 +17626,15 @@
       <c r="G193" t="s">
         <v>37</v>
       </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193" t="s">
+        <v>44</v>
+      </c>
       <c r="K193">
         <v>2</v>
       </c>
@@ -17621,22 +17645,22 @@
         <v>3.5</v>
       </c>
       <c r="N193">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O193">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P193">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q193">
         <v>-0.25</v>
       </c>
       <c r="R193">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S193">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T193">
         <v>2.25</v>
@@ -17648,22 +17672,28 @@
         <v>1.775</v>
       </c>
       <c r="W193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X193">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:27">
+        <v>0.5</v>
+      </c>
+      <c r="AB193">
+        <v>-0.5</v>
+      </c>
+      <c r="AC193">
+        <v>0.3875</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -17680,7 +17710,7 @@
         <v>45360.8125</v>
       </c>
       <c r="F194" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G194" t="s">
         <v>39</v>
@@ -17695,31 +17725,31 @@
         <v>7.5</v>
       </c>
       <c r="N194">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O194">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P194">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q194">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R194">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S194">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T194">
         <v>2.75</v>
       </c>
       <c r="U194">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V194">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W194">
         <v>0</v>
@@ -17737,7 +17767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:27">
+    <row r="195" spans="1:29">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -17769,31 +17799,31 @@
         <v>1.615</v>
       </c>
       <c r="N195">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="O195">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P195">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="Q195">
         <v>1</v>
       </c>
       <c r="R195">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S195">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T195">
         <v>2.5</v>
       </c>
       <c r="U195">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V195">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W195">
         <v>0</v>
@@ -17811,7 +17841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:27">
+    <row r="196" spans="1:29">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -17828,7 +17858,7 @@
         <v>45361.85416666666</v>
       </c>
       <c r="F196" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G196" t="s">
         <v>31</v>
@@ -17885,7 +17915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:27">
+    <row r="197" spans="1:29">
       <c r="A197" s="1">
         <v>195</v>
       </c>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC197"/>
+  <dimension ref="A1:AC196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12002,7 +12002,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7454842</v>
+        <v>7453204</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12014,76 +12014,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K130">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="L130">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M130">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="N130">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O130">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P130">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U130">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y130">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12091,7 +12091,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7453204</v>
+        <v>7454842</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12103,76 +12103,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K131">
-        <v>1.285</v>
+        <v>4</v>
       </c>
       <c r="L131">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M131">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="N131">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O131">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P131">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="Q131">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12358,7 +12358,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7493427</v>
+        <v>7493428</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12370,76 +12370,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K134">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L134">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N134">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O134">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P134">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q134">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R134">
+        <v>1.775</v>
+      </c>
+      <c r="S134">
         <v>2.025</v>
       </c>
-      <c r="S134">
-        <v>1.775</v>
-      </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
+        <v>1.825</v>
+      </c>
+      <c r="V134">
         <v>1.975</v>
       </c>
-      <c r="V134">
-        <v>1.825</v>
-      </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X134">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC134">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12447,7 +12447,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7493428</v>
+        <v>7493427</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12459,76 +12459,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H135">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K135">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M135">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N135">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O135">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P135">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q135">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R135">
+        <v>2.025</v>
+      </c>
+      <c r="S135">
         <v>1.775</v>
       </c>
-      <c r="S135">
-        <v>2.025</v>
-      </c>
       <c r="T135">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
+        <v>1.975</v>
+      </c>
+      <c r="V135">
         <v>1.825</v>
       </c>
-      <c r="V135">
-        <v>1.975</v>
-      </c>
       <c r="W135">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB135">
+        <v>-1</v>
+      </c>
+      <c r="AC135">
         <v>0.825</v>
-      </c>
-      <c r="AC135">
-        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7493312</v>
+        <v>7493311</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,76 +13260,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K144">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L144">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M144">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N144">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O144">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P144">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V144">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W144">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z144">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7493311</v>
+        <v>7493312</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H145">
+        <v>4</v>
+      </c>
+      <c r="I145">
         <v>0</v>
       </c>
-      <c r="I145">
-        <v>1</v>
-      </c>
       <c r="J145" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K145">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L145">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M145">
+        <v>4.333</v>
+      </c>
+      <c r="N145">
+        <v>1.727</v>
+      </c>
+      <c r="O145">
+        <v>3.75</v>
+      </c>
+      <c r="P145">
+        <v>4.2</v>
+      </c>
+      <c r="Q145">
+        <v>-0.5</v>
+      </c>
+      <c r="R145">
+        <v>1.8</v>
+      </c>
+      <c r="S145">
         <v>2</v>
       </c>
-      <c r="N145">
-        <v>3.2</v>
-      </c>
-      <c r="O145">
-        <v>3.25</v>
-      </c>
-      <c r="P145">
-        <v>2.1</v>
-      </c>
-      <c r="Q145">
-        <v>0.25</v>
-      </c>
-      <c r="R145">
-        <v>1.95</v>
-      </c>
-      <c r="S145">
-        <v>1.85</v>
-      </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC145">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -17715,6 +17715,15 @@
       <c r="G194" t="s">
         <v>39</v>
       </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194" t="s">
+        <v>45</v>
+      </c>
       <c r="K194">
         <v>1.363</v>
       </c>
@@ -17737,34 +17746,40 @@
         <v>-1.5</v>
       </c>
       <c r="R194">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S194">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T194">
         <v>2.75</v>
       </c>
       <c r="U194">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V194">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Z194">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB194">
+        <v>-1</v>
+      </c>
+      <c r="AC194">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17789,6 +17804,15 @@
       <c r="G195" t="s">
         <v>40</v>
       </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195" t="s">
+        <v>44</v>
+      </c>
       <c r="K195">
         <v>5.25</v>
       </c>
@@ -17799,46 +17823,52 @@
         <v>1.615</v>
       </c>
       <c r="N195">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="O195">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P195">
-        <v>1.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q195">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R195">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S195">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T195">
         <v>2.5</v>
       </c>
       <c r="U195">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V195">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X195">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA195">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB195">
+        <v>-1</v>
+      </c>
+      <c r="AC195">
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17863,6 +17893,15 @@
       <c r="G196" t="s">
         <v>31</v>
       </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196" t="s">
+        <v>43</v>
+      </c>
       <c r="K196">
         <v>2.1</v>
       </c>
@@ -17900,93 +17939,25 @@
         <v>1.825</v>
       </c>
       <c r="W196">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:29">
-      <c r="A197" s="1">
-        <v>195</v>
-      </c>
-      <c r="B197">
-        <v>7609197</v>
-      </c>
-      <c r="C197" t="s">
-        <v>28</v>
-      </c>
-      <c r="D197" t="s">
-        <v>28</v>
-      </c>
-      <c r="E197" s="2">
-        <v>45362.8125</v>
-      </c>
-      <c r="F197" t="s">
-        <v>36</v>
-      </c>
-      <c r="G197" t="s">
-        <v>32</v>
-      </c>
-      <c r="K197">
-        <v>1.5</v>
-      </c>
-      <c r="L197">
-        <v>4</v>
-      </c>
-      <c r="M197">
-        <v>6.5</v>
-      </c>
-      <c r="N197">
-        <v>1.5</v>
-      </c>
-      <c r="O197">
-        <v>4</v>
-      </c>
-      <c r="P197">
-        <v>6.5</v>
-      </c>
-      <c r="Q197">
-        <v>-1</v>
-      </c>
-      <c r="R197">
-        <v>1.8</v>
-      </c>
-      <c r="S197">
-        <v>2</v>
-      </c>
-      <c r="T197">
-        <v>2.75</v>
-      </c>
-      <c r="U197">
-        <v>1.95</v>
-      </c>
-      <c r="V197">
-        <v>1.85</v>
-      </c>
-      <c r="W197">
-        <v>0</v>
-      </c>
-      <c r="X197">
-        <v>0</v>
-      </c>
-      <c r="Y197">
-        <v>0</v>
-      </c>
-      <c r="Z197">
-        <v>0</v>
-      </c>
-      <c r="AA197">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB196">
+        <v>-1</v>
+      </c>
+      <c r="AC196">
+        <v>0.825</v>
       </c>
     </row>
   </sheetData>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC196"/>
+  <dimension ref="A1:AC202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12625,7 +12625,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7499440</v>
+        <v>7499442</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12637,55 +12637,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
         <v>45</v>
       </c>
       <c r="K137">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L137">
         <v>3.4</v>
       </c>
       <c r="M137">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N137">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O137">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P137">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q137">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12694,19 +12694,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB137">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12714,7 +12714,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7499442</v>
+        <v>7499440</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12726,55 +12726,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J138" t="s">
         <v>45</v>
       </c>
       <c r="K138">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L138">
         <v>3.4</v>
       </c>
       <c r="M138">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N138">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O138">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P138">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q138">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12783,19 +12783,19 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC138">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7493433</v>
+        <v>7493312</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G143" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K143">
+        <v>1.7</v>
+      </c>
+      <c r="L143">
+        <v>3.6</v>
+      </c>
+      <c r="M143">
+        <v>4.333</v>
+      </c>
+      <c r="N143">
+        <v>1.727</v>
+      </c>
+      <c r="O143">
+        <v>3.75</v>
+      </c>
+      <c r="P143">
+        <v>4.2</v>
+      </c>
+      <c r="Q143">
+        <v>-0.5</v>
+      </c>
+      <c r="R143">
+        <v>1.8</v>
+      </c>
+      <c r="S143">
+        <v>2</v>
+      </c>
+      <c r="T143">
         <v>2.75</v>
       </c>
-      <c r="L143">
-        <v>3.2</v>
-      </c>
-      <c r="M143">
-        <v>2.4</v>
-      </c>
-      <c r="N143">
-        <v>2.75</v>
-      </c>
-      <c r="O143">
-        <v>3.1</v>
-      </c>
-      <c r="P143">
-        <v>2.45</v>
-      </c>
-      <c r="Q143">
-        <v>0.25</v>
-      </c>
-      <c r="R143">
-        <v>1.75</v>
-      </c>
-      <c r="S143">
-        <v>2.05</v>
-      </c>
-      <c r="T143">
-        <v>2.25</v>
-      </c>
       <c r="U143">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V143">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X143">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC143">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7493312</v>
+        <v>7493433</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K145">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M145">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N145">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="O145">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P145">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q145">
+        <v>0.25</v>
+      </c>
+      <c r="R145">
+        <v>1.75</v>
+      </c>
+      <c r="S145">
+        <v>2.05</v>
+      </c>
+      <c r="T145">
+        <v>2.25</v>
+      </c>
+      <c r="U145">
+        <v>2</v>
+      </c>
+      <c r="V145">
+        <v>1.8</v>
+      </c>
+      <c r="W145">
+        <v>-1</v>
+      </c>
+      <c r="X145">
+        <v>2.1</v>
+      </c>
+      <c r="Y145">
+        <v>-1</v>
+      </c>
+      <c r="Z145">
+        <v>0.375</v>
+      </c>
+      <c r="AA145">
         <v>-0.5</v>
       </c>
-      <c r="R145">
-        <v>1.8</v>
-      </c>
-      <c r="S145">
-        <v>2</v>
-      </c>
-      <c r="T145">
-        <v>2.75</v>
-      </c>
-      <c r="U145">
-        <v>1.875</v>
-      </c>
-      <c r="V145">
-        <v>1.925</v>
-      </c>
-      <c r="W145">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X145">
-        <v>-1</v>
-      </c>
-      <c r="Y145">
-        <v>-1</v>
-      </c>
-      <c r="Z145">
-        <v>0.8</v>
-      </c>
-      <c r="AA145">
-        <v>-1</v>
-      </c>
       <c r="AB145">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -17958,6 +17958,495 @@
       </c>
       <c r="AC196">
         <v>0.825</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>7609197</v>
+      </c>
+      <c r="C197" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" t="s">
+        <v>28</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45362.8125</v>
+      </c>
+      <c r="F197" t="s">
+        <v>36</v>
+      </c>
+      <c r="G197" t="s">
+        <v>32</v>
+      </c>
+      <c r="H197">
+        <v>4</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197" t="s">
+        <v>43</v>
+      </c>
+      <c r="K197">
+        <v>1.5</v>
+      </c>
+      <c r="L197">
+        <v>4</v>
+      </c>
+      <c r="M197">
+        <v>6.5</v>
+      </c>
+      <c r="N197">
+        <v>1.45</v>
+      </c>
+      <c r="O197">
+        <v>4</v>
+      </c>
+      <c r="P197">
+        <v>6.5</v>
+      </c>
+      <c r="Q197">
+        <v>-1</v>
+      </c>
+      <c r="R197">
+        <v>1.8</v>
+      </c>
+      <c r="S197">
+        <v>2</v>
+      </c>
+      <c r="T197">
+        <v>2.75</v>
+      </c>
+      <c r="U197">
+        <v>1.975</v>
+      </c>
+      <c r="V197">
+        <v>1.825</v>
+      </c>
+      <c r="W197">
+        <v>0.45</v>
+      </c>
+      <c r="X197">
+        <v>-1</v>
+      </c>
+      <c r="Y197">
+        <v>-1</v>
+      </c>
+      <c r="Z197">
+        <v>0.8</v>
+      </c>
+      <c r="AA197">
+        <v>-1</v>
+      </c>
+      <c r="AB197">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC197">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>7609198</v>
+      </c>
+      <c r="C198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198" t="s">
+        <v>28</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45366.8125</v>
+      </c>
+      <c r="F198" t="s">
+        <v>30</v>
+      </c>
+      <c r="G198" t="s">
+        <v>29</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198" t="s">
+        <v>45</v>
+      </c>
+      <c r="K198">
+        <v>3.8</v>
+      </c>
+      <c r="L198">
+        <v>3.3</v>
+      </c>
+      <c r="M198">
+        <v>1.85</v>
+      </c>
+      <c r="N198">
+        <v>3.6</v>
+      </c>
+      <c r="O198">
+        <v>3.5</v>
+      </c>
+      <c r="P198">
+        <v>1.909</v>
+      </c>
+      <c r="Q198">
+        <v>0.5</v>
+      </c>
+      <c r="R198">
+        <v>1.85</v>
+      </c>
+      <c r="S198">
+        <v>1.95</v>
+      </c>
+      <c r="T198">
+        <v>2.5</v>
+      </c>
+      <c r="U198">
+        <v>1.925</v>
+      </c>
+      <c r="V198">
+        <v>1.875</v>
+      </c>
+      <c r="W198">
+        <v>-1</v>
+      </c>
+      <c r="X198">
+        <v>-1</v>
+      </c>
+      <c r="Y198">
+        <v>0.909</v>
+      </c>
+      <c r="Z198">
+        <v>-1</v>
+      </c>
+      <c r="AA198">
+        <v>0.95</v>
+      </c>
+      <c r="AB198">
+        <v>-1</v>
+      </c>
+      <c r="AC198">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>7959257</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45367.77777777778</v>
+      </c>
+      <c r="F199" t="s">
+        <v>40</v>
+      </c>
+      <c r="G199" t="s">
+        <v>42</v>
+      </c>
+      <c r="H199">
+        <v>2</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199" t="s">
+        <v>43</v>
+      </c>
+      <c r="K199">
+        <v>1.666</v>
+      </c>
+      <c r="L199">
+        <v>3.75</v>
+      </c>
+      <c r="M199">
+        <v>4.333</v>
+      </c>
+      <c r="N199">
+        <v>1.909</v>
+      </c>
+      <c r="O199">
+        <v>3.6</v>
+      </c>
+      <c r="P199">
+        <v>3.5</v>
+      </c>
+      <c r="Q199">
+        <v>-0.5</v>
+      </c>
+      <c r="R199">
+        <v>1.95</v>
+      </c>
+      <c r="S199">
+        <v>1.85</v>
+      </c>
+      <c r="T199">
+        <v>2.25</v>
+      </c>
+      <c r="U199">
+        <v>1.85</v>
+      </c>
+      <c r="V199">
+        <v>1.95</v>
+      </c>
+      <c r="W199">
+        <v>0.909</v>
+      </c>
+      <c r="X199">
+        <v>-1</v>
+      </c>
+      <c r="Y199">
+        <v>-1</v>
+      </c>
+      <c r="Z199">
+        <v>0.95</v>
+      </c>
+      <c r="AA199">
+        <v>-1</v>
+      </c>
+      <c r="AB199">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC199">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>7609200</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45368.77777777778</v>
+      </c>
+      <c r="F200" t="s">
+        <v>33</v>
+      </c>
+      <c r="G200" t="s">
+        <v>39</v>
+      </c>
+      <c r="K200">
+        <v>1.909</v>
+      </c>
+      <c r="L200">
+        <v>3.4</v>
+      </c>
+      <c r="M200">
+        <v>3.6</v>
+      </c>
+      <c r="N200">
+        <v>2</v>
+      </c>
+      <c r="O200">
+        <v>3.3</v>
+      </c>
+      <c r="P200">
+        <v>3.3</v>
+      </c>
+      <c r="Q200">
+        <v>-0.25</v>
+      </c>
+      <c r="R200">
+        <v>1.925</v>
+      </c>
+      <c r="S200">
+        <v>1.875</v>
+      </c>
+      <c r="T200">
+        <v>2.25</v>
+      </c>
+      <c r="U200">
+        <v>1.95</v>
+      </c>
+      <c r="V200">
+        <v>1.85</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <v>0</v>
+      </c>
+      <c r="Z200">
+        <v>0</v>
+      </c>
+      <c r="AA200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>7609143</v>
+      </c>
+      <c r="C201" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45368.875</v>
+      </c>
+      <c r="F201" t="s">
+        <v>31</v>
+      </c>
+      <c r="G201" t="s">
+        <v>38</v>
+      </c>
+      <c r="K201">
+        <v>1.909</v>
+      </c>
+      <c r="L201">
+        <v>3.4</v>
+      </c>
+      <c r="M201">
+        <v>3.5</v>
+      </c>
+      <c r="N201">
+        <v>1.909</v>
+      </c>
+      <c r="O201">
+        <v>3.4</v>
+      </c>
+      <c r="P201">
+        <v>3.6</v>
+      </c>
+      <c r="Q201">
+        <v>-0.5</v>
+      </c>
+      <c r="R201">
+        <v>1.9</v>
+      </c>
+      <c r="S201">
+        <v>1.9</v>
+      </c>
+      <c r="T201">
+        <v>2.5</v>
+      </c>
+      <c r="U201">
+        <v>2</v>
+      </c>
+      <c r="V201">
+        <v>1.8</v>
+      </c>
+      <c r="W201">
+        <v>0</v>
+      </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
+      <c r="Y201">
+        <v>0</v>
+      </c>
+      <c r="Z201">
+        <v>0</v>
+      </c>
+      <c r="AA201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>7609199</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45369.8125</v>
+      </c>
+      <c r="F202" t="s">
+        <v>32</v>
+      </c>
+      <c r="G202" t="s">
+        <v>41</v>
+      </c>
+      <c r="K202">
+        <v>1.909</v>
+      </c>
+      <c r="L202">
+        <v>3.4</v>
+      </c>
+      <c r="M202">
+        <v>3.6</v>
+      </c>
+      <c r="N202">
+        <v>2.1</v>
+      </c>
+      <c r="O202">
+        <v>3.3</v>
+      </c>
+      <c r="P202">
+        <v>3.1</v>
+      </c>
+      <c r="Q202">
+        <v>-0.25</v>
+      </c>
+      <c r="R202">
+        <v>1.875</v>
+      </c>
+      <c r="S202">
+        <v>1.925</v>
+      </c>
+      <c r="T202">
+        <v>2.25</v>
+      </c>
+      <c r="U202">
+        <v>1.775</v>
+      </c>
+      <c r="V202">
+        <v>2.025</v>
+      </c>
+      <c r="W202">
+        <v>0</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Y202">
+        <v>0</v>
+      </c>
+      <c r="Z202">
+        <v>0</v>
+      </c>
+      <c r="AA202">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,13 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
-    <t>Cerro Porteno</t>
-  </si>
-  <si>
     <t>Sportivo Luqueno</t>
   </si>
   <si>
     <t>Guarani Asuncion</t>
+  </si>
+  <si>
+    <t>Cerro Porteno</t>
   </si>
   <si>
     <t>Sportivo Ameliano</t>
@@ -145,13 +145,13 @@
     <t>2 de Mayo</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC202"/>
+  <dimension ref="A1:AC207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6720843</v>
+        <v>6720873</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,73 +625,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L2">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M2">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N2">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O2">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P2">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q2">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R2">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S2">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T2">
         <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V2">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W2">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6720873</v>
+        <v>6720844</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,10 +714,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -726,58 +726,58 @@
         <v>44</v>
       </c>
       <c r="K3">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="L3">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M3">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N3">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P3">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S3">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
         <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AB3">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6720844</v>
+        <v>6720843</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,31 +803,31 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>45</v>
       </c>
       <c r="K4">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M4">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N4">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O4">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P4">
         <v>1.85</v>
@@ -836,10 +836,10 @@
         <v>0.5</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
         <v>2.5</v>
@@ -851,25 +851,25 @@
         <v>1.875</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5">
         <v>1.95</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>1.571</v>
@@ -1079,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7">
         <v>2.4</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8">
         <v>2.75</v>
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9">
         <v>1.333</v>
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10">
         <v>2.3</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1515,7 +1515,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12">
         <v>5.5</v>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K13">
         <v>1.363</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>2.7</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K15">
         <v>1.55</v>
@@ -1880,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -1969,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K17">
         <v>1.4</v>
@@ -2046,10 +2046,10 @@
         <v>45116.70833333334</v>
       </c>
       <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
         <v>30</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K18">
         <v>2.375</v>
@@ -2135,7 +2135,7 @@
         <v>45116.8125</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -2147,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K19">
         <v>1.4</v>
@@ -2236,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K20">
         <v>4.75</v>
@@ -2316,7 +2316,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K21">
         <v>3.6</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K22">
         <v>2.625</v>
@@ -2491,7 +2491,7 @@
         <v>45123.8125</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
@@ -2503,7 +2503,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2583,7 +2583,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2592,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K24">
         <v>2.625</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K25">
         <v>1.666</v>
@@ -2761,7 +2761,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26">
         <v>2.9</v>
@@ -2859,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
         <v>1.65</v>
@@ -2936,7 +2936,7 @@
         <v>45129.8125</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K28">
         <v>1.45</v>
@@ -3025,7 +3025,7 @@
         <v>45130.70833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -3037,7 +3037,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29">
         <v>2.15</v>
@@ -3126,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30">
         <v>1.7</v>
@@ -3215,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K31">
         <v>1.25</v>
@@ -3295,7 +3295,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K32">
         <v>2.625</v>
@@ -3381,7 +3381,7 @@
         <v>45135.85416666666</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3571,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K35">
         <v>4.2</v>
@@ -3660,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K36">
         <v>2.2</v>
@@ -3740,7 +3740,7 @@
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K37">
         <v>4.5</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K38">
         <v>1.363</v>
@@ -3915,7 +3915,7 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K39">
         <v>1.666</v>
@@ -4004,7 +4004,7 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
         <v>34</v>
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4096,7 +4096,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -4105,7 +4105,7 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K41">
         <v>1.615</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K42">
         <v>1.65</v>
@@ -4283,7 +4283,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K43">
         <v>2.625</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K44">
         <v>2.75</v>
@@ -4461,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -4541,7 +4541,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4627,7 +4627,7 @@
         <v>45151.72916666666</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>40</v>
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K47">
         <v>2.15</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K48">
         <v>2.05</v>
@@ -4808,7 +4808,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4817,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K49">
         <v>2.375</v>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K50">
         <v>1.5</v>
@@ -4983,7 +4983,7 @@
         <v>45157.75</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
@@ -4995,7 +4995,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K51">
         <v>2.25</v>
@@ -5084,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K52">
         <v>1.444</v>
@@ -5161,10 +5161,10 @@
         <v>45158.75</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5173,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K53">
         <v>3.5</v>
@@ -5262,7 +5262,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K54">
         <v>1.666</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K55">
         <v>2.3</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K56">
         <v>1.7</v>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5606,7 +5606,7 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K58">
         <v>2.375</v>
@@ -5695,7 +5695,7 @@
         <v>45165.72916666666</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
         <v>40</v>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -5787,7 +5787,7 @@
         <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K60">
         <v>2.8</v>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K61">
         <v>3.4</v>
@@ -5974,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6054,7 +6054,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6063,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K63">
         <v>4.75</v>
@@ -6143,7 +6143,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K64">
         <v>1.5</v>
@@ -6229,7 +6229,7 @@
         <v>45172.72916666666</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -6241,7 +6241,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K65">
         <v>1.85</v>
@@ -6330,7 +6330,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K66">
         <v>1.909</v>
@@ -6410,7 +6410,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K67">
         <v>2.45</v>
@@ -6508,7 +6508,7 @@
         <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K68">
         <v>2.875</v>
@@ -6585,7 +6585,7 @@
         <v>45179.72916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
         <v>39</v>
@@ -6597,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K69">
         <v>1.85</v>
@@ -6674,7 +6674,7 @@
         <v>45179.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K70">
         <v>1.833</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K71">
         <v>2.2</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K72">
         <v>2.55</v>
@@ -6944,7 +6944,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -7042,7 +7042,7 @@
         <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K74">
         <v>5.75</v>
@@ -7131,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K75">
         <v>1.533</v>
@@ -7220,7 +7220,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7297,10 +7297,10 @@
         <v>45186.83333333334</v>
       </c>
       <c r="F77" t="s">
+        <v>30</v>
+      </c>
+      <c r="G77" t="s">
         <v>31</v>
-      </c>
-      <c r="G77" t="s">
-        <v>29</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K77">
         <v>3.8</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K78">
         <v>1.615</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K79">
         <v>2.2</v>
@@ -7567,7 +7567,7 @@
         <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K80">
         <v>5.25</v>
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K81">
         <v>6</v>
@@ -7754,7 +7754,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K82">
         <v>4</v>
@@ -7831,10 +7831,10 @@
         <v>45193.77083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K83">
         <v>2.15</v>
@@ -7932,7 +7932,7 @@
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K84">
         <v>1.95</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K85">
         <v>1.85</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K86">
         <v>2.1</v>
@@ -8199,7 +8199,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K87">
         <v>3.8</v>
@@ -8276,7 +8276,7 @@
         <v>45200.75</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8288,7 +8288,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K88">
         <v>1.55</v>
@@ -8368,7 +8368,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K89">
         <v>1.5</v>
@@ -8454,7 +8454,7 @@
         <v>45201.75</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K90">
         <v>1.8</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K91">
         <v>1.333</v>
@@ -8635,7 +8635,7 @@
         <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K92">
         <v>4.2</v>
@@ -8733,7 +8733,7 @@
         <v>5</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K93">
         <v>5.75</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K94">
         <v>2.875</v>
@@ -8911,7 +8911,7 @@
         <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K95">
         <v>2.7</v>
@@ -8988,7 +8988,7 @@
         <v>45207.85416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
         <v>39</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K96">
         <v>1.75</v>
@@ -9080,7 +9080,7 @@
         <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9089,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K97">
         <v>2.15</v>
@@ -9169,7 +9169,7 @@
         <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K98">
         <v>1.95</v>
@@ -9267,7 +9267,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K99">
         <v>2.375</v>
@@ -9344,7 +9344,7 @@
         <v>45218.8125</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9356,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K100">
         <v>1.909</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K101">
         <v>1.444</v>
@@ -9534,7 +9534,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K102">
         <v>1.7</v>
@@ -9611,7 +9611,7 @@
         <v>45220.85416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -9623,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K103">
         <v>1.363</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K104">
         <v>3.6</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K105">
         <v>6</v>
@@ -9890,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K106">
         <v>1.75</v>
@@ -9970,7 +9970,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9979,7 +9979,7 @@
         <v>5</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K107">
         <v>3.75</v>
@@ -10056,7 +10056,7 @@
         <v>45223.85416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10068,7 +10068,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K108">
         <v>3.6</v>
@@ -10148,7 +10148,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K109">
         <v>3.2</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K110">
         <v>2.75</v>
@@ -10335,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K111">
         <v>1.909</v>
@@ -10412,7 +10412,7 @@
         <v>45227.85416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
         <v>35</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K112">
         <v>1.85</v>
@@ -10504,7 +10504,7 @@
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K113">
         <v>2.25</v>
@@ -10590,7 +10590,7 @@
         <v>45229.75</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
         <v>38</v>
@@ -10602,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K114">
         <v>2.05</v>
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K115">
         <v>1.25</v>
@@ -10771,7 +10771,7 @@
         <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K116">
         <v>2.2</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K117">
         <v>4</v>
@@ -10958,7 +10958,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K118">
         <v>2.2</v>
@@ -11047,7 +11047,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K119">
         <v>4.333</v>
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K120">
         <v>5</v>
@@ -11213,10 +11213,10 @@
         <v>45233.85416666666</v>
       </c>
       <c r="F121" t="s">
+        <v>31</v>
+      </c>
+      <c r="G121" t="s">
         <v>29</v>
-      </c>
-      <c r="G121" t="s">
-        <v>30</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K121">
         <v>1.533</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K122">
         <v>2.6</v>
@@ -11391,7 +11391,7 @@
         <v>45235.85416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
         <v>37</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K123">
         <v>1.909</v>
@@ -11483,7 +11483,7 @@
         <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11492,7 +11492,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K124">
         <v>2.05</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K125">
         <v>1.615</v>
@@ -11670,7 +11670,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K126">
         <v>2.5</v>
@@ -11750,7 +11750,7 @@
         <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K127">
         <v>1.833</v>
@@ -11848,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K128">
         <v>3</v>
@@ -11937,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K129">
         <v>2</v>
@@ -12002,7 +12002,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7453204</v>
+        <v>7454842</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12017,10 +12017,10 @@
         <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -12029,61 +12029,61 @@
         <v>44</v>
       </c>
       <c r="K130">
-        <v>1.285</v>
+        <v>4</v>
       </c>
       <c r="L130">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="N130">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O130">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P130">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="Q130">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T130">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12091,7 +12091,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7454842</v>
+        <v>7453204</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12103,76 +12103,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K131">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="L131">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M131">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="N131">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O131">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P131">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12195,7 +12195,7 @@
         <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12204,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K132">
         <v>3.4</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K133">
         <v>2.75</v>
@@ -12358,7 +12358,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7493428</v>
+        <v>7493427</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12370,13 +12370,13 @@
         <v>45253.8125</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H134">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>1</v>
@@ -12385,61 +12385,61 @@
         <v>43</v>
       </c>
       <c r="K134">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M134">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N134">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O134">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P134">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q134">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R134">
+        <v>2.025</v>
+      </c>
+      <c r="S134">
         <v>1.775</v>
       </c>
-      <c r="S134">
-        <v>2.025</v>
-      </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
+        <v>1.975</v>
+      </c>
+      <c r="V134">
         <v>1.825</v>
       </c>
-      <c r="V134">
-        <v>1.975</v>
-      </c>
       <c r="W134">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
         <v>0.825</v>
-      </c>
-      <c r="AC134">
-        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12447,7 +12447,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7493427</v>
+        <v>7493428</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12459,76 +12459,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K135">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L135">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N135">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O135">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P135">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q135">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R135">
+        <v>1.775</v>
+      </c>
+      <c r="S135">
         <v>2.025</v>
       </c>
-      <c r="S135">
-        <v>1.775</v>
-      </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U135">
+        <v>1.825</v>
+      </c>
+      <c r="V135">
         <v>1.975</v>
       </c>
-      <c r="V135">
-        <v>1.825</v>
-      </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X135">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K136">
         <v>1.85</v>
@@ -12625,7 +12625,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7499442</v>
+        <v>7499440</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12637,55 +12637,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K137">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L137">
         <v>3.4</v>
       </c>
       <c r="M137">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N137">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O137">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P137">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R137">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12694,19 +12694,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12714,7 +12714,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7499440</v>
+        <v>7499442</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12726,55 +12726,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G138" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K138">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L138">
         <v>3.4</v>
       </c>
       <c r="M138">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N138">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O138">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P138">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q138">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R138">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12783,19 +12783,19 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB138">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12818,7 +12818,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12827,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K139">
         <v>2.375</v>
@@ -12916,7 +12916,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K140">
         <v>1.363</v>
@@ -13005,7 +13005,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K141">
         <v>2.05</v>
@@ -13094,7 +13094,7 @@
         <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K142">
         <v>4</v>
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7493312</v>
+        <v>7493311</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H143">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K143">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L143">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M143">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N143">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O143">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P143">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R143">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V143">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W143">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7493311</v>
+        <v>7493433</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,76 +13260,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G144" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K144">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="L144">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M144">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N144">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="O144">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P144">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q144">
         <v>0.25</v>
       </c>
       <c r="R144">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S144">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T144">
         <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V144">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y144">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA144">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC144">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7493433</v>
+        <v>7493312</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F145" t="s">
+        <v>31</v>
+      </c>
+      <c r="G145" t="s">
         <v>30</v>
       </c>
-      <c r="G145" t="s">
-        <v>33</v>
-      </c>
       <c r="H145">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K145">
+        <v>1.7</v>
+      </c>
+      <c r="L145">
+        <v>3.6</v>
+      </c>
+      <c r="M145">
+        <v>4.333</v>
+      </c>
+      <c r="N145">
+        <v>1.727</v>
+      </c>
+      <c r="O145">
+        <v>3.75</v>
+      </c>
+      <c r="P145">
+        <v>4.2</v>
+      </c>
+      <c r="Q145">
+        <v>-0.5</v>
+      </c>
+      <c r="R145">
+        <v>1.8</v>
+      </c>
+      <c r="S145">
+        <v>2</v>
+      </c>
+      <c r="T145">
         <v>2.75</v>
       </c>
-      <c r="L145">
-        <v>3.2</v>
-      </c>
-      <c r="M145">
-        <v>2.4</v>
-      </c>
-      <c r="N145">
-        <v>2.75</v>
-      </c>
-      <c r="O145">
-        <v>3.1</v>
-      </c>
-      <c r="P145">
-        <v>2.45</v>
-      </c>
-      <c r="Q145">
-        <v>0.25</v>
-      </c>
-      <c r="R145">
-        <v>1.75</v>
-      </c>
-      <c r="S145">
-        <v>2.05</v>
-      </c>
-      <c r="T145">
-        <v>2.25</v>
-      </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X145">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC145">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K146">
         <v>2.625</v>
@@ -13539,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K147">
         <v>1.444</v>
@@ -13616,7 +13616,7 @@
         <v>45311.75</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
         <v>42</v>
@@ -13628,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K148">
         <v>1.8</v>
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K149">
         <v>2.2</v>
@@ -13794,7 +13794,7 @@
         <v>45312.75</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
         <v>38</v>
@@ -13806,7 +13806,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K150">
         <v>1.533</v>
@@ -13883,7 +13883,7 @@
         <v>45312.85416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K151">
         <v>3.75</v>
@@ -13984,7 +13984,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K152">
         <v>1.65</v>
@@ -14073,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K153">
         <v>4.333</v>
@@ -14153,7 +14153,7 @@
         <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14162,7 +14162,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K154">
         <v>3.3</v>
@@ -14242,7 +14242,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K155">
         <v>1.533</v>
@@ -14340,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K156">
         <v>3.5</v>
@@ -14420,7 +14420,7 @@
         <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14429,7 +14429,7 @@
         <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K157">
         <v>3.75</v>
@@ -14506,7 +14506,7 @@
         <v>45318.77083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
         <v>41</v>
@@ -14518,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K158">
         <v>2.25</v>
@@ -14607,7 +14607,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K159">
         <v>2.3</v>
@@ -14696,7 +14696,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K160">
         <v>2.7</v>
@@ -14773,7 +14773,7 @@
         <v>45319.86805555555</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
         <v>39</v>
@@ -14785,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K161">
         <v>1.833</v>
@@ -14874,7 +14874,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K162">
         <v>6.5</v>
@@ -14954,7 +14954,7 @@
         <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14963,7 +14963,7 @@
         <v>4</v>
       </c>
       <c r="J163" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K163">
         <v>1.909</v>
@@ -15052,7 +15052,7 @@
         <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K164">
         <v>2.5</v>
@@ -15132,7 +15132,7 @@
         <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15141,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K165">
         <v>2.8</v>
@@ -15221,7 +15221,7 @@
         <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15230,7 +15230,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K166">
         <v>4.5</v>
@@ -15319,7 +15319,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K167">
         <v>1.25</v>
@@ -15408,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K168">
         <v>3.5</v>
@@ -15497,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K169">
         <v>2.875</v>
@@ -15586,7 +15586,7 @@
         <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K170">
         <v>2</v>
@@ -15663,7 +15663,7 @@
         <v>45332.76041666666</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G171" t="s">
         <v>32</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K171">
         <v>2.15</v>
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K172">
         <v>1.55</v>
@@ -15841,7 +15841,7 @@
         <v>45333.76041666666</v>
       </c>
       <c r="F173" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G173" t="s">
         <v>36</v>
@@ -15853,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15930,7 +15930,7 @@
         <v>45333.86458333334</v>
       </c>
       <c r="F174" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G174" t="s">
         <v>33</v>
@@ -15942,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K174">
         <v>1.95</v>
@@ -16022,7 +16022,7 @@
         <v>37</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16031,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K175">
         <v>2.7</v>
@@ -16111,7 +16111,7 @@
         <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16120,7 +16120,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K176">
         <v>2.5</v>
@@ -16200,7 +16200,7 @@
         <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16209,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K177">
         <v>3.4</v>
@@ -16298,7 +16298,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K178">
         <v>6</v>
@@ -16387,7 +16387,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K179">
         <v>1.909</v>
@@ -16476,7 +16476,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K180">
         <v>2.25</v>
@@ -16553,7 +16553,7 @@
         <v>45345.8125</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G181" t="s">
         <v>37</v>
@@ -16565,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K181">
         <v>1.7</v>
@@ -16654,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K182">
         <v>2.7</v>
@@ -16731,7 +16731,7 @@
         <v>45346.86458333334</v>
       </c>
       <c r="F183" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G183" t="s">
         <v>41</v>
@@ -16743,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K183">
         <v>1.45</v>
@@ -16832,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K184">
         <v>2.7</v>
@@ -16909,7 +16909,7 @@
         <v>45347.86458333334</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G185" t="s">
         <v>40</v>
@@ -16921,7 +16921,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K185">
         <v>2.6</v>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K186">
         <v>1.363</v>
@@ -17087,10 +17087,10 @@
         <v>45352.8125</v>
       </c>
       <c r="F187" t="s">
+        <v>30</v>
+      </c>
+      <c r="G187" t="s">
         <v>31</v>
-      </c>
-      <c r="G187" t="s">
-        <v>29</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17099,7 +17099,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K187">
         <v>3.8</v>
@@ -17188,7 +17188,7 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K188">
         <v>2.2</v>
@@ -17268,7 +17268,7 @@
         <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17277,7 +17277,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K189">
         <v>2</v>
@@ -17366,7 +17366,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K190">
         <v>2.375</v>
@@ -17455,7 +17455,7 @@
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K191">
         <v>2</v>
@@ -17544,7 +17544,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K192">
         <v>2.75</v>
@@ -17633,7 +17633,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K193">
         <v>2</v>
@@ -17710,7 +17710,7 @@
         <v>45360.8125</v>
       </c>
       <c r="F194" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G194" t="s">
         <v>39</v>
@@ -17722,7 +17722,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K194">
         <v>1.363</v>
@@ -17811,7 +17811,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K195">
         <v>5.25</v>
@@ -17888,10 +17888,10 @@
         <v>45361.85416666666</v>
       </c>
       <c r="F196" t="s">
+        <v>29</v>
+      </c>
+      <c r="G196" t="s">
         <v>30</v>
-      </c>
-      <c r="G196" t="s">
-        <v>31</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17900,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K196">
         <v>2.1</v>
@@ -17989,7 +17989,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K197">
         <v>1.5</v>
@@ -18066,10 +18066,10 @@
         <v>45366.8125</v>
       </c>
       <c r="F198" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18078,7 +18078,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K198">
         <v>3.8</v>
@@ -18167,7 +18167,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K199">
         <v>1.666</v>
@@ -18232,7 +18232,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7609200</v>
+        <v>7609144</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18241,43 +18241,52 @@
         <v>28</v>
       </c>
       <c r="E200" s="2">
-        <v>45368.77777777778</v>
+        <v>45367.875</v>
       </c>
       <c r="F200" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G200" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>2</v>
+      </c>
+      <c r="J200" t="s">
+        <v>44</v>
       </c>
       <c r="K200">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="L200">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M200">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="N200">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O200">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P200">
-        <v>3.3</v>
+        <v>1.55</v>
       </c>
       <c r="Q200">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R200">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S200">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T200">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U200">
         <v>1.95</v>
@@ -18286,19 +18295,25 @@
         <v>1.85</v>
       </c>
       <c r="W200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="Z200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
-        <v>0</v>
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB200">
+        <v>-1</v>
+      </c>
+      <c r="AC200">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18306,7 +18321,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7609143</v>
+        <v>7609200</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18315,13 +18330,22 @@
         <v>28</v>
       </c>
       <c r="E201" s="2">
-        <v>45368.875</v>
+        <v>45368.77777777778</v>
       </c>
       <c r="F201" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G201" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201" t="s">
+        <v>44</v>
       </c>
       <c r="K201">
         <v>1.909</v>
@@ -18330,49 +18354,55 @@
         <v>3.4</v>
       </c>
       <c r="M201">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N201">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O201">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P201">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q201">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R201">
+        <v>1.925</v>
+      </c>
+      <c r="S201">
+        <v>1.875</v>
+      </c>
+      <c r="T201">
+        <v>2.25</v>
+      </c>
+      <c r="U201">
         <v>1.9</v>
       </c>
-      <c r="S201">
+      <c r="V201">
         <v>1.9</v>
       </c>
-      <c r="T201">
-        <v>2.5</v>
-      </c>
-      <c r="U201">
+      <c r="W201">
+        <v>-1</v>
+      </c>
+      <c r="X201">
+        <v>-1</v>
+      </c>
+      <c r="Y201">
         <v>2</v>
       </c>
-      <c r="V201">
-        <v>1.8</v>
-      </c>
-      <c r="W201">
-        <v>0</v>
-      </c>
-      <c r="X201">
-        <v>0</v>
-      </c>
-      <c r="Y201">
-        <v>0</v>
-      </c>
       <c r="Z201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB201">
+        <v>-1</v>
+      </c>
+      <c r="AC201">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18380,7 +18410,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7609199</v>
+        <v>7609143</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18389,13 +18419,22 @@
         <v>28</v>
       </c>
       <c r="E202" s="2">
-        <v>45369.8125</v>
+        <v>45368.875</v>
       </c>
       <c r="F202" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G202" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202">
+        <v>2</v>
+      </c>
+      <c r="J202" t="s">
+        <v>44</v>
       </c>
       <c r="K202">
         <v>1.909</v>
@@ -18404,48 +18443,439 @@
         <v>3.4</v>
       </c>
       <c r="M202">
+        <v>3.5</v>
+      </c>
+      <c r="N202">
+        <v>1.7</v>
+      </c>
+      <c r="O202">
         <v>3.6</v>
       </c>
-      <c r="N202">
+      <c r="P202">
+        <v>4</v>
+      </c>
+      <c r="Q202">
+        <v>-0.75</v>
+      </c>
+      <c r="R202">
+        <v>2</v>
+      </c>
+      <c r="S202">
+        <v>1.8</v>
+      </c>
+      <c r="T202">
+        <v>2.5</v>
+      </c>
+      <c r="U202">
+        <v>1.85</v>
+      </c>
+      <c r="V202">
+        <v>1.95</v>
+      </c>
+      <c r="W202">
+        <v>-1</v>
+      </c>
+      <c r="X202">
+        <v>-1</v>
+      </c>
+      <c r="Y202">
+        <v>3</v>
+      </c>
+      <c r="Z202">
+        <v>-1</v>
+      </c>
+      <c r="AA202">
+        <v>0.8</v>
+      </c>
+      <c r="AB202">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC202">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>7609199</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45369.8125</v>
+      </c>
+      <c r="F203" t="s">
+        <v>32</v>
+      </c>
+      <c r="G203" t="s">
+        <v>41</v>
+      </c>
+      <c r="H203">
+        <v>2</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203" t="s">
+        <v>45</v>
+      </c>
+      <c r="K203">
+        <v>1.909</v>
+      </c>
+      <c r="L203">
+        <v>3.4</v>
+      </c>
+      <c r="M203">
+        <v>3.6</v>
+      </c>
+      <c r="N203">
+        <v>2.375</v>
+      </c>
+      <c r="O203">
+        <v>3.2</v>
+      </c>
+      <c r="P203">
+        <v>2.75</v>
+      </c>
+      <c r="Q203">
+        <v>0</v>
+      </c>
+      <c r="R203">
+        <v>1.75</v>
+      </c>
+      <c r="S203">
+        <v>2.05</v>
+      </c>
+      <c r="T203">
+        <v>2.25</v>
+      </c>
+      <c r="U203">
+        <v>1.875</v>
+      </c>
+      <c r="V203">
+        <v>1.925</v>
+      </c>
+      <c r="W203">
+        <v>1.375</v>
+      </c>
+      <c r="X203">
+        <v>-1</v>
+      </c>
+      <c r="Y203">
+        <v>-1</v>
+      </c>
+      <c r="Z203">
+        <v>0.75</v>
+      </c>
+      <c r="AA203">
+        <v>-1</v>
+      </c>
+      <c r="AB203">
+        <v>0.875</v>
+      </c>
+      <c r="AC203">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>7609147</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45378.89583333334</v>
+      </c>
+      <c r="F204" t="s">
+        <v>38</v>
+      </c>
+      <c r="G204" t="s">
+        <v>29</v>
+      </c>
+      <c r="K204">
+        <v>3.6</v>
+      </c>
+      <c r="L204">
+        <v>3.3</v>
+      </c>
+      <c r="M204">
+        <v>1.909</v>
+      </c>
+      <c r="N204">
+        <v>3</v>
+      </c>
+      <c r="O204">
+        <v>3.25</v>
+      </c>
+      <c r="P204">
+        <v>2.2</v>
+      </c>
+      <c r="Q204">
+        <v>0.25</v>
+      </c>
+      <c r="R204">
+        <v>1.825</v>
+      </c>
+      <c r="S204">
+        <v>1.975</v>
+      </c>
+      <c r="T204">
+        <v>2.5</v>
+      </c>
+      <c r="U204">
+        <v>1.95</v>
+      </c>
+      <c r="V204">
+        <v>1.85</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+      <c r="Y204">
+        <v>0</v>
+      </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>7609201</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45381.79166666666</v>
+      </c>
+      <c r="F205" t="s">
+        <v>31</v>
+      </c>
+      <c r="G205" t="s">
+        <v>33</v>
+      </c>
+      <c r="K205">
+        <v>1.5</v>
+      </c>
+      <c r="L205">
+        <v>4</v>
+      </c>
+      <c r="M205">
+        <v>6</v>
+      </c>
+      <c r="N205">
+        <v>1.5</v>
+      </c>
+      <c r="O205">
+        <v>4</v>
+      </c>
+      <c r="P205">
+        <v>6</v>
+      </c>
+      <c r="Q205">
+        <v>-1</v>
+      </c>
+      <c r="R205">
+        <v>1.825</v>
+      </c>
+      <c r="S205">
+        <v>1.975</v>
+      </c>
+      <c r="T205">
+        <v>2.5</v>
+      </c>
+      <c r="U205">
+        <v>1.95</v>
+      </c>
+      <c r="V205">
+        <v>1.85</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Y205">
+        <v>0</v>
+      </c>
+      <c r="Z205">
+        <v>0</v>
+      </c>
+      <c r="AA205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>7609146</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45381.89583333334</v>
+      </c>
+      <c r="F206" t="s">
+        <v>36</v>
+      </c>
+      <c r="G206" t="s">
+        <v>40</v>
+      </c>
+      <c r="K206">
+        <v>1.8</v>
+      </c>
+      <c r="L206">
+        <v>3.3</v>
+      </c>
+      <c r="M206">
+        <v>4</v>
+      </c>
+      <c r="N206">
+        <v>1.8</v>
+      </c>
+      <c r="O206">
+        <v>3.3</v>
+      </c>
+      <c r="P206">
+        <v>4</v>
+      </c>
+      <c r="Q206">
+        <v>-0.5</v>
+      </c>
+      <c r="R206">
+        <v>1.85</v>
+      </c>
+      <c r="S206">
+        <v>1.95</v>
+      </c>
+      <c r="T206">
+        <v>2.25</v>
+      </c>
+      <c r="U206">
+        <v>1.825</v>
+      </c>
+      <c r="V206">
+        <v>1.975</v>
+      </c>
+      <c r="W206">
+        <v>0</v>
+      </c>
+      <c r="X206">
+        <v>0</v>
+      </c>
+      <c r="Y206">
+        <v>0</v>
+      </c>
+      <c r="Z206">
+        <v>0</v>
+      </c>
+      <c r="AA206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>7609145</v>
+      </c>
+      <c r="C207" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45382.77083333334</v>
+      </c>
+      <c r="F207" t="s">
+        <v>41</v>
+      </c>
+      <c r="G207" t="s">
+        <v>37</v>
+      </c>
+      <c r="K207">
         <v>2.1</v>
       </c>
-      <c r="O202">
-        <v>3.3</v>
-      </c>
-      <c r="P202">
+      <c r="L207">
+        <v>3.2</v>
+      </c>
+      <c r="M207">
+        <v>3.2</v>
+      </c>
+      <c r="N207">
+        <v>2.375</v>
+      </c>
+      <c r="O207">
         <v>3.1</v>
       </c>
-      <c r="Q202">
-        <v>-0.25</v>
-      </c>
-      <c r="R202">
-        <v>1.875</v>
-      </c>
-      <c r="S202">
-        <v>1.925</v>
-      </c>
-      <c r="T202">
+      <c r="P207">
+        <v>2.75</v>
+      </c>
+      <c r="Q207">
+        <v>0</v>
+      </c>
+      <c r="R207">
+        <v>1.8</v>
+      </c>
+      <c r="S207">
+        <v>2</v>
+      </c>
+      <c r="T207">
         <v>2.25</v>
       </c>
-      <c r="U202">
-        <v>1.775</v>
-      </c>
-      <c r="V202">
-        <v>2.025</v>
-      </c>
-      <c r="W202">
+      <c r="U207">
+        <v>1.825</v>
+      </c>
+      <c r="V207">
+        <v>1.975</v>
+      </c>
+      <c r="W207">
         <v>0</v>
       </c>
-      <c r="X202">
+      <c r="X207">
         <v>0</v>
       </c>
-      <c r="Y202">
+      <c r="Y207">
         <v>0</v>
       </c>
-      <c r="Z202">
+      <c r="Z207">
         <v>0</v>
       </c>
-      <c r="AA202">
+      <c r="AA207">
         <v>0</v>
       </c>
     </row>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC207"/>
+  <dimension ref="A1:AC208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7493310</v>
+        <v>7493431</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,76 +12904,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I140">
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K140">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="L140">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M140">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="N140">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="O140">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P140">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R140">
+        <v>1.925</v>
+      </c>
+      <c r="S140">
+        <v>1.875</v>
+      </c>
+      <c r="T140">
+        <v>2.5</v>
+      </c>
+      <c r="U140">
+        <v>2</v>
+      </c>
+      <c r="V140">
         <v>1.8</v>
       </c>
-      <c r="S140">
-        <v>2</v>
-      </c>
-      <c r="T140">
-        <v>2.75</v>
-      </c>
-      <c r="U140">
-        <v>1.8</v>
-      </c>
-      <c r="V140">
-        <v>2</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AC140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12981,7 +12981,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7493431</v>
+        <v>7493310</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12993,76 +12993,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H141">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K141">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="L141">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M141">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="N141">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="O141">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P141">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S141">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
+        <v>1.8</v>
+      </c>
+      <c r="V141">
         <v>2</v>
       </c>
-      <c r="V141">
-        <v>1.8</v>
-      </c>
       <c r="W141">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB141">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7493311</v>
+        <v>7493312</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H143">
+        <v>4</v>
+      </c>
+      <c r="I143">
         <v>0</v>
       </c>
-      <c r="I143">
-        <v>1</v>
-      </c>
       <c r="J143" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K143">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L143">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M143">
+        <v>4.333</v>
+      </c>
+      <c r="N143">
+        <v>1.727</v>
+      </c>
+      <c r="O143">
+        <v>3.75</v>
+      </c>
+      <c r="P143">
+        <v>4.2</v>
+      </c>
+      <c r="Q143">
+        <v>-0.5</v>
+      </c>
+      <c r="R143">
+        <v>1.8</v>
+      </c>
+      <c r="S143">
         <v>2</v>
       </c>
-      <c r="N143">
-        <v>3.2</v>
-      </c>
-      <c r="O143">
-        <v>3.25</v>
-      </c>
-      <c r="P143">
-        <v>2.1</v>
-      </c>
-      <c r="Q143">
-        <v>0.25</v>
-      </c>
-      <c r="R143">
-        <v>1.95</v>
-      </c>
-      <c r="S143">
-        <v>1.85</v>
-      </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V143">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA143">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC143">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7493433</v>
+        <v>7493311</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,76 +13260,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K144">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L144">
+        <v>3.3</v>
+      </c>
+      <c r="M144">
+        <v>2</v>
+      </c>
+      <c r="N144">
         <v>3.2</v>
       </c>
-      <c r="M144">
-        <v>2.4</v>
-      </c>
-      <c r="N144">
-        <v>2.75</v>
-      </c>
       <c r="O144">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P144">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q144">
         <v>0.25</v>
       </c>
       <c r="R144">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S144">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
         <v>2.25</v>
       </c>
       <c r="U144">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V144">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z144">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7493312</v>
+        <v>7493433</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K145">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M145">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N145">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="O145">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P145">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q145">
+        <v>0.25</v>
+      </c>
+      <c r="R145">
+        <v>1.75</v>
+      </c>
+      <c r="S145">
+        <v>2.05</v>
+      </c>
+      <c r="T145">
+        <v>2.25</v>
+      </c>
+      <c r="U145">
+        <v>2</v>
+      </c>
+      <c r="V145">
+        <v>1.8</v>
+      </c>
+      <c r="W145">
+        <v>-1</v>
+      </c>
+      <c r="X145">
+        <v>2.1</v>
+      </c>
+      <c r="Y145">
+        <v>-1</v>
+      </c>
+      <c r="Z145">
+        <v>0.375</v>
+      </c>
+      <c r="AA145">
         <v>-0.5</v>
       </c>
-      <c r="R145">
-        <v>1.8</v>
-      </c>
-      <c r="S145">
-        <v>2</v>
-      </c>
-      <c r="T145">
-        <v>2.75</v>
-      </c>
-      <c r="U145">
-        <v>1.875</v>
-      </c>
-      <c r="V145">
-        <v>1.925</v>
-      </c>
-      <c r="W145">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X145">
-        <v>-1</v>
-      </c>
-      <c r="Y145">
-        <v>-1</v>
-      </c>
-      <c r="Z145">
-        <v>0.8</v>
-      </c>
-      <c r="AA145">
-        <v>-1</v>
-      </c>
       <c r="AB145">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -18588,7 +18588,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7609147</v>
+        <v>7609202</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18597,64 +18597,79 @@
         <v>28</v>
       </c>
       <c r="E204" s="2">
-        <v>45378.89583333334</v>
+        <v>45378.79166666666</v>
       </c>
       <c r="F204" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G204" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="H204">
+        <v>1</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204" t="s">
+        <v>43</v>
       </c>
       <c r="K204">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="L204">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M204">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="N204">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="O204">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P204">
+        <v>2.45</v>
+      </c>
+      <c r="Q204">
+        <v>0</v>
+      </c>
+      <c r="R204">
+        <v>2</v>
+      </c>
+      <c r="S204">
+        <v>1.8</v>
+      </c>
+      <c r="T204">
+        <v>2.25</v>
+      </c>
+      <c r="U204">
+        <v>1.85</v>
+      </c>
+      <c r="V204">
+        <v>1.95</v>
+      </c>
+      <c r="W204">
+        <v>-1</v>
+      </c>
+      <c r="X204">
         <v>2.2</v>
       </c>
-      <c r="Q204">
-        <v>0.25</v>
-      </c>
-      <c r="R204">
-        <v>1.825</v>
-      </c>
-      <c r="S204">
-        <v>1.975</v>
-      </c>
-      <c r="T204">
-        <v>2.5</v>
-      </c>
-      <c r="U204">
-        <v>1.95</v>
-      </c>
-      <c r="V204">
-        <v>1.85</v>
-      </c>
-      <c r="W204">
-        <v>0</v>
-      </c>
-      <c r="X204">
-        <v>0</v>
-      </c>
       <c r="Y204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
         <v>0</v>
       </c>
       <c r="AA204">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB204">
+        <v>-0.5</v>
+      </c>
+      <c r="AC204">
+        <v>0.475</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18662,7 +18677,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7609201</v>
+        <v>7609147</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18671,40 +18686,49 @@
         <v>28</v>
       </c>
       <c r="E205" s="2">
-        <v>45381.79166666666</v>
+        <v>45378.89583333334</v>
       </c>
       <c r="F205" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G205" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205" t="s">
+        <v>44</v>
       </c>
       <c r="K205">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L205">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M205">
-        <v>6</v>
+        <v>1.909</v>
       </c>
       <c r="N205">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="O205">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P205">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="Q205">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R205">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S205">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T205">
         <v>2.5</v>
@@ -18716,19 +18740,25 @@
         <v>1.85</v>
       </c>
       <c r="W205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="Z205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB205">
+        <v>-1</v>
+      </c>
+      <c r="AC205">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18736,7 +18766,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7609146</v>
+        <v>7609201</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18745,49 +18775,49 @@
         <v>28</v>
       </c>
       <c r="E206" s="2">
-        <v>45381.89583333334</v>
+        <v>45381.79166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K206">
+        <v>1.5</v>
+      </c>
+      <c r="L206">
+        <v>4</v>
+      </c>
+      <c r="M206">
+        <v>6</v>
+      </c>
+      <c r="N206">
+        <v>1.5</v>
+      </c>
+      <c r="O206">
+        <v>4</v>
+      </c>
+      <c r="P206">
+        <v>6</v>
+      </c>
+      <c r="Q206">
+        <v>-1</v>
+      </c>
+      <c r="R206">
         <v>1.8</v>
       </c>
-      <c r="L206">
-        <v>3.3</v>
-      </c>
-      <c r="M206">
-        <v>4</v>
-      </c>
-      <c r="N206">
-        <v>1.8</v>
-      </c>
-      <c r="O206">
-        <v>3.3</v>
-      </c>
-      <c r="P206">
-        <v>4</v>
-      </c>
-      <c r="Q206">
-        <v>-0.5</v>
-      </c>
-      <c r="R206">
+      <c r="S206">
+        <v>2</v>
+      </c>
+      <c r="T206">
+        <v>2.5</v>
+      </c>
+      <c r="U206">
+        <v>1.95</v>
+      </c>
+      <c r="V206">
         <v>1.85</v>
-      </c>
-      <c r="S206">
-        <v>1.95</v>
-      </c>
-      <c r="T206">
-        <v>2.25</v>
-      </c>
-      <c r="U206">
-        <v>1.825</v>
-      </c>
-      <c r="V206">
-        <v>1.975</v>
       </c>
       <c r="W206">
         <v>0</v>
@@ -18810,7 +18840,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7609145</v>
+        <v>7609146</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18819,40 +18849,40 @@
         <v>28</v>
       </c>
       <c r="E207" s="2">
-        <v>45382.77083333334</v>
+        <v>45381.89583333334</v>
       </c>
       <c r="F207" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G207" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K207">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L207">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M207">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N207">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="O207">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P207">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q207">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R207">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S207">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T207">
         <v>2.25</v>
@@ -18876,6 +18906,80 @@
         <v>0</v>
       </c>
       <c r="AA207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>7609145</v>
+      </c>
+      <c r="C208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45382.77083333334</v>
+      </c>
+      <c r="F208" t="s">
+        <v>41</v>
+      </c>
+      <c r="G208" t="s">
+        <v>37</v>
+      </c>
+      <c r="K208">
+        <v>2.1</v>
+      </c>
+      <c r="L208">
+        <v>3.2</v>
+      </c>
+      <c r="M208">
+        <v>3.2</v>
+      </c>
+      <c r="N208">
+        <v>2.6</v>
+      </c>
+      <c r="O208">
+        <v>3.1</v>
+      </c>
+      <c r="P208">
+        <v>2.6</v>
+      </c>
+      <c r="Q208">
+        <v>0</v>
+      </c>
+      <c r="R208">
+        <v>1.9</v>
+      </c>
+      <c r="S208">
+        <v>1.9</v>
+      </c>
+      <c r="T208">
+        <v>2.25</v>
+      </c>
+      <c r="U208">
+        <v>1.9</v>
+      </c>
+      <c r="V208">
+        <v>1.9</v>
+      </c>
+      <c r="W208">
+        <v>0</v>
+      </c>
+      <c r="X208">
+        <v>0</v>
+      </c>
+      <c r="Y208">
+        <v>0</v>
+      </c>
+      <c r="Z208">
+        <v>0</v>
+      </c>
+      <c r="AA208">
         <v>0</v>
       </c>
     </row>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -103,13 +103,13 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
+    <t>Cerro Porteno</t>
+  </si>
+  <si>
     <t>Sportivo Luqueno</t>
   </si>
   <si>
     <t>Guarani Asuncion</t>
-  </si>
-  <si>
-    <t>Cerro Porteno</t>
   </si>
   <si>
     <t>Sportivo Ameliano</t>
@@ -145,13 +145,13 @@
     <t>2 de Mayo</t>
   </si>
   <si>
+    <t>H</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>H</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6720873</v>
+        <v>6720843</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,73 +625,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="L2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M2">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N2">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="O2">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P2">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R2">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S2">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T2">
         <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V2">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X2">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA2">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6720844</v>
+        <v>6720873</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,10 +714,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -726,58 +726,58 @@
         <v>44</v>
       </c>
       <c r="K3">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M3">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P3">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q3">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T3">
         <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
       <c r="AB3">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6720843</v>
+        <v>6720844</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,31 +803,31 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>2</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>45</v>
       </c>
       <c r="K4">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>2.75</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
         <v>3.2</v>
-      </c>
-      <c r="M4">
-        <v>2.7</v>
-      </c>
-      <c r="N4">
-        <v>3.75</v>
-      </c>
-      <c r="O4">
-        <v>3.3</v>
       </c>
       <c r="P4">
         <v>1.85</v>
@@ -836,10 +836,10 @@
         <v>0.5</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
         <v>2.5</v>
@@ -851,25 +851,25 @@
         <v>1.875</v>
       </c>
       <c r="W4">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K5">
         <v>1.95</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K6">
         <v>1.571</v>
@@ -1079,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>2.4</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8">
         <v>2.75</v>
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9">
         <v>1.333</v>
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10">
         <v>2.3</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1515,7 +1515,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12">
         <v>5.5</v>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K13">
         <v>1.363</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14">
         <v>2.7</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K15">
         <v>1.55</v>
@@ -1880,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -1969,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K17">
         <v>1.4</v>
@@ -2046,10 +2046,10 @@
         <v>45116.70833333334</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K18">
         <v>2.375</v>
@@ -2135,7 +2135,7 @@
         <v>45116.8125</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -2147,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K19">
         <v>1.4</v>
@@ -2236,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K20">
         <v>4.75</v>
@@ -2316,7 +2316,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K21">
         <v>3.6</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K22">
         <v>2.625</v>
@@ -2491,7 +2491,7 @@
         <v>45123.8125</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
@@ -2503,7 +2503,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2583,7 +2583,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2592,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K24">
         <v>2.625</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25">
         <v>1.666</v>
@@ -2761,7 +2761,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
         <v>2.9</v>
@@ -2859,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27">
         <v>1.65</v>
@@ -2936,7 +2936,7 @@
         <v>45129.8125</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K28">
         <v>1.45</v>
@@ -3025,7 +3025,7 @@
         <v>45130.70833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -3037,7 +3037,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29">
         <v>2.15</v>
@@ -3126,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K30">
         <v>1.7</v>
@@ -3215,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>1.25</v>
@@ -3295,7 +3295,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K32">
         <v>2.625</v>
@@ -3381,7 +3381,7 @@
         <v>45135.85416666666</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3571,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K35">
         <v>4.2</v>
@@ -3660,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K36">
         <v>2.2</v>
@@ -3740,7 +3740,7 @@
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K37">
         <v>4.5</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K38">
         <v>1.363</v>
@@ -3915,7 +3915,7 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K39">
         <v>1.666</v>
@@ -4004,7 +4004,7 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
         <v>34</v>
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4096,7 +4096,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -4105,7 +4105,7 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K41">
         <v>1.615</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K42">
         <v>1.65</v>
@@ -4283,7 +4283,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K43">
         <v>2.625</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K44">
         <v>2.75</v>
@@ -4461,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -4541,7 +4541,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4627,7 +4627,7 @@
         <v>45151.72916666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
         <v>40</v>
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K47">
         <v>2.15</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K48">
         <v>2.05</v>
@@ -4808,7 +4808,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4817,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K49">
         <v>2.375</v>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K50">
         <v>1.5</v>
@@ -4983,7 +4983,7 @@
         <v>45157.75</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
@@ -4995,7 +4995,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K51">
         <v>2.25</v>
@@ -5084,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K52">
         <v>1.444</v>
@@ -5161,10 +5161,10 @@
         <v>45158.75</v>
       </c>
       <c r="F53" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" t="s">
         <v>29</v>
-      </c>
-      <c r="G53" t="s">
-        <v>31</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5173,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K53">
         <v>3.5</v>
@@ -5262,7 +5262,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K54">
         <v>1.666</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K55">
         <v>2.3</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K56">
         <v>1.7</v>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5606,7 +5606,7 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K58">
         <v>2.375</v>
@@ -5695,7 +5695,7 @@
         <v>45165.72916666666</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
         <v>40</v>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -5787,7 +5787,7 @@
         <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K60">
         <v>2.8</v>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K61">
         <v>3.4</v>
@@ -5974,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6054,7 +6054,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6063,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K63">
         <v>4.75</v>
@@ -6143,7 +6143,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K64">
         <v>1.5</v>
@@ -6229,7 +6229,7 @@
         <v>45172.72916666666</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -6241,7 +6241,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K65">
         <v>1.85</v>
@@ -6330,7 +6330,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K66">
         <v>1.909</v>
@@ -6410,7 +6410,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K67">
         <v>2.45</v>
@@ -6508,7 +6508,7 @@
         <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K68">
         <v>2.875</v>
@@ -6585,7 +6585,7 @@
         <v>45179.72916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
         <v>39</v>
@@ -6597,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K69">
         <v>1.85</v>
@@ -6674,7 +6674,7 @@
         <v>45179.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K70">
         <v>1.833</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K71">
         <v>2.2</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K72">
         <v>2.55</v>
@@ -6944,7 +6944,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -7042,7 +7042,7 @@
         <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K74">
         <v>5.75</v>
@@ -7131,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K75">
         <v>1.533</v>
@@ -7220,7 +7220,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7297,10 +7297,10 @@
         <v>45186.83333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K77">
         <v>3.8</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K78">
         <v>1.615</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K79">
         <v>2.2</v>
@@ -7567,7 +7567,7 @@
         <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K80">
         <v>5.25</v>
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K81">
         <v>6</v>
@@ -7754,7 +7754,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K82">
         <v>4</v>
@@ -7831,10 +7831,10 @@
         <v>45193.77083333334</v>
       </c>
       <c r="F83" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" t="s">
         <v>30</v>
-      </c>
-      <c r="G83" t="s">
-        <v>29</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K83">
         <v>2.15</v>
@@ -7932,7 +7932,7 @@
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K84">
         <v>1.95</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K85">
         <v>1.85</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K86">
         <v>2.1</v>
@@ -8199,7 +8199,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K87">
         <v>3.8</v>
@@ -8276,7 +8276,7 @@
         <v>45200.75</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8288,7 +8288,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K88">
         <v>1.55</v>
@@ -8368,7 +8368,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K89">
         <v>1.5</v>
@@ -8454,7 +8454,7 @@
         <v>45201.75</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K90">
         <v>1.8</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K91">
         <v>1.333</v>
@@ -8635,7 +8635,7 @@
         <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K92">
         <v>4.2</v>
@@ -8733,7 +8733,7 @@
         <v>5</v>
       </c>
       <c r="J93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K93">
         <v>5.75</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K94">
         <v>2.875</v>
@@ -8911,7 +8911,7 @@
         <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K95">
         <v>2.7</v>
@@ -8988,7 +8988,7 @@
         <v>45207.85416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
         <v>39</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K96">
         <v>1.75</v>
@@ -9080,7 +9080,7 @@
         <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9089,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K97">
         <v>2.15</v>
@@ -9169,7 +9169,7 @@
         <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K98">
         <v>1.95</v>
@@ -9267,7 +9267,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K99">
         <v>2.375</v>
@@ -9344,7 +9344,7 @@
         <v>45218.8125</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9356,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K100">
         <v>1.909</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K101">
         <v>1.444</v>
@@ -9534,7 +9534,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K102">
         <v>1.7</v>
@@ -9611,7 +9611,7 @@
         <v>45220.85416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -9623,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K103">
         <v>1.363</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K104">
         <v>3.6</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K105">
         <v>6</v>
@@ -9890,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K106">
         <v>1.75</v>
@@ -9970,7 +9970,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9979,7 +9979,7 @@
         <v>5</v>
       </c>
       <c r="J107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K107">
         <v>3.75</v>
@@ -10056,7 +10056,7 @@
         <v>45223.85416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10068,7 +10068,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K108">
         <v>3.6</v>
@@ -10148,7 +10148,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K109">
         <v>3.2</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K110">
         <v>2.75</v>
@@ -10335,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K111">
         <v>1.909</v>
@@ -10412,7 +10412,7 @@
         <v>45227.85416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
         <v>35</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K112">
         <v>1.85</v>
@@ -10504,7 +10504,7 @@
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K113">
         <v>2.25</v>
@@ -10590,7 +10590,7 @@
         <v>45229.75</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
         <v>38</v>
@@ -10602,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K114">
         <v>2.05</v>
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K115">
         <v>1.25</v>
@@ -10771,7 +10771,7 @@
         <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K116">
         <v>2.2</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K117">
         <v>4</v>
@@ -10958,7 +10958,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K118">
         <v>2.2</v>
@@ -11047,7 +11047,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K119">
         <v>4.333</v>
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K120">
         <v>5</v>
@@ -11213,10 +11213,10 @@
         <v>45233.85416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G121" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K121">
         <v>1.533</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K122">
         <v>2.6</v>
@@ -11391,7 +11391,7 @@
         <v>45235.85416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
         <v>37</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K123">
         <v>1.909</v>
@@ -11483,7 +11483,7 @@
         <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11492,7 +11492,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K124">
         <v>2.05</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K125">
         <v>1.615</v>
@@ -11670,7 +11670,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K126">
         <v>2.5</v>
@@ -11750,7 +11750,7 @@
         <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K127">
         <v>1.833</v>
@@ -11848,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K128">
         <v>3</v>
@@ -11937,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K129">
         <v>2</v>
@@ -12002,7 +12002,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7454842</v>
+        <v>7453204</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12017,10 +12017,10 @@
         <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -12029,61 +12029,61 @@
         <v>44</v>
       </c>
       <c r="K130">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="L130">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M130">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="N130">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O130">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P130">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U130">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y130">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12091,7 +12091,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7453204</v>
+        <v>7454842</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12103,76 +12103,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K131">
-        <v>1.285</v>
+        <v>4</v>
       </c>
       <c r="L131">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M131">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="N131">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O131">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P131">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="Q131">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12195,7 +12195,7 @@
         <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12204,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K132">
         <v>3.4</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K133">
         <v>2.75</v>
@@ -12373,7 +12373,7 @@
         <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12382,7 +12382,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K134">
         <v>3.4</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K135">
         <v>1.727</v>
@@ -12560,7 +12560,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K136">
         <v>1.85</v>
@@ -12649,7 +12649,7 @@
         <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K137">
         <v>2.7</v>
@@ -12726,7 +12726,7 @@
         <v>45255.8125</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
         <v>38</v>
@@ -12738,7 +12738,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K138">
         <v>2</v>
@@ -12818,7 +12818,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12827,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K139">
         <v>2.375</v>
@@ -12916,7 +12916,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K140">
         <v>2.05</v>
@@ -13005,7 +13005,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K141">
         <v>1.363</v>
@@ -13094,7 +13094,7 @@
         <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K142">
         <v>4</v>
@@ -13171,10 +13171,10 @@
         <v>45261.8125</v>
       </c>
       <c r="F143" t="s">
+        <v>29</v>
+      </c>
+      <c r="G143" t="s">
         <v>31</v>
-      </c>
-      <c r="G143" t="s">
-        <v>30</v>
       </c>
       <c r="H143">
         <v>4</v>
@@ -13183,7 +13183,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K143">
         <v>1.7</v>
@@ -13272,7 +13272,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K144">
         <v>3.4</v>
@@ -13349,7 +13349,7 @@
         <v>45261.8125</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
         <v>33</v>
@@ -13361,7 +13361,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K145">
         <v>2.75</v>
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K146">
         <v>2.625</v>
@@ -13539,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K147">
         <v>1.444</v>
@@ -13616,7 +13616,7 @@
         <v>45311.75</v>
       </c>
       <c r="F148" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G148" t="s">
         <v>42</v>
@@ -13628,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K148">
         <v>1.8</v>
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K149">
         <v>2.2</v>
@@ -13794,7 +13794,7 @@
         <v>45312.75</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
         <v>38</v>
@@ -13806,7 +13806,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K150">
         <v>1.533</v>
@@ -13883,7 +13883,7 @@
         <v>45312.85416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K151">
         <v>3.75</v>
@@ -13984,7 +13984,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K152">
         <v>1.65</v>
@@ -14073,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K153">
         <v>4.333</v>
@@ -14153,7 +14153,7 @@
         <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14162,7 +14162,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K154">
         <v>3.3</v>
@@ -14242,7 +14242,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K155">
         <v>1.533</v>
@@ -14340,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K156">
         <v>3.5</v>
@@ -14420,7 +14420,7 @@
         <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14429,7 +14429,7 @@
         <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K157">
         <v>3.75</v>
@@ -14506,7 +14506,7 @@
         <v>45318.77083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
         <v>41</v>
@@ -14518,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K158">
         <v>2.25</v>
@@ -14607,7 +14607,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K159">
         <v>2.3</v>
@@ -14696,7 +14696,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K160">
         <v>2.7</v>
@@ -14773,7 +14773,7 @@
         <v>45319.86805555555</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
         <v>39</v>
@@ -14785,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K161">
         <v>1.833</v>
@@ -14874,7 +14874,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K162">
         <v>6.5</v>
@@ -14954,7 +14954,7 @@
         <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14963,7 +14963,7 @@
         <v>4</v>
       </c>
       <c r="J163" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K163">
         <v>1.909</v>
@@ -15052,7 +15052,7 @@
         <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K164">
         <v>2.5</v>
@@ -15132,7 +15132,7 @@
         <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15141,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K165">
         <v>2.8</v>
@@ -15221,7 +15221,7 @@
         <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15230,7 +15230,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K166">
         <v>4.5</v>
@@ -15319,7 +15319,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K167">
         <v>1.25</v>
@@ -15408,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K168">
         <v>3.5</v>
@@ -15497,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K169">
         <v>2.875</v>
@@ -15586,7 +15586,7 @@
         <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K170">
         <v>2</v>
@@ -15663,7 +15663,7 @@
         <v>45332.76041666666</v>
       </c>
       <c r="F171" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
         <v>32</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K171">
         <v>2.15</v>
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K172">
         <v>1.55</v>
@@ -15841,7 +15841,7 @@
         <v>45333.76041666666</v>
       </c>
       <c r="F173" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G173" t="s">
         <v>36</v>
@@ -15853,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15930,7 +15930,7 @@
         <v>45333.86458333334</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G174" t="s">
         <v>33</v>
@@ -15942,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K174">
         <v>1.95</v>
@@ -16022,7 +16022,7 @@
         <v>37</v>
       </c>
       <c r="G175" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16031,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K175">
         <v>2.7</v>
@@ -16111,7 +16111,7 @@
         <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16120,7 +16120,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K176">
         <v>2.5</v>
@@ -16200,7 +16200,7 @@
         <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16209,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K177">
         <v>3.4</v>
@@ -16298,7 +16298,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K178">
         <v>6</v>
@@ -16387,7 +16387,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K179">
         <v>1.909</v>
@@ -16476,7 +16476,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K180">
         <v>2.25</v>
@@ -16553,7 +16553,7 @@
         <v>45345.8125</v>
       </c>
       <c r="F181" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G181" t="s">
         <v>37</v>
@@ -16565,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K181">
         <v>1.7</v>
@@ -16654,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K182">
         <v>2.7</v>
@@ -16731,7 +16731,7 @@
         <v>45346.86458333334</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G183" t="s">
         <v>41</v>
@@ -16743,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K183">
         <v>1.45</v>
@@ -16832,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K184">
         <v>2.7</v>
@@ -16909,7 +16909,7 @@
         <v>45347.86458333334</v>
       </c>
       <c r="F185" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
         <v>40</v>
@@ -16921,7 +16921,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K185">
         <v>2.6</v>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K186">
         <v>1.363</v>
@@ -17087,10 +17087,10 @@
         <v>45352.8125</v>
       </c>
       <c r="F187" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G187" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17099,7 +17099,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K187">
         <v>3.8</v>
@@ -17188,7 +17188,7 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K188">
         <v>2.2</v>
@@ -17268,7 +17268,7 @@
         <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17277,7 +17277,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K189">
         <v>2</v>
@@ -17366,7 +17366,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K190">
         <v>2.375</v>
@@ -17455,7 +17455,7 @@
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K191">
         <v>2</v>
@@ -17544,7 +17544,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K192">
         <v>2.75</v>
@@ -17633,7 +17633,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K193">
         <v>2</v>
@@ -17710,7 +17710,7 @@
         <v>45360.8125</v>
       </c>
       <c r="F194" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G194" t="s">
         <v>39</v>
@@ -17722,7 +17722,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K194">
         <v>1.363</v>
@@ -17811,7 +17811,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K195">
         <v>5.25</v>
@@ -17888,10 +17888,10 @@
         <v>45361.85416666666</v>
       </c>
       <c r="F196" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17900,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K196">
         <v>2.1</v>
@@ -17989,7 +17989,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K197">
         <v>1.5</v>
@@ -18066,10 +18066,10 @@
         <v>45366.8125</v>
       </c>
       <c r="F198" t="s">
+        <v>30</v>
+      </c>
+      <c r="G198" t="s">
         <v>29</v>
-      </c>
-      <c r="G198" t="s">
-        <v>31</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18078,7 +18078,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K198">
         <v>3.8</v>
@@ -18167,7 +18167,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K199">
         <v>1.666</v>
@@ -18256,7 +18256,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K200">
         <v>5.5</v>
@@ -18345,7 +18345,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K201">
         <v>1.909</v>
@@ -18422,7 +18422,7 @@
         <v>45368.875</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G202" t="s">
         <v>38</v>
@@ -18434,7 +18434,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K202">
         <v>1.909</v>
@@ -18523,7 +18523,7 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K203">
         <v>1.909</v>
@@ -18612,7 +18612,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K204">
         <v>2.75</v>
@@ -18692,7 +18692,7 @@
         <v>38</v>
       </c>
       <c r="G205" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18701,7 +18701,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K205">
         <v>3.6</v>
@@ -18778,7 +18778,7 @@
         <v>45381.79166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G206" t="s">
         <v>33</v>
@@ -18888,10 +18888,10 @@
         <v>2.25</v>
       </c>
       <c r="U207">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V207">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W207">
         <v>0</v>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,13 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
-    <t>Cerro Porteno</t>
-  </si>
-  <si>
     <t>Sportivo Luqueno</t>
   </si>
   <si>
     <t>Guarani Asuncion</t>
+  </si>
+  <si>
+    <t>Cerro Porteno</t>
   </si>
   <si>
     <t>Sportivo Ameliano</t>
@@ -145,13 +145,13 @@
     <t>2 de Mayo</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC208"/>
+  <dimension ref="A1:AC209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6720843</v>
+        <v>6720873</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,73 +625,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L2">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M2">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N2">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O2">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P2">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q2">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R2">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S2">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T2">
         <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V2">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W2">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6720873</v>
+        <v>6720844</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,10 +714,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -726,58 +726,58 @@
         <v>44</v>
       </c>
       <c r="K3">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="L3">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M3">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N3">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P3">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S3">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
         <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AB3">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6720844</v>
+        <v>6720843</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,31 +803,31 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>45</v>
       </c>
       <c r="K4">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M4">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N4">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O4">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P4">
         <v>1.85</v>
@@ -836,10 +836,10 @@
         <v>0.5</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
         <v>2.5</v>
@@ -851,25 +851,25 @@
         <v>1.875</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5">
         <v>1.95</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>1.571</v>
@@ -1079,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7">
         <v>2.4</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8">
         <v>2.75</v>
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9">
         <v>1.333</v>
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10">
         <v>2.3</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1515,7 +1515,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12">
         <v>5.5</v>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K13">
         <v>1.363</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>2.7</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K15">
         <v>1.55</v>
@@ -1880,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -1969,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K17">
         <v>1.4</v>
@@ -2046,10 +2046,10 @@
         <v>45116.70833333334</v>
       </c>
       <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
         <v>30</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K18">
         <v>2.375</v>
@@ -2135,7 +2135,7 @@
         <v>45116.8125</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -2147,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K19">
         <v>1.4</v>
@@ -2236,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K20">
         <v>4.75</v>
@@ -2316,7 +2316,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K21">
         <v>3.6</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K22">
         <v>2.625</v>
@@ -2491,7 +2491,7 @@
         <v>45123.8125</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
@@ -2503,7 +2503,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2583,7 +2583,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2592,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K24">
         <v>2.625</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K25">
         <v>1.666</v>
@@ -2761,7 +2761,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26">
         <v>2.9</v>
@@ -2859,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
         <v>1.65</v>
@@ -2936,7 +2936,7 @@
         <v>45129.8125</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K28">
         <v>1.45</v>
@@ -3025,7 +3025,7 @@
         <v>45130.70833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -3037,7 +3037,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29">
         <v>2.15</v>
@@ -3126,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30">
         <v>1.7</v>
@@ -3215,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K31">
         <v>1.25</v>
@@ -3295,7 +3295,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K32">
         <v>2.625</v>
@@ -3381,7 +3381,7 @@
         <v>45135.85416666666</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3571,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K35">
         <v>4.2</v>
@@ -3660,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K36">
         <v>2.2</v>
@@ -3740,7 +3740,7 @@
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K37">
         <v>4.5</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K38">
         <v>1.363</v>
@@ -3915,7 +3915,7 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K39">
         <v>1.666</v>
@@ -4004,7 +4004,7 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
         <v>34</v>
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4096,7 +4096,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -4105,7 +4105,7 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K41">
         <v>1.615</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K42">
         <v>1.65</v>
@@ -4283,7 +4283,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K43">
         <v>2.625</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K44">
         <v>2.75</v>
@@ -4461,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -4541,7 +4541,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4627,7 +4627,7 @@
         <v>45151.72916666666</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>40</v>
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K47">
         <v>2.15</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K48">
         <v>2.05</v>
@@ -4808,7 +4808,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4817,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K49">
         <v>2.375</v>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K50">
         <v>1.5</v>
@@ -4983,7 +4983,7 @@
         <v>45157.75</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
@@ -4995,7 +4995,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K51">
         <v>2.25</v>
@@ -5084,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K52">
         <v>1.444</v>
@@ -5161,10 +5161,10 @@
         <v>45158.75</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5173,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K53">
         <v>3.5</v>
@@ -5262,7 +5262,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K54">
         <v>1.666</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K55">
         <v>2.3</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K56">
         <v>1.7</v>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5606,7 +5606,7 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K58">
         <v>2.375</v>
@@ -5695,7 +5695,7 @@
         <v>45165.72916666666</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
         <v>40</v>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -5787,7 +5787,7 @@
         <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K60">
         <v>2.8</v>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K61">
         <v>3.4</v>
@@ -5974,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6054,7 +6054,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6063,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K63">
         <v>4.75</v>
@@ -6143,7 +6143,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K64">
         <v>1.5</v>
@@ -6229,7 +6229,7 @@
         <v>45172.72916666666</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -6241,7 +6241,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K65">
         <v>1.85</v>
@@ -6330,7 +6330,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K66">
         <v>1.909</v>
@@ -6410,7 +6410,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K67">
         <v>2.45</v>
@@ -6508,7 +6508,7 @@
         <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K68">
         <v>2.875</v>
@@ -6585,7 +6585,7 @@
         <v>45179.72916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
         <v>39</v>
@@ -6597,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K69">
         <v>1.85</v>
@@ -6674,7 +6674,7 @@
         <v>45179.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K70">
         <v>1.833</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K71">
         <v>2.2</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K72">
         <v>2.55</v>
@@ -6944,7 +6944,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -7042,7 +7042,7 @@
         <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K74">
         <v>5.75</v>
@@ -7131,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K75">
         <v>1.533</v>
@@ -7220,7 +7220,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7297,10 +7297,10 @@
         <v>45186.83333333334</v>
       </c>
       <c r="F77" t="s">
+        <v>30</v>
+      </c>
+      <c r="G77" t="s">
         <v>31</v>
-      </c>
-      <c r="G77" t="s">
-        <v>29</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K77">
         <v>3.8</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K78">
         <v>1.615</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K79">
         <v>2.2</v>
@@ -7567,7 +7567,7 @@
         <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K80">
         <v>5.25</v>
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K81">
         <v>6</v>
@@ -7754,7 +7754,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K82">
         <v>4</v>
@@ -7831,10 +7831,10 @@
         <v>45193.77083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K83">
         <v>2.15</v>
@@ -7932,7 +7932,7 @@
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K84">
         <v>1.95</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K85">
         <v>1.85</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K86">
         <v>2.1</v>
@@ -8199,7 +8199,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K87">
         <v>3.8</v>
@@ -8276,7 +8276,7 @@
         <v>45200.75</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8288,7 +8288,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K88">
         <v>1.55</v>
@@ -8368,7 +8368,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K89">
         <v>1.5</v>
@@ -8454,7 +8454,7 @@
         <v>45201.75</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K90">
         <v>1.8</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K91">
         <v>1.333</v>
@@ -8635,7 +8635,7 @@
         <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K92">
         <v>4.2</v>
@@ -8733,7 +8733,7 @@
         <v>5</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K93">
         <v>5.75</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K94">
         <v>2.875</v>
@@ -8911,7 +8911,7 @@
         <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K95">
         <v>2.7</v>
@@ -8988,7 +8988,7 @@
         <v>45207.85416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
         <v>39</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K96">
         <v>1.75</v>
@@ -9080,7 +9080,7 @@
         <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9089,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K97">
         <v>2.15</v>
@@ -9169,7 +9169,7 @@
         <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K98">
         <v>1.95</v>
@@ -9267,7 +9267,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K99">
         <v>2.375</v>
@@ -9344,7 +9344,7 @@
         <v>45218.8125</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9356,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K100">
         <v>1.909</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K101">
         <v>1.444</v>
@@ -9534,7 +9534,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K102">
         <v>1.7</v>
@@ -9611,7 +9611,7 @@
         <v>45220.85416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -9623,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K103">
         <v>1.363</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K104">
         <v>3.6</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K105">
         <v>6</v>
@@ -9890,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K106">
         <v>1.75</v>
@@ -9970,7 +9970,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9979,7 +9979,7 @@
         <v>5</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K107">
         <v>3.75</v>
@@ -10056,7 +10056,7 @@
         <v>45223.85416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10068,7 +10068,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K108">
         <v>3.6</v>
@@ -10148,7 +10148,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K109">
         <v>3.2</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K110">
         <v>2.75</v>
@@ -10335,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K111">
         <v>1.909</v>
@@ -10412,7 +10412,7 @@
         <v>45227.85416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
         <v>35</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K112">
         <v>1.85</v>
@@ -10504,7 +10504,7 @@
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K113">
         <v>2.25</v>
@@ -10590,7 +10590,7 @@
         <v>45229.75</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
         <v>38</v>
@@ -10602,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K114">
         <v>2.05</v>
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K115">
         <v>1.25</v>
@@ -10771,7 +10771,7 @@
         <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K116">
         <v>2.2</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K117">
         <v>4</v>
@@ -10958,7 +10958,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K118">
         <v>2.2</v>
@@ -11047,7 +11047,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K119">
         <v>4.333</v>
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K120">
         <v>5</v>
@@ -11213,10 +11213,10 @@
         <v>45233.85416666666</v>
       </c>
       <c r="F121" t="s">
+        <v>31</v>
+      </c>
+      <c r="G121" t="s">
         <v>29</v>
-      </c>
-      <c r="G121" t="s">
-        <v>30</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K121">
         <v>1.533</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K122">
         <v>2.6</v>
@@ -11391,7 +11391,7 @@
         <v>45235.85416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
         <v>37</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K123">
         <v>1.909</v>
@@ -11483,7 +11483,7 @@
         <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11492,7 +11492,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K124">
         <v>2.05</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K125">
         <v>1.615</v>
@@ -11670,7 +11670,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K126">
         <v>2.5</v>
@@ -11750,7 +11750,7 @@
         <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K127">
         <v>1.833</v>
@@ -11848,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K128">
         <v>3</v>
@@ -11937,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K129">
         <v>2</v>
@@ -12002,7 +12002,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7453204</v>
+        <v>7454842</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12017,10 +12017,10 @@
         <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -12029,61 +12029,61 @@
         <v>44</v>
       </c>
       <c r="K130">
-        <v>1.285</v>
+        <v>4</v>
       </c>
       <c r="L130">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="N130">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O130">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P130">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="Q130">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T130">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12091,7 +12091,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7454842</v>
+        <v>7453204</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12103,76 +12103,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K131">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="L131">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M131">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="N131">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O131">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P131">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12195,7 +12195,7 @@
         <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12204,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K132">
         <v>3.4</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K133">
         <v>2.75</v>
@@ -12373,7 +12373,7 @@
         <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12382,7 +12382,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K134">
         <v>3.4</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K135">
         <v>1.727</v>
@@ -12560,7 +12560,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K136">
         <v>1.85</v>
@@ -12649,7 +12649,7 @@
         <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K137">
         <v>2.7</v>
@@ -12726,7 +12726,7 @@
         <v>45255.8125</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G138" t="s">
         <v>38</v>
@@ -12738,7 +12738,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K138">
         <v>2</v>
@@ -12818,7 +12818,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12827,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K139">
         <v>2.375</v>
@@ -12916,7 +12916,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K140">
         <v>2.05</v>
@@ -13005,7 +13005,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K141">
         <v>1.363</v>
@@ -13094,7 +13094,7 @@
         <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K142">
         <v>4</v>
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7493312</v>
+        <v>7493433</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13174,73 +13174,73 @@
         <v>29</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H143">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
         <v>43</v>
       </c>
       <c r="K143">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L143">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M143">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N143">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="O143">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P143">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q143">
+        <v>0.25</v>
+      </c>
+      <c r="R143">
+        <v>1.75</v>
+      </c>
+      <c r="S143">
+        <v>2.05</v>
+      </c>
+      <c r="T143">
+        <v>2.25</v>
+      </c>
+      <c r="U143">
+        <v>2</v>
+      </c>
+      <c r="V143">
+        <v>1.8</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
+        <v>2.1</v>
+      </c>
+      <c r="Y143">
+        <v>-1</v>
+      </c>
+      <c r="Z143">
+        <v>0.375</v>
+      </c>
+      <c r="AA143">
         <v>-0.5</v>
       </c>
-      <c r="R143">
-        <v>1.8</v>
-      </c>
-      <c r="S143">
-        <v>2</v>
-      </c>
-      <c r="T143">
-        <v>2.75</v>
-      </c>
-      <c r="U143">
-        <v>1.875</v>
-      </c>
-      <c r="V143">
-        <v>1.925</v>
-      </c>
-      <c r="W143">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X143">
-        <v>-1</v>
-      </c>
-      <c r="Y143">
-        <v>-1</v>
-      </c>
-      <c r="Z143">
-        <v>0.8</v>
-      </c>
-      <c r="AA143">
-        <v>-1</v>
-      </c>
       <c r="AB143">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13272,7 +13272,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K144">
         <v>3.4</v>
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7493433</v>
+        <v>7493312</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F145" t="s">
+        <v>31</v>
+      </c>
+      <c r="G145" t="s">
         <v>30</v>
       </c>
-      <c r="G145" t="s">
-        <v>33</v>
-      </c>
       <c r="H145">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K145">
+        <v>1.7</v>
+      </c>
+      <c r="L145">
+        <v>3.6</v>
+      </c>
+      <c r="M145">
+        <v>4.333</v>
+      </c>
+      <c r="N145">
+        <v>1.727</v>
+      </c>
+      <c r="O145">
+        <v>3.75</v>
+      </c>
+      <c r="P145">
+        <v>4.2</v>
+      </c>
+      <c r="Q145">
+        <v>-0.5</v>
+      </c>
+      <c r="R145">
+        <v>1.8</v>
+      </c>
+      <c r="S145">
+        <v>2</v>
+      </c>
+      <c r="T145">
         <v>2.75</v>
       </c>
-      <c r="L145">
-        <v>3.2</v>
-      </c>
-      <c r="M145">
-        <v>2.4</v>
-      </c>
-      <c r="N145">
-        <v>2.75</v>
-      </c>
-      <c r="O145">
-        <v>3.1</v>
-      </c>
-      <c r="P145">
-        <v>2.45</v>
-      </c>
-      <c r="Q145">
-        <v>0.25</v>
-      </c>
-      <c r="R145">
-        <v>1.75</v>
-      </c>
-      <c r="S145">
-        <v>2.05</v>
-      </c>
-      <c r="T145">
-        <v>2.25</v>
-      </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X145">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC145">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K146">
         <v>2.625</v>
@@ -13539,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K147">
         <v>1.444</v>
@@ -13616,7 +13616,7 @@
         <v>45311.75</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
         <v>42</v>
@@ -13628,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K148">
         <v>1.8</v>
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K149">
         <v>2.2</v>
@@ -13794,7 +13794,7 @@
         <v>45312.75</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
         <v>38</v>
@@ -13806,7 +13806,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K150">
         <v>1.533</v>
@@ -13883,7 +13883,7 @@
         <v>45312.85416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K151">
         <v>3.75</v>
@@ -13984,7 +13984,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K152">
         <v>1.65</v>
@@ -14073,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K153">
         <v>4.333</v>
@@ -14153,7 +14153,7 @@
         <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14162,7 +14162,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K154">
         <v>3.3</v>
@@ -14242,7 +14242,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K155">
         <v>1.533</v>
@@ -14340,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K156">
         <v>3.5</v>
@@ -14420,7 +14420,7 @@
         <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14429,7 +14429,7 @@
         <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K157">
         <v>3.75</v>
@@ -14506,7 +14506,7 @@
         <v>45318.77083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
         <v>41</v>
@@ -14518,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K158">
         <v>2.25</v>
@@ -14607,7 +14607,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K159">
         <v>2.3</v>
@@ -14696,7 +14696,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K160">
         <v>2.7</v>
@@ -14773,7 +14773,7 @@
         <v>45319.86805555555</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
         <v>39</v>
@@ -14785,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K161">
         <v>1.833</v>
@@ -14874,7 +14874,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K162">
         <v>6.5</v>
@@ -14954,7 +14954,7 @@
         <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14963,7 +14963,7 @@
         <v>4</v>
       </c>
       <c r="J163" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K163">
         <v>1.909</v>
@@ -15052,7 +15052,7 @@
         <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K164">
         <v>2.5</v>
@@ -15132,7 +15132,7 @@
         <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15141,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K165">
         <v>2.8</v>
@@ -15221,7 +15221,7 @@
         <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15230,7 +15230,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K166">
         <v>4.5</v>
@@ -15319,7 +15319,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K167">
         <v>1.25</v>
@@ -15408,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K168">
         <v>3.5</v>
@@ -15497,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K169">
         <v>2.875</v>
@@ -15586,7 +15586,7 @@
         <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K170">
         <v>2</v>
@@ -15663,7 +15663,7 @@
         <v>45332.76041666666</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G171" t="s">
         <v>32</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K171">
         <v>2.15</v>
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K172">
         <v>1.55</v>
@@ -15841,7 +15841,7 @@
         <v>45333.76041666666</v>
       </c>
       <c r="F173" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G173" t="s">
         <v>36</v>
@@ -15853,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15930,7 +15930,7 @@
         <v>45333.86458333334</v>
       </c>
       <c r="F174" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G174" t="s">
         <v>33</v>
@@ -15942,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K174">
         <v>1.95</v>
@@ -16022,7 +16022,7 @@
         <v>37</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16031,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K175">
         <v>2.7</v>
@@ -16111,7 +16111,7 @@
         <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16120,7 +16120,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K176">
         <v>2.5</v>
@@ -16200,7 +16200,7 @@
         <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16209,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K177">
         <v>3.4</v>
@@ -16298,7 +16298,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K178">
         <v>6</v>
@@ -16387,7 +16387,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K179">
         <v>1.909</v>
@@ -16476,7 +16476,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K180">
         <v>2.25</v>
@@ -16553,7 +16553,7 @@
         <v>45345.8125</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G181" t="s">
         <v>37</v>
@@ -16565,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K181">
         <v>1.7</v>
@@ -16654,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K182">
         <v>2.7</v>
@@ -16731,7 +16731,7 @@
         <v>45346.86458333334</v>
       </c>
       <c r="F183" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G183" t="s">
         <v>41</v>
@@ -16743,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K183">
         <v>1.45</v>
@@ -16832,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K184">
         <v>2.7</v>
@@ -16909,7 +16909,7 @@
         <v>45347.86458333334</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G185" t="s">
         <v>40</v>
@@ -16921,7 +16921,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K185">
         <v>2.6</v>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K186">
         <v>1.363</v>
@@ -17087,10 +17087,10 @@
         <v>45352.8125</v>
       </c>
       <c r="F187" t="s">
+        <v>30</v>
+      </c>
+      <c r="G187" t="s">
         <v>31</v>
-      </c>
-      <c r="G187" t="s">
-        <v>29</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17099,7 +17099,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K187">
         <v>3.8</v>
@@ -17188,7 +17188,7 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K188">
         <v>2.2</v>
@@ -17268,7 +17268,7 @@
         <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17277,7 +17277,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K189">
         <v>2</v>
@@ -17366,7 +17366,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K190">
         <v>2.375</v>
@@ -17455,7 +17455,7 @@
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K191">
         <v>2</v>
@@ -17544,7 +17544,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K192">
         <v>2.75</v>
@@ -17633,7 +17633,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K193">
         <v>2</v>
@@ -17710,7 +17710,7 @@
         <v>45360.8125</v>
       </c>
       <c r="F194" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G194" t="s">
         <v>39</v>
@@ -17722,7 +17722,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K194">
         <v>1.363</v>
@@ -17811,7 +17811,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K195">
         <v>5.25</v>
@@ -17888,10 +17888,10 @@
         <v>45361.85416666666</v>
       </c>
       <c r="F196" t="s">
+        <v>29</v>
+      </c>
+      <c r="G196" t="s">
         <v>30</v>
-      </c>
-      <c r="G196" t="s">
-        <v>31</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17900,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K196">
         <v>2.1</v>
@@ -17989,7 +17989,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K197">
         <v>1.5</v>
@@ -18066,10 +18066,10 @@
         <v>45366.8125</v>
       </c>
       <c r="F198" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18078,7 +18078,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K198">
         <v>3.8</v>
@@ -18167,7 +18167,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K199">
         <v>1.666</v>
@@ -18256,7 +18256,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K200">
         <v>5.5</v>
@@ -18345,7 +18345,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K201">
         <v>1.909</v>
@@ -18422,7 +18422,7 @@
         <v>45368.875</v>
       </c>
       <c r="F202" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G202" t="s">
         <v>38</v>
@@ -18434,7 +18434,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K202">
         <v>1.909</v>
@@ -18523,7 +18523,7 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K203">
         <v>1.909</v>
@@ -18612,7 +18612,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K204">
         <v>2.75</v>
@@ -18692,7 +18692,7 @@
         <v>38</v>
       </c>
       <c r="G205" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18701,7 +18701,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K205">
         <v>3.6</v>
@@ -18778,7 +18778,7 @@
         <v>45381.79166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
         <v>33</v>
@@ -18793,31 +18793,31 @@
         <v>6</v>
       </c>
       <c r="N206">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O206">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P206">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q206">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R206">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S206">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T206">
         <v>2.5</v>
       </c>
       <c r="U206">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V206">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W206">
         <v>0</v>
@@ -18879,19 +18879,19 @@
         <v>-0.5</v>
       </c>
       <c r="R207">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S207">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T207">
         <v>2.25</v>
       </c>
       <c r="U207">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V207">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W207">
         <v>0</v>
@@ -18941,31 +18941,31 @@
         <v>3.2</v>
       </c>
       <c r="N208">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="O208">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P208">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R208">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S208">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T208">
         <v>2.25</v>
       </c>
       <c r="U208">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V208">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W208">
         <v>0</v>
@@ -18980,6 +18980,80 @@
         <v>0</v>
       </c>
       <c r="AA208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>7609672</v>
+      </c>
+      <c r="C209" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45382.875</v>
+      </c>
+      <c r="F209" t="s">
+        <v>42</v>
+      </c>
+      <c r="G209" t="s">
+        <v>30</v>
+      </c>
+      <c r="K209">
+        <v>2.2</v>
+      </c>
+      <c r="L209">
+        <v>3.1</v>
+      </c>
+      <c r="M209">
+        <v>3.1</v>
+      </c>
+      <c r="N209">
+        <v>2.2</v>
+      </c>
+      <c r="O209">
+        <v>3.1</v>
+      </c>
+      <c r="P209">
+        <v>3.1</v>
+      </c>
+      <c r="Q209">
+        <v>-0.25</v>
+      </c>
+      <c r="R209">
+        <v>1.925</v>
+      </c>
+      <c r="S209">
+        <v>1.875</v>
+      </c>
+      <c r="T209">
+        <v>2.25</v>
+      </c>
+      <c r="U209">
+        <v>1.95</v>
+      </c>
+      <c r="V209">
+        <v>1.85</v>
+      </c>
+      <c r="W209">
+        <v>0</v>
+      </c>
+      <c r="X209">
+        <v>0</v>
+      </c>
+      <c r="Y209">
+        <v>0</v>
+      </c>
+      <c r="Z209">
+        <v>0</v>
+      </c>
+      <c r="AA209">
         <v>0</v>
       </c>
     </row>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC209"/>
+  <dimension ref="A1:AC206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12002,7 +12002,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7454842</v>
+        <v>7453204</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12014,76 +12014,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K130">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="L130">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M130">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="N130">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O130">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P130">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U130">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y130">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12091,7 +12091,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7453204</v>
+        <v>7454842</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12103,76 +12103,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K131">
-        <v>1.285</v>
+        <v>4</v>
       </c>
       <c r="L131">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M131">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="N131">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O131">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P131">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="Q131">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12358,7 +12358,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7493427</v>
+        <v>7493428</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12370,76 +12370,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K134">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L134">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N134">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O134">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P134">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q134">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R134">
+        <v>1.775</v>
+      </c>
+      <c r="S134">
         <v>2.025</v>
       </c>
-      <c r="S134">
-        <v>1.775</v>
-      </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
+        <v>1.825</v>
+      </c>
+      <c r="V134">
         <v>1.975</v>
       </c>
-      <c r="V134">
-        <v>1.825</v>
-      </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X134">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC134">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12447,7 +12447,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7493428</v>
+        <v>7493427</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12459,76 +12459,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H135">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K135">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M135">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N135">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O135">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P135">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q135">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R135">
+        <v>2.025</v>
+      </c>
+      <c r="S135">
         <v>1.775</v>
       </c>
-      <c r="S135">
-        <v>2.025</v>
-      </c>
       <c r="T135">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
+        <v>1.975</v>
+      </c>
+      <c r="V135">
         <v>1.825</v>
       </c>
-      <c r="V135">
-        <v>1.975</v>
-      </c>
       <c r="W135">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB135">
+        <v>-1</v>
+      </c>
+      <c r="AC135">
         <v>0.825</v>
-      </c>
-      <c r="AC135">
-        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12625,7 +12625,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7499440</v>
+        <v>7499442</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12637,55 +12637,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
         <v>44</v>
       </c>
       <c r="K137">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L137">
         <v>3.4</v>
       </c>
       <c r="M137">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N137">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O137">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P137">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q137">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12694,19 +12694,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB137">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12714,7 +12714,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7499442</v>
+        <v>7499440</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12726,55 +12726,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F138" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J138" t="s">
         <v>44</v>
       </c>
       <c r="K138">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L138">
         <v>3.4</v>
       </c>
       <c r="M138">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N138">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O138">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P138">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q138">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12783,19 +12783,19 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC138">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7493431</v>
+        <v>7493310</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,76 +12904,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H140">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K140">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="L140">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M140">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="N140">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="O140">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P140">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R140">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U140">
+        <v>1.8</v>
+      </c>
+      <c r="V140">
         <v>2</v>
       </c>
-      <c r="V140">
-        <v>1.8</v>
-      </c>
       <c r="W140">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z140">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12981,7 +12981,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7493310</v>
+        <v>7493431</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12993,76 +12993,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I141">
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K141">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="L141">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M141">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="N141">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="O141">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P141">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R141">
+        <v>1.925</v>
+      </c>
+      <c r="S141">
+        <v>1.875</v>
+      </c>
+      <c r="T141">
+        <v>2.5</v>
+      </c>
+      <c r="U141">
+        <v>2</v>
+      </c>
+      <c r="V141">
         <v>1.8</v>
       </c>
-      <c r="S141">
-        <v>2</v>
-      </c>
-      <c r="T141">
-        <v>2.75</v>
-      </c>
-      <c r="U141">
-        <v>1.8</v>
-      </c>
-      <c r="V141">
-        <v>2</v>
-      </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA141">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AC141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7493433</v>
+        <v>7493312</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G143" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K143">
+        <v>1.7</v>
+      </c>
+      <c r="L143">
+        <v>3.6</v>
+      </c>
+      <c r="M143">
+        <v>4.333</v>
+      </c>
+      <c r="N143">
+        <v>1.727</v>
+      </c>
+      <c r="O143">
+        <v>3.75</v>
+      </c>
+      <c r="P143">
+        <v>4.2</v>
+      </c>
+      <c r="Q143">
+        <v>-0.5</v>
+      </c>
+      <c r="R143">
+        <v>1.8</v>
+      </c>
+      <c r="S143">
+        <v>2</v>
+      </c>
+      <c r="T143">
         <v>2.75</v>
       </c>
-      <c r="L143">
-        <v>3.2</v>
-      </c>
-      <c r="M143">
-        <v>2.4</v>
-      </c>
-      <c r="N143">
-        <v>2.75</v>
-      </c>
-      <c r="O143">
-        <v>3.1</v>
-      </c>
-      <c r="P143">
-        <v>2.45</v>
-      </c>
-      <c r="Q143">
-        <v>0.25</v>
-      </c>
-      <c r="R143">
-        <v>1.75</v>
-      </c>
-      <c r="S143">
-        <v>2.05</v>
-      </c>
-      <c r="T143">
-        <v>2.25</v>
-      </c>
       <c r="U143">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V143">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X143">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC143">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7493312</v>
+        <v>7493433</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K145">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M145">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N145">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="O145">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P145">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q145">
+        <v>0.25</v>
+      </c>
+      <c r="R145">
+        <v>1.75</v>
+      </c>
+      <c r="S145">
+        <v>2.05</v>
+      </c>
+      <c r="T145">
+        <v>2.25</v>
+      </c>
+      <c r="U145">
+        <v>2</v>
+      </c>
+      <c r="V145">
+        <v>1.8</v>
+      </c>
+      <c r="W145">
+        <v>-1</v>
+      </c>
+      <c r="X145">
+        <v>2.1</v>
+      </c>
+      <c r="Y145">
+        <v>-1</v>
+      </c>
+      <c r="Z145">
+        <v>0.375</v>
+      </c>
+      <c r="AA145">
         <v>-0.5</v>
       </c>
-      <c r="R145">
-        <v>1.8</v>
-      </c>
-      <c r="S145">
-        <v>2</v>
-      </c>
-      <c r="T145">
-        <v>2.75</v>
-      </c>
-      <c r="U145">
-        <v>1.875</v>
-      </c>
-      <c r="V145">
-        <v>1.925</v>
-      </c>
-      <c r="W145">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X145">
-        <v>-1</v>
-      </c>
-      <c r="Y145">
-        <v>-1</v>
-      </c>
-      <c r="Z145">
-        <v>0.8</v>
-      </c>
-      <c r="AA145">
-        <v>-1</v>
-      </c>
       <c r="AB145">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -18766,7 +18766,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7609201</v>
+        <v>7609672</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18775,49 +18775,49 @@
         <v>28</v>
       </c>
       <c r="E206" s="2">
-        <v>45381.79166666666</v>
+        <v>45382.875</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G206" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K206">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="L206">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M206">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="N206">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="O206">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P206">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="Q206">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R206">
+        <v>1.85</v>
+      </c>
+      <c r="S206">
+        <v>1.95</v>
+      </c>
+      <c r="T206">
+        <v>2.25</v>
+      </c>
+      <c r="U206">
         <v>1.975</v>
       </c>
-      <c r="S206">
+      <c r="V206">
         <v>1.825</v>
-      </c>
-      <c r="T206">
-        <v>2.5</v>
-      </c>
-      <c r="U206">
-        <v>1.8</v>
-      </c>
-      <c r="V206">
-        <v>2</v>
       </c>
       <c r="W206">
         <v>0</v>
@@ -18832,228 +18832,6 @@
         <v>0</v>
       </c>
       <c r="AA206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:29">
-      <c r="A207" s="1">
-        <v>205</v>
-      </c>
-      <c r="B207">
-        <v>7609146</v>
-      </c>
-      <c r="C207" t="s">
-        <v>28</v>
-      </c>
-      <c r="D207" t="s">
-        <v>28</v>
-      </c>
-      <c r="E207" s="2">
-        <v>45381.89583333334</v>
-      </c>
-      <c r="F207" t="s">
-        <v>36</v>
-      </c>
-      <c r="G207" t="s">
-        <v>40</v>
-      </c>
-      <c r="K207">
-        <v>1.8</v>
-      </c>
-      <c r="L207">
-        <v>3.3</v>
-      </c>
-      <c r="M207">
-        <v>4</v>
-      </c>
-      <c r="N207">
-        <v>1.8</v>
-      </c>
-      <c r="O207">
-        <v>3.3</v>
-      </c>
-      <c r="P207">
-        <v>4</v>
-      </c>
-      <c r="Q207">
-        <v>-0.5</v>
-      </c>
-      <c r="R207">
-        <v>1.875</v>
-      </c>
-      <c r="S207">
-        <v>1.925</v>
-      </c>
-      <c r="T207">
-        <v>2.25</v>
-      </c>
-      <c r="U207">
-        <v>1.8</v>
-      </c>
-      <c r="V207">
-        <v>2</v>
-      </c>
-      <c r="W207">
-        <v>0</v>
-      </c>
-      <c r="X207">
-        <v>0</v>
-      </c>
-      <c r="Y207">
-        <v>0</v>
-      </c>
-      <c r="Z207">
-        <v>0</v>
-      </c>
-      <c r="AA207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:29">
-      <c r="A208" s="1">
-        <v>206</v>
-      </c>
-      <c r="B208">
-        <v>7609145</v>
-      </c>
-      <c r="C208" t="s">
-        <v>28</v>
-      </c>
-      <c r="D208" t="s">
-        <v>28</v>
-      </c>
-      <c r="E208" s="2">
-        <v>45382.77083333334</v>
-      </c>
-      <c r="F208" t="s">
-        <v>41</v>
-      </c>
-      <c r="G208" t="s">
-        <v>37</v>
-      </c>
-      <c r="K208">
-        <v>2.1</v>
-      </c>
-      <c r="L208">
-        <v>3.2</v>
-      </c>
-      <c r="M208">
-        <v>3.2</v>
-      </c>
-      <c r="N208">
-        <v>2.3</v>
-      </c>
-      <c r="O208">
-        <v>3.2</v>
-      </c>
-      <c r="P208">
-        <v>2.9</v>
-      </c>
-      <c r="Q208">
-        <v>-0.25</v>
-      </c>
-      <c r="R208">
-        <v>2.025</v>
-      </c>
-      <c r="S208">
-        <v>1.775</v>
-      </c>
-      <c r="T208">
-        <v>2.25</v>
-      </c>
-      <c r="U208">
-        <v>1.875</v>
-      </c>
-      <c r="V208">
-        <v>1.925</v>
-      </c>
-      <c r="W208">
-        <v>0</v>
-      </c>
-      <c r="X208">
-        <v>0</v>
-      </c>
-      <c r="Y208">
-        <v>0</v>
-      </c>
-      <c r="Z208">
-        <v>0</v>
-      </c>
-      <c r="AA208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:27">
-      <c r="A209" s="1">
-        <v>207</v>
-      </c>
-      <c r="B209">
-        <v>7609672</v>
-      </c>
-      <c r="C209" t="s">
-        <v>28</v>
-      </c>
-      <c r="D209" t="s">
-        <v>28</v>
-      </c>
-      <c r="E209" s="2">
-        <v>45382.875</v>
-      </c>
-      <c r="F209" t="s">
-        <v>42</v>
-      </c>
-      <c r="G209" t="s">
-        <v>30</v>
-      </c>
-      <c r="K209">
-        <v>2.2</v>
-      </c>
-      <c r="L209">
-        <v>3.1</v>
-      </c>
-      <c r="M209">
-        <v>3.1</v>
-      </c>
-      <c r="N209">
-        <v>2.2</v>
-      </c>
-      <c r="O209">
-        <v>3.1</v>
-      </c>
-      <c r="P209">
-        <v>3.1</v>
-      </c>
-      <c r="Q209">
-        <v>-0.25</v>
-      </c>
-      <c r="R209">
-        <v>1.925</v>
-      </c>
-      <c r="S209">
-        <v>1.875</v>
-      </c>
-      <c r="T209">
-        <v>2.25</v>
-      </c>
-      <c r="U209">
-        <v>1.95</v>
-      </c>
-      <c r="V209">
-        <v>1.85</v>
-      </c>
-      <c r="W209">
-        <v>0</v>
-      </c>
-      <c r="X209">
-        <v>0</v>
-      </c>
-      <c r="Y209">
-        <v>0</v>
-      </c>
-      <c r="Z209">
-        <v>0</v>
-      </c>
-      <c r="AA209">
         <v>0</v>
       </c>
     </row>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
-    <t>Sportivo Luqueno</t>
+    <t>Guarani Asuncion</t>
   </si>
   <si>
-    <t>Guarani Asuncion</t>
+    <t>Sportivo Luqueno</t>
   </si>
   <si>
     <t>Cerro Porteno</t>
@@ -145,10 +145,10 @@
     <t>2 de Mayo</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
     <t>H</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC206"/>
+  <dimension ref="A1:AC213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6720873</v>
+        <v>6720844</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,10 +625,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -637,58 +637,58 @@
         <v>43</v>
       </c>
       <c r="K2">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="L2">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M2">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N2">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P2">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R2">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S2">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T2">
         <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V2">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AB2">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC2">
         <v>-1</v>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6720844</v>
+        <v>6720873</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,10 +714,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -726,58 +726,58 @@
         <v>44</v>
       </c>
       <c r="K3">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M3">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P3">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q3">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T3">
         <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
       <c r="AB3">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K5">
         <v>1.95</v>
@@ -1079,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7">
         <v>2.4</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8">
         <v>2.75</v>
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9">
         <v>1.333</v>
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10">
         <v>2.3</v>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12">
         <v>5.5</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14">
         <v>2.7</v>
@@ -1969,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K17">
         <v>1.4</v>
@@ -2046,10 +2046,10 @@
         <v>45116.70833333334</v>
       </c>
       <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
         <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>30</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K18">
         <v>2.375</v>
@@ -2147,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K19">
         <v>1.4</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21">
         <v>3.6</v>
@@ -2491,7 +2491,7 @@
         <v>45123.8125</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
@@ -2503,7 +2503,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2583,7 +2583,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2592,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K24">
         <v>2.625</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25">
         <v>1.666</v>
@@ -2761,7 +2761,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K26">
         <v>2.9</v>
@@ -2859,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K27">
         <v>1.65</v>
@@ -3025,7 +3025,7 @@
         <v>45130.70833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -3037,7 +3037,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K29">
         <v>2.15</v>
@@ -3126,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K30">
         <v>1.7</v>
@@ -3295,7 +3295,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>45135.85416666666</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3571,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K35">
         <v>4.2</v>
@@ -3660,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K36">
         <v>2.2</v>
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K37">
         <v>4.5</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K38">
         <v>1.363</v>
@@ -4004,7 +4004,7 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
         <v>34</v>
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4096,7 +4096,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -4283,7 +4283,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K43">
         <v>2.625</v>
@@ -4461,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -4541,7 +4541,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K47">
         <v>2.15</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K48">
         <v>2.05</v>
@@ -4808,7 +4808,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4817,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K49">
         <v>2.375</v>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K50">
         <v>1.5</v>
@@ -4983,7 +4983,7 @@
         <v>45157.75</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
@@ -4995,7 +4995,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K51">
         <v>2.25</v>
@@ -5084,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K52">
         <v>1.444</v>
@@ -5161,7 +5161,7 @@
         <v>45158.75</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
         <v>31</v>
@@ -5173,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K53">
         <v>3.5</v>
@@ -5262,7 +5262,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K54">
         <v>1.666</v>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K58">
         <v>2.375</v>
@@ -5695,7 +5695,7 @@
         <v>45165.72916666666</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
         <v>40</v>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -5787,7 +5787,7 @@
         <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K60">
         <v>2.8</v>
@@ -6063,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K63">
         <v>4.75</v>
@@ -6143,7 +6143,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6229,7 +6229,7 @@
         <v>45172.72916666666</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -6330,7 +6330,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K66">
         <v>1.909</v>
@@ -6410,7 +6410,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K67">
         <v>2.45</v>
@@ -6508,7 +6508,7 @@
         <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K68">
         <v>2.875</v>
@@ -6585,7 +6585,7 @@
         <v>45179.72916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
         <v>39</v>
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K70">
         <v>1.833</v>
@@ -6944,7 +6944,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7042,7 +7042,7 @@
         <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K74">
         <v>5.75</v>
@@ -7220,7 +7220,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7297,7 +7297,7 @@
         <v>45186.83333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
         <v>31</v>
@@ -7576,7 +7576,7 @@
         <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K80">
         <v>5.25</v>
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K81">
         <v>6</v>
@@ -7754,7 +7754,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K82">
         <v>4</v>
@@ -7831,10 +7831,10 @@
         <v>45193.77083333334</v>
       </c>
       <c r="F83" t="s">
+        <v>29</v>
+      </c>
+      <c r="G83" t="s">
         <v>30</v>
-      </c>
-      <c r="G83" t="s">
-        <v>29</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7932,7 +7932,7 @@
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K84">
         <v>1.95</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K86">
         <v>2.1</v>
@@ -8199,7 +8199,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K87">
         <v>3.8</v>
@@ -8368,7 +8368,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K89">
         <v>1.5</v>
@@ -8454,7 +8454,7 @@
         <v>45201.75</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K91">
         <v>1.333</v>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K92">
         <v>4.2</v>
@@ -8733,7 +8733,7 @@
         <v>5</v>
       </c>
       <c r="J93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K93">
         <v>5.75</v>
@@ -8911,7 +8911,7 @@
         <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K95">
         <v>2.7</v>
@@ -8988,7 +8988,7 @@
         <v>45207.85416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
         <v>39</v>
@@ -9080,7 +9080,7 @@
         <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9089,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K97">
         <v>2.15</v>
@@ -9169,7 +9169,7 @@
         <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9267,7 +9267,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K99">
         <v>2.375</v>
@@ -9344,7 +9344,7 @@
         <v>45218.8125</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9534,7 +9534,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K102">
         <v>1.7</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K104">
         <v>3.6</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K105">
         <v>6</v>
@@ -9979,7 +9979,7 @@
         <v>5</v>
       </c>
       <c r="J107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K107">
         <v>3.75</v>
@@ -10056,7 +10056,7 @@
         <v>45223.85416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10068,7 +10068,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K108">
         <v>3.6</v>
@@ -10148,7 +10148,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K109">
         <v>3.2</v>
@@ -10412,7 +10412,7 @@
         <v>45227.85416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
         <v>35</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K112">
         <v>1.85</v>
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K113">
         <v>2.25</v>
@@ -10590,7 +10590,7 @@
         <v>45229.75</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
         <v>38</v>
@@ -10771,7 +10771,7 @@
         <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K116">
         <v>2.2</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K117">
         <v>4</v>
@@ -10958,7 +10958,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K118">
         <v>2.2</v>
@@ -11047,7 +11047,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K119">
         <v>4.333</v>
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K120">
         <v>5</v>
@@ -11216,7 +11216,7 @@
         <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11391,7 +11391,7 @@
         <v>45235.85416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
         <v>37</v>
@@ -11492,7 +11492,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K124">
         <v>2.05</v>
@@ -11670,7 +11670,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K126">
         <v>2.5</v>
@@ -11750,7 +11750,7 @@
         <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11937,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K129">
         <v>2</v>
@@ -12026,7 +12026,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K130">
         <v>1.285</v>
@@ -12103,7 +12103,7 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
         <v>36</v>
@@ -12115,7 +12115,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K131">
         <v>4</v>
@@ -12195,7 +12195,7 @@
         <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12204,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K132">
         <v>3.4</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K133">
         <v>2.75</v>
@@ -12462,7 +12462,7 @@
         <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K135">
         <v>3.4</v>
@@ -12560,7 +12560,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K136">
         <v>1.85</v>
@@ -12637,7 +12637,7 @@
         <v>45255.8125</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
         <v>38</v>
@@ -12649,7 +12649,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K137">
         <v>2</v>
@@ -12738,7 +12738,7 @@
         <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K138">
         <v>2.7</v>
@@ -12827,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K139">
         <v>2.375</v>
@@ -12916,7 +12916,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K140">
         <v>1.363</v>
@@ -13094,7 +13094,7 @@
         <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K142">
         <v>4</v>
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7493312</v>
+        <v>7493433</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H143">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K143">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L143">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M143">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N143">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="O143">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P143">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q143">
+        <v>0.25</v>
+      </c>
+      <c r="R143">
+        <v>1.75</v>
+      </c>
+      <c r="S143">
+        <v>2.05</v>
+      </c>
+      <c r="T143">
+        <v>2.25</v>
+      </c>
+      <c r="U143">
+        <v>2</v>
+      </c>
+      <c r="V143">
+        <v>1.8</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
+        <v>2.1</v>
+      </c>
+      <c r="Y143">
+        <v>-1</v>
+      </c>
+      <c r="Z143">
+        <v>0.375</v>
+      </c>
+      <c r="AA143">
         <v>-0.5</v>
       </c>
-      <c r="R143">
-        <v>1.8</v>
-      </c>
-      <c r="S143">
-        <v>2</v>
-      </c>
-      <c r="T143">
-        <v>2.75</v>
-      </c>
-      <c r="U143">
-        <v>1.875</v>
-      </c>
-      <c r="V143">
-        <v>1.925</v>
-      </c>
-      <c r="W143">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X143">
-        <v>-1</v>
-      </c>
-      <c r="Y143">
-        <v>-1</v>
-      </c>
-      <c r="Z143">
-        <v>0.8</v>
-      </c>
-      <c r="AA143">
-        <v>-1</v>
-      </c>
       <c r="AB143">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7493311</v>
+        <v>7493312</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,76 +13260,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H144">
+        <v>4</v>
+      </c>
+      <c r="I144">
         <v>0</v>
       </c>
-      <c r="I144">
-        <v>1</v>
-      </c>
       <c r="J144" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K144">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L144">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M144">
+        <v>4.333</v>
+      </c>
+      <c r="N144">
+        <v>1.727</v>
+      </c>
+      <c r="O144">
+        <v>3.75</v>
+      </c>
+      <c r="P144">
+        <v>4.2</v>
+      </c>
+      <c r="Q144">
+        <v>-0.5</v>
+      </c>
+      <c r="R144">
+        <v>1.8</v>
+      </c>
+      <c r="S144">
         <v>2</v>
       </c>
-      <c r="N144">
-        <v>3.2</v>
-      </c>
-      <c r="O144">
-        <v>3.25</v>
-      </c>
-      <c r="P144">
-        <v>2.1</v>
-      </c>
-      <c r="Q144">
-        <v>0.25</v>
-      </c>
-      <c r="R144">
-        <v>1.95</v>
-      </c>
-      <c r="S144">
-        <v>1.85</v>
-      </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V144">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC144">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7493433</v>
+        <v>7493311</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,13 +13349,13 @@
         <v>45261.8125</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>1</v>
@@ -13364,61 +13364,61 @@
         <v>43</v>
       </c>
       <c r="K145">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L145">
+        <v>3.3</v>
+      </c>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="N145">
         <v>3.2</v>
       </c>
-      <c r="M145">
-        <v>2.4</v>
-      </c>
-      <c r="N145">
-        <v>2.75</v>
-      </c>
       <c r="O145">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P145">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q145">
         <v>0.25</v>
       </c>
       <c r="R145">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S145">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V145">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z145">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13539,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K147">
         <v>1.444</v>
@@ -13616,7 +13616,7 @@
         <v>45311.75</v>
       </c>
       <c r="F148" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G148" t="s">
         <v>42</v>
@@ -13883,7 +13883,7 @@
         <v>45312.85416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K151">
         <v>3.75</v>
@@ -13984,7 +13984,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K152">
         <v>1.65</v>
@@ -14073,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K153">
         <v>4.333</v>
@@ -14153,7 +14153,7 @@
         <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14162,7 +14162,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K154">
         <v>3.3</v>
@@ -14242,7 +14242,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14429,7 +14429,7 @@
         <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K157">
         <v>3.75</v>
@@ -14506,7 +14506,7 @@
         <v>45318.77083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
         <v>41</v>
@@ -14518,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K158">
         <v>2.25</v>
@@ -14607,7 +14607,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K159">
         <v>2.3</v>
@@ -14696,7 +14696,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K160">
         <v>2.7</v>
@@ -14773,7 +14773,7 @@
         <v>45319.86805555555</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G161" t="s">
         <v>39</v>
@@ -14874,7 +14874,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K162">
         <v>6.5</v>
@@ -14954,7 +14954,7 @@
         <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14963,7 +14963,7 @@
         <v>4</v>
       </c>
       <c r="J163" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K163">
         <v>1.909</v>
@@ -15052,7 +15052,7 @@
         <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K164">
         <v>2.5</v>
@@ -15132,7 +15132,7 @@
         <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15141,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K165">
         <v>2.8</v>
@@ -15230,7 +15230,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K166">
         <v>4.5</v>
@@ -15586,7 +15586,7 @@
         <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K170">
         <v>2</v>
@@ -15663,7 +15663,7 @@
         <v>45332.76041666666</v>
       </c>
       <c r="F171" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G171" t="s">
         <v>32</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K171">
         <v>2.15</v>
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K172">
         <v>1.55</v>
@@ -15853,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15930,7 +15930,7 @@
         <v>45333.86458333334</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G174" t="s">
         <v>33</v>
@@ -16022,7 +16022,7 @@
         <v>37</v>
       </c>
       <c r="G175" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16031,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K175">
         <v>2.7</v>
@@ -16111,7 +16111,7 @@
         <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16120,7 +16120,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K176">
         <v>2.5</v>
@@ -16209,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K177">
         <v>3.4</v>
@@ -16298,7 +16298,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K178">
         <v>6</v>
@@ -16476,7 +16476,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K180">
         <v>2.25</v>
@@ -16553,7 +16553,7 @@
         <v>45345.8125</v>
       </c>
       <c r="F181" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G181" t="s">
         <v>37</v>
@@ -16565,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K181">
         <v>1.7</v>
@@ -16743,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K183">
         <v>1.45</v>
@@ -16832,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K184">
         <v>2.7</v>
@@ -16909,7 +16909,7 @@
         <v>45347.86458333334</v>
       </c>
       <c r="F185" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G185" t="s">
         <v>40</v>
@@ -16921,7 +16921,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K185">
         <v>2.6</v>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K186">
         <v>1.363</v>
@@ -17087,7 +17087,7 @@
         <v>45352.8125</v>
       </c>
       <c r="F187" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G187" t="s">
         <v>31</v>
@@ -17099,7 +17099,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K187">
         <v>3.8</v>
@@ -17188,7 +17188,7 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K188">
         <v>2.2</v>
@@ -17268,7 +17268,7 @@
         <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17455,7 +17455,7 @@
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K191">
         <v>2</v>
@@ -17633,7 +17633,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K193">
         <v>2</v>
@@ -17722,7 +17722,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K194">
         <v>1.363</v>
@@ -17811,7 +17811,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K195">
         <v>5.25</v>
@@ -17888,10 +17888,10 @@
         <v>45361.85416666666</v>
       </c>
       <c r="F196" t="s">
+        <v>30</v>
+      </c>
+      <c r="G196" t="s">
         <v>29</v>
-      </c>
-      <c r="G196" t="s">
-        <v>30</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18066,7 +18066,7 @@
         <v>45366.8125</v>
       </c>
       <c r="F198" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G198" t="s">
         <v>31</v>
@@ -18078,7 +18078,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K198">
         <v>3.8</v>
@@ -18256,7 +18256,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K200">
         <v>5.5</v>
@@ -18345,7 +18345,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K201">
         <v>1.909</v>
@@ -18422,7 +18422,7 @@
         <v>45368.875</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G202" t="s">
         <v>38</v>
@@ -18434,7 +18434,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K202">
         <v>1.909</v>
@@ -18612,7 +18612,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K204">
         <v>2.75</v>
@@ -18692,7 +18692,7 @@
         <v>38</v>
       </c>
       <c r="G205" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18701,7 +18701,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K205">
         <v>3.6</v>
@@ -18766,7 +18766,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7609672</v>
+        <v>7609201</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18775,63 +18775,641 @@
         <v>28</v>
       </c>
       <c r="E206" s="2">
-        <v>45382.875</v>
+        <v>45381.79166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206" t="s">
+        <v>45</v>
       </c>
       <c r="K206">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="L206">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M206">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N206">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="O206">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="P206">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="Q206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R206">
+        <v>1.775</v>
+      </c>
+      <c r="S206">
+        <v>2.025</v>
+      </c>
+      <c r="T206">
+        <v>2.5</v>
+      </c>
+      <c r="U206">
         <v>1.85</v>
       </c>
-      <c r="S206">
+      <c r="V206">
         <v>1.95</v>
       </c>
-      <c r="T206">
-        <v>2.25</v>
-      </c>
-      <c r="U206">
-        <v>1.975</v>
-      </c>
-      <c r="V206">
-        <v>1.825</v>
-      </c>
       <c r="W206">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
         <v>0</v>
       </c>
       <c r="AA206">
+        <v>-0</v>
+      </c>
+      <c r="AB206">
+        <v>-1</v>
+      </c>
+      <c r="AC206">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>7609146</v>
+      </c>
+      <c r="C207" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45381.89583333334</v>
+      </c>
+      <c r="F207" t="s">
+        <v>36</v>
+      </c>
+      <c r="G207" t="s">
+        <v>40</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207" t="s">
+        <v>44</v>
+      </c>
+      <c r="K207">
+        <v>1.8</v>
+      </c>
+      <c r="L207">
+        <v>3.3</v>
+      </c>
+      <c r="M207">
+        <v>4</v>
+      </c>
+      <c r="N207">
+        <v>1.85</v>
+      </c>
+      <c r="O207">
+        <v>3.25</v>
+      </c>
+      <c r="P207">
+        <v>3.8</v>
+      </c>
+      <c r="Q207">
+        <v>-0.5</v>
+      </c>
+      <c r="R207">
+        <v>1.95</v>
+      </c>
+      <c r="S207">
+        <v>1.85</v>
+      </c>
+      <c r="T207">
+        <v>2.25</v>
+      </c>
+      <c r="U207">
+        <v>1.85</v>
+      </c>
+      <c r="V207">
+        <v>1.95</v>
+      </c>
+      <c r="W207">
+        <v>-1</v>
+      </c>
+      <c r="X207">
+        <v>2.25</v>
+      </c>
+      <c r="Y207">
+        <v>-1</v>
+      </c>
+      <c r="Z207">
+        <v>-1</v>
+      </c>
+      <c r="AA207">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB207">
+        <v>-1</v>
+      </c>
+      <c r="AC207">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>7609145</v>
+      </c>
+      <c r="C208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45382.77083333334</v>
+      </c>
+      <c r="F208" t="s">
+        <v>41</v>
+      </c>
+      <c r="G208" t="s">
+        <v>37</v>
+      </c>
+      <c r="H208">
+        <v>2</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208" t="s">
+        <v>45</v>
+      </c>
+      <c r="K208">
+        <v>2.1</v>
+      </c>
+      <c r="L208">
+        <v>3.2</v>
+      </c>
+      <c r="M208">
+        <v>3.2</v>
+      </c>
+      <c r="N208">
+        <v>2.25</v>
+      </c>
+      <c r="O208">
+        <v>3.2</v>
+      </c>
+      <c r="P208">
+        <v>3</v>
+      </c>
+      <c r="Q208">
+        <v>-0.25</v>
+      </c>
+      <c r="R208">
+        <v>1.9</v>
+      </c>
+      <c r="S208">
+        <v>1.9</v>
+      </c>
+      <c r="T208">
+        <v>2.25</v>
+      </c>
+      <c r="U208">
+        <v>1.925</v>
+      </c>
+      <c r="V208">
+        <v>1.875</v>
+      </c>
+      <c r="W208">
+        <v>1.25</v>
+      </c>
+      <c r="X208">
+        <v>-1</v>
+      </c>
+      <c r="Y208">
+        <v>-1</v>
+      </c>
+      <c r="Z208">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA208">
+        <v>-1</v>
+      </c>
+      <c r="AB208">
+        <v>0.925</v>
+      </c>
+      <c r="AC208">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:29">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>7609672</v>
+      </c>
+      <c r="C209" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45382.875</v>
+      </c>
+      <c r="F209" t="s">
+        <v>42</v>
+      </c>
+      <c r="G209" t="s">
+        <v>29</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209" t="s">
+        <v>43</v>
+      </c>
+      <c r="K209">
+        <v>2.2</v>
+      </c>
+      <c r="L209">
+        <v>3.1</v>
+      </c>
+      <c r="M209">
+        <v>3.1</v>
+      </c>
+      <c r="N209">
+        <v>2.55</v>
+      </c>
+      <c r="O209">
+        <v>3</v>
+      </c>
+      <c r="P209">
+        <v>2.7</v>
+      </c>
+      <c r="Q209">
+        <v>0</v>
+      </c>
+      <c r="R209">
+        <v>1.85</v>
+      </c>
+      <c r="S209">
+        <v>1.95</v>
+      </c>
+      <c r="T209">
+        <v>2.25</v>
+      </c>
+      <c r="U209">
+        <v>2</v>
+      </c>
+      <c r="V209">
+        <v>1.8</v>
+      </c>
+      <c r="W209">
+        <v>-1</v>
+      </c>
+      <c r="X209">
+        <v>-1</v>
+      </c>
+      <c r="Y209">
+        <v>1.7</v>
+      </c>
+      <c r="Z209">
+        <v>-1</v>
+      </c>
+      <c r="AA209">
+        <v>0.95</v>
+      </c>
+      <c r="AB209">
+        <v>-1</v>
+      </c>
+      <c r="AC209">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>7609151</v>
+      </c>
+      <c r="C210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45387.79166666666</v>
+      </c>
+      <c r="F210" t="s">
+        <v>39</v>
+      </c>
+      <c r="G210" t="s">
+        <v>37</v>
+      </c>
+      <c r="K210">
+        <v>2.55</v>
+      </c>
+      <c r="L210">
+        <v>3.2</v>
+      </c>
+      <c r="M210">
+        <v>2.7</v>
+      </c>
+      <c r="N210">
+        <v>2.55</v>
+      </c>
+      <c r="O210">
+        <v>3.2</v>
+      </c>
+      <c r="P210">
+        <v>2.7</v>
+      </c>
+      <c r="Q210">
+        <v>0</v>
+      </c>
+      <c r="R210">
+        <v>1.825</v>
+      </c>
+      <c r="S210">
+        <v>1.975</v>
+      </c>
+      <c r="T210">
+        <v>2.25</v>
+      </c>
+      <c r="U210">
+        <v>1.875</v>
+      </c>
+      <c r="V210">
+        <v>1.925</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+      <c r="Y210">
+        <v>0</v>
+      </c>
+      <c r="Z210">
+        <v>0</v>
+      </c>
+      <c r="AA210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>7609203</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45387.89583333334</v>
+      </c>
+      <c r="F211" t="s">
+        <v>33</v>
+      </c>
+      <c r="G211" t="s">
+        <v>32</v>
+      </c>
+      <c r="K211">
+        <v>2.625</v>
+      </c>
+      <c r="L211">
+        <v>3.2</v>
+      </c>
+      <c r="M211">
+        <v>2.6</v>
+      </c>
+      <c r="N211">
+        <v>2.625</v>
+      </c>
+      <c r="O211">
+        <v>3.2</v>
+      </c>
+      <c r="P211">
+        <v>2.6</v>
+      </c>
+      <c r="Q211">
+        <v>0</v>
+      </c>
+      <c r="R211">
+        <v>1.95</v>
+      </c>
+      <c r="S211">
+        <v>1.85</v>
+      </c>
+      <c r="T211">
+        <v>2.25</v>
+      </c>
+      <c r="U211">
+        <v>1.9</v>
+      </c>
+      <c r="V211">
+        <v>1.9</v>
+      </c>
+      <c r="W211">
+        <v>0</v>
+      </c>
+      <c r="X211">
+        <v>0</v>
+      </c>
+      <c r="Y211">
+        <v>0</v>
+      </c>
+      <c r="Z211">
+        <v>0</v>
+      </c>
+      <c r="AA211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>7609148</v>
+      </c>
+      <c r="C212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45388.79166666666</v>
+      </c>
+      <c r="F212" t="s">
+        <v>38</v>
+      </c>
+      <c r="G212" t="s">
+        <v>31</v>
+      </c>
+      <c r="K212">
+        <v>6</v>
+      </c>
+      <c r="L212">
+        <v>4.5</v>
+      </c>
+      <c r="M212">
+        <v>1.444</v>
+      </c>
+      <c r="N212">
+        <v>6</v>
+      </c>
+      <c r="O212">
+        <v>4.5</v>
+      </c>
+      <c r="P212">
+        <v>1.444</v>
+      </c>
+      <c r="Q212">
+        <v>1.25</v>
+      </c>
+      <c r="R212">
+        <v>1.825</v>
+      </c>
+      <c r="S212">
+        <v>1.975</v>
+      </c>
+      <c r="T212">
+        <v>2.75</v>
+      </c>
+      <c r="U212">
+        <v>1.825</v>
+      </c>
+      <c r="V212">
+        <v>1.975</v>
+      </c>
+      <c r="W212">
+        <v>0</v>
+      </c>
+      <c r="X212">
+        <v>0</v>
+      </c>
+      <c r="Y212">
+        <v>0</v>
+      </c>
+      <c r="Z212">
+        <v>0</v>
+      </c>
+      <c r="AA212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>7609149</v>
+      </c>
+      <c r="C213" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45388.89583333334</v>
+      </c>
+      <c r="F213" t="s">
+        <v>36</v>
+      </c>
+      <c r="G213" t="s">
+        <v>29</v>
+      </c>
+      <c r="K213">
+        <v>1.5</v>
+      </c>
+      <c r="L213">
+        <v>4</v>
+      </c>
+      <c r="M213">
+        <v>6</v>
+      </c>
+      <c r="N213">
+        <v>1.5</v>
+      </c>
+      <c r="O213">
+        <v>4</v>
+      </c>
+      <c r="P213">
+        <v>6</v>
+      </c>
+      <c r="Q213">
+        <v>-1</v>
+      </c>
+      <c r="R213">
+        <v>1.85</v>
+      </c>
+      <c r="S213">
+        <v>1.95</v>
+      </c>
+      <c r="T213">
+        <v>2.5</v>
+      </c>
+      <c r="U213">
+        <v>1.875</v>
+      </c>
+      <c r="V213">
+        <v>1.925</v>
+      </c>
+      <c r="W213">
+        <v>0</v>
+      </c>
+      <c r="X213">
+        <v>0</v>
+      </c>
+      <c r="Y213">
+        <v>0</v>
+      </c>
+      <c r="Z213">
+        <v>0</v>
+      </c>
+      <c r="AA213">
         <v>0</v>
       </c>
     </row>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -103,13 +103,13 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
-    <t>Guarani Asuncion</t>
+    <t>Cerro Porteno</t>
   </si>
   <si>
     <t>Sportivo Luqueno</t>
   </si>
   <si>
-    <t>Cerro Porteno</t>
+    <t>Guarani Asuncion</t>
   </si>
   <si>
     <t>Sportivo Ameliano</t>
@@ -145,13 +145,13 @@
     <t>2 de Mayo</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6720844</v>
+        <v>6720843</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,31 +625,31 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M2">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N2">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O2">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P2">
         <v>1.85</v>
@@ -658,10 +658,10 @@
         <v>0.5</v>
       </c>
       <c r="R2">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S2">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T2">
         <v>2.5</v>
@@ -673,25 +673,25 @@
         <v>1.875</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA2">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6720843</v>
+        <v>6720844</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,31 +803,31 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>2</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>45</v>
       </c>
       <c r="K4">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>2.75</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
         <v>3.2</v>
-      </c>
-      <c r="M4">
-        <v>2.7</v>
-      </c>
-      <c r="N4">
-        <v>3.75</v>
-      </c>
-      <c r="O4">
-        <v>3.3</v>
       </c>
       <c r="P4">
         <v>1.85</v>
@@ -836,10 +836,10 @@
         <v>0.5</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
         <v>2.5</v>
@@ -851,25 +851,25 @@
         <v>1.875</v>
       </c>
       <c r="W4">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K5">
         <v>1.95</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K6">
         <v>1.571</v>
@@ -1079,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>2.4</v>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K8">
         <v>2.75</v>
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1515,7 +1515,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K13">
         <v>1.363</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K15">
         <v>1.55</v>
@@ -1880,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -1969,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K17">
         <v>1.4</v>
@@ -2049,7 +2049,7 @@
         <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K18">
         <v>2.375</v>
@@ -2135,7 +2135,7 @@
         <v>45116.8125</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -2147,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K19">
         <v>1.4</v>
@@ -2236,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K20">
         <v>4.75</v>
@@ -2316,7 +2316,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K21">
         <v>3.6</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K22">
         <v>2.625</v>
@@ -2491,7 +2491,7 @@
         <v>45123.8125</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
@@ -2503,7 +2503,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2761,7 +2761,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K26">
         <v>2.9</v>
@@ -2859,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K27">
         <v>1.65</v>
@@ -2936,7 +2936,7 @@
         <v>45129.8125</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K28">
         <v>1.45</v>
@@ -3037,7 +3037,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K29">
         <v>2.15</v>
@@ -3126,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K30">
         <v>1.7</v>
@@ -3215,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>1.25</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K32">
         <v>2.625</v>
@@ -3381,7 +3381,7 @@
         <v>45135.85416666666</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3571,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K35">
         <v>4.2</v>
@@ -3660,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K36">
         <v>2.2</v>
@@ -3740,7 +3740,7 @@
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K37">
         <v>4.5</v>
@@ -3915,7 +3915,7 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K39">
         <v>1.666</v>
@@ -4096,7 +4096,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -4105,7 +4105,7 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K41">
         <v>1.615</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K42">
         <v>1.65</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K44">
         <v>2.75</v>
@@ -4461,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -4541,7 +4541,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4627,7 +4627,7 @@
         <v>45151.72916666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
         <v>40</v>
@@ -4817,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K49">
         <v>2.375</v>
@@ -4983,7 +4983,7 @@
         <v>45157.75</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
@@ -4995,7 +4995,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K51">
         <v>2.25</v>
@@ -5084,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K52">
         <v>1.444</v>
@@ -5164,7 +5164,7 @@
         <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5262,7 +5262,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K54">
         <v>1.666</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K55">
         <v>2.3</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K56">
         <v>1.7</v>
@@ -5606,7 +5606,7 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -5787,7 +5787,7 @@
         <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K60">
         <v>2.8</v>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K61">
         <v>3.4</v>
@@ -5974,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6054,7 +6054,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K64">
         <v>1.5</v>
@@ -6229,7 +6229,7 @@
         <v>45172.72916666666</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -6241,7 +6241,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K65">
         <v>1.85</v>
@@ -6330,7 +6330,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K66">
         <v>1.909</v>
@@ -6410,7 +6410,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6508,7 +6508,7 @@
         <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K68">
         <v>2.875</v>
@@ -6597,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K69">
         <v>1.85</v>
@@ -6674,7 +6674,7 @@
         <v>45179.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K71">
         <v>2.2</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K72">
         <v>2.55</v>
@@ -6953,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -7042,7 +7042,7 @@
         <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K74">
         <v>5.75</v>
@@ -7131,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K75">
         <v>1.533</v>
@@ -7220,7 +7220,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7297,10 +7297,10 @@
         <v>45186.83333333334</v>
       </c>
       <c r="F77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" t="s">
         <v>29</v>
-      </c>
-      <c r="G77" t="s">
-        <v>31</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K77">
         <v>3.8</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K78">
         <v>1.615</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K79">
         <v>2.2</v>
@@ -7567,7 +7567,7 @@
         <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K80">
         <v>5.25</v>
@@ -7754,7 +7754,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K82">
         <v>4</v>
@@ -7831,7 +7831,7 @@
         <v>45193.77083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
         <v>30</v>
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K83">
         <v>2.15</v>
@@ -7932,7 +7932,7 @@
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K84">
         <v>1.95</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K85">
         <v>1.85</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K86">
         <v>2.1</v>
@@ -8199,7 +8199,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K87">
         <v>3.8</v>
@@ -8276,7 +8276,7 @@
         <v>45200.75</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8288,7 +8288,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K88">
         <v>1.55</v>
@@ -8368,7 +8368,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K90">
         <v>1.8</v>
@@ -8635,7 +8635,7 @@
         <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8733,7 +8733,7 @@
         <v>5</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K93">
         <v>5.75</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K94">
         <v>2.875</v>
@@ -8911,7 +8911,7 @@
         <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K95">
         <v>2.7</v>
@@ -8988,7 +8988,7 @@
         <v>45207.85416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
         <v>39</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K96">
         <v>1.75</v>
@@ -9089,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K97">
         <v>2.15</v>
@@ -9169,7 +9169,7 @@
         <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K98">
         <v>1.95</v>
@@ -9267,7 +9267,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K99">
         <v>2.375</v>
@@ -9356,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K100">
         <v>1.909</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K101">
         <v>1.444</v>
@@ -9611,7 +9611,7 @@
         <v>45220.85416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -9623,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K103">
         <v>1.363</v>
@@ -9890,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K106">
         <v>1.75</v>
@@ -9970,7 +9970,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9979,7 +9979,7 @@
         <v>5</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K107">
         <v>3.75</v>
@@ -10056,7 +10056,7 @@
         <v>45223.85416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10068,7 +10068,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K108">
         <v>3.6</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K110">
         <v>2.75</v>
@@ -10335,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K111">
         <v>1.909</v>
@@ -10412,7 +10412,7 @@
         <v>45227.85416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
         <v>35</v>
@@ -10504,7 +10504,7 @@
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10602,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K114">
         <v>2.05</v>
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K115">
         <v>1.25</v>
@@ -10771,7 +10771,7 @@
         <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10958,7 +10958,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K118">
         <v>2.2</v>
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K120">
         <v>5</v>
@@ -11213,7 +11213,7 @@
         <v>45233.85416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G121" t="s">
         <v>30</v>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K121">
         <v>1.533</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K122">
         <v>2.6</v>
@@ -11391,7 +11391,7 @@
         <v>45235.85416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
         <v>37</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K123">
         <v>1.909</v>
@@ -11483,7 +11483,7 @@
         <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K125">
         <v>1.615</v>
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K127">
         <v>1.833</v>
@@ -11848,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K128">
         <v>3</v>
@@ -12002,7 +12002,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7453204</v>
+        <v>7454842</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12014,76 +12014,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K130">
-        <v>1.285</v>
+        <v>4</v>
       </c>
       <c r="L130">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="N130">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O130">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P130">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="Q130">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T130">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12091,7 +12091,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7454842</v>
+        <v>7453204</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12103,76 +12103,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K131">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="L131">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M131">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="N131">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O131">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P131">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12195,7 +12195,7 @@
         <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12204,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K132">
         <v>3.4</v>
@@ -12382,7 +12382,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K134">
         <v>1.727</v>
@@ -12560,7 +12560,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K136">
         <v>1.85</v>
@@ -12625,7 +12625,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7499442</v>
+        <v>7499440</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12637,55 +12637,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K137">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L137">
         <v>3.4</v>
       </c>
       <c r="M137">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N137">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O137">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P137">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R137">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12694,19 +12694,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12714,7 +12714,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7499440</v>
+        <v>7499442</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12726,55 +12726,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K138">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L138">
         <v>3.4</v>
       </c>
       <c r="M138">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N138">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O138">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P138">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q138">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R138">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12783,19 +12783,19 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB138">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12818,7 +12818,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12916,7 +12916,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K140">
         <v>1.363</v>
@@ -13005,7 +13005,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K141">
         <v>2.05</v>
@@ -13094,7 +13094,7 @@
         <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K142">
         <v>4</v>
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7493433</v>
+        <v>7493311</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K143">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L143">
+        <v>3.3</v>
+      </c>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="N143">
         <v>3.2</v>
       </c>
-      <c r="M143">
-        <v>2.4</v>
-      </c>
-      <c r="N143">
-        <v>2.75</v>
-      </c>
       <c r="O143">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P143">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q143">
         <v>0.25</v>
       </c>
       <c r="R143">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
         <v>2.25</v>
       </c>
       <c r="U143">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V143">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z143">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,10 +13260,10 @@
         <v>45261.8125</v>
       </c>
       <c r="F144" t="s">
+        <v>29</v>
+      </c>
+      <c r="G144" t="s">
         <v>31</v>
-      </c>
-      <c r="G144" t="s">
-        <v>29</v>
       </c>
       <c r="H144">
         <v>4</v>
@@ -13272,7 +13272,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K144">
         <v>1.7</v>
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7493311</v>
+        <v>7493433</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K145">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="L145">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M145">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N145">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="O145">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P145">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q145">
         <v>0.25</v>
       </c>
       <c r="R145">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S145">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V145">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y145">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA145">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC145">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K146">
         <v>2.625</v>
@@ -13628,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K148">
         <v>1.8</v>
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K149">
         <v>2.2</v>
@@ -13794,7 +13794,7 @@
         <v>45312.75</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
         <v>38</v>
@@ -13806,7 +13806,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K150">
         <v>1.533</v>
@@ -13883,7 +13883,7 @@
         <v>45312.85416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -14073,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K153">
         <v>4.333</v>
@@ -14153,7 +14153,7 @@
         <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K155">
         <v>1.533</v>
@@ -14340,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K156">
         <v>3.5</v>
@@ -14420,7 +14420,7 @@
         <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14429,7 +14429,7 @@
         <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K157">
         <v>3.75</v>
@@ -14773,7 +14773,7 @@
         <v>45319.86805555555</v>
       </c>
       <c r="F161" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
         <v>39</v>
@@ -14785,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K161">
         <v>1.833</v>
@@ -14874,7 +14874,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K162">
         <v>6.5</v>
@@ -14954,7 +14954,7 @@
         <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14963,7 +14963,7 @@
         <v>4</v>
       </c>
       <c r="J163" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K163">
         <v>1.909</v>
@@ -15052,7 +15052,7 @@
         <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K164">
         <v>2.5</v>
@@ -15221,7 +15221,7 @@
         <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15319,7 +15319,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K167">
         <v>1.25</v>
@@ -15408,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K168">
         <v>3.5</v>
@@ -15497,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K169">
         <v>2.875</v>
@@ -15586,7 +15586,7 @@
         <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K170">
         <v>2</v>
@@ -15663,7 +15663,7 @@
         <v>45332.76041666666</v>
       </c>
       <c r="F171" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
         <v>32</v>
@@ -15841,7 +15841,7 @@
         <v>45333.76041666666</v>
       </c>
       <c r="F173" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G173" t="s">
         <v>36</v>
@@ -15942,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K174">
         <v>1.95</v>
@@ -16022,7 +16022,7 @@
         <v>37</v>
       </c>
       <c r="G175" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16120,7 +16120,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K176">
         <v>2.5</v>
@@ -16200,7 +16200,7 @@
         <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16298,7 +16298,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K178">
         <v>6</v>
@@ -16387,7 +16387,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K179">
         <v>1.909</v>
@@ -16654,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K182">
         <v>2.7</v>
@@ -16731,7 +16731,7 @@
         <v>45346.86458333334</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G183" t="s">
         <v>41</v>
@@ -16832,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K184">
         <v>2.7</v>
@@ -16909,7 +16909,7 @@
         <v>45347.86458333334</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
         <v>40</v>
@@ -16921,7 +16921,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K185">
         <v>2.6</v>
@@ -17087,10 +17087,10 @@
         <v>45352.8125</v>
       </c>
       <c r="F187" t="s">
+        <v>31</v>
+      </c>
+      <c r="G187" t="s">
         <v>29</v>
-      </c>
-      <c r="G187" t="s">
-        <v>31</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17188,7 +17188,7 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K188">
         <v>2.2</v>
@@ -17277,7 +17277,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K189">
         <v>2</v>
@@ -17366,7 +17366,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K190">
         <v>2.375</v>
@@ -17455,7 +17455,7 @@
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K191">
         <v>2</v>
@@ -17544,7 +17544,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K192">
         <v>2.75</v>
@@ -17710,7 +17710,7 @@
         <v>45360.8125</v>
       </c>
       <c r="F194" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G194" t="s">
         <v>39</v>
@@ -17722,7 +17722,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K194">
         <v>1.363</v>
@@ -17891,7 +17891,7 @@
         <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17900,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K196">
         <v>2.1</v>
@@ -17989,7 +17989,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K197">
         <v>1.5</v>
@@ -18069,7 +18069,7 @@
         <v>30</v>
       </c>
       <c r="G198" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18078,7 +18078,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K198">
         <v>3.8</v>
@@ -18167,7 +18167,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K199">
         <v>1.666</v>
@@ -18256,7 +18256,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K200">
         <v>5.5</v>
@@ -18345,7 +18345,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K201">
         <v>1.909</v>
@@ -18422,7 +18422,7 @@
         <v>45368.875</v>
       </c>
       <c r="F202" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G202" t="s">
         <v>38</v>
@@ -18434,7 +18434,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K202">
         <v>1.909</v>
@@ -18523,7 +18523,7 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K203">
         <v>1.909</v>
@@ -18701,7 +18701,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K205">
         <v>3.6</v>
@@ -18778,7 +18778,7 @@
         <v>45381.79166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G206" t="s">
         <v>33</v>
@@ -18790,7 +18790,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K206">
         <v>1.5</v>
@@ -18968,7 +18968,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K208">
         <v>2.1</v>
@@ -19048,7 +19048,7 @@
         <v>42</v>
       </c>
       <c r="G209" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19057,7 +19057,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K209">
         <v>2.2</v>
@@ -19155,7 +19155,7 @@
         <v>3.2</v>
       </c>
       <c r="P210">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q210">
         <v>0</v>
@@ -19170,10 +19170,10 @@
         <v>2.25</v>
       </c>
       <c r="U210">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V210">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W210">
         <v>0</v>
@@ -19285,7 +19285,7 @@
         <v>38</v>
       </c>
       <c r="G212" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K212">
         <v>6</v>
@@ -19309,10 +19309,10 @@
         <v>1.25</v>
       </c>
       <c r="R212">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S212">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T212">
         <v>2.75</v>
@@ -19359,7 +19359,7 @@
         <v>36</v>
       </c>
       <c r="G213" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K213">
         <v>1.5</v>
@@ -19371,31 +19371,31 @@
         <v>6</v>
       </c>
       <c r="N213">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="O213">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P213">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q213">
         <v>-1</v>
       </c>
       <c r="R213">
+        <v>1.95</v>
+      </c>
+      <c r="S213">
         <v>1.85</v>
-      </c>
-      <c r="S213">
-        <v>1.95</v>
       </c>
       <c r="T213">
         <v>2.5</v>
       </c>
       <c r="U213">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V213">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W213">
         <v>0</v>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC213"/>
+  <dimension ref="A1:AC215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12625,7 +12625,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7499440</v>
+        <v>7499442</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12637,55 +12637,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
         <v>45</v>
       </c>
       <c r="K137">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L137">
         <v>3.4</v>
       </c>
       <c r="M137">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N137">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O137">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P137">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q137">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12694,19 +12694,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB137">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12714,7 +12714,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7499442</v>
+        <v>7499440</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12726,55 +12726,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J138" t="s">
         <v>45</v>
       </c>
       <c r="K138">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L138">
         <v>3.4</v>
       </c>
       <c r="M138">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N138">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O138">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P138">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q138">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12783,19 +12783,19 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC138">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7493311</v>
+        <v>7493433</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K143">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="L143">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M143">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N143">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="O143">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P143">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q143">
         <v>0.25</v>
       </c>
       <c r="R143">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S143">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T143">
         <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V143">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y143">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA143">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC143">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7493312</v>
+        <v>7493311</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,76 +13260,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K144">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L144">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M144">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N144">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O144">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P144">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V144">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W144">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z144">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7493433</v>
+        <v>7493312</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K145">
+        <v>1.7</v>
+      </c>
+      <c r="L145">
+        <v>3.6</v>
+      </c>
+      <c r="M145">
+        <v>4.333</v>
+      </c>
+      <c r="N145">
+        <v>1.727</v>
+      </c>
+      <c r="O145">
+        <v>3.75</v>
+      </c>
+      <c r="P145">
+        <v>4.2</v>
+      </c>
+      <c r="Q145">
+        <v>-0.5</v>
+      </c>
+      <c r="R145">
+        <v>1.8</v>
+      </c>
+      <c r="S145">
+        <v>2</v>
+      </c>
+      <c r="T145">
         <v>2.75</v>
       </c>
-      <c r="L145">
-        <v>3.2</v>
-      </c>
-      <c r="M145">
-        <v>2.4</v>
-      </c>
-      <c r="N145">
-        <v>2.75</v>
-      </c>
-      <c r="O145">
-        <v>3.1</v>
-      </c>
-      <c r="P145">
-        <v>2.45</v>
-      </c>
-      <c r="Q145">
-        <v>0.25</v>
-      </c>
-      <c r="R145">
-        <v>1.75</v>
-      </c>
-      <c r="S145">
-        <v>2.05</v>
-      </c>
-      <c r="T145">
-        <v>2.25</v>
-      </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X145">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC145">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -19149,22 +19149,22 @@
         <v>2.7</v>
       </c>
       <c r="N210">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O210">
         <v>3.2</v>
       </c>
       <c r="P210">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q210">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R210">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S210">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T210">
         <v>2.25</v>
@@ -19223,22 +19223,22 @@
         <v>2.6</v>
       </c>
       <c r="N211">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="O211">
         <v>3.2</v>
       </c>
       <c r="P211">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q211">
         <v>0</v>
       </c>
       <c r="R211">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S211">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T211">
         <v>2.25</v>
@@ -19383,10 +19383,10 @@
         <v>-1</v>
       </c>
       <c r="R213">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S213">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T213">
         <v>2.5</v>
@@ -19410,6 +19410,154 @@
         <v>0</v>
       </c>
       <c r="AA213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>7609150</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45389.77083333334</v>
+      </c>
+      <c r="F214" t="s">
+        <v>41</v>
+      </c>
+      <c r="G214" t="s">
+        <v>40</v>
+      </c>
+      <c r="K214">
+        <v>3.75</v>
+      </c>
+      <c r="L214">
+        <v>3.5</v>
+      </c>
+      <c r="M214">
+        <v>1.85</v>
+      </c>
+      <c r="N214">
+        <v>3.3</v>
+      </c>
+      <c r="O214">
+        <v>3.4</v>
+      </c>
+      <c r="P214">
+        <v>2</v>
+      </c>
+      <c r="Q214">
+        <v>0.25</v>
+      </c>
+      <c r="R214">
+        <v>2</v>
+      </c>
+      <c r="S214">
+        <v>1.8</v>
+      </c>
+      <c r="T214">
+        <v>2.25</v>
+      </c>
+      <c r="U214">
+        <v>1.825</v>
+      </c>
+      <c r="V214">
+        <v>1.975</v>
+      </c>
+      <c r="W214">
+        <v>0</v>
+      </c>
+      <c r="X214">
+        <v>0</v>
+      </c>
+      <c r="Y214">
+        <v>0</v>
+      </c>
+      <c r="Z214">
+        <v>0</v>
+      </c>
+      <c r="AA214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>7609671</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45389.875</v>
+      </c>
+      <c r="F215" t="s">
+        <v>42</v>
+      </c>
+      <c r="G215" t="s">
+        <v>30</v>
+      </c>
+      <c r="K215">
+        <v>2.4</v>
+      </c>
+      <c r="L215">
+        <v>3.2</v>
+      </c>
+      <c r="M215">
+        <v>2.75</v>
+      </c>
+      <c r="N215">
+        <v>2.6</v>
+      </c>
+      <c r="O215">
+        <v>3.2</v>
+      </c>
+      <c r="P215">
+        <v>2.55</v>
+      </c>
+      <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="R215">
+        <v>1.925</v>
+      </c>
+      <c r="S215">
+        <v>1.875</v>
+      </c>
+      <c r="T215">
+        <v>2.25</v>
+      </c>
+      <c r="U215">
+        <v>1.95</v>
+      </c>
+      <c r="V215">
+        <v>1.85</v>
+      </c>
+      <c r="W215">
+        <v>0</v>
+      </c>
+      <c r="X215">
+        <v>0</v>
+      </c>
+      <c r="Y215">
+        <v>0</v>
+      </c>
+      <c r="Z215">
+        <v>0</v>
+      </c>
+      <c r="AA215">
         <v>0</v>
       </c>
     </row>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -12625,7 +12625,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7499442</v>
+        <v>7499440</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12637,55 +12637,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
         <v>45</v>
       </c>
       <c r="K137">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L137">
         <v>3.4</v>
       </c>
       <c r="M137">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N137">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O137">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P137">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R137">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12694,19 +12694,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12714,7 +12714,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7499440</v>
+        <v>7499442</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12726,55 +12726,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
         <v>45</v>
       </c>
       <c r="K138">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L138">
         <v>3.4</v>
       </c>
       <c r="M138">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N138">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O138">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P138">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q138">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R138">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12783,19 +12783,19 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB138">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7493433</v>
+        <v>7493311</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K143">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L143">
+        <v>3.3</v>
+      </c>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="N143">
         <v>3.2</v>
       </c>
-      <c r="M143">
-        <v>2.4</v>
-      </c>
-      <c r="N143">
-        <v>2.75</v>
-      </c>
       <c r="O143">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P143">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q143">
         <v>0.25</v>
       </c>
       <c r="R143">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
         <v>2.25</v>
       </c>
       <c r="U143">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V143">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z143">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7493311</v>
+        <v>7493312</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,76 +13260,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G144" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H144">
+        <v>4</v>
+      </c>
+      <c r="I144">
         <v>0</v>
       </c>
-      <c r="I144">
-        <v>1</v>
-      </c>
       <c r="J144" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K144">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L144">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M144">
+        <v>4.333</v>
+      </c>
+      <c r="N144">
+        <v>1.727</v>
+      </c>
+      <c r="O144">
+        <v>3.75</v>
+      </c>
+      <c r="P144">
+        <v>4.2</v>
+      </c>
+      <c r="Q144">
+        <v>-0.5</v>
+      </c>
+      <c r="R144">
+        <v>1.8</v>
+      </c>
+      <c r="S144">
         <v>2</v>
       </c>
-      <c r="N144">
-        <v>3.2</v>
-      </c>
-      <c r="O144">
-        <v>3.25</v>
-      </c>
-      <c r="P144">
-        <v>2.1</v>
-      </c>
-      <c r="Q144">
-        <v>0.25</v>
-      </c>
-      <c r="R144">
-        <v>1.95</v>
-      </c>
-      <c r="S144">
-        <v>1.85</v>
-      </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V144">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC144">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7493312</v>
+        <v>7493433</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K145">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M145">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N145">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="O145">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P145">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q145">
+        <v>0.25</v>
+      </c>
+      <c r="R145">
+        <v>1.75</v>
+      </c>
+      <c r="S145">
+        <v>2.05</v>
+      </c>
+      <c r="T145">
+        <v>2.25</v>
+      </c>
+      <c r="U145">
+        <v>2</v>
+      </c>
+      <c r="V145">
+        <v>1.8</v>
+      </c>
+      <c r="W145">
+        <v>-1</v>
+      </c>
+      <c r="X145">
+        <v>2.1</v>
+      </c>
+      <c r="Y145">
+        <v>-1</v>
+      </c>
+      <c r="Z145">
+        <v>0.375</v>
+      </c>
+      <c r="AA145">
         <v>-0.5</v>
       </c>
-      <c r="R145">
-        <v>1.8</v>
-      </c>
-      <c r="S145">
-        <v>2</v>
-      </c>
-      <c r="T145">
-        <v>2.75</v>
-      </c>
-      <c r="U145">
-        <v>1.875</v>
-      </c>
-      <c r="V145">
-        <v>1.925</v>
-      </c>
-      <c r="W145">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X145">
-        <v>-1</v>
-      </c>
-      <c r="Y145">
-        <v>-1</v>
-      </c>
-      <c r="Z145">
-        <v>0.8</v>
-      </c>
-      <c r="AA145">
-        <v>-1</v>
-      </c>
       <c r="AB145">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -19161,19 +19161,19 @@
         <v>-0.25</v>
       </c>
       <c r="R210">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S210">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T210">
         <v>2.25</v>
       </c>
       <c r="U210">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V210">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W210">
         <v>0</v>
@@ -19297,16 +19297,16 @@
         <v>1.444</v>
       </c>
       <c r="N212">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="O212">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="P212">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="Q212">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="R212">
         <v>1.8</v>
@@ -19318,10 +19318,10 @@
         <v>2.75</v>
       </c>
       <c r="U212">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V212">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W212">
         <v>0</v>
@@ -19383,10 +19383,10 @@
         <v>-1</v>
       </c>
       <c r="R213">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S213">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T213">
         <v>2.5</v>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,13 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
-    <t>Cerro Porteno</t>
-  </si>
-  <si>
     <t>Sportivo Luqueno</t>
   </si>
   <si>
     <t>Guarani Asuncion</t>
+  </si>
+  <si>
+    <t>Cerro Porteno</t>
   </si>
   <si>
     <t>Sportivo Ameliano</t>
@@ -145,13 +145,13 @@
     <t>2 de Mayo</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC215"/>
+  <dimension ref="A1:AC213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6720843</v>
+        <v>6720873</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,73 +625,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L2">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M2">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N2">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O2">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P2">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q2">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R2">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S2">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T2">
         <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V2">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W2">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6720873</v>
+        <v>6720844</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,10 +714,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -726,58 +726,58 @@
         <v>44</v>
       </c>
       <c r="K3">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="L3">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M3">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N3">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P3">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S3">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
         <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AB3">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6720844</v>
+        <v>6720843</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,31 +803,31 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>45</v>
       </c>
       <c r="K4">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M4">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N4">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O4">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P4">
         <v>1.85</v>
@@ -836,10 +836,10 @@
         <v>0.5</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
         <v>2.5</v>
@@ -851,25 +851,25 @@
         <v>1.875</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5">
         <v>1.95</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>1.571</v>
@@ -1079,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7">
         <v>2.4</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8">
         <v>2.75</v>
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9">
         <v>1.333</v>
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10">
         <v>2.3</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1515,7 +1515,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12">
         <v>5.5</v>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K13">
         <v>1.363</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>2.7</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K15">
         <v>1.55</v>
@@ -1880,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -1969,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K17">
         <v>1.4</v>
@@ -2046,10 +2046,10 @@
         <v>45116.70833333334</v>
       </c>
       <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
         <v>30</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K18">
         <v>2.375</v>
@@ -2135,7 +2135,7 @@
         <v>45116.8125</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -2147,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K19">
         <v>1.4</v>
@@ -2236,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K20">
         <v>4.75</v>
@@ -2316,7 +2316,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K21">
         <v>3.6</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K22">
         <v>2.625</v>
@@ -2491,7 +2491,7 @@
         <v>45123.8125</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
@@ -2503,7 +2503,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2583,7 +2583,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2592,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K24">
         <v>2.625</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K25">
         <v>1.666</v>
@@ -2761,7 +2761,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26">
         <v>2.9</v>
@@ -2859,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
         <v>1.65</v>
@@ -2936,7 +2936,7 @@
         <v>45129.8125</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K28">
         <v>1.45</v>
@@ -3025,7 +3025,7 @@
         <v>45130.70833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -3037,7 +3037,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29">
         <v>2.15</v>
@@ -3126,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30">
         <v>1.7</v>
@@ -3215,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K31">
         <v>1.25</v>
@@ -3295,7 +3295,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K32">
         <v>2.625</v>
@@ -3381,7 +3381,7 @@
         <v>45135.85416666666</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3571,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K35">
         <v>4.2</v>
@@ -3660,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K36">
         <v>2.2</v>
@@ -3740,7 +3740,7 @@
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K37">
         <v>4.5</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K38">
         <v>1.363</v>
@@ -3915,7 +3915,7 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K39">
         <v>1.666</v>
@@ -4004,7 +4004,7 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
         <v>34</v>
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4096,7 +4096,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -4105,7 +4105,7 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K41">
         <v>1.615</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K42">
         <v>1.65</v>
@@ -4283,7 +4283,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K43">
         <v>2.625</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K44">
         <v>2.75</v>
@@ -4461,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -4541,7 +4541,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4627,7 +4627,7 @@
         <v>45151.72916666666</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>40</v>
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K47">
         <v>2.15</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K48">
         <v>2.05</v>
@@ -4808,7 +4808,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4817,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K49">
         <v>2.375</v>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K50">
         <v>1.5</v>
@@ -4983,7 +4983,7 @@
         <v>45157.75</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
@@ -4995,7 +4995,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K51">
         <v>2.25</v>
@@ -5084,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K52">
         <v>1.444</v>
@@ -5161,10 +5161,10 @@
         <v>45158.75</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5173,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K53">
         <v>3.5</v>
@@ -5262,7 +5262,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K54">
         <v>1.666</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K55">
         <v>2.3</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K56">
         <v>1.7</v>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5606,7 +5606,7 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K58">
         <v>2.375</v>
@@ -5695,7 +5695,7 @@
         <v>45165.72916666666</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
         <v>40</v>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -5787,7 +5787,7 @@
         <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K60">
         <v>2.8</v>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K61">
         <v>3.4</v>
@@ -5974,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6054,7 +6054,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6063,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K63">
         <v>4.75</v>
@@ -6143,7 +6143,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K64">
         <v>1.5</v>
@@ -6229,7 +6229,7 @@
         <v>45172.72916666666</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -6241,7 +6241,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K65">
         <v>1.85</v>
@@ -6330,7 +6330,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K66">
         <v>1.909</v>
@@ -6410,7 +6410,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K67">
         <v>2.45</v>
@@ -6508,7 +6508,7 @@
         <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K68">
         <v>2.875</v>
@@ -6585,7 +6585,7 @@
         <v>45179.72916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
         <v>39</v>
@@ -6597,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K69">
         <v>1.85</v>
@@ -6674,7 +6674,7 @@
         <v>45179.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K70">
         <v>1.833</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K71">
         <v>2.2</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K72">
         <v>2.55</v>
@@ -6944,7 +6944,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -7042,7 +7042,7 @@
         <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K74">
         <v>5.75</v>
@@ -7131,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K75">
         <v>1.533</v>
@@ -7220,7 +7220,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7297,10 +7297,10 @@
         <v>45186.83333333334</v>
       </c>
       <c r="F77" t="s">
+        <v>30</v>
+      </c>
+      <c r="G77" t="s">
         <v>31</v>
-      </c>
-      <c r="G77" t="s">
-        <v>29</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K77">
         <v>3.8</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K78">
         <v>1.615</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K79">
         <v>2.2</v>
@@ -7567,7 +7567,7 @@
         <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K80">
         <v>5.25</v>
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K81">
         <v>6</v>
@@ -7754,7 +7754,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K82">
         <v>4</v>
@@ -7831,10 +7831,10 @@
         <v>45193.77083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K83">
         <v>2.15</v>
@@ -7932,7 +7932,7 @@
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K84">
         <v>1.95</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K85">
         <v>1.85</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K86">
         <v>2.1</v>
@@ -8199,7 +8199,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K87">
         <v>3.8</v>
@@ -8276,7 +8276,7 @@
         <v>45200.75</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8288,7 +8288,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K88">
         <v>1.55</v>
@@ -8368,7 +8368,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K89">
         <v>1.5</v>
@@ -8454,7 +8454,7 @@
         <v>45201.75</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K90">
         <v>1.8</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K91">
         <v>1.333</v>
@@ -8635,7 +8635,7 @@
         <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K92">
         <v>4.2</v>
@@ -8733,7 +8733,7 @@
         <v>5</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K93">
         <v>5.75</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K94">
         <v>2.875</v>
@@ -8911,7 +8911,7 @@
         <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K95">
         <v>2.7</v>
@@ -8988,7 +8988,7 @@
         <v>45207.85416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
         <v>39</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K96">
         <v>1.75</v>
@@ -9080,7 +9080,7 @@
         <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9089,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K97">
         <v>2.15</v>
@@ -9169,7 +9169,7 @@
         <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K98">
         <v>1.95</v>
@@ -9267,7 +9267,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K99">
         <v>2.375</v>
@@ -9344,7 +9344,7 @@
         <v>45218.8125</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9356,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K100">
         <v>1.909</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K101">
         <v>1.444</v>
@@ -9534,7 +9534,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K102">
         <v>1.7</v>
@@ -9611,7 +9611,7 @@
         <v>45220.85416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -9623,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K103">
         <v>1.363</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K104">
         <v>3.6</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K105">
         <v>6</v>
@@ -9890,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K106">
         <v>1.75</v>
@@ -9970,7 +9970,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9979,7 +9979,7 @@
         <v>5</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K107">
         <v>3.75</v>
@@ -10056,7 +10056,7 @@
         <v>45223.85416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10068,7 +10068,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K108">
         <v>3.6</v>
@@ -10148,7 +10148,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K109">
         <v>3.2</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K110">
         <v>2.75</v>
@@ -10335,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K111">
         <v>1.909</v>
@@ -10412,7 +10412,7 @@
         <v>45227.85416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
         <v>35</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K112">
         <v>1.85</v>
@@ -10504,7 +10504,7 @@
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K113">
         <v>2.25</v>
@@ -10590,7 +10590,7 @@
         <v>45229.75</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
         <v>38</v>
@@ -10602,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K114">
         <v>2.05</v>
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K115">
         <v>1.25</v>
@@ -10771,7 +10771,7 @@
         <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K116">
         <v>2.2</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K117">
         <v>4</v>
@@ -10958,7 +10958,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K118">
         <v>2.2</v>
@@ -11047,7 +11047,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K119">
         <v>4.333</v>
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K120">
         <v>5</v>
@@ -11213,10 +11213,10 @@
         <v>45233.85416666666</v>
       </c>
       <c r="F121" t="s">
+        <v>31</v>
+      </c>
+      <c r="G121" t="s">
         <v>29</v>
-      </c>
-      <c r="G121" t="s">
-        <v>30</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K121">
         <v>1.533</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K122">
         <v>2.6</v>
@@ -11391,7 +11391,7 @@
         <v>45235.85416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
         <v>37</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K123">
         <v>1.909</v>
@@ -11483,7 +11483,7 @@
         <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11492,7 +11492,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K124">
         <v>2.05</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K125">
         <v>1.615</v>
@@ -11670,7 +11670,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K126">
         <v>2.5</v>
@@ -11750,7 +11750,7 @@
         <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K127">
         <v>1.833</v>
@@ -11848,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K128">
         <v>3</v>
@@ -11937,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K129">
         <v>2</v>
@@ -12014,7 +12014,7 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
         <v>36</v>
@@ -12026,7 +12026,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K130">
         <v>4</v>
@@ -12103,7 +12103,7 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
         <v>39</v>
@@ -12115,7 +12115,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K131">
         <v>1.285</v>
@@ -12195,7 +12195,7 @@
         <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12204,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K132">
         <v>3.4</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K133">
         <v>2.75</v>
@@ -12382,7 +12382,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K134">
         <v>1.727</v>
@@ -12462,7 +12462,7 @@
         <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K135">
         <v>3.4</v>
@@ -12560,7 +12560,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K136">
         <v>1.85</v>
@@ -12625,7 +12625,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7499440</v>
+        <v>7499442</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12637,55 +12637,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K137">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L137">
         <v>3.4</v>
       </c>
       <c r="M137">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N137">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O137">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P137">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q137">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12694,19 +12694,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB137">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12714,7 +12714,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7499442</v>
+        <v>7499440</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12726,55 +12726,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K138">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L138">
         <v>3.4</v>
       </c>
       <c r="M138">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N138">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O138">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P138">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q138">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12783,19 +12783,19 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC138">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12818,7 +12818,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12827,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K139">
         <v>2.375</v>
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7493310</v>
+        <v>7493431</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,13 +12904,13 @@
         <v>45259.8125</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I140">
         <v>2</v>
@@ -12919,61 +12919,61 @@
         <v>45</v>
       </c>
       <c r="K140">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="L140">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M140">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="N140">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="O140">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P140">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R140">
+        <v>1.925</v>
+      </c>
+      <c r="S140">
+        <v>1.875</v>
+      </c>
+      <c r="T140">
+        <v>2.5</v>
+      </c>
+      <c r="U140">
+        <v>2</v>
+      </c>
+      <c r="V140">
         <v>1.8</v>
       </c>
-      <c r="S140">
-        <v>2</v>
-      </c>
-      <c r="T140">
-        <v>2.75</v>
-      </c>
-      <c r="U140">
-        <v>1.8</v>
-      </c>
-      <c r="V140">
-        <v>2</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA140">
+        <v>-1</v>
+      </c>
+      <c r="AB140">
         <v>1</v>
       </c>
-      <c r="AB140">
-        <v>0.4</v>
-      </c>
       <c r="AC140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12981,7 +12981,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7493431</v>
+        <v>7493310</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12993,76 +12993,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H141">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K141">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="L141">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M141">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="N141">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="O141">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P141">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S141">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
+        <v>1.8</v>
+      </c>
+      <c r="V141">
         <v>2</v>
       </c>
-      <c r="V141">
-        <v>1.8</v>
-      </c>
       <c r="W141">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB141">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13094,7 +13094,7 @@
         <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K142">
         <v>4</v>
@@ -13183,7 +13183,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K143">
         <v>3.4</v>
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7493312</v>
+        <v>7493433</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13263,73 +13263,73 @@
         <v>29</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
         <v>43</v>
       </c>
       <c r="K144">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L144">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M144">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N144">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="O144">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P144">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q144">
+        <v>0.25</v>
+      </c>
+      <c r="R144">
+        <v>1.75</v>
+      </c>
+      <c r="S144">
+        <v>2.05</v>
+      </c>
+      <c r="T144">
+        <v>2.25</v>
+      </c>
+      <c r="U144">
+        <v>2</v>
+      </c>
+      <c r="V144">
+        <v>1.8</v>
+      </c>
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
+        <v>2.1</v>
+      </c>
+      <c r="Y144">
+        <v>-1</v>
+      </c>
+      <c r="Z144">
+        <v>0.375</v>
+      </c>
+      <c r="AA144">
         <v>-0.5</v>
       </c>
-      <c r="R144">
-        <v>1.8</v>
-      </c>
-      <c r="S144">
-        <v>2</v>
-      </c>
-      <c r="T144">
-        <v>2.75</v>
-      </c>
-      <c r="U144">
-        <v>1.875</v>
-      </c>
-      <c r="V144">
-        <v>1.925</v>
-      </c>
-      <c r="W144">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X144">
-        <v>-1</v>
-      </c>
-      <c r="Y144">
-        <v>-1</v>
-      </c>
-      <c r="Z144">
-        <v>0.8</v>
-      </c>
-      <c r="AA144">
-        <v>-1</v>
-      </c>
       <c r="AB144">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7493433</v>
+        <v>7493312</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F145" t="s">
+        <v>31</v>
+      </c>
+      <c r="G145" t="s">
         <v>30</v>
       </c>
-      <c r="G145" t="s">
-        <v>33</v>
-      </c>
       <c r="H145">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K145">
+        <v>1.7</v>
+      </c>
+      <c r="L145">
+        <v>3.6</v>
+      </c>
+      <c r="M145">
+        <v>4.333</v>
+      </c>
+      <c r="N145">
+        <v>1.727</v>
+      </c>
+      <c r="O145">
+        <v>3.75</v>
+      </c>
+      <c r="P145">
+        <v>4.2</v>
+      </c>
+      <c r="Q145">
+        <v>-0.5</v>
+      </c>
+      <c r="R145">
+        <v>1.8</v>
+      </c>
+      <c r="S145">
+        <v>2</v>
+      </c>
+      <c r="T145">
         <v>2.75</v>
       </c>
-      <c r="L145">
-        <v>3.2</v>
-      </c>
-      <c r="M145">
-        <v>2.4</v>
-      </c>
-      <c r="N145">
-        <v>2.75</v>
-      </c>
-      <c r="O145">
-        <v>3.1</v>
-      </c>
-      <c r="P145">
-        <v>2.45</v>
-      </c>
-      <c r="Q145">
-        <v>0.25</v>
-      </c>
-      <c r="R145">
-        <v>1.75</v>
-      </c>
-      <c r="S145">
-        <v>2.05</v>
-      </c>
-      <c r="T145">
-        <v>2.25</v>
-      </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X145">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC145">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K146">
         <v>2.625</v>
@@ -13539,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K147">
         <v>1.444</v>
@@ -13616,7 +13616,7 @@
         <v>45311.75</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
         <v>42</v>
@@ -13628,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K148">
         <v>1.8</v>
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K149">
         <v>2.2</v>
@@ -13794,7 +13794,7 @@
         <v>45312.75</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
         <v>38</v>
@@ -13806,7 +13806,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K150">
         <v>1.533</v>
@@ -13883,7 +13883,7 @@
         <v>45312.85416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K151">
         <v>3.75</v>
@@ -13984,7 +13984,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K152">
         <v>1.65</v>
@@ -14073,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K153">
         <v>4.333</v>
@@ -14153,7 +14153,7 @@
         <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14162,7 +14162,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K154">
         <v>3.3</v>
@@ -14242,7 +14242,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K155">
         <v>1.533</v>
@@ -14340,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K156">
         <v>3.5</v>
@@ -14420,7 +14420,7 @@
         <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14429,7 +14429,7 @@
         <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K157">
         <v>3.75</v>
@@ -14506,7 +14506,7 @@
         <v>45318.77083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
         <v>41</v>
@@ -14518,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K158">
         <v>2.25</v>
@@ -14607,7 +14607,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K159">
         <v>2.3</v>
@@ -14696,7 +14696,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K160">
         <v>2.7</v>
@@ -14773,7 +14773,7 @@
         <v>45319.86805555555</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
         <v>39</v>
@@ -14785,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K161">
         <v>1.833</v>
@@ -14874,7 +14874,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K162">
         <v>6.5</v>
@@ -14954,7 +14954,7 @@
         <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14963,7 +14963,7 @@
         <v>4</v>
       </c>
       <c r="J163" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K163">
         <v>1.909</v>
@@ -15052,7 +15052,7 @@
         <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K164">
         <v>2.5</v>
@@ -15132,7 +15132,7 @@
         <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15141,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K165">
         <v>2.8</v>
@@ -15221,7 +15221,7 @@
         <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15230,7 +15230,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K166">
         <v>4.5</v>
@@ -15319,7 +15319,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K167">
         <v>1.25</v>
@@ -15408,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K168">
         <v>3.5</v>
@@ -15497,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K169">
         <v>2.875</v>
@@ -15586,7 +15586,7 @@
         <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K170">
         <v>2</v>
@@ -15663,7 +15663,7 @@
         <v>45332.76041666666</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G171" t="s">
         <v>32</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K171">
         <v>2.15</v>
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K172">
         <v>1.55</v>
@@ -15841,7 +15841,7 @@
         <v>45333.76041666666</v>
       </c>
       <c r="F173" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G173" t="s">
         <v>36</v>
@@ -15853,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15930,7 +15930,7 @@
         <v>45333.86458333334</v>
       </c>
       <c r="F174" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G174" t="s">
         <v>33</v>
@@ -15942,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K174">
         <v>1.95</v>
@@ -16022,7 +16022,7 @@
         <v>37</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16031,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K175">
         <v>2.7</v>
@@ -16111,7 +16111,7 @@
         <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16120,7 +16120,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K176">
         <v>2.5</v>
@@ -16200,7 +16200,7 @@
         <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16209,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K177">
         <v>3.4</v>
@@ -16298,7 +16298,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K178">
         <v>6</v>
@@ -16387,7 +16387,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K179">
         <v>1.909</v>
@@ -16476,7 +16476,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K180">
         <v>2.25</v>
@@ -16553,7 +16553,7 @@
         <v>45345.8125</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G181" t="s">
         <v>37</v>
@@ -16565,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K181">
         <v>1.7</v>
@@ -16654,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K182">
         <v>2.7</v>
@@ -16731,7 +16731,7 @@
         <v>45346.86458333334</v>
       </c>
       <c r="F183" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G183" t="s">
         <v>41</v>
@@ -16743,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K183">
         <v>1.45</v>
@@ -16832,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K184">
         <v>2.7</v>
@@ -16909,7 +16909,7 @@
         <v>45347.86458333334</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G185" t="s">
         <v>40</v>
@@ -16921,7 +16921,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K185">
         <v>2.6</v>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K186">
         <v>1.363</v>
@@ -17087,10 +17087,10 @@
         <v>45352.8125</v>
       </c>
       <c r="F187" t="s">
+        <v>30</v>
+      </c>
+      <c r="G187" t="s">
         <v>31</v>
-      </c>
-      <c r="G187" t="s">
-        <v>29</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17099,7 +17099,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K187">
         <v>3.8</v>
@@ -17188,7 +17188,7 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K188">
         <v>2.2</v>
@@ -17268,7 +17268,7 @@
         <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17277,7 +17277,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K189">
         <v>2</v>
@@ -17366,7 +17366,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K190">
         <v>2.375</v>
@@ -17455,7 +17455,7 @@
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K191">
         <v>2</v>
@@ -17544,7 +17544,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K192">
         <v>2.75</v>
@@ -17633,7 +17633,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K193">
         <v>2</v>
@@ -17710,7 +17710,7 @@
         <v>45360.8125</v>
       </c>
       <c r="F194" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G194" t="s">
         <v>39</v>
@@ -17722,7 +17722,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K194">
         <v>1.363</v>
@@ -17811,7 +17811,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K195">
         <v>5.25</v>
@@ -17888,10 +17888,10 @@
         <v>45361.85416666666</v>
       </c>
       <c r="F196" t="s">
+        <v>29</v>
+      </c>
+      <c r="G196" t="s">
         <v>30</v>
-      </c>
-      <c r="G196" t="s">
-        <v>31</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17900,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K196">
         <v>2.1</v>
@@ -17989,7 +17989,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K197">
         <v>1.5</v>
@@ -18066,10 +18066,10 @@
         <v>45366.8125</v>
       </c>
       <c r="F198" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18078,7 +18078,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K198">
         <v>3.8</v>
@@ -18167,7 +18167,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K199">
         <v>1.666</v>
@@ -18256,7 +18256,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K200">
         <v>5.5</v>
@@ -18345,7 +18345,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K201">
         <v>1.909</v>
@@ -18422,7 +18422,7 @@
         <v>45368.875</v>
       </c>
       <c r="F202" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G202" t="s">
         <v>38</v>
@@ -18434,7 +18434,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K202">
         <v>1.909</v>
@@ -18523,7 +18523,7 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K203">
         <v>1.909</v>
@@ -18612,7 +18612,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K204">
         <v>2.75</v>
@@ -18692,7 +18692,7 @@
         <v>38</v>
       </c>
       <c r="G205" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18701,7 +18701,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K205">
         <v>3.6</v>
@@ -18778,7 +18778,7 @@
         <v>45381.79166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
         <v>33</v>
@@ -18790,7 +18790,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K206">
         <v>1.5</v>
@@ -18879,7 +18879,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K207">
         <v>1.8</v>
@@ -18968,7 +18968,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K208">
         <v>2.1</v>
@@ -19048,7 +19048,7 @@
         <v>42</v>
       </c>
       <c r="G209" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19057,7 +19057,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K209">
         <v>2.2</v>
@@ -19122,7 +19122,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7609151</v>
+        <v>7609148</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19131,49 +19131,49 @@
         <v>28</v>
       </c>
       <c r="E210" s="2">
-        <v>45387.79166666666</v>
+        <v>45388.79166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G210" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K210">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="L210">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M210">
-        <v>2.7</v>
+        <v>1.444</v>
       </c>
       <c r="N210">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="O210">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P210">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="Q210">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R210">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S210">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T210">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U210">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V210">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W210">
         <v>0</v>
@@ -19196,7 +19196,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7609203</v>
+        <v>7609149</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19205,43 +19205,43 @@
         <v>28</v>
       </c>
       <c r="E211" s="2">
-        <v>45387.89583333334</v>
+        <v>45388.89583333334</v>
       </c>
       <c r="F211" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G211" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K211">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="L211">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M211">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="N211">
-        <v>2.45</v>
+        <v>1.55</v>
       </c>
       <c r="O211">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P211">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R211">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S211">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T211">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U211">
         <v>1.9</v>
@@ -19270,7 +19270,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7609148</v>
+        <v>7609150</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19279,49 +19279,49 @@
         <v>28</v>
       </c>
       <c r="E212" s="2">
-        <v>45388.79166666666</v>
+        <v>45389.77083333334</v>
       </c>
       <c r="F212" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G212" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="K212">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="L212">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M212">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="N212">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="O212">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P212">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="Q212">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="R212">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S212">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T212">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U212">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V212">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W212">
         <v>0</v>
@@ -19344,7 +19344,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7609149</v>
+        <v>7609671</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19353,49 +19353,49 @@
         <v>28</v>
       </c>
       <c r="E213" s="2">
-        <v>45388.89583333334</v>
+        <v>45389.875</v>
       </c>
       <c r="F213" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G213" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K213">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M213">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="N213">
-        <v>1.55</v>
+        <v>2.5</v>
       </c>
       <c r="O213">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P213">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q213">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R213">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S213">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T213">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U213">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V213">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W213">
         <v>0</v>
@@ -19410,154 +19410,6 @@
         <v>0</v>
       </c>
       <c r="AA213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:29">
-      <c r="A214" s="1">
-        <v>212</v>
-      </c>
-      <c r="B214">
-        <v>7609150</v>
-      </c>
-      <c r="C214" t="s">
-        <v>28</v>
-      </c>
-      <c r="D214" t="s">
-        <v>28</v>
-      </c>
-      <c r="E214" s="2">
-        <v>45389.77083333334</v>
-      </c>
-      <c r="F214" t="s">
-        <v>41</v>
-      </c>
-      <c r="G214" t="s">
-        <v>40</v>
-      </c>
-      <c r="K214">
-        <v>3.75</v>
-      </c>
-      <c r="L214">
-        <v>3.5</v>
-      </c>
-      <c r="M214">
-        <v>1.85</v>
-      </c>
-      <c r="N214">
-        <v>3.3</v>
-      </c>
-      <c r="O214">
-        <v>3.4</v>
-      </c>
-      <c r="P214">
-        <v>2</v>
-      </c>
-      <c r="Q214">
-        <v>0.25</v>
-      </c>
-      <c r="R214">
-        <v>2</v>
-      </c>
-      <c r="S214">
-        <v>1.8</v>
-      </c>
-      <c r="T214">
-        <v>2.25</v>
-      </c>
-      <c r="U214">
-        <v>1.825</v>
-      </c>
-      <c r="V214">
-        <v>1.975</v>
-      </c>
-      <c r="W214">
-        <v>0</v>
-      </c>
-      <c r="X214">
-        <v>0</v>
-      </c>
-      <c r="Y214">
-        <v>0</v>
-      </c>
-      <c r="Z214">
-        <v>0</v>
-      </c>
-      <c r="AA214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:29">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
-      <c r="B215">
-        <v>7609671</v>
-      </c>
-      <c r="C215" t="s">
-        <v>28</v>
-      </c>
-      <c r="D215" t="s">
-        <v>28</v>
-      </c>
-      <c r="E215" s="2">
-        <v>45389.875</v>
-      </c>
-      <c r="F215" t="s">
-        <v>42</v>
-      </c>
-      <c r="G215" t="s">
-        <v>30</v>
-      </c>
-      <c r="K215">
-        <v>2.4</v>
-      </c>
-      <c r="L215">
-        <v>3.2</v>
-      </c>
-      <c r="M215">
-        <v>2.75</v>
-      </c>
-      <c r="N215">
-        <v>2.6</v>
-      </c>
-      <c r="O215">
-        <v>3.2</v>
-      </c>
-      <c r="P215">
-        <v>2.55</v>
-      </c>
-      <c r="Q215">
-        <v>0</v>
-      </c>
-      <c r="R215">
-        <v>1.925</v>
-      </c>
-      <c r="S215">
-        <v>1.875</v>
-      </c>
-      <c r="T215">
-        <v>2.25</v>
-      </c>
-      <c r="U215">
-        <v>1.95</v>
-      </c>
-      <c r="V215">
-        <v>1.85</v>
-      </c>
-      <c r="W215">
-        <v>0</v>
-      </c>
-      <c r="X215">
-        <v>0</v>
-      </c>
-      <c r="Y215">
-        <v>0</v>
-      </c>
-      <c r="Z215">
-        <v>0</v>
-      </c>
-      <c r="AA215">
         <v>0</v>
       </c>
     </row>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -12002,7 +12002,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7454842</v>
+        <v>7453204</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12014,76 +12014,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K130">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="L130">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M130">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="N130">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O130">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P130">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U130">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y130">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12091,7 +12091,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7453204</v>
+        <v>7454842</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12103,76 +12103,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K131">
-        <v>1.285</v>
+        <v>4</v>
       </c>
       <c r="L131">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M131">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="N131">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O131">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P131">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="Q131">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12358,7 +12358,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7493428</v>
+        <v>7493427</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12370,76 +12370,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H134">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K134">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M134">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N134">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O134">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P134">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q134">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R134">
+        <v>2.025</v>
+      </c>
+      <c r="S134">
         <v>1.775</v>
       </c>
-      <c r="S134">
-        <v>2.025</v>
-      </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
+        <v>1.975</v>
+      </c>
+      <c r="V134">
         <v>1.825</v>
       </c>
-      <c r="V134">
-        <v>1.975</v>
-      </c>
       <c r="W134">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
         <v>0.825</v>
-      </c>
-      <c r="AC134">
-        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12447,7 +12447,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7493427</v>
+        <v>7493428</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12459,76 +12459,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K135">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L135">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N135">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O135">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P135">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q135">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R135">
+        <v>1.775</v>
+      </c>
+      <c r="S135">
         <v>2.025</v>
       </c>
-      <c r="S135">
-        <v>1.775</v>
-      </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U135">
+        <v>1.825</v>
+      </c>
+      <c r="V135">
         <v>1.975</v>
       </c>
-      <c r="V135">
-        <v>1.825</v>
-      </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X135">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7493431</v>
+        <v>7493310</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,76 +12904,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H140">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K140">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="L140">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M140">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="N140">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="O140">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P140">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R140">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U140">
+        <v>1.8</v>
+      </c>
+      <c r="V140">
         <v>2</v>
       </c>
-      <c r="V140">
-        <v>1.8</v>
-      </c>
       <c r="W140">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z140">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12981,7 +12981,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7493310</v>
+        <v>7493431</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12993,76 +12993,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I141">
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K141">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="L141">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M141">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="N141">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="O141">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P141">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R141">
+        <v>1.925</v>
+      </c>
+      <c r="S141">
+        <v>1.875</v>
+      </c>
+      <c r="T141">
+        <v>2.5</v>
+      </c>
+      <c r="U141">
+        <v>2</v>
+      </c>
+      <c r="V141">
         <v>1.8</v>
       </c>
-      <c r="S141">
-        <v>2</v>
-      </c>
-      <c r="T141">
-        <v>2.75</v>
-      </c>
-      <c r="U141">
-        <v>1.8</v>
-      </c>
-      <c r="V141">
-        <v>2</v>
-      </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA141">
+        <v>-1</v>
+      </c>
+      <c r="AB141">
         <v>1</v>
       </c>
-      <c r="AB141">
-        <v>0.4</v>
-      </c>
       <c r="AC141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -19149,31 +19149,31 @@
         <v>1.444</v>
       </c>
       <c r="N210">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O210">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P210">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="Q210">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R210">
+        <v>1.95</v>
+      </c>
+      <c r="S210">
+        <v>1.85</v>
+      </c>
+      <c r="T210">
+        <v>2.5</v>
+      </c>
+      <c r="U210">
         <v>1.825</v>
       </c>
-      <c r="S210">
+      <c r="V210">
         <v>1.975</v>
-      </c>
-      <c r="T210">
-        <v>2.75</v>
-      </c>
-      <c r="U210">
-        <v>1.85</v>
-      </c>
-      <c r="V210">
-        <v>1.95</v>
       </c>
       <c r="W210">
         <v>0</v>
@@ -19223,31 +19223,31 @@
         <v>6</v>
       </c>
       <c r="N211">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="O211">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P211">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q211">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R211">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S211">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T211">
         <v>2.5</v>
       </c>
       <c r="U211">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V211">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W211">
         <v>0</v>
@@ -19309,10 +19309,10 @@
         <v>0.5</v>
       </c>
       <c r="R212">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S212">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T212">
         <v>2.25</v>
@@ -19383,10 +19383,10 @@
         <v>0</v>
       </c>
       <c r="R213">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S213">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T213">
         <v>2.25</v>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,13 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
+    <t>Cerro Porteno</t>
+  </si>
+  <si>
     <t>Sportivo Luqueno</t>
   </si>
   <si>
     <t>Guarani Asuncion</t>
-  </si>
-  <si>
-    <t>Cerro Porteno</t>
   </si>
   <si>
     <t>Sportivo Ameliano</t>
@@ -145,13 +145,13 @@
     <t>2 de Mayo</t>
   </si>
   <si>
+    <t>H</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>H</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6720873</v>
+        <v>6720843</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,73 +625,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="L2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M2">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N2">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="O2">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P2">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R2">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S2">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T2">
         <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V2">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X2">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA2">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6720844</v>
+        <v>6720873</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,10 +714,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -726,58 +726,58 @@
         <v>44</v>
       </c>
       <c r="K3">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M3">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P3">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q3">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T3">
         <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
       <c r="AB3">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6720843</v>
+        <v>6720844</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,31 +803,31 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>2</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>45</v>
       </c>
       <c r="K4">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>2.75</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
         <v>3.2</v>
-      </c>
-      <c r="M4">
-        <v>2.7</v>
-      </c>
-      <c r="N4">
-        <v>3.75</v>
-      </c>
-      <c r="O4">
-        <v>3.3</v>
       </c>
       <c r="P4">
         <v>1.85</v>
@@ -836,10 +836,10 @@
         <v>0.5</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
         <v>2.5</v>
@@ -851,25 +851,25 @@
         <v>1.875</v>
       </c>
       <c r="W4">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K5">
         <v>1.95</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K6">
         <v>1.571</v>
@@ -1079,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>2.4</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8">
         <v>2.75</v>
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9">
         <v>1.333</v>
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10">
         <v>2.3</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1515,7 +1515,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12">
         <v>5.5</v>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K13">
         <v>1.363</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14">
         <v>2.7</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K15">
         <v>1.55</v>
@@ -1880,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -1969,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K17">
         <v>1.4</v>
@@ -2046,10 +2046,10 @@
         <v>45116.70833333334</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K18">
         <v>2.375</v>
@@ -2135,7 +2135,7 @@
         <v>45116.8125</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -2147,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K19">
         <v>1.4</v>
@@ -2236,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K20">
         <v>4.75</v>
@@ -2316,7 +2316,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K21">
         <v>3.6</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K22">
         <v>2.625</v>
@@ -2491,7 +2491,7 @@
         <v>45123.8125</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
@@ -2503,7 +2503,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2583,7 +2583,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2592,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K24">
         <v>2.625</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25">
         <v>1.666</v>
@@ -2761,7 +2761,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
         <v>2.9</v>
@@ -2859,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27">
         <v>1.65</v>
@@ -2936,7 +2936,7 @@
         <v>45129.8125</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K28">
         <v>1.45</v>
@@ -3025,7 +3025,7 @@
         <v>45130.70833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -3037,7 +3037,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29">
         <v>2.15</v>
@@ -3126,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K30">
         <v>1.7</v>
@@ -3215,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>1.25</v>
@@ -3295,7 +3295,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K32">
         <v>2.625</v>
@@ -3381,7 +3381,7 @@
         <v>45135.85416666666</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3571,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K35">
         <v>4.2</v>
@@ -3660,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K36">
         <v>2.2</v>
@@ -3740,7 +3740,7 @@
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K37">
         <v>4.5</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K38">
         <v>1.363</v>
@@ -3915,7 +3915,7 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K39">
         <v>1.666</v>
@@ -4004,7 +4004,7 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
         <v>34</v>
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4096,7 +4096,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -4105,7 +4105,7 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K41">
         <v>1.615</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K42">
         <v>1.65</v>
@@ -4283,7 +4283,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K43">
         <v>2.625</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K44">
         <v>2.75</v>
@@ -4461,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -4541,7 +4541,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4627,7 +4627,7 @@
         <v>45151.72916666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
         <v>40</v>
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K47">
         <v>2.15</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K48">
         <v>2.05</v>
@@ -4808,7 +4808,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4817,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K49">
         <v>2.375</v>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K50">
         <v>1.5</v>
@@ -4983,7 +4983,7 @@
         <v>45157.75</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
@@ -4995,7 +4995,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K51">
         <v>2.25</v>
@@ -5084,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K52">
         <v>1.444</v>
@@ -5161,10 +5161,10 @@
         <v>45158.75</v>
       </c>
       <c r="F53" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" t="s">
         <v>29</v>
-      </c>
-      <c r="G53" t="s">
-        <v>31</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5173,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K53">
         <v>3.5</v>
@@ -5262,7 +5262,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K54">
         <v>1.666</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K55">
         <v>2.3</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K56">
         <v>1.7</v>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5606,7 +5606,7 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K58">
         <v>2.375</v>
@@ -5695,7 +5695,7 @@
         <v>45165.72916666666</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
         <v>40</v>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -5787,7 +5787,7 @@
         <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K60">
         <v>2.8</v>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K61">
         <v>3.4</v>
@@ -5974,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6054,7 +6054,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6063,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K63">
         <v>4.75</v>
@@ -6143,7 +6143,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K64">
         <v>1.5</v>
@@ -6229,7 +6229,7 @@
         <v>45172.72916666666</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -6241,7 +6241,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K65">
         <v>1.85</v>
@@ -6330,7 +6330,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K66">
         <v>1.909</v>
@@ -6410,7 +6410,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K67">
         <v>2.45</v>
@@ -6508,7 +6508,7 @@
         <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K68">
         <v>2.875</v>
@@ -6585,7 +6585,7 @@
         <v>45179.72916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
         <v>39</v>
@@ -6597,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K69">
         <v>1.85</v>
@@ -6674,7 +6674,7 @@
         <v>45179.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K70">
         <v>1.833</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K71">
         <v>2.2</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K72">
         <v>2.55</v>
@@ -6944,7 +6944,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -7042,7 +7042,7 @@
         <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K74">
         <v>5.75</v>
@@ -7131,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K75">
         <v>1.533</v>
@@ -7220,7 +7220,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7297,10 +7297,10 @@
         <v>45186.83333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K77">
         <v>3.8</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K78">
         <v>1.615</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K79">
         <v>2.2</v>
@@ -7567,7 +7567,7 @@
         <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K80">
         <v>5.25</v>
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K81">
         <v>6</v>
@@ -7754,7 +7754,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K82">
         <v>4</v>
@@ -7831,10 +7831,10 @@
         <v>45193.77083333334</v>
       </c>
       <c r="F83" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" t="s">
         <v>30</v>
-      </c>
-      <c r="G83" t="s">
-        <v>29</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K83">
         <v>2.15</v>
@@ -7932,7 +7932,7 @@
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K84">
         <v>1.95</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K85">
         <v>1.85</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K86">
         <v>2.1</v>
@@ -8199,7 +8199,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K87">
         <v>3.8</v>
@@ -8276,7 +8276,7 @@
         <v>45200.75</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8288,7 +8288,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K88">
         <v>1.55</v>
@@ -8368,7 +8368,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K89">
         <v>1.5</v>
@@ -8454,7 +8454,7 @@
         <v>45201.75</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K90">
         <v>1.8</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K91">
         <v>1.333</v>
@@ -8635,7 +8635,7 @@
         <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K92">
         <v>4.2</v>
@@ -8733,7 +8733,7 @@
         <v>5</v>
       </c>
       <c r="J93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K93">
         <v>5.75</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K94">
         <v>2.875</v>
@@ -8911,7 +8911,7 @@
         <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K95">
         <v>2.7</v>
@@ -8988,7 +8988,7 @@
         <v>45207.85416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
         <v>39</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K96">
         <v>1.75</v>
@@ -9080,7 +9080,7 @@
         <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9089,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K97">
         <v>2.15</v>
@@ -9169,7 +9169,7 @@
         <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K98">
         <v>1.95</v>
@@ -9267,7 +9267,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K99">
         <v>2.375</v>
@@ -9344,7 +9344,7 @@
         <v>45218.8125</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9356,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K100">
         <v>1.909</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K101">
         <v>1.444</v>
@@ -9534,7 +9534,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K102">
         <v>1.7</v>
@@ -9611,7 +9611,7 @@
         <v>45220.85416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -9623,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K103">
         <v>1.363</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K104">
         <v>3.6</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K105">
         <v>6</v>
@@ -9890,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K106">
         <v>1.75</v>
@@ -9970,7 +9970,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9979,7 +9979,7 @@
         <v>5</v>
       </c>
       <c r="J107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K107">
         <v>3.75</v>
@@ -10056,7 +10056,7 @@
         <v>45223.85416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10068,7 +10068,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K108">
         <v>3.6</v>
@@ -10148,7 +10148,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K109">
         <v>3.2</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K110">
         <v>2.75</v>
@@ -10335,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K111">
         <v>1.909</v>
@@ -10412,7 +10412,7 @@
         <v>45227.85416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
         <v>35</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K112">
         <v>1.85</v>
@@ -10504,7 +10504,7 @@
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K113">
         <v>2.25</v>
@@ -10590,7 +10590,7 @@
         <v>45229.75</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
         <v>38</v>
@@ -10602,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K114">
         <v>2.05</v>
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K115">
         <v>1.25</v>
@@ -10771,7 +10771,7 @@
         <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K116">
         <v>2.2</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K117">
         <v>4</v>
@@ -10958,7 +10958,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K118">
         <v>2.2</v>
@@ -11047,7 +11047,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K119">
         <v>4.333</v>
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K120">
         <v>5</v>
@@ -11213,10 +11213,10 @@
         <v>45233.85416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G121" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K121">
         <v>1.533</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K122">
         <v>2.6</v>
@@ -11391,7 +11391,7 @@
         <v>45235.85416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
         <v>37</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K123">
         <v>1.909</v>
@@ -11483,7 +11483,7 @@
         <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11492,7 +11492,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K124">
         <v>2.05</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K125">
         <v>1.615</v>
@@ -11670,7 +11670,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K126">
         <v>2.5</v>
@@ -11750,7 +11750,7 @@
         <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K127">
         <v>1.833</v>
@@ -11848,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K128">
         <v>3</v>
@@ -11937,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K129">
         <v>2</v>
@@ -12002,7 +12002,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7453204</v>
+        <v>7454842</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12014,76 +12014,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K130">
-        <v>1.285</v>
+        <v>4</v>
       </c>
       <c r="L130">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="N130">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O130">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P130">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="Q130">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T130">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12091,7 +12091,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7454842</v>
+        <v>7453204</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12106,10 +12106,10 @@
         <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -12118,61 +12118,61 @@
         <v>44</v>
       </c>
       <c r="K131">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="L131">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M131">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="N131">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O131">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P131">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12195,7 +12195,7 @@
         <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12204,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K132">
         <v>3.4</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K133">
         <v>2.75</v>
@@ -12373,7 +12373,7 @@
         <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12382,7 +12382,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K134">
         <v>3.4</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K135">
         <v>1.727</v>
@@ -12560,7 +12560,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K136">
         <v>1.85</v>
@@ -12637,7 +12637,7 @@
         <v>45255.8125</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
         <v>38</v>
@@ -12649,7 +12649,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K137">
         <v>2</v>
@@ -12738,7 +12738,7 @@
         <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K138">
         <v>2.7</v>
@@ -12818,7 +12818,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12827,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K139">
         <v>2.375</v>
@@ -12916,7 +12916,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K140">
         <v>1.363</v>
@@ -13005,7 +13005,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K141">
         <v>2.05</v>
@@ -13094,7 +13094,7 @@
         <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K142">
         <v>4</v>
@@ -13183,7 +13183,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K143">
         <v>3.4</v>
@@ -13260,7 +13260,7 @@
         <v>45261.8125</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
         <v>33</v>
@@ -13272,7 +13272,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K144">
         <v>2.75</v>
@@ -13349,10 +13349,10 @@
         <v>45261.8125</v>
       </c>
       <c r="F145" t="s">
+        <v>29</v>
+      </c>
+      <c r="G145" t="s">
         <v>31</v>
-      </c>
-      <c r="G145" t="s">
-        <v>30</v>
       </c>
       <c r="H145">
         <v>4</v>
@@ -13361,7 +13361,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K145">
         <v>1.7</v>
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K146">
         <v>2.625</v>
@@ -13539,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K147">
         <v>1.444</v>
@@ -13616,7 +13616,7 @@
         <v>45311.75</v>
       </c>
       <c r="F148" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G148" t="s">
         <v>42</v>
@@ -13628,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K148">
         <v>1.8</v>
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K149">
         <v>2.2</v>
@@ -13794,7 +13794,7 @@
         <v>45312.75</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
         <v>38</v>
@@ -13806,7 +13806,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K150">
         <v>1.533</v>
@@ -13883,7 +13883,7 @@
         <v>45312.85416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K151">
         <v>3.75</v>
@@ -13984,7 +13984,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K152">
         <v>1.65</v>
@@ -14073,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K153">
         <v>4.333</v>
@@ -14153,7 +14153,7 @@
         <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14162,7 +14162,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K154">
         <v>3.3</v>
@@ -14242,7 +14242,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K155">
         <v>1.533</v>
@@ -14340,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K156">
         <v>3.5</v>
@@ -14420,7 +14420,7 @@
         <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14429,7 +14429,7 @@
         <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K157">
         <v>3.75</v>
@@ -14506,7 +14506,7 @@
         <v>45318.77083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
         <v>41</v>
@@ -14518,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K158">
         <v>2.25</v>
@@ -14607,7 +14607,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K159">
         <v>2.3</v>
@@ -14696,7 +14696,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K160">
         <v>2.7</v>
@@ -14773,7 +14773,7 @@
         <v>45319.86805555555</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
         <v>39</v>
@@ -14785,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K161">
         <v>1.833</v>
@@ -14874,7 +14874,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K162">
         <v>6.5</v>
@@ -14954,7 +14954,7 @@
         <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14963,7 +14963,7 @@
         <v>4</v>
       </c>
       <c r="J163" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K163">
         <v>1.909</v>
@@ -15052,7 +15052,7 @@
         <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K164">
         <v>2.5</v>
@@ -15132,7 +15132,7 @@
         <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15141,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K165">
         <v>2.8</v>
@@ -15221,7 +15221,7 @@
         <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15230,7 +15230,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K166">
         <v>4.5</v>
@@ -15319,7 +15319,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K167">
         <v>1.25</v>
@@ -15408,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K168">
         <v>3.5</v>
@@ -15497,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K169">
         <v>2.875</v>
@@ -15586,7 +15586,7 @@
         <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K170">
         <v>2</v>
@@ -15663,7 +15663,7 @@
         <v>45332.76041666666</v>
       </c>
       <c r="F171" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
         <v>32</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K171">
         <v>2.15</v>
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K172">
         <v>1.55</v>
@@ -15841,7 +15841,7 @@
         <v>45333.76041666666</v>
       </c>
       <c r="F173" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G173" t="s">
         <v>36</v>
@@ -15853,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15930,7 +15930,7 @@
         <v>45333.86458333334</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G174" t="s">
         <v>33</v>
@@ -15942,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K174">
         <v>1.95</v>
@@ -16022,7 +16022,7 @@
         <v>37</v>
       </c>
       <c r="G175" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16031,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K175">
         <v>2.7</v>
@@ -16111,7 +16111,7 @@
         <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16120,7 +16120,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K176">
         <v>2.5</v>
@@ -16200,7 +16200,7 @@
         <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16209,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K177">
         <v>3.4</v>
@@ -16298,7 +16298,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K178">
         <v>6</v>
@@ -16387,7 +16387,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K179">
         <v>1.909</v>
@@ -16476,7 +16476,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K180">
         <v>2.25</v>
@@ -16553,7 +16553,7 @@
         <v>45345.8125</v>
       </c>
       <c r="F181" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G181" t="s">
         <v>37</v>
@@ -16565,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K181">
         <v>1.7</v>
@@ -16654,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K182">
         <v>2.7</v>
@@ -16731,7 +16731,7 @@
         <v>45346.86458333334</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G183" t="s">
         <v>41</v>
@@ -16743,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K183">
         <v>1.45</v>
@@ -16832,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K184">
         <v>2.7</v>
@@ -16909,7 +16909,7 @@
         <v>45347.86458333334</v>
       </c>
       <c r="F185" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
         <v>40</v>
@@ -16921,7 +16921,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K185">
         <v>2.6</v>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K186">
         <v>1.363</v>
@@ -17087,10 +17087,10 @@
         <v>45352.8125</v>
       </c>
       <c r="F187" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G187" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17099,7 +17099,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K187">
         <v>3.8</v>
@@ -17188,7 +17188,7 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K188">
         <v>2.2</v>
@@ -17268,7 +17268,7 @@
         <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17277,7 +17277,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K189">
         <v>2</v>
@@ -17366,7 +17366,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K190">
         <v>2.375</v>
@@ -17455,7 +17455,7 @@
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K191">
         <v>2</v>
@@ -17544,7 +17544,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K192">
         <v>2.75</v>
@@ -17633,7 +17633,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K193">
         <v>2</v>
@@ -17710,7 +17710,7 @@
         <v>45360.8125</v>
       </c>
       <c r="F194" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G194" t="s">
         <v>39</v>
@@ -17722,7 +17722,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K194">
         <v>1.363</v>
@@ -17811,7 +17811,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K195">
         <v>5.25</v>
@@ -17888,10 +17888,10 @@
         <v>45361.85416666666</v>
       </c>
       <c r="F196" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17900,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K196">
         <v>2.1</v>
@@ -17989,7 +17989,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K197">
         <v>1.5</v>
@@ -18066,10 +18066,10 @@
         <v>45366.8125</v>
       </c>
       <c r="F198" t="s">
+        <v>30</v>
+      </c>
+      <c r="G198" t="s">
         <v>29</v>
-      </c>
-      <c r="G198" t="s">
-        <v>31</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18078,7 +18078,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K198">
         <v>3.8</v>
@@ -18167,7 +18167,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K199">
         <v>1.666</v>
@@ -18256,7 +18256,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K200">
         <v>5.5</v>
@@ -18345,7 +18345,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K201">
         <v>1.909</v>
@@ -18422,7 +18422,7 @@
         <v>45368.875</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G202" t="s">
         <v>38</v>
@@ -18434,7 +18434,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K202">
         <v>1.909</v>
@@ -18523,7 +18523,7 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K203">
         <v>1.909</v>
@@ -18612,7 +18612,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K204">
         <v>2.75</v>
@@ -18692,7 +18692,7 @@
         <v>38</v>
       </c>
       <c r="G205" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18701,7 +18701,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K205">
         <v>3.6</v>
@@ -18778,7 +18778,7 @@
         <v>45381.79166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G206" t="s">
         <v>33</v>
@@ -18790,7 +18790,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K206">
         <v>1.5</v>
@@ -18879,7 +18879,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K207">
         <v>1.8</v>
@@ -18968,7 +18968,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K208">
         <v>2.1</v>
@@ -19048,7 +19048,7 @@
         <v>42</v>
       </c>
       <c r="G209" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19057,7 +19057,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K209">
         <v>2.2</v>
@@ -19122,7 +19122,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7609148</v>
+        <v>7609151</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19131,64 +19131,79 @@
         <v>28</v>
       </c>
       <c r="E210" s="2">
-        <v>45388.79166666666</v>
+        <v>45387.79166666666</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G210" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210" t="s">
+        <v>44</v>
       </c>
       <c r="K210">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="L210">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M210">
-        <v>1.444</v>
+        <v>2.7</v>
       </c>
       <c r="N210">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="O210">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P210">
-        <v>1.65</v>
+        <v>3.1</v>
       </c>
       <c r="Q210">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R210">
+        <v>2</v>
+      </c>
+      <c r="S210">
+        <v>1.8</v>
+      </c>
+      <c r="T210">
+        <v>2.25</v>
+      </c>
+      <c r="U210">
         <v>1.95</v>
       </c>
-      <c r="S210">
+      <c r="V210">
         <v>1.85</v>
       </c>
-      <c r="T210">
-        <v>2.5</v>
-      </c>
-      <c r="U210">
-        <v>1.825</v>
-      </c>
-      <c r="V210">
-        <v>1.975</v>
-      </c>
       <c r="W210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y210">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA210">
-        <v>0</v>
+        <v>0.4</v>
+      </c>
+      <c r="AB210">
+        <v>-0.5</v>
+      </c>
+      <c r="AC210">
+        <v>0.425</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19196,7 +19211,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>7609149</v>
+        <v>7609203</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19205,64 +19220,79 @@
         <v>28</v>
       </c>
       <c r="E211" s="2">
-        <v>45388.89583333334</v>
+        <v>45387.89583333334</v>
       </c>
       <c r="F211" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G211" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211" t="s">
+        <v>44</v>
       </c>
       <c r="K211">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="L211">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M211">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N211">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="O211">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P211">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q211">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R211">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S211">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T211">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U211">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V211">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X211">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Y211">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z211">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA211">
-        <v>0</v>
+        <v>0.4375</v>
+      </c>
+      <c r="AB211">
+        <v>-0.5</v>
+      </c>
+      <c r="AC211">
+        <v>0.4125</v>
       </c>
     </row>
     <row r="212" spans="1:29">
@@ -19270,7 +19300,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7609150</v>
+        <v>7609148</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19279,64 +19309,79 @@
         <v>28</v>
       </c>
       <c r="E212" s="2">
-        <v>45389.77083333334</v>
+        <v>45388.79166666666</v>
       </c>
       <c r="F212" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G212" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>3</v>
+      </c>
+      <c r="J212" t="s">
+        <v>45</v>
       </c>
       <c r="K212">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="L212">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M212">
+        <v>1.444</v>
+      </c>
+      <c r="N212">
+        <v>4.2</v>
+      </c>
+      <c r="O212">
+        <v>4</v>
+      </c>
+      <c r="P212">
+        <v>1.65</v>
+      </c>
+      <c r="Q212">
+        <v>0.75</v>
+      </c>
+      <c r="R212">
+        <v>1.9</v>
+      </c>
+      <c r="S212">
+        <v>1.9</v>
+      </c>
+      <c r="T212">
+        <v>2.5</v>
+      </c>
+      <c r="U212">
         <v>1.85</v>
       </c>
-      <c r="N212">
-        <v>3.4</v>
-      </c>
-      <c r="O212">
-        <v>3.4</v>
-      </c>
-      <c r="P212">
-        <v>2</v>
-      </c>
-      <c r="Q212">
-        <v>0.5</v>
-      </c>
-      <c r="R212">
-        <v>1.775</v>
-      </c>
-      <c r="S212">
-        <v>2.025</v>
-      </c>
-      <c r="T212">
-        <v>2.25</v>
-      </c>
-      <c r="U212">
-        <v>1.825</v>
-      </c>
       <c r="V212">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y212">
-        <v>0</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA212">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB212">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC212">
+        <v>-1</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19344,7 +19389,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7609671</v>
+        <v>7609149</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19353,64 +19398,79 @@
         <v>28</v>
       </c>
       <c r="E213" s="2">
-        <v>45389.875</v>
+        <v>45388.89583333334</v>
       </c>
       <c r="F213" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G213" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="H213">
+        <v>2</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213" t="s">
+        <v>43</v>
       </c>
       <c r="K213">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L213">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M213">
-        <v>2.75</v>
+        <v>6</v>
       </c>
       <c r="N213">
+        <v>1.65</v>
+      </c>
+      <c r="O213">
+        <v>3.75</v>
+      </c>
+      <c r="P213">
+        <v>4.75</v>
+      </c>
+      <c r="Q213">
+        <v>-0.75</v>
+      </c>
+      <c r="R213">
+        <v>1.85</v>
+      </c>
+      <c r="S213">
+        <v>1.95</v>
+      </c>
+      <c r="T213">
         <v>2.5</v>
       </c>
-      <c r="O213">
-        <v>3.2</v>
-      </c>
-      <c r="P213">
-        <v>2.625</v>
-      </c>
-      <c r="Q213">
-        <v>0</v>
-      </c>
-      <c r="R213">
-        <v>1.9</v>
-      </c>
-      <c r="S213">
-        <v>1.9</v>
-      </c>
-      <c r="T213">
-        <v>2.25</v>
-      </c>
       <c r="U213">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V213">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W213">
-        <v>0</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y213">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA213">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB213">
+        <v>0.8</v>
+      </c>
+      <c r="AC213">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,13 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
-    <t>Cerro Porteno</t>
-  </si>
-  <si>
     <t>Sportivo Luqueno</t>
   </si>
   <si>
     <t>Guarani Asuncion</t>
+  </si>
+  <si>
+    <t>Cerro Porteno</t>
   </si>
   <si>
     <t>Sportivo Ameliano</t>
@@ -145,13 +145,13 @@
     <t>2 de Mayo</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC213"/>
+  <dimension ref="A1:AC215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6720843</v>
+        <v>6720873</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,73 +625,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L2">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M2">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N2">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O2">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P2">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q2">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R2">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S2">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T2">
         <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V2">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W2">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6720873</v>
+        <v>6720844</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,10 +714,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -726,58 +726,58 @@
         <v>44</v>
       </c>
       <c r="K3">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="L3">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M3">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N3">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P3">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S3">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
         <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AB3">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6720844</v>
+        <v>6720843</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,31 +803,31 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>45</v>
       </c>
       <c r="K4">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M4">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N4">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O4">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P4">
         <v>1.85</v>
@@ -836,10 +836,10 @@
         <v>0.5</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
         <v>2.5</v>
@@ -851,25 +851,25 @@
         <v>1.875</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5">
         <v>1.95</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>1.571</v>
@@ -1079,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7">
         <v>2.4</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8">
         <v>2.75</v>
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9">
         <v>1.333</v>
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10">
         <v>2.3</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1515,7 +1515,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12">
         <v>5.5</v>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K13">
         <v>1.363</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>2.7</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K15">
         <v>1.55</v>
@@ -1880,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -1969,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K17">
         <v>1.4</v>
@@ -2046,10 +2046,10 @@
         <v>45116.70833333334</v>
       </c>
       <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
         <v>30</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K18">
         <v>2.375</v>
@@ -2135,7 +2135,7 @@
         <v>45116.8125</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -2147,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K19">
         <v>1.4</v>
@@ -2236,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K20">
         <v>4.75</v>
@@ -2316,7 +2316,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K21">
         <v>3.6</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K22">
         <v>2.625</v>
@@ -2491,7 +2491,7 @@
         <v>45123.8125</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
@@ -2503,7 +2503,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2583,7 +2583,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2592,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K24">
         <v>2.625</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K25">
         <v>1.666</v>
@@ -2761,7 +2761,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26">
         <v>2.9</v>
@@ -2859,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
         <v>1.65</v>
@@ -2936,7 +2936,7 @@
         <v>45129.8125</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K28">
         <v>1.45</v>
@@ -3025,7 +3025,7 @@
         <v>45130.70833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -3037,7 +3037,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29">
         <v>2.15</v>
@@ -3126,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30">
         <v>1.7</v>
@@ -3215,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K31">
         <v>1.25</v>
@@ -3295,7 +3295,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K32">
         <v>2.625</v>
@@ -3381,7 +3381,7 @@
         <v>45135.85416666666</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3571,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K35">
         <v>4.2</v>
@@ -3660,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K36">
         <v>2.2</v>
@@ -3740,7 +3740,7 @@
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K37">
         <v>4.5</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K38">
         <v>1.363</v>
@@ -3915,7 +3915,7 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K39">
         <v>1.666</v>
@@ -4004,7 +4004,7 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
         <v>34</v>
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4096,7 +4096,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -4105,7 +4105,7 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K41">
         <v>1.615</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K42">
         <v>1.65</v>
@@ -4283,7 +4283,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K43">
         <v>2.625</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K44">
         <v>2.75</v>
@@ -4461,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -4541,7 +4541,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4627,7 +4627,7 @@
         <v>45151.72916666666</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>40</v>
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K47">
         <v>2.15</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K48">
         <v>2.05</v>
@@ -4808,7 +4808,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4817,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K49">
         <v>2.375</v>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K50">
         <v>1.5</v>
@@ -4983,7 +4983,7 @@
         <v>45157.75</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
@@ -4995,7 +4995,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K51">
         <v>2.25</v>
@@ -5084,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K52">
         <v>1.444</v>
@@ -5161,10 +5161,10 @@
         <v>45158.75</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5173,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K53">
         <v>3.5</v>
@@ -5262,7 +5262,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K54">
         <v>1.666</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K55">
         <v>2.3</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K56">
         <v>1.7</v>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5606,7 +5606,7 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K58">
         <v>2.375</v>
@@ -5695,7 +5695,7 @@
         <v>45165.72916666666</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
         <v>40</v>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -5787,7 +5787,7 @@
         <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K60">
         <v>2.8</v>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K61">
         <v>3.4</v>
@@ -5974,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6054,7 +6054,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6063,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K63">
         <v>4.75</v>
@@ -6143,7 +6143,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K64">
         <v>1.5</v>
@@ -6229,7 +6229,7 @@
         <v>45172.72916666666</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -6241,7 +6241,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K65">
         <v>1.85</v>
@@ -6330,7 +6330,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K66">
         <v>1.909</v>
@@ -6410,7 +6410,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K67">
         <v>2.45</v>
@@ -6508,7 +6508,7 @@
         <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K68">
         <v>2.875</v>
@@ -6585,7 +6585,7 @@
         <v>45179.72916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
         <v>39</v>
@@ -6597,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K69">
         <v>1.85</v>
@@ -6674,7 +6674,7 @@
         <v>45179.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K70">
         <v>1.833</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K71">
         <v>2.2</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K72">
         <v>2.55</v>
@@ -6944,7 +6944,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -7042,7 +7042,7 @@
         <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K74">
         <v>5.75</v>
@@ -7131,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K75">
         <v>1.533</v>
@@ -7220,7 +7220,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7297,10 +7297,10 @@
         <v>45186.83333333334</v>
       </c>
       <c r="F77" t="s">
+        <v>30</v>
+      </c>
+      <c r="G77" t="s">
         <v>31</v>
-      </c>
-      <c r="G77" t="s">
-        <v>29</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K77">
         <v>3.8</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K78">
         <v>1.615</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K79">
         <v>2.2</v>
@@ -7567,7 +7567,7 @@
         <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K80">
         <v>5.25</v>
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K81">
         <v>6</v>
@@ -7754,7 +7754,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K82">
         <v>4</v>
@@ -7831,10 +7831,10 @@
         <v>45193.77083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K83">
         <v>2.15</v>
@@ -7932,7 +7932,7 @@
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K84">
         <v>1.95</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K85">
         <v>1.85</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K86">
         <v>2.1</v>
@@ -8199,7 +8199,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K87">
         <v>3.8</v>
@@ -8276,7 +8276,7 @@
         <v>45200.75</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8288,7 +8288,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K88">
         <v>1.55</v>
@@ -8368,7 +8368,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K89">
         <v>1.5</v>
@@ -8454,7 +8454,7 @@
         <v>45201.75</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K90">
         <v>1.8</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K91">
         <v>1.333</v>
@@ -8635,7 +8635,7 @@
         <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K92">
         <v>4.2</v>
@@ -8733,7 +8733,7 @@
         <v>5</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K93">
         <v>5.75</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K94">
         <v>2.875</v>
@@ -8911,7 +8911,7 @@
         <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K95">
         <v>2.7</v>
@@ -8988,7 +8988,7 @@
         <v>45207.85416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
         <v>39</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K96">
         <v>1.75</v>
@@ -9080,7 +9080,7 @@
         <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9089,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K97">
         <v>2.15</v>
@@ -9169,7 +9169,7 @@
         <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K98">
         <v>1.95</v>
@@ -9267,7 +9267,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K99">
         <v>2.375</v>
@@ -9344,7 +9344,7 @@
         <v>45218.8125</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9356,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K100">
         <v>1.909</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K101">
         <v>1.444</v>
@@ -9534,7 +9534,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K102">
         <v>1.7</v>
@@ -9611,7 +9611,7 @@
         <v>45220.85416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -9623,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K103">
         <v>1.363</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K104">
         <v>3.6</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K105">
         <v>6</v>
@@ -9890,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K106">
         <v>1.75</v>
@@ -9970,7 +9970,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9979,7 +9979,7 @@
         <v>5</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K107">
         <v>3.75</v>
@@ -10056,7 +10056,7 @@
         <v>45223.85416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10068,7 +10068,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K108">
         <v>3.6</v>
@@ -10148,7 +10148,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K109">
         <v>3.2</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K110">
         <v>2.75</v>
@@ -10335,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K111">
         <v>1.909</v>
@@ -10412,7 +10412,7 @@
         <v>45227.85416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
         <v>35</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K112">
         <v>1.85</v>
@@ -10504,7 +10504,7 @@
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K113">
         <v>2.25</v>
@@ -10590,7 +10590,7 @@
         <v>45229.75</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
         <v>38</v>
@@ -10602,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K114">
         <v>2.05</v>
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K115">
         <v>1.25</v>
@@ -10771,7 +10771,7 @@
         <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K116">
         <v>2.2</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K117">
         <v>4</v>
@@ -10958,7 +10958,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K118">
         <v>2.2</v>
@@ -11047,7 +11047,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K119">
         <v>4.333</v>
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K120">
         <v>5</v>
@@ -11213,10 +11213,10 @@
         <v>45233.85416666666</v>
       </c>
       <c r="F121" t="s">
+        <v>31</v>
+      </c>
+      <c r="G121" t="s">
         <v>29</v>
-      </c>
-      <c r="G121" t="s">
-        <v>30</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K121">
         <v>1.533</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K122">
         <v>2.6</v>
@@ -11391,7 +11391,7 @@
         <v>45235.85416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
         <v>37</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K123">
         <v>1.909</v>
@@ -11483,7 +11483,7 @@
         <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11492,7 +11492,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K124">
         <v>2.05</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K125">
         <v>1.615</v>
@@ -11670,7 +11670,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K126">
         <v>2.5</v>
@@ -11750,7 +11750,7 @@
         <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K127">
         <v>1.833</v>
@@ -11848,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K128">
         <v>3</v>
@@ -11937,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K129">
         <v>2</v>
@@ -12014,7 +12014,7 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
         <v>36</v>
@@ -12026,7 +12026,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K130">
         <v>4</v>
@@ -12103,7 +12103,7 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
         <v>39</v>
@@ -12115,7 +12115,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K131">
         <v>1.285</v>
@@ -12195,7 +12195,7 @@
         <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12204,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K132">
         <v>3.4</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K133">
         <v>2.75</v>
@@ -12358,7 +12358,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7493427</v>
+        <v>7493428</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12370,76 +12370,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K134">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L134">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N134">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O134">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P134">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q134">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R134">
+        <v>1.775</v>
+      </c>
+      <c r="S134">
         <v>2.025</v>
       </c>
-      <c r="S134">
-        <v>1.775</v>
-      </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
+        <v>1.825</v>
+      </c>
+      <c r="V134">
         <v>1.975</v>
       </c>
-      <c r="V134">
-        <v>1.825</v>
-      </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X134">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC134">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12447,7 +12447,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7493428</v>
+        <v>7493427</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12459,13 +12459,13 @@
         <v>45253.8125</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H135">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -12474,61 +12474,61 @@
         <v>43</v>
       </c>
       <c r="K135">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M135">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N135">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O135">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P135">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q135">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R135">
+        <v>2.025</v>
+      </c>
+      <c r="S135">
         <v>1.775</v>
       </c>
-      <c r="S135">
-        <v>2.025</v>
-      </c>
       <c r="T135">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
+        <v>1.975</v>
+      </c>
+      <c r="V135">
         <v>1.825</v>
       </c>
-      <c r="V135">
-        <v>1.975</v>
-      </c>
       <c r="W135">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB135">
+        <v>-1</v>
+      </c>
+      <c r="AC135">
         <v>0.825</v>
-      </c>
-      <c r="AC135">
-        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K136">
         <v>1.85</v>
@@ -12637,7 +12637,7 @@
         <v>45255.8125</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
         <v>38</v>
@@ -12649,7 +12649,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K137">
         <v>2</v>
@@ -12738,7 +12738,7 @@
         <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K138">
         <v>2.7</v>
@@ -12818,7 +12818,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12827,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K139">
         <v>2.375</v>
@@ -12916,7 +12916,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K140">
         <v>1.363</v>
@@ -13005,7 +13005,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K141">
         <v>2.05</v>
@@ -13094,7 +13094,7 @@
         <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K142">
         <v>4</v>
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7493311</v>
+        <v>7493312</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H143">
+        <v>4</v>
+      </c>
+      <c r="I143">
         <v>0</v>
-      </c>
-      <c r="I143">
-        <v>1</v>
       </c>
       <c r="J143" t="s">
         <v>45</v>
       </c>
       <c r="K143">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L143">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M143">
+        <v>4.333</v>
+      </c>
+      <c r="N143">
+        <v>1.727</v>
+      </c>
+      <c r="O143">
+        <v>3.75</v>
+      </c>
+      <c r="P143">
+        <v>4.2</v>
+      </c>
+      <c r="Q143">
+        <v>-0.5</v>
+      </c>
+      <c r="R143">
+        <v>1.8</v>
+      </c>
+      <c r="S143">
         <v>2</v>
       </c>
-      <c r="N143">
-        <v>3.2</v>
-      </c>
-      <c r="O143">
-        <v>3.25</v>
-      </c>
-      <c r="P143">
-        <v>2.1</v>
-      </c>
-      <c r="Q143">
-        <v>0.25</v>
-      </c>
-      <c r="R143">
-        <v>1.95</v>
-      </c>
-      <c r="S143">
-        <v>1.85</v>
-      </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V143">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA143">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC143">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>45261.8125</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G144" t="s">
         <v>33</v>
@@ -13272,7 +13272,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K144">
         <v>2.75</v>
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7493312</v>
+        <v>7493311</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K145">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M145">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N145">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O145">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P145">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V145">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W145">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z145">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB145">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K146">
         <v>2.625</v>
@@ -13539,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K147">
         <v>1.444</v>
@@ -13616,7 +13616,7 @@
         <v>45311.75</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
         <v>42</v>
@@ -13628,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K148">
         <v>1.8</v>
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K149">
         <v>2.2</v>
@@ -13794,7 +13794,7 @@
         <v>45312.75</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
         <v>38</v>
@@ -13806,7 +13806,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K150">
         <v>1.533</v>
@@ -13883,7 +13883,7 @@
         <v>45312.85416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K151">
         <v>3.75</v>
@@ -13984,7 +13984,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K152">
         <v>1.65</v>
@@ -14073,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K153">
         <v>4.333</v>
@@ -14153,7 +14153,7 @@
         <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14162,7 +14162,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K154">
         <v>3.3</v>
@@ -14242,7 +14242,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K155">
         <v>1.533</v>
@@ -14340,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K156">
         <v>3.5</v>
@@ -14420,7 +14420,7 @@
         <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14429,7 +14429,7 @@
         <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K157">
         <v>3.75</v>
@@ -14506,7 +14506,7 @@
         <v>45318.77083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
         <v>41</v>
@@ -14518,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K158">
         <v>2.25</v>
@@ -14607,7 +14607,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K159">
         <v>2.3</v>
@@ -14696,7 +14696,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K160">
         <v>2.7</v>
@@ -14773,7 +14773,7 @@
         <v>45319.86805555555</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
         <v>39</v>
@@ -14785,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K161">
         <v>1.833</v>
@@ -14874,7 +14874,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K162">
         <v>6.5</v>
@@ -14954,7 +14954,7 @@
         <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14963,7 +14963,7 @@
         <v>4</v>
       </c>
       <c r="J163" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K163">
         <v>1.909</v>
@@ -15052,7 +15052,7 @@
         <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K164">
         <v>2.5</v>
@@ -15132,7 +15132,7 @@
         <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15141,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K165">
         <v>2.8</v>
@@ -15221,7 +15221,7 @@
         <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15230,7 +15230,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K166">
         <v>4.5</v>
@@ -15319,7 +15319,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K167">
         <v>1.25</v>
@@ -15408,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K168">
         <v>3.5</v>
@@ -15497,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K169">
         <v>2.875</v>
@@ -15586,7 +15586,7 @@
         <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K170">
         <v>2</v>
@@ -15663,7 +15663,7 @@
         <v>45332.76041666666</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G171" t="s">
         <v>32</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K171">
         <v>2.15</v>
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K172">
         <v>1.55</v>
@@ -15841,7 +15841,7 @@
         <v>45333.76041666666</v>
       </c>
       <c r="F173" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G173" t="s">
         <v>36</v>
@@ -15853,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15930,7 +15930,7 @@
         <v>45333.86458333334</v>
       </c>
       <c r="F174" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G174" t="s">
         <v>33</v>
@@ -15942,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K174">
         <v>1.95</v>
@@ -16022,7 +16022,7 @@
         <v>37</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16031,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K175">
         <v>2.7</v>
@@ -16111,7 +16111,7 @@
         <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16120,7 +16120,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K176">
         <v>2.5</v>
@@ -16200,7 +16200,7 @@
         <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16209,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K177">
         <v>3.4</v>
@@ -16298,7 +16298,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K178">
         <v>6</v>
@@ -16387,7 +16387,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K179">
         <v>1.909</v>
@@ -16476,7 +16476,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K180">
         <v>2.25</v>
@@ -16553,7 +16553,7 @@
         <v>45345.8125</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G181" t="s">
         <v>37</v>
@@ -16565,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K181">
         <v>1.7</v>
@@ -16654,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K182">
         <v>2.7</v>
@@ -16731,7 +16731,7 @@
         <v>45346.86458333334</v>
       </c>
       <c r="F183" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G183" t="s">
         <v>41</v>
@@ -16743,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K183">
         <v>1.45</v>
@@ -16832,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K184">
         <v>2.7</v>
@@ -16909,7 +16909,7 @@
         <v>45347.86458333334</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G185" t="s">
         <v>40</v>
@@ -16921,7 +16921,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K185">
         <v>2.6</v>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K186">
         <v>1.363</v>
@@ -17087,11 +17087,11 @@
         <v>45352.8125</v>
       </c>
       <c r="F187" t="s">
+        <v>30</v>
+      </c>
+      <c r="G187" t="s">
         <v>31</v>
       </c>
-      <c r="G187" t="s">
-        <v>29</v>
-      </c>
       <c r="H187">
         <v>1</v>
       </c>
@@ -17099,7 +17099,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K187">
         <v>3.8</v>
@@ -17188,7 +17188,7 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K188">
         <v>2.2</v>
@@ -17268,7 +17268,7 @@
         <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17277,7 +17277,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K189">
         <v>2</v>
@@ -17366,7 +17366,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K190">
         <v>2.375</v>
@@ -17455,7 +17455,7 @@
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K191">
         <v>2</v>
@@ -17544,7 +17544,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K192">
         <v>2.75</v>
@@ -17633,7 +17633,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K193">
         <v>2</v>
@@ -17710,7 +17710,7 @@
         <v>45360.8125</v>
       </c>
       <c r="F194" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G194" t="s">
         <v>39</v>
@@ -17722,7 +17722,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K194">
         <v>1.363</v>
@@ -17811,7 +17811,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K195">
         <v>5.25</v>
@@ -17888,10 +17888,10 @@
         <v>45361.85416666666</v>
       </c>
       <c r="F196" t="s">
+        <v>29</v>
+      </c>
+      <c r="G196" t="s">
         <v>30</v>
-      </c>
-      <c r="G196" t="s">
-        <v>31</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17900,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K196">
         <v>2.1</v>
@@ -17989,7 +17989,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K197">
         <v>1.5</v>
@@ -18066,10 +18066,10 @@
         <v>45366.8125</v>
       </c>
       <c r="F198" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18078,7 +18078,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K198">
         <v>3.8</v>
@@ -18167,7 +18167,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K199">
         <v>1.666</v>
@@ -18256,7 +18256,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K200">
         <v>5.5</v>
@@ -18345,7 +18345,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K201">
         <v>1.909</v>
@@ -18422,7 +18422,7 @@
         <v>45368.875</v>
       </c>
       <c r="F202" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G202" t="s">
         <v>38</v>
@@ -18434,7 +18434,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K202">
         <v>1.909</v>
@@ -18523,7 +18523,7 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K203">
         <v>1.909</v>
@@ -18612,7 +18612,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K204">
         <v>2.75</v>
@@ -18692,7 +18692,7 @@
         <v>38</v>
       </c>
       <c r="G205" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18701,7 +18701,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K205">
         <v>3.6</v>
@@ -18778,7 +18778,7 @@
         <v>45381.79166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
         <v>33</v>
@@ -18790,7 +18790,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K206">
         <v>1.5</v>
@@ -18879,7 +18879,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K207">
         <v>1.8</v>
@@ -18968,7 +18968,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K208">
         <v>2.1</v>
@@ -19048,7 +19048,7 @@
         <v>42</v>
       </c>
       <c r="G209" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19057,7 +19057,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K209">
         <v>2.2</v>
@@ -19146,7 +19146,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K210">
         <v>2.55</v>
@@ -19235,7 +19235,7 @@
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K211">
         <v>2.625</v>
@@ -19315,7 +19315,7 @@
         <v>38</v>
       </c>
       <c r="G212" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19324,7 +19324,7 @@
         <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K212">
         <v>6</v>
@@ -19404,7 +19404,7 @@
         <v>36</v>
       </c>
       <c r="G213" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -19413,7 +19413,7 @@
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K213">
         <v>1.5</v>
@@ -19471,6 +19471,184 @@
       </c>
       <c r="AC213">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>7609150</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45389.77083333334</v>
+      </c>
+      <c r="F214" t="s">
+        <v>41</v>
+      </c>
+      <c r="G214" t="s">
+        <v>40</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214" t="s">
+        <v>43</v>
+      </c>
+      <c r="K214">
+        <v>3.75</v>
+      </c>
+      <c r="L214">
+        <v>3.5</v>
+      </c>
+      <c r="M214">
+        <v>1.85</v>
+      </c>
+      <c r="N214">
+        <v>3.1</v>
+      </c>
+      <c r="O214">
+        <v>3.25</v>
+      </c>
+      <c r="P214">
+        <v>2.15</v>
+      </c>
+      <c r="Q214">
+        <v>0.25</v>
+      </c>
+      <c r="R214">
+        <v>1.85</v>
+      </c>
+      <c r="S214">
+        <v>1.95</v>
+      </c>
+      <c r="T214">
+        <v>2.25</v>
+      </c>
+      <c r="U214">
+        <v>1.9</v>
+      </c>
+      <c r="V214">
+        <v>1.9</v>
+      </c>
+      <c r="W214">
+        <v>-1</v>
+      </c>
+      <c r="X214">
+        <v>2.25</v>
+      </c>
+      <c r="Y214">
+        <v>-1</v>
+      </c>
+      <c r="Z214">
+        <v>0.425</v>
+      </c>
+      <c r="AA214">
+        <v>-0.5</v>
+      </c>
+      <c r="AB214">
+        <v>-1</v>
+      </c>
+      <c r="AC214">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>7609671</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45389.875</v>
+      </c>
+      <c r="F215" t="s">
+        <v>42</v>
+      </c>
+      <c r="G215" t="s">
+        <v>29</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215" t="s">
+        <v>43</v>
+      </c>
+      <c r="K215">
+        <v>2.4</v>
+      </c>
+      <c r="L215">
+        <v>3.2</v>
+      </c>
+      <c r="M215">
+        <v>2.75</v>
+      </c>
+      <c r="N215">
+        <v>2.1</v>
+      </c>
+      <c r="O215">
+        <v>3.3</v>
+      </c>
+      <c r="P215">
+        <v>3.25</v>
+      </c>
+      <c r="Q215">
+        <v>-0.25</v>
+      </c>
+      <c r="R215">
+        <v>1.825</v>
+      </c>
+      <c r="S215">
+        <v>1.975</v>
+      </c>
+      <c r="T215">
+        <v>2.25</v>
+      </c>
+      <c r="U215">
+        <v>1.9</v>
+      </c>
+      <c r="V215">
+        <v>1.9</v>
+      </c>
+      <c r="W215">
+        <v>-1</v>
+      </c>
+      <c r="X215">
+        <v>2.3</v>
+      </c>
+      <c r="Y215">
+        <v>-1</v>
+      </c>
+      <c r="Z215">
+        <v>-0.5</v>
+      </c>
+      <c r="AA215">
+        <v>0.4875</v>
+      </c>
+      <c r="AB215">
+        <v>-1</v>
+      </c>
+      <c r="AC215">
+        <v>0.8999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,13 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
-    <t>Sportivo Luqueno</t>
+    <t>Cerro Porteno</t>
   </si>
   <si>
     <t>Guarani Asuncion</t>
   </si>
   <si>
-    <t>Cerro Porteno</t>
+    <t>Sportivo Luqueno</t>
   </si>
   <si>
     <t>Sportivo Ameliano</t>
@@ -145,13 +145,13 @@
     <t>2 de Mayo</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC215"/>
+  <dimension ref="A1:AC221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6720873</v>
+        <v>6720843</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,73 +625,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="L2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M2">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N2">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="O2">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P2">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R2">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S2">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T2">
         <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V2">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X2">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA2">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6720843</v>
+        <v>6720873</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,73 +803,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>45</v>
       </c>
       <c r="K4">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L4">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M4">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N4">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O4">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P4">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q4">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V4">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K6">
         <v>1.571</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K9">
         <v>1.333</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K10">
         <v>2.3</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1515,7 +1515,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K12">
         <v>5.5</v>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K13">
         <v>1.363</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K14">
         <v>2.7</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K15">
         <v>1.55</v>
@@ -1880,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -2046,7 +2046,7 @@
         <v>45116.70833333334</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
         <v>30</v>
@@ -2135,7 +2135,7 @@
         <v>45116.8125</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -2236,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K20">
         <v>4.75</v>
@@ -2316,7 +2316,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K22">
         <v>2.625</v>
@@ -2583,7 +2583,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2592,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K24">
         <v>2.625</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K25">
         <v>1.666</v>
@@ -2936,7 +2936,7 @@
         <v>45129.8125</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K28">
         <v>1.45</v>
@@ -3025,7 +3025,7 @@
         <v>45130.70833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -3215,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>1.25</v>
@@ -3295,7 +3295,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K32">
         <v>2.625</v>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3740,7 +3740,7 @@
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K38">
         <v>1.363</v>
@@ -3915,7 +3915,7 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K39">
         <v>1.666</v>
@@ -4004,7 +4004,7 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
         <v>34</v>
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4105,7 +4105,7 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K41">
         <v>1.615</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K42">
         <v>1.65</v>
@@ -4283,7 +4283,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K43">
         <v>2.625</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K44">
         <v>2.75</v>
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4627,7 +4627,7 @@
         <v>45151.72916666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
         <v>40</v>
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K47">
         <v>2.15</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K48">
         <v>2.05</v>
@@ -4808,7 +4808,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K50">
         <v>1.5</v>
@@ -5161,10 +5161,10 @@
         <v>45158.75</v>
       </c>
       <c r="F53" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" t="s">
         <v>29</v>
-      </c>
-      <c r="G53" t="s">
-        <v>31</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5173,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K53">
         <v>3.5</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K55">
         <v>2.3</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K56">
         <v>1.7</v>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5606,7 +5606,7 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K58">
         <v>2.375</v>
@@ -5695,7 +5695,7 @@
         <v>45165.72916666666</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
         <v>40</v>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K61">
         <v>3.4</v>
@@ -5974,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6054,7 +6054,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6063,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K63">
         <v>4.75</v>
@@ -6143,7 +6143,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K64">
         <v>1.5</v>
@@ -6241,7 +6241,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K65">
         <v>1.85</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K67">
         <v>2.45</v>
@@ -6585,7 +6585,7 @@
         <v>45179.72916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
         <v>39</v>
@@ -6597,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K69">
         <v>1.85</v>
@@ -6674,7 +6674,7 @@
         <v>45179.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K70">
         <v>1.833</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K71">
         <v>2.2</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K72">
         <v>2.55</v>
@@ -6944,7 +6944,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -7131,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K75">
         <v>1.533</v>
@@ -7300,7 +7300,7 @@
         <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K77">
         <v>3.8</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K78">
         <v>1.615</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K79">
         <v>2.2</v>
@@ -7567,7 +7567,7 @@
         <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K81">
         <v>6</v>
@@ -7834,7 +7834,7 @@
         <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K83">
         <v>2.15</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K85">
         <v>1.85</v>
@@ -8276,7 +8276,7 @@
         <v>45200.75</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8288,7 +8288,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K88">
         <v>1.55</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K89">
         <v>1.5</v>
@@ -8454,7 +8454,7 @@
         <v>45201.75</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K90">
         <v>1.8</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K91">
         <v>1.333</v>
@@ -8635,7 +8635,7 @@
         <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K92">
         <v>4.2</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K94">
         <v>2.875</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K96">
         <v>1.75</v>
@@ -9080,7 +9080,7 @@
         <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K98">
         <v>1.95</v>
@@ -9344,7 +9344,7 @@
         <v>45218.8125</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9356,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K100">
         <v>1.909</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K101">
         <v>1.444</v>
@@ -9534,7 +9534,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K102">
         <v>1.7</v>
@@ -9611,7 +9611,7 @@
         <v>45220.85416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -9623,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K103">
         <v>1.363</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K104">
         <v>3.6</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K105">
         <v>6</v>
@@ -9890,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K106">
         <v>1.75</v>
@@ -9970,7 +9970,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -10148,7 +10148,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K109">
         <v>3.2</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K110">
         <v>2.75</v>
@@ -10335,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K111">
         <v>1.909</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K112">
         <v>1.85</v>
@@ -10504,7 +10504,7 @@
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K113">
         <v>2.25</v>
@@ -10590,7 +10590,7 @@
         <v>45229.75</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
         <v>38</v>
@@ -10602,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K114">
         <v>2.05</v>
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K115">
         <v>1.25</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K116">
         <v>2.2</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K117">
         <v>4</v>
@@ -11047,7 +11047,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K119">
         <v>4.333</v>
@@ -11213,10 +11213,10 @@
         <v>45233.85416666666</v>
       </c>
       <c r="F121" t="s">
+        <v>29</v>
+      </c>
+      <c r="G121" t="s">
         <v>31</v>
-      </c>
-      <c r="G121" t="s">
-        <v>29</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K121">
         <v>1.533</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K122">
         <v>2.6</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K123">
         <v>1.909</v>
@@ -11483,7 +11483,7 @@
         <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11492,7 +11492,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K124">
         <v>2.05</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K125">
         <v>1.615</v>
@@ -11670,7 +11670,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K126">
         <v>2.5</v>
@@ -11750,7 +11750,7 @@
         <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K127">
         <v>1.833</v>
@@ -11848,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K128">
         <v>3</v>
@@ -11937,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K129">
         <v>2</v>
@@ -12014,7 +12014,7 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
         <v>36</v>
@@ -12103,7 +12103,7 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
         <v>39</v>
@@ -12115,7 +12115,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K131">
         <v>1.285</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K133">
         <v>2.75</v>
@@ -12382,7 +12382,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K134">
         <v>1.727</v>
@@ -12462,7 +12462,7 @@
         <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K135">
         <v>3.4</v>
@@ -12818,7 +12818,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12827,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K139">
         <v>2.375</v>
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7493310</v>
+        <v>7493431</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,76 +12904,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I140">
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K140">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="L140">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M140">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="N140">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="O140">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P140">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R140">
+        <v>1.925</v>
+      </c>
+      <c r="S140">
+        <v>1.875</v>
+      </c>
+      <c r="T140">
+        <v>2.5</v>
+      </c>
+      <c r="U140">
+        <v>2</v>
+      </c>
+      <c r="V140">
         <v>1.8</v>
       </c>
-      <c r="S140">
-        <v>2</v>
-      </c>
-      <c r="T140">
-        <v>2.75</v>
-      </c>
-      <c r="U140">
-        <v>1.8</v>
-      </c>
-      <c r="V140">
-        <v>2</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA140">
+        <v>-1</v>
+      </c>
+      <c r="AB140">
         <v>1</v>
       </c>
-      <c r="AB140">
-        <v>0.4</v>
-      </c>
       <c r="AC140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12981,7 +12981,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7493431</v>
+        <v>7493310</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12993,76 +12993,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H141">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K141">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="L141">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M141">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="N141">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="O141">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P141">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S141">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
+        <v>1.8</v>
+      </c>
+      <c r="V141">
         <v>2</v>
       </c>
-      <c r="V141">
-        <v>1.8</v>
-      </c>
       <c r="W141">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB141">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7493312</v>
+        <v>7493311</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H143">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K143">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L143">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M143">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N143">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O143">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P143">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R143">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V143">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W143">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7493433</v>
+        <v>7493312</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13263,73 +13263,73 @@
         <v>29</v>
       </c>
       <c r="G144" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
         <v>43</v>
       </c>
       <c r="K144">
+        <v>1.7</v>
+      </c>
+      <c r="L144">
+        <v>3.6</v>
+      </c>
+      <c r="M144">
+        <v>4.333</v>
+      </c>
+      <c r="N144">
+        <v>1.727</v>
+      </c>
+      <c r="O144">
+        <v>3.75</v>
+      </c>
+      <c r="P144">
+        <v>4.2</v>
+      </c>
+      <c r="Q144">
+        <v>-0.5</v>
+      </c>
+      <c r="R144">
+        <v>1.8</v>
+      </c>
+      <c r="S144">
+        <v>2</v>
+      </c>
+      <c r="T144">
         <v>2.75</v>
       </c>
-      <c r="L144">
-        <v>3.2</v>
-      </c>
-      <c r="M144">
-        <v>2.4</v>
-      </c>
-      <c r="N144">
-        <v>2.75</v>
-      </c>
-      <c r="O144">
-        <v>3.1</v>
-      </c>
-      <c r="P144">
-        <v>2.45</v>
-      </c>
-      <c r="Q144">
-        <v>0.25</v>
-      </c>
-      <c r="R144">
-        <v>1.75</v>
-      </c>
-      <c r="S144">
-        <v>2.05</v>
-      </c>
-      <c r="T144">
-        <v>2.25</v>
-      </c>
       <c r="U144">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V144">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X144">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC144">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7493311</v>
+        <v>7493433</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K145">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="L145">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M145">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N145">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="O145">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P145">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q145">
         <v>0.25</v>
       </c>
       <c r="R145">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S145">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V145">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y145">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA145">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC145">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K146">
         <v>2.625</v>
@@ -13539,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K147">
         <v>1.444</v>
@@ -13616,7 +13616,7 @@
         <v>45311.75</v>
       </c>
       <c r="F148" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
         <v>42</v>
@@ -13628,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K148">
         <v>1.8</v>
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K149">
         <v>2.2</v>
@@ -13794,7 +13794,7 @@
         <v>45312.75</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
         <v>38</v>
@@ -13806,7 +13806,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K150">
         <v>1.533</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K151">
         <v>3.75</v>
@@ -13984,7 +13984,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K152">
         <v>1.65</v>
@@ -14162,7 +14162,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K154">
         <v>3.3</v>
@@ -14242,7 +14242,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K155">
         <v>1.533</v>
@@ -14340,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K156">
         <v>3.5</v>
@@ -14420,7 +14420,7 @@
         <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14506,7 +14506,7 @@
         <v>45318.77083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G158" t="s">
         <v>41</v>
@@ -14518,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K158">
         <v>2.25</v>
@@ -14607,7 +14607,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K159">
         <v>2.3</v>
@@ -14696,7 +14696,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K160">
         <v>2.7</v>
@@ -14785,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K161">
         <v>1.833</v>
@@ -15132,7 +15132,7 @@
         <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15141,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K165">
         <v>2.8</v>
@@ -15221,7 +15221,7 @@
         <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15230,7 +15230,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K166">
         <v>4.5</v>
@@ -15319,7 +15319,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K167">
         <v>1.25</v>
@@ -15408,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K168">
         <v>3.5</v>
@@ -15497,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K169">
         <v>2.875</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K171">
         <v>2.15</v>
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K172">
         <v>1.55</v>
@@ -15841,7 +15841,7 @@
         <v>45333.76041666666</v>
       </c>
       <c r="F173" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G173" t="s">
         <v>36</v>
@@ -15853,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15930,7 +15930,7 @@
         <v>45333.86458333334</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G174" t="s">
         <v>33</v>
@@ -15942,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K174">
         <v>1.95</v>
@@ -16031,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K175">
         <v>2.7</v>
@@ -16111,7 +16111,7 @@
         <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16200,7 +16200,7 @@
         <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16209,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K177">
         <v>3.4</v>
@@ -16387,7 +16387,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K179">
         <v>1.909</v>
@@ -16476,7 +16476,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K180">
         <v>2.25</v>
@@ -16553,7 +16553,7 @@
         <v>45345.8125</v>
       </c>
       <c r="F181" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G181" t="s">
         <v>37</v>
@@ -16565,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K181">
         <v>1.7</v>
@@ -16654,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K182">
         <v>2.7</v>
@@ -16731,7 +16731,7 @@
         <v>45346.86458333334</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G183" t="s">
         <v>41</v>
@@ -16743,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K183">
         <v>1.45</v>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K186">
         <v>1.363</v>
@@ -17090,7 +17090,7 @@
         <v>30</v>
       </c>
       <c r="G187" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17099,7 +17099,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K187">
         <v>3.8</v>
@@ -17268,7 +17268,7 @@
         <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17277,7 +17277,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K189">
         <v>2</v>
@@ -17366,7 +17366,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K190">
         <v>2.375</v>
@@ -17544,7 +17544,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K192">
         <v>2.75</v>
@@ -17633,7 +17633,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K193">
         <v>2</v>
@@ -17710,7 +17710,7 @@
         <v>45360.8125</v>
       </c>
       <c r="F194" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G194" t="s">
         <v>39</v>
@@ -17811,7 +17811,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K195">
         <v>5.25</v>
@@ -17888,7 +17888,7 @@
         <v>45361.85416666666</v>
       </c>
       <c r="F196" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G196" t="s">
         <v>30</v>
@@ -17900,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K196">
         <v>2.1</v>
@@ -17989,7 +17989,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K197">
         <v>1.5</v>
@@ -18066,10 +18066,10 @@
         <v>45366.8125</v>
       </c>
       <c r="F198" t="s">
+        <v>31</v>
+      </c>
+      <c r="G198" t="s">
         <v>29</v>
-      </c>
-      <c r="G198" t="s">
-        <v>31</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18167,7 +18167,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K199">
         <v>1.666</v>
@@ -18523,7 +18523,7 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K203">
         <v>1.909</v>
@@ -18612,7 +18612,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K204">
         <v>2.75</v>
@@ -18692,7 +18692,7 @@
         <v>38</v>
       </c>
       <c r="G205" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18778,7 +18778,7 @@
         <v>45381.79166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G206" t="s">
         <v>33</v>
@@ -18790,7 +18790,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K206">
         <v>1.5</v>
@@ -18879,7 +18879,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K207">
         <v>1.8</v>
@@ -18968,7 +18968,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K208">
         <v>2.1</v>
@@ -19146,7 +19146,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K210">
         <v>2.55</v>
@@ -19235,7 +19235,7 @@
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K211">
         <v>2.625</v>
@@ -19315,7 +19315,7 @@
         <v>38</v>
       </c>
       <c r="G212" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K213">
         <v>1.5</v>
@@ -19502,7 +19502,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K214">
         <v>3.75</v>
@@ -19582,7 +19582,7 @@
         <v>42</v>
       </c>
       <c r="G215" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -19591,7 +19591,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K215">
         <v>2.4</v>
@@ -19649,6 +19649,450 @@
       </c>
       <c r="AC215">
         <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:29">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>7609154</v>
+      </c>
+      <c r="C216" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" t="s">
+        <v>28</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45394.79166666666</v>
+      </c>
+      <c r="F216" t="s">
+        <v>30</v>
+      </c>
+      <c r="G216" t="s">
+        <v>41</v>
+      </c>
+      <c r="K216">
+        <v>2.05</v>
+      </c>
+      <c r="L216">
+        <v>3.3</v>
+      </c>
+      <c r="M216">
+        <v>3.4</v>
+      </c>
+      <c r="N216">
+        <v>2.05</v>
+      </c>
+      <c r="O216">
+        <v>3.3</v>
+      </c>
+      <c r="P216">
+        <v>3.4</v>
+      </c>
+      <c r="Q216">
+        <v>-0.25</v>
+      </c>
+      <c r="R216">
+        <v>1.775</v>
+      </c>
+      <c r="S216">
+        <v>2.025</v>
+      </c>
+      <c r="T216">
+        <v>2.25</v>
+      </c>
+      <c r="U216">
+        <v>1.85</v>
+      </c>
+      <c r="V216">
+        <v>1.95</v>
+      </c>
+      <c r="W216">
+        <v>0</v>
+      </c>
+      <c r="X216">
+        <v>0</v>
+      </c>
+      <c r="Y216">
+        <v>0</v>
+      </c>
+      <c r="Z216">
+        <v>0</v>
+      </c>
+      <c r="AA216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:29">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>7609670</v>
+      </c>
+      <c r="C217" t="s">
+        <v>28</v>
+      </c>
+      <c r="D217" t="s">
+        <v>28</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45394.89583333334</v>
+      </c>
+      <c r="F217" t="s">
+        <v>38</v>
+      </c>
+      <c r="G217" t="s">
+        <v>42</v>
+      </c>
+      <c r="K217">
+        <v>2.55</v>
+      </c>
+      <c r="L217">
+        <v>3.2</v>
+      </c>
+      <c r="M217">
+        <v>2.7</v>
+      </c>
+      <c r="N217">
+        <v>2.625</v>
+      </c>
+      <c r="O217">
+        <v>3.2</v>
+      </c>
+      <c r="P217">
+        <v>2.625</v>
+      </c>
+      <c r="Q217">
+        <v>0</v>
+      </c>
+      <c r="R217">
+        <v>1.9</v>
+      </c>
+      <c r="S217">
+        <v>1.9</v>
+      </c>
+      <c r="T217">
+        <v>2.5</v>
+      </c>
+      <c r="U217">
+        <v>2</v>
+      </c>
+      <c r="V217">
+        <v>1.8</v>
+      </c>
+      <c r="W217">
+        <v>0</v>
+      </c>
+      <c r="X217">
+        <v>0</v>
+      </c>
+      <c r="Y217">
+        <v>0</v>
+      </c>
+      <c r="Z217">
+        <v>0</v>
+      </c>
+      <c r="AA217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>7609153</v>
+      </c>
+      <c r="C218" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" t="s">
+        <v>28</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45395.79166666666</v>
+      </c>
+      <c r="F218" t="s">
+        <v>40</v>
+      </c>
+      <c r="G218" t="s">
+        <v>39</v>
+      </c>
+      <c r="K218">
+        <v>1.666</v>
+      </c>
+      <c r="L218">
+        <v>3.8</v>
+      </c>
+      <c r="M218">
+        <v>4.333</v>
+      </c>
+      <c r="N218">
+        <v>1.666</v>
+      </c>
+      <c r="O218">
+        <v>3.8</v>
+      </c>
+      <c r="P218">
+        <v>4.333</v>
+      </c>
+      <c r="Q218">
+        <v>-0.75</v>
+      </c>
+      <c r="R218">
+        <v>1.9</v>
+      </c>
+      <c r="S218">
+        <v>1.9</v>
+      </c>
+      <c r="T218">
+        <v>2.5</v>
+      </c>
+      <c r="U218">
+        <v>2</v>
+      </c>
+      <c r="V218">
+        <v>1.8</v>
+      </c>
+      <c r="W218">
+        <v>0</v>
+      </c>
+      <c r="X218">
+        <v>0</v>
+      </c>
+      <c r="Y218">
+        <v>0</v>
+      </c>
+      <c r="Z218">
+        <v>0</v>
+      </c>
+      <c r="AA218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>7609152</v>
+      </c>
+      <c r="C219" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45395.89583333334</v>
+      </c>
+      <c r="F219" t="s">
+        <v>37</v>
+      </c>
+      <c r="G219" t="s">
+        <v>33</v>
+      </c>
+      <c r="K219">
+        <v>2.75</v>
+      </c>
+      <c r="L219">
+        <v>3</v>
+      </c>
+      <c r="M219">
+        <v>2.625</v>
+      </c>
+      <c r="N219">
+        <v>2.75</v>
+      </c>
+      <c r="O219">
+        <v>3</v>
+      </c>
+      <c r="P219">
+        <v>2.625</v>
+      </c>
+      <c r="Q219">
+        <v>0</v>
+      </c>
+      <c r="R219">
+        <v>1.95</v>
+      </c>
+      <c r="S219">
+        <v>1.85</v>
+      </c>
+      <c r="T219">
+        <v>2</v>
+      </c>
+      <c r="U219">
+        <v>1.775</v>
+      </c>
+      <c r="V219">
+        <v>2.025</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
+      <c r="Y219">
+        <v>0</v>
+      </c>
+      <c r="Z219">
+        <v>0</v>
+      </c>
+      <c r="AA219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>7609205</v>
+      </c>
+      <c r="C220" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45396.77083333334</v>
+      </c>
+      <c r="F220" t="s">
+        <v>31</v>
+      </c>
+      <c r="G220" t="s">
+        <v>36</v>
+      </c>
+      <c r="K220">
+        <v>3.2</v>
+      </c>
+      <c r="L220">
+        <v>3.4</v>
+      </c>
+      <c r="M220">
+        <v>2.1</v>
+      </c>
+      <c r="N220">
+        <v>3.2</v>
+      </c>
+      <c r="O220">
+        <v>3.4</v>
+      </c>
+      <c r="P220">
+        <v>2.1</v>
+      </c>
+      <c r="Q220">
+        <v>0.25</v>
+      </c>
+      <c r="R220">
+        <v>1.975</v>
+      </c>
+      <c r="S220">
+        <v>1.825</v>
+      </c>
+      <c r="T220">
+        <v>2.25</v>
+      </c>
+      <c r="U220">
+        <v>1.875</v>
+      </c>
+      <c r="V220">
+        <v>1.925</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Y220">
+        <v>0</v>
+      </c>
+      <c r="Z220">
+        <v>0</v>
+      </c>
+      <c r="AA220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>7609204</v>
+      </c>
+      <c r="C221" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45396.875</v>
+      </c>
+      <c r="F221" t="s">
+        <v>29</v>
+      </c>
+      <c r="G221" t="s">
+        <v>32</v>
+      </c>
+      <c r="K221">
+        <v>1.444</v>
+      </c>
+      <c r="L221">
+        <v>4.2</v>
+      </c>
+      <c r="M221">
+        <v>6.5</v>
+      </c>
+      <c r="N221">
+        <v>1.444</v>
+      </c>
+      <c r="O221">
+        <v>4.2</v>
+      </c>
+      <c r="P221">
+        <v>6.5</v>
+      </c>
+      <c r="Q221">
+        <v>-1.25</v>
+      </c>
+      <c r="R221">
+        <v>2</v>
+      </c>
+      <c r="S221">
+        <v>1.8</v>
+      </c>
+      <c r="T221">
+        <v>2.75</v>
+      </c>
+      <c r="U221">
+        <v>1.975</v>
+      </c>
+      <c r="V221">
+        <v>1.825</v>
+      </c>
+      <c r="W221">
+        <v>0</v>
+      </c>
+      <c r="X221">
+        <v>0</v>
+      </c>
+      <c r="Y221">
+        <v>0</v>
+      </c>
+      <c r="Z221">
+        <v>0</v>
+      </c>
+      <c r="AA221">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -103,13 +103,13 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
+    <t>Sportivo Luqueno</t>
+  </si>
+  <si>
     <t>Cerro Porteno</t>
   </si>
   <si>
     <t>Guarani Asuncion</t>
-  </si>
-  <si>
-    <t>Sportivo Luqueno</t>
   </si>
   <si>
     <t>Sportivo Ameliano</t>
@@ -145,13 +145,13 @@
     <t>2 de Mayo</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>D</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6720843</v>
+        <v>6720873</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,73 +625,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L2">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M2">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N2">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O2">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P2">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q2">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R2">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S2">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T2">
         <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V2">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W2">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6720844</v>
+        <v>6720843</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,31 +714,31 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
       </c>
       <c r="K3">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M3">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O3">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P3">
         <v>1.85</v>
@@ -747,10 +747,10 @@
         <v>0.5</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T3">
         <v>2.5</v>
@@ -762,25 +762,25 @@
         <v>1.875</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6720873</v>
+        <v>6720844</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,10 +803,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -815,58 +815,58 @@
         <v>45</v>
       </c>
       <c r="K4">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="L4">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N4">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O4">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P4">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K5">
         <v>1.95</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K6">
         <v>1.571</v>
@@ -1079,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>2.4</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8">
         <v>2.75</v>
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K9">
         <v>1.333</v>
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K10">
         <v>2.3</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1515,7 +1515,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K12">
         <v>5.5</v>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K13">
         <v>1.363</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>2.7</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K15">
         <v>1.55</v>
@@ -1880,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -1969,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K17">
         <v>1.4</v>
@@ -2046,10 +2046,10 @@
         <v>45116.70833333334</v>
       </c>
       <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
         <v>31</v>
-      </c>
-      <c r="G18" t="s">
-        <v>30</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K18">
         <v>2.375</v>
@@ -2135,7 +2135,7 @@
         <v>45116.8125</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -2147,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K19">
         <v>1.4</v>
@@ -2236,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K20">
         <v>4.75</v>
@@ -2316,7 +2316,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K21">
         <v>3.6</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K22">
         <v>2.625</v>
@@ -2491,7 +2491,7 @@
         <v>45123.8125</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
@@ -2503,7 +2503,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2583,7 +2583,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2592,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K24">
         <v>2.625</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K25">
         <v>1.666</v>
@@ -2761,7 +2761,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
         <v>2.9</v>
@@ -2859,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27">
         <v>1.65</v>
@@ -2936,7 +2936,7 @@
         <v>45129.8125</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K28">
         <v>1.45</v>
@@ -3025,7 +3025,7 @@
         <v>45130.70833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -3037,7 +3037,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29">
         <v>2.15</v>
@@ -3126,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K30">
         <v>1.7</v>
@@ -3215,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K31">
         <v>1.25</v>
@@ -3295,7 +3295,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K32">
         <v>2.625</v>
@@ -3381,7 +3381,7 @@
         <v>45135.85416666666</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3571,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K35">
         <v>4.2</v>
@@ -3660,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K36">
         <v>2.2</v>
@@ -3740,7 +3740,7 @@
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K37">
         <v>4.5</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K38">
         <v>1.363</v>
@@ -3915,7 +3915,7 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K39">
         <v>1.666</v>
@@ -4004,7 +4004,7 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
         <v>34</v>
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4096,7 +4096,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -4105,7 +4105,7 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K41">
         <v>1.615</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K42">
         <v>1.65</v>
@@ -4283,7 +4283,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K43">
         <v>2.625</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K44">
         <v>2.75</v>
@@ -4461,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -4541,7 +4541,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4627,7 +4627,7 @@
         <v>45151.72916666666</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
         <v>40</v>
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K47">
         <v>2.15</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K48">
         <v>2.05</v>
@@ -4808,7 +4808,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4817,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K49">
         <v>2.375</v>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K50">
         <v>1.5</v>
@@ -4983,7 +4983,7 @@
         <v>45157.75</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
@@ -4995,7 +4995,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K51">
         <v>2.25</v>
@@ -5084,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K52">
         <v>1.444</v>
@@ -5161,10 +5161,10 @@
         <v>45158.75</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5173,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K53">
         <v>3.5</v>
@@ -5262,7 +5262,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K54">
         <v>1.666</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K55">
         <v>2.3</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K56">
         <v>1.7</v>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5606,7 +5606,7 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K58">
         <v>2.375</v>
@@ -5695,7 +5695,7 @@
         <v>45165.72916666666</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
         <v>40</v>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -5787,7 +5787,7 @@
         <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K60">
         <v>2.8</v>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K61">
         <v>3.4</v>
@@ -5974,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6054,7 +6054,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6063,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K63">
         <v>4.75</v>
@@ -6143,7 +6143,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K64">
         <v>1.5</v>
@@ -6229,7 +6229,7 @@
         <v>45172.72916666666</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -6241,7 +6241,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K65">
         <v>1.85</v>
@@ -6330,7 +6330,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K66">
         <v>1.909</v>
@@ -6410,7 +6410,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K67">
         <v>2.45</v>
@@ -6508,7 +6508,7 @@
         <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K68">
         <v>2.875</v>
@@ -6585,7 +6585,7 @@
         <v>45179.72916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
         <v>39</v>
@@ -6597,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K69">
         <v>1.85</v>
@@ -6674,7 +6674,7 @@
         <v>45179.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K70">
         <v>1.833</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K71">
         <v>2.2</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K72">
         <v>2.55</v>
@@ -6944,7 +6944,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -7042,7 +7042,7 @@
         <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K74">
         <v>5.75</v>
@@ -7131,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K75">
         <v>1.533</v>
@@ -7220,7 +7220,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7297,10 +7297,10 @@
         <v>45186.83333333334</v>
       </c>
       <c r="F77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" t="s">
         <v>30</v>
-      </c>
-      <c r="G77" t="s">
-        <v>29</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K77">
         <v>3.8</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K78">
         <v>1.615</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K79">
         <v>2.2</v>
@@ -7567,7 +7567,7 @@
         <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K80">
         <v>5.25</v>
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K81">
         <v>6</v>
@@ -7754,7 +7754,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K82">
         <v>4</v>
@@ -7831,10 +7831,10 @@
         <v>45193.77083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K83">
         <v>2.15</v>
@@ -7932,7 +7932,7 @@
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K84">
         <v>1.95</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K85">
         <v>1.85</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K86">
         <v>2.1</v>
@@ -8199,7 +8199,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K87">
         <v>3.8</v>
@@ -8276,7 +8276,7 @@
         <v>45200.75</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8288,7 +8288,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K88">
         <v>1.55</v>
@@ -8368,7 +8368,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K89">
         <v>1.5</v>
@@ -8454,7 +8454,7 @@
         <v>45201.75</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K90">
         <v>1.8</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K91">
         <v>1.333</v>
@@ -8635,7 +8635,7 @@
         <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K92">
         <v>4.2</v>
@@ -8733,7 +8733,7 @@
         <v>5</v>
       </c>
       <c r="J93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K93">
         <v>5.75</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K94">
         <v>2.875</v>
@@ -8911,7 +8911,7 @@
         <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K95">
         <v>2.7</v>
@@ -8988,7 +8988,7 @@
         <v>45207.85416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
         <v>39</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K96">
         <v>1.75</v>
@@ -9080,7 +9080,7 @@
         <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9089,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K97">
         <v>2.15</v>
@@ -9169,7 +9169,7 @@
         <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K98">
         <v>1.95</v>
@@ -9267,7 +9267,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K99">
         <v>2.375</v>
@@ -9344,7 +9344,7 @@
         <v>45218.8125</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9356,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K100">
         <v>1.909</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K101">
         <v>1.444</v>
@@ -9534,7 +9534,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K102">
         <v>1.7</v>
@@ -9611,7 +9611,7 @@
         <v>45220.85416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -9623,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K103">
         <v>1.363</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K104">
         <v>3.6</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K105">
         <v>6</v>
@@ -9890,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K106">
         <v>1.75</v>
@@ -9970,7 +9970,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9979,7 +9979,7 @@
         <v>5</v>
       </c>
       <c r="J107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K107">
         <v>3.75</v>
@@ -10056,7 +10056,7 @@
         <v>45223.85416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10068,7 +10068,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K108">
         <v>3.6</v>
@@ -10148,7 +10148,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K109">
         <v>3.2</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K110">
         <v>2.75</v>
@@ -10335,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K111">
         <v>1.909</v>
@@ -10412,7 +10412,7 @@
         <v>45227.85416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
         <v>35</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K112">
         <v>1.85</v>
@@ -10504,7 +10504,7 @@
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K113">
         <v>2.25</v>
@@ -10590,7 +10590,7 @@
         <v>45229.75</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
         <v>38</v>
@@ -10602,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K114">
         <v>2.05</v>
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K115">
         <v>1.25</v>
@@ -10771,7 +10771,7 @@
         <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K116">
         <v>2.2</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K117">
         <v>4</v>
@@ -10958,7 +10958,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K118">
         <v>2.2</v>
@@ -11047,7 +11047,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K119">
         <v>4.333</v>
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K120">
         <v>5</v>
@@ -11213,10 +11213,10 @@
         <v>45233.85416666666</v>
       </c>
       <c r="F121" t="s">
+        <v>30</v>
+      </c>
+      <c r="G121" t="s">
         <v>29</v>
-      </c>
-      <c r="G121" t="s">
-        <v>31</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K121">
         <v>1.533</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K122">
         <v>2.6</v>
@@ -11391,7 +11391,7 @@
         <v>45235.85416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
         <v>37</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K123">
         <v>1.909</v>
@@ -11483,7 +11483,7 @@
         <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11492,7 +11492,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K124">
         <v>2.05</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K125">
         <v>1.615</v>
@@ -11670,7 +11670,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K126">
         <v>2.5</v>
@@ -11750,7 +11750,7 @@
         <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K127">
         <v>1.833</v>
@@ -11848,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K128">
         <v>3</v>
@@ -11937,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K129">
         <v>2</v>
@@ -12002,7 +12002,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7454842</v>
+        <v>7453204</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12014,76 +12014,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K130">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="L130">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M130">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="N130">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O130">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P130">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U130">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y130">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12091,7 +12091,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7453204</v>
+        <v>7454842</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12106,10 +12106,10 @@
         <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -12118,61 +12118,61 @@
         <v>45</v>
       </c>
       <c r="K131">
-        <v>1.285</v>
+        <v>4</v>
       </c>
       <c r="L131">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M131">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="N131">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O131">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P131">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="Q131">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12195,7 +12195,7 @@
         <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12204,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K132">
         <v>3.4</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K133">
         <v>2.75</v>
@@ -12382,7 +12382,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K134">
         <v>1.727</v>
@@ -12462,7 +12462,7 @@
         <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K135">
         <v>3.4</v>
@@ -12560,7 +12560,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K136">
         <v>1.85</v>
@@ -12625,7 +12625,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7499442</v>
+        <v>7499440</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12637,55 +12637,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K137">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L137">
         <v>3.4</v>
       </c>
       <c r="M137">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N137">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O137">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P137">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R137">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12694,19 +12694,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12714,7 +12714,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7499440</v>
+        <v>7499442</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12726,55 +12726,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K138">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L138">
         <v>3.4</v>
       </c>
       <c r="M138">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N138">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O138">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P138">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q138">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R138">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12783,19 +12783,19 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB138">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12818,7 +12818,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12827,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K139">
         <v>2.375</v>
@@ -12916,7 +12916,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K140">
         <v>2.05</v>
@@ -13005,7 +13005,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K141">
         <v>1.363</v>
@@ -13094,7 +13094,7 @@
         <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K142">
         <v>4</v>
@@ -13183,7 +13183,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K143">
         <v>3.4</v>
@@ -13260,10 +13260,10 @@
         <v>45261.8125</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H144">
         <v>4</v>
@@ -13272,7 +13272,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K144">
         <v>1.7</v>
@@ -13349,7 +13349,7 @@
         <v>45261.8125</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
         <v>33</v>
@@ -13361,7 +13361,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K145">
         <v>2.75</v>
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K146">
         <v>2.625</v>
@@ -13539,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K147">
         <v>1.444</v>
@@ -13616,7 +13616,7 @@
         <v>45311.75</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
         <v>42</v>
@@ -13628,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K148">
         <v>1.8</v>
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K149">
         <v>2.2</v>
@@ -13794,7 +13794,7 @@
         <v>45312.75</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G150" t="s">
         <v>38</v>
@@ -13806,7 +13806,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K150">
         <v>1.533</v>
@@ -13883,7 +13883,7 @@
         <v>45312.85416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K151">
         <v>3.75</v>
@@ -13984,7 +13984,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K152">
         <v>1.65</v>
@@ -14073,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K153">
         <v>4.333</v>
@@ -14153,7 +14153,7 @@
         <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14162,7 +14162,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K154">
         <v>3.3</v>
@@ -14242,7 +14242,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K155">
         <v>1.533</v>
@@ -14340,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K156">
         <v>3.5</v>
@@ -14420,7 +14420,7 @@
         <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14429,7 +14429,7 @@
         <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K157">
         <v>3.75</v>
@@ -14506,7 +14506,7 @@
         <v>45318.77083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
         <v>41</v>
@@ -14518,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K158">
         <v>2.25</v>
@@ -14607,7 +14607,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K159">
         <v>2.3</v>
@@ -14696,7 +14696,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K160">
         <v>2.7</v>
@@ -14773,7 +14773,7 @@
         <v>45319.86805555555</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
         <v>39</v>
@@ -14785,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K161">
         <v>1.833</v>
@@ -14874,7 +14874,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K162">
         <v>6.5</v>
@@ -14954,7 +14954,7 @@
         <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14963,7 +14963,7 @@
         <v>4</v>
       </c>
       <c r="J163" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K163">
         <v>1.909</v>
@@ -15052,7 +15052,7 @@
         <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K164">
         <v>2.5</v>
@@ -15132,7 +15132,7 @@
         <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15141,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K165">
         <v>2.8</v>
@@ -15221,7 +15221,7 @@
         <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15230,7 +15230,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K166">
         <v>4.5</v>
@@ -15319,7 +15319,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K167">
         <v>1.25</v>
@@ -15408,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K168">
         <v>3.5</v>
@@ -15497,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K169">
         <v>2.875</v>
@@ -15586,7 +15586,7 @@
         <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K170">
         <v>2</v>
@@ -15663,7 +15663,7 @@
         <v>45332.76041666666</v>
       </c>
       <c r="F171" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
         <v>32</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K171">
         <v>2.15</v>
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K172">
         <v>1.55</v>
@@ -15841,7 +15841,7 @@
         <v>45333.76041666666</v>
       </c>
       <c r="F173" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G173" t="s">
         <v>36</v>
@@ -15853,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15930,7 +15930,7 @@
         <v>45333.86458333334</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G174" t="s">
         <v>33</v>
@@ -15942,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K174">
         <v>1.95</v>
@@ -16022,7 +16022,7 @@
         <v>37</v>
       </c>
       <c r="G175" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16031,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K175">
         <v>2.7</v>
@@ -16111,7 +16111,7 @@
         <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16120,7 +16120,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K176">
         <v>2.5</v>
@@ -16200,7 +16200,7 @@
         <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16209,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K177">
         <v>3.4</v>
@@ -16298,7 +16298,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K178">
         <v>6</v>
@@ -16387,7 +16387,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K179">
         <v>1.909</v>
@@ -16476,7 +16476,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K180">
         <v>2.25</v>
@@ -16553,7 +16553,7 @@
         <v>45345.8125</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G181" t="s">
         <v>37</v>
@@ -16565,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K181">
         <v>1.7</v>
@@ -16654,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K182">
         <v>2.7</v>
@@ -16731,7 +16731,7 @@
         <v>45346.86458333334</v>
       </c>
       <c r="F183" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G183" t="s">
         <v>41</v>
@@ -16743,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K183">
         <v>1.45</v>
@@ -16832,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K184">
         <v>2.7</v>
@@ -16909,7 +16909,7 @@
         <v>45347.86458333334</v>
       </c>
       <c r="F185" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
         <v>40</v>
@@ -16921,7 +16921,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K185">
         <v>2.6</v>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K186">
         <v>1.363</v>
@@ -17087,10 +17087,10 @@
         <v>45352.8125</v>
       </c>
       <c r="F187" t="s">
+        <v>31</v>
+      </c>
+      <c r="G187" t="s">
         <v>30</v>
-      </c>
-      <c r="G187" t="s">
-        <v>29</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17099,7 +17099,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K187">
         <v>3.8</v>
@@ -17188,7 +17188,7 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K188">
         <v>2.2</v>
@@ -17268,7 +17268,7 @@
         <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17277,7 +17277,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K189">
         <v>2</v>
@@ -17366,7 +17366,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K190">
         <v>2.375</v>
@@ -17455,7 +17455,7 @@
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K191">
         <v>2</v>
@@ -17544,7 +17544,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K192">
         <v>2.75</v>
@@ -17633,7 +17633,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K193">
         <v>2</v>
@@ -17710,7 +17710,7 @@
         <v>45360.8125</v>
       </c>
       <c r="F194" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G194" t="s">
         <v>39</v>
@@ -17722,7 +17722,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K194">
         <v>1.363</v>
@@ -17811,7 +17811,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K195">
         <v>5.25</v>
@@ -17888,10 +17888,10 @@
         <v>45361.85416666666</v>
       </c>
       <c r="F196" t="s">
+        <v>29</v>
+      </c>
+      <c r="G196" t="s">
         <v>31</v>
-      </c>
-      <c r="G196" t="s">
-        <v>30</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17900,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K196">
         <v>2.1</v>
@@ -17989,7 +17989,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K197">
         <v>1.5</v>
@@ -18066,10 +18066,10 @@
         <v>45366.8125</v>
       </c>
       <c r="F198" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18078,7 +18078,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K198">
         <v>3.8</v>
@@ -18167,7 +18167,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K199">
         <v>1.666</v>
@@ -18256,7 +18256,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K200">
         <v>5.5</v>
@@ -18345,7 +18345,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K201">
         <v>1.909</v>
@@ -18422,7 +18422,7 @@
         <v>45368.875</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G202" t="s">
         <v>38</v>
@@ -18434,7 +18434,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K202">
         <v>1.909</v>
@@ -18523,7 +18523,7 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K203">
         <v>1.909</v>
@@ -18612,7 +18612,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K204">
         <v>2.75</v>
@@ -18692,7 +18692,7 @@
         <v>38</v>
       </c>
       <c r="G205" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18701,7 +18701,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K205">
         <v>3.6</v>
@@ -18778,7 +18778,7 @@
         <v>45381.79166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G206" t="s">
         <v>33</v>
@@ -18790,7 +18790,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K206">
         <v>1.5</v>
@@ -18879,7 +18879,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K207">
         <v>1.8</v>
@@ -18968,7 +18968,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K208">
         <v>2.1</v>
@@ -19048,7 +19048,7 @@
         <v>42</v>
       </c>
       <c r="G209" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19057,7 +19057,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K209">
         <v>2.2</v>
@@ -19146,7 +19146,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K210">
         <v>2.55</v>
@@ -19235,7 +19235,7 @@
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K211">
         <v>2.625</v>
@@ -19315,7 +19315,7 @@
         <v>38</v>
       </c>
       <c r="G212" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19324,7 +19324,7 @@
         <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K212">
         <v>6</v>
@@ -19404,7 +19404,7 @@
         <v>36</v>
       </c>
       <c r="G213" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -19413,7 +19413,7 @@
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K213">
         <v>1.5</v>
@@ -19502,7 +19502,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K214">
         <v>3.75</v>
@@ -19582,7 +19582,7 @@
         <v>42</v>
       </c>
       <c r="G215" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -19591,7 +19591,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K215">
         <v>2.4</v>
@@ -19668,7 +19668,7 @@
         <v>45394.79166666666</v>
       </c>
       <c r="F216" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G216" t="s">
         <v>41</v>
@@ -19683,22 +19683,22 @@
         <v>3.4</v>
       </c>
       <c r="N216">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O216">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P216">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q216">
         <v>-0.25</v>
       </c>
       <c r="R216">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S216">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T216">
         <v>2.25</v>
@@ -19769,19 +19769,19 @@
         <v>0</v>
       </c>
       <c r="R217">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S217">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T217">
         <v>2.5</v>
       </c>
       <c r="U217">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V217">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W217">
         <v>0</v>
@@ -19905,7 +19905,7 @@
         <v>2.625</v>
       </c>
       <c r="N219">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O219">
         <v>3</v>
@@ -19923,13 +19923,13 @@
         <v>1.85</v>
       </c>
       <c r="T219">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U219">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V219">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W219">
         <v>0</v>
@@ -19964,7 +19964,7 @@
         <v>45396.77083333334</v>
       </c>
       <c r="F220" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G220" t="s">
         <v>36</v>
@@ -19979,31 +19979,31 @@
         <v>2.1</v>
       </c>
       <c r="N220">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O220">
         <v>3.4</v>
       </c>
       <c r="P220">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q220">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R220">
+        <v>1.825</v>
+      </c>
+      <c r="S220">
         <v>1.975</v>
-      </c>
-      <c r="S220">
-        <v>1.825</v>
       </c>
       <c r="T220">
         <v>2.25</v>
       </c>
       <c r="U220">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V220">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W220">
         <v>0</v>
@@ -20038,7 +20038,7 @@
         <v>45396.875</v>
       </c>
       <c r="F221" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G221" t="s">
         <v>32</v>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -103,13 +103,13 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
-    <t>Sportivo Luqueno</t>
+    <t>Guarani Asuncion</t>
   </si>
   <si>
     <t>Cerro Porteno</t>
   </si>
   <si>
-    <t>Guarani Asuncion</t>
+    <t>Sportivo Luqueno</t>
   </si>
   <si>
     <t>Sportivo Ameliano</t>
@@ -145,13 +145,13 @@
     <t>2 de Mayo</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
     <t>H</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6720873</v>
+        <v>6720844</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,10 +625,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -637,58 +637,58 @@
         <v>43</v>
       </c>
       <c r="K2">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="L2">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M2">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N2">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P2">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R2">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S2">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T2">
         <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V2">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AB2">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC2">
         <v>-1</v>
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6720844</v>
+        <v>6720873</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,10 +803,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -815,58 +815,58 @@
         <v>45</v>
       </c>
       <c r="K4">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N4">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O4">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P4">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q4">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V4">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K5">
         <v>1.95</v>
@@ -1079,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K7">
         <v>2.4</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K8">
         <v>2.75</v>
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K9">
         <v>1.333</v>
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K10">
         <v>2.3</v>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K12">
         <v>5.5</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K14">
         <v>2.7</v>
@@ -1969,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K17">
         <v>1.4</v>
@@ -2046,10 +2046,10 @@
         <v>45116.70833333334</v>
       </c>
       <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
         <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K18">
         <v>2.375</v>
@@ -2147,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K19">
         <v>1.4</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K21">
         <v>3.6</v>
@@ -2491,7 +2491,7 @@
         <v>45123.8125</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
@@ -2503,7 +2503,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2583,7 +2583,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2592,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K24">
         <v>2.625</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K25">
         <v>1.666</v>
@@ -2761,7 +2761,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K26">
         <v>2.9</v>
@@ -2859,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K27">
         <v>1.65</v>
@@ -3025,7 +3025,7 @@
         <v>45130.70833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -3037,7 +3037,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K29">
         <v>2.15</v>
@@ -3126,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K30">
         <v>1.7</v>
@@ -3295,7 +3295,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>45135.85416666666</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3571,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K35">
         <v>4.2</v>
@@ -3660,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K36">
         <v>2.2</v>
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K37">
         <v>4.5</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K38">
         <v>1.363</v>
@@ -4004,7 +4004,7 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
         <v>34</v>
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4096,7 +4096,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -4283,7 +4283,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K43">
         <v>2.625</v>
@@ -4461,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -4541,7 +4541,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K47">
         <v>2.15</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K48">
         <v>2.05</v>
@@ -4808,7 +4808,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4817,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K49">
         <v>2.375</v>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K50">
         <v>1.5</v>
@@ -4983,7 +4983,7 @@
         <v>45157.75</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
@@ -4995,7 +4995,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K51">
         <v>2.25</v>
@@ -5084,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K52">
         <v>1.444</v>
@@ -5161,7 +5161,7 @@
         <v>45158.75</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
         <v>30</v>
@@ -5173,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K53">
         <v>3.5</v>
@@ -5262,7 +5262,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K54">
         <v>1.666</v>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K58">
         <v>2.375</v>
@@ -5695,7 +5695,7 @@
         <v>45165.72916666666</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
         <v>40</v>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -5787,7 +5787,7 @@
         <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K60">
         <v>2.8</v>
@@ -6063,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K63">
         <v>4.75</v>
@@ -6143,7 +6143,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6229,7 +6229,7 @@
         <v>45172.72916666666</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -6330,7 +6330,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K66">
         <v>1.909</v>
@@ -6410,7 +6410,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K67">
         <v>2.45</v>
@@ -6508,7 +6508,7 @@
         <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K68">
         <v>2.875</v>
@@ -6585,7 +6585,7 @@
         <v>45179.72916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
         <v>39</v>
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K70">
         <v>1.833</v>
@@ -6944,7 +6944,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7042,7 +7042,7 @@
         <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K74">
         <v>5.75</v>
@@ -7220,7 +7220,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7297,7 +7297,7 @@
         <v>45186.83333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
         <v>30</v>
@@ -7576,7 +7576,7 @@
         <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K80">
         <v>5.25</v>
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K81">
         <v>6</v>
@@ -7754,7 +7754,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K82">
         <v>4</v>
@@ -7831,10 +7831,10 @@
         <v>45193.77083333334</v>
       </c>
       <c r="F83" t="s">
+        <v>29</v>
+      </c>
+      <c r="G83" t="s">
         <v>31</v>
-      </c>
-      <c r="G83" t="s">
-        <v>29</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7932,7 +7932,7 @@
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K84">
         <v>1.95</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K86">
         <v>2.1</v>
@@ -8199,7 +8199,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K87">
         <v>3.8</v>
@@ -8368,7 +8368,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K89">
         <v>1.5</v>
@@ -8454,7 +8454,7 @@
         <v>45201.75</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K91">
         <v>1.333</v>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K92">
         <v>4.2</v>
@@ -8733,7 +8733,7 @@
         <v>5</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K93">
         <v>5.75</v>
@@ -8911,7 +8911,7 @@
         <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K95">
         <v>2.7</v>
@@ -8988,7 +8988,7 @@
         <v>45207.85416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
         <v>39</v>
@@ -9080,7 +9080,7 @@
         <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9089,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K97">
         <v>2.15</v>
@@ -9169,7 +9169,7 @@
         <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9267,7 +9267,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K99">
         <v>2.375</v>
@@ -9344,7 +9344,7 @@
         <v>45218.8125</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9534,7 +9534,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K102">
         <v>1.7</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K104">
         <v>3.6</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K105">
         <v>6</v>
@@ -9979,7 +9979,7 @@
         <v>5</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K107">
         <v>3.75</v>
@@ -10056,7 +10056,7 @@
         <v>45223.85416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10068,7 +10068,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K108">
         <v>3.6</v>
@@ -10148,7 +10148,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K109">
         <v>3.2</v>
@@ -10412,7 +10412,7 @@
         <v>45227.85416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
         <v>35</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K112">
         <v>1.85</v>
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K113">
         <v>2.25</v>
@@ -10590,7 +10590,7 @@
         <v>45229.75</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
         <v>38</v>
@@ -10771,7 +10771,7 @@
         <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K116">
         <v>2.2</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K117">
         <v>4</v>
@@ -10958,7 +10958,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K118">
         <v>2.2</v>
@@ -11047,7 +11047,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K119">
         <v>4.333</v>
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K120">
         <v>5</v>
@@ -11216,7 +11216,7 @@
         <v>30</v>
       </c>
       <c r="G121" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11391,7 +11391,7 @@
         <v>45235.85416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
         <v>37</v>
@@ -11492,7 +11492,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K124">
         <v>2.05</v>
@@ -11670,7 +11670,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K126">
         <v>2.5</v>
@@ -11750,7 +11750,7 @@
         <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11937,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K129">
         <v>2</v>
@@ -12002,7 +12002,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7453204</v>
+        <v>7454842</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12014,13 +12014,13 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -12029,61 +12029,61 @@
         <v>43</v>
       </c>
       <c r="K130">
-        <v>1.285</v>
+        <v>4</v>
       </c>
       <c r="L130">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="N130">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O130">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P130">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="Q130">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T130">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12091,7 +12091,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7454842</v>
+        <v>7453204</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12103,13 +12103,13 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -12118,61 +12118,61 @@
         <v>45</v>
       </c>
       <c r="K131">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="L131">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M131">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="N131">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O131">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P131">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12195,7 +12195,7 @@
         <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12204,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K132">
         <v>3.4</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K133">
         <v>2.75</v>
@@ -12462,7 +12462,7 @@
         <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K135">
         <v>3.4</v>
@@ -12560,7 +12560,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K136">
         <v>1.85</v>
@@ -12649,7 +12649,7 @@
         <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K137">
         <v>2.7</v>
@@ -12726,7 +12726,7 @@
         <v>45255.8125</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G138" t="s">
         <v>38</v>
@@ -12738,7 +12738,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K138">
         <v>2</v>
@@ -12827,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K139">
         <v>2.375</v>
@@ -13005,7 +13005,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K141">
         <v>1.363</v>
@@ -13094,7 +13094,7 @@
         <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K142">
         <v>4</v>
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7493311</v>
+        <v>7493312</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H143">
+        <v>4</v>
+      </c>
+      <c r="I143">
         <v>0</v>
       </c>
-      <c r="I143">
-        <v>1</v>
-      </c>
       <c r="J143" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K143">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L143">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M143">
+        <v>4.333</v>
+      </c>
+      <c r="N143">
+        <v>1.727</v>
+      </c>
+      <c r="O143">
+        <v>3.75</v>
+      </c>
+      <c r="P143">
+        <v>4.2</v>
+      </c>
+      <c r="Q143">
+        <v>-0.5</v>
+      </c>
+      <c r="R143">
+        <v>1.8</v>
+      </c>
+      <c r="S143">
         <v>2</v>
       </c>
-      <c r="N143">
-        <v>3.2</v>
-      </c>
-      <c r="O143">
-        <v>3.25</v>
-      </c>
-      <c r="P143">
-        <v>2.1</v>
-      </c>
-      <c r="Q143">
-        <v>0.25</v>
-      </c>
-      <c r="R143">
-        <v>1.95</v>
-      </c>
-      <c r="S143">
-        <v>1.85</v>
-      </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U143">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V143">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA143">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC143">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7493312</v>
+        <v>7493311</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,76 +13260,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K144">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L144">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M144">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N144">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O144">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P144">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R144">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S144">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V144">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W144">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z144">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13349,7 +13349,7 @@
         <v>45261.8125</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
         <v>33</v>
@@ -13361,7 +13361,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K145">
         <v>2.75</v>
@@ -13539,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K147">
         <v>1.444</v>
@@ -13616,7 +13616,7 @@
         <v>45311.75</v>
       </c>
       <c r="F148" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
         <v>42</v>
@@ -13883,7 +13883,7 @@
         <v>45312.85416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K151">
         <v>3.75</v>
@@ -13984,7 +13984,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K152">
         <v>1.65</v>
@@ -14073,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K153">
         <v>4.333</v>
@@ -14153,7 +14153,7 @@
         <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14162,7 +14162,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K154">
         <v>3.3</v>
@@ -14242,7 +14242,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14429,7 +14429,7 @@
         <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K157">
         <v>3.75</v>
@@ -14506,7 +14506,7 @@
         <v>45318.77083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G158" t="s">
         <v>41</v>
@@ -14518,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K158">
         <v>2.25</v>
@@ -14607,7 +14607,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K159">
         <v>2.3</v>
@@ -14696,7 +14696,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K160">
         <v>2.7</v>
@@ -14773,7 +14773,7 @@
         <v>45319.86805555555</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G161" t="s">
         <v>39</v>
@@ -14874,7 +14874,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K162">
         <v>6.5</v>
@@ -14954,7 +14954,7 @@
         <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14963,7 +14963,7 @@
         <v>4</v>
       </c>
       <c r="J163" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K163">
         <v>1.909</v>
@@ -15052,7 +15052,7 @@
         <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K164">
         <v>2.5</v>
@@ -15132,7 +15132,7 @@
         <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15141,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K165">
         <v>2.8</v>
@@ -15230,7 +15230,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K166">
         <v>4.5</v>
@@ -15586,7 +15586,7 @@
         <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K170">
         <v>2</v>
@@ -15663,7 +15663,7 @@
         <v>45332.76041666666</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G171" t="s">
         <v>32</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K171">
         <v>2.15</v>
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K172">
         <v>1.55</v>
@@ -15853,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15930,7 +15930,7 @@
         <v>45333.86458333334</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G174" t="s">
         <v>33</v>
@@ -16022,7 +16022,7 @@
         <v>37</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16031,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K175">
         <v>2.7</v>
@@ -16111,7 +16111,7 @@
         <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16120,7 +16120,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K176">
         <v>2.5</v>
@@ -16209,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K177">
         <v>3.4</v>
@@ -16298,7 +16298,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K178">
         <v>6</v>
@@ -16476,7 +16476,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K180">
         <v>2.25</v>
@@ -16553,7 +16553,7 @@
         <v>45345.8125</v>
       </c>
       <c r="F181" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G181" t="s">
         <v>37</v>
@@ -16565,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K181">
         <v>1.7</v>
@@ -16743,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K183">
         <v>1.45</v>
@@ -16832,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K184">
         <v>2.7</v>
@@ -16909,7 +16909,7 @@
         <v>45347.86458333334</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G185" t="s">
         <v>40</v>
@@ -16921,7 +16921,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K185">
         <v>2.6</v>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K186">
         <v>1.363</v>
@@ -17087,7 +17087,7 @@
         <v>45352.8125</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G187" t="s">
         <v>30</v>
@@ -17099,7 +17099,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K187">
         <v>3.8</v>
@@ -17188,7 +17188,7 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K188">
         <v>2.2</v>
@@ -17268,7 +17268,7 @@
         <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17455,7 +17455,7 @@
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K191">
         <v>2</v>
@@ -17633,7 +17633,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K193">
         <v>2</v>
@@ -17722,7 +17722,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K194">
         <v>1.363</v>
@@ -17811,7 +17811,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K195">
         <v>5.25</v>
@@ -17888,10 +17888,10 @@
         <v>45361.85416666666</v>
       </c>
       <c r="F196" t="s">
+        <v>31</v>
+      </c>
+      <c r="G196" t="s">
         <v>29</v>
-      </c>
-      <c r="G196" t="s">
-        <v>31</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18066,7 +18066,7 @@
         <v>45366.8125</v>
       </c>
       <c r="F198" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G198" t="s">
         <v>30</v>
@@ -18078,7 +18078,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K198">
         <v>3.8</v>
@@ -18256,7 +18256,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K200">
         <v>5.5</v>
@@ -18345,7 +18345,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K201">
         <v>1.909</v>
@@ -18422,7 +18422,7 @@
         <v>45368.875</v>
       </c>
       <c r="F202" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G202" t="s">
         <v>38</v>
@@ -18434,7 +18434,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K202">
         <v>1.909</v>
@@ -18612,7 +18612,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K204">
         <v>2.75</v>
@@ -18692,7 +18692,7 @@
         <v>38</v>
       </c>
       <c r="G205" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18701,7 +18701,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K205">
         <v>3.6</v>
@@ -18879,7 +18879,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K207">
         <v>1.8</v>
@@ -19048,7 +19048,7 @@
         <v>42</v>
       </c>
       <c r="G209" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19057,7 +19057,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K209">
         <v>2.2</v>
@@ -19146,7 +19146,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K210">
         <v>2.55</v>
@@ -19235,7 +19235,7 @@
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K211">
         <v>2.625</v>
@@ -19324,7 +19324,7 @@
         <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K212">
         <v>6</v>
@@ -19404,7 +19404,7 @@
         <v>36</v>
       </c>
       <c r="G213" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -19502,7 +19502,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K214">
         <v>3.75</v>
@@ -19582,7 +19582,7 @@
         <v>42</v>
       </c>
       <c r="G215" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -19591,7 +19591,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K215">
         <v>2.4</v>
@@ -19668,7 +19668,7 @@
         <v>45394.79166666666</v>
       </c>
       <c r="F216" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
         <v>41</v>
@@ -19689,25 +19689,25 @@
         <v>3.25</v>
       </c>
       <c r="P216">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q216">
         <v>-0.25</v>
       </c>
       <c r="R216">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S216">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T216">
         <v>2.25</v>
       </c>
       <c r="U216">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W216">
         <v>0</v>
@@ -19778,10 +19778,10 @@
         <v>2.5</v>
       </c>
       <c r="U217">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V217">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W217">
         <v>0</v>
@@ -19908,10 +19908,10 @@
         <v>2.7</v>
       </c>
       <c r="O219">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P219">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="Q219">
         <v>0</v>
@@ -19926,10 +19926,10 @@
         <v>2.25</v>
       </c>
       <c r="U219">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V219">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="W219">
         <v>0</v>
@@ -19964,7 +19964,7 @@
         <v>45396.77083333334</v>
       </c>
       <c r="F220" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G220" t="s">
         <v>36</v>
@@ -19979,22 +19979,22 @@
         <v>2.1</v>
       </c>
       <c r="N220">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O220">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P220">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="Q220">
         <v>0.5</v>
       </c>
       <c r="R220">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S220">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T220">
         <v>2.25</v>
@@ -20053,31 +20053,31 @@
         <v>6.5</v>
       </c>
       <c r="N221">
-        <v>1.444</v>
+        <v>1.45</v>
       </c>
       <c r="O221">
         <v>4.2</v>
       </c>
       <c r="P221">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q221">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R221">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S221">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T221">
         <v>2.75</v>
       </c>
       <c r="U221">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V221">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W221">
         <v>0</v>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,13 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
-    <t>Guarani Asuncion</t>
-  </si>
-  <si>
     <t>Cerro Porteno</t>
   </si>
   <si>
     <t>Sportivo Luqueno</t>
+  </si>
+  <si>
+    <t>Guarani Asuncion</t>
   </si>
   <si>
     <t>Sportivo Ameliano</t>
@@ -145,13 +145,13 @@
     <t>2 de Mayo</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC221"/>
+  <dimension ref="A1:AC220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6720844</v>
+        <v>6720843</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,31 +625,31 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M2">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N2">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O2">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P2">
         <v>1.85</v>
@@ -658,10 +658,10 @@
         <v>0.5</v>
       </c>
       <c r="R2">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S2">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T2">
         <v>2.5</v>
@@ -673,25 +673,25 @@
         <v>1.875</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA2">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6720843</v>
+        <v>6720873</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,73 +714,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
       </c>
       <c r="K3">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M3">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N3">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O3">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P3">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q3">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T3">
         <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6720873</v>
+        <v>6720844</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,10 +803,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -815,58 +815,58 @@
         <v>45</v>
       </c>
       <c r="K4">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="L4">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N4">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O4">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P4">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K5">
         <v>1.95</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6">
         <v>1.571</v>
@@ -1079,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>2.4</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K8">
         <v>2.75</v>
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9">
         <v>1.333</v>
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K10">
         <v>2.3</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1515,7 +1515,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K12">
         <v>5.5</v>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13">
         <v>1.363</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K14">
         <v>2.7</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15">
         <v>1.55</v>
@@ -1880,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -1969,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K17">
         <v>1.4</v>
@@ -2046,10 +2046,10 @@
         <v>45116.70833333334</v>
       </c>
       <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
         <v>31</v>
-      </c>
-      <c r="G18" t="s">
-        <v>29</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K18">
         <v>2.375</v>
@@ -2135,7 +2135,7 @@
         <v>45116.8125</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -2147,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K19">
         <v>1.4</v>
@@ -2236,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K20">
         <v>4.75</v>
@@ -2316,7 +2316,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K21">
         <v>3.6</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K22">
         <v>2.625</v>
@@ -2491,7 +2491,7 @@
         <v>45123.8125</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
@@ -2503,7 +2503,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2583,7 +2583,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2592,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K24">
         <v>2.625</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K25">
         <v>1.666</v>
@@ -2761,7 +2761,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K26">
         <v>2.9</v>
@@ -2859,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K27">
         <v>1.65</v>
@@ -2936,7 +2936,7 @@
         <v>45129.8125</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K28">
         <v>1.45</v>
@@ -3025,7 +3025,7 @@
         <v>45130.70833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -3037,7 +3037,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K29">
         <v>2.15</v>
@@ -3126,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K30">
         <v>1.7</v>
@@ -3215,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>1.25</v>
@@ -3295,7 +3295,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K32">
         <v>2.625</v>
@@ -3381,7 +3381,7 @@
         <v>45135.85416666666</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3571,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K35">
         <v>4.2</v>
@@ -3660,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K36">
         <v>2.2</v>
@@ -3740,7 +3740,7 @@
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K37">
         <v>4.5</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K38">
         <v>1.363</v>
@@ -3915,7 +3915,7 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K39">
         <v>1.666</v>
@@ -4004,7 +4004,7 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
         <v>34</v>
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4096,7 +4096,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -4105,7 +4105,7 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K41">
         <v>1.615</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K42">
         <v>1.65</v>
@@ -4283,7 +4283,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K43">
         <v>2.625</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K44">
         <v>2.75</v>
@@ -4461,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -4541,7 +4541,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4627,7 +4627,7 @@
         <v>45151.72916666666</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
         <v>40</v>
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K47">
         <v>2.15</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K48">
         <v>2.05</v>
@@ -4808,7 +4808,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4817,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K49">
         <v>2.375</v>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K50">
         <v>1.5</v>
@@ -4983,7 +4983,7 @@
         <v>45157.75</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
@@ -4995,7 +4995,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K51">
         <v>2.25</v>
@@ -5084,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K52">
         <v>1.444</v>
@@ -5161,10 +5161,10 @@
         <v>45158.75</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5173,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K53">
         <v>3.5</v>
@@ -5262,7 +5262,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K54">
         <v>1.666</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K55">
         <v>2.3</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K56">
         <v>1.7</v>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5606,7 +5606,7 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K58">
         <v>2.375</v>
@@ -5695,7 +5695,7 @@
         <v>45165.72916666666</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
         <v>40</v>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -5787,7 +5787,7 @@
         <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K60">
         <v>2.8</v>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K61">
         <v>3.4</v>
@@ -5974,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6054,7 +6054,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6063,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K63">
         <v>4.75</v>
@@ -6143,7 +6143,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K64">
         <v>1.5</v>
@@ -6229,7 +6229,7 @@
         <v>45172.72916666666</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -6241,7 +6241,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K65">
         <v>1.85</v>
@@ -6330,7 +6330,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K66">
         <v>1.909</v>
@@ -6410,7 +6410,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K67">
         <v>2.45</v>
@@ -6508,7 +6508,7 @@
         <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K68">
         <v>2.875</v>
@@ -6585,7 +6585,7 @@
         <v>45179.72916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
         <v>39</v>
@@ -6597,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K69">
         <v>1.85</v>
@@ -6674,7 +6674,7 @@
         <v>45179.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K70">
         <v>1.833</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K71">
         <v>2.2</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K72">
         <v>2.55</v>
@@ -6944,7 +6944,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -7042,7 +7042,7 @@
         <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K74">
         <v>5.75</v>
@@ -7131,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K75">
         <v>1.533</v>
@@ -7220,7 +7220,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7297,10 +7297,10 @@
         <v>45186.83333333334</v>
       </c>
       <c r="F77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" t="s">
         <v>29</v>
-      </c>
-      <c r="G77" t="s">
-        <v>30</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K77">
         <v>3.8</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K78">
         <v>1.615</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K79">
         <v>2.2</v>
@@ -7567,7 +7567,7 @@
         <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K80">
         <v>5.25</v>
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K81">
         <v>6</v>
@@ -7754,7 +7754,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K82">
         <v>4</v>
@@ -7831,10 +7831,10 @@
         <v>45193.77083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K83">
         <v>2.15</v>
@@ -7932,7 +7932,7 @@
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K84">
         <v>1.95</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K85">
         <v>1.85</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K86">
         <v>2.1</v>
@@ -8199,7 +8199,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K87">
         <v>3.8</v>
@@ -8276,7 +8276,7 @@
         <v>45200.75</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8288,7 +8288,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K88">
         <v>1.55</v>
@@ -8368,7 +8368,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K89">
         <v>1.5</v>
@@ -8454,7 +8454,7 @@
         <v>45201.75</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K90">
         <v>1.8</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K91">
         <v>1.333</v>
@@ -8635,7 +8635,7 @@
         <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K92">
         <v>4.2</v>
@@ -8733,7 +8733,7 @@
         <v>5</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K93">
         <v>5.75</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K94">
         <v>2.875</v>
@@ -8911,7 +8911,7 @@
         <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K95">
         <v>2.7</v>
@@ -8988,7 +8988,7 @@
         <v>45207.85416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
         <v>39</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K96">
         <v>1.75</v>
@@ -9080,7 +9080,7 @@
         <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9089,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K97">
         <v>2.15</v>
@@ -9169,7 +9169,7 @@
         <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K98">
         <v>1.95</v>
@@ -9267,7 +9267,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K99">
         <v>2.375</v>
@@ -9344,7 +9344,7 @@
         <v>45218.8125</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9356,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K100">
         <v>1.909</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K101">
         <v>1.444</v>
@@ -9534,7 +9534,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K102">
         <v>1.7</v>
@@ -9611,7 +9611,7 @@
         <v>45220.85416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -9623,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K103">
         <v>1.363</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K104">
         <v>3.6</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K105">
         <v>6</v>
@@ -9890,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K106">
         <v>1.75</v>
@@ -9970,7 +9970,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9979,7 +9979,7 @@
         <v>5</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K107">
         <v>3.75</v>
@@ -10056,7 +10056,7 @@
         <v>45223.85416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10068,7 +10068,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K108">
         <v>3.6</v>
@@ -10148,7 +10148,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K109">
         <v>3.2</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K110">
         <v>2.75</v>
@@ -10335,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K111">
         <v>1.909</v>
@@ -10412,7 +10412,7 @@
         <v>45227.85416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
         <v>35</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K112">
         <v>1.85</v>
@@ -10504,7 +10504,7 @@
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K113">
         <v>2.25</v>
@@ -10590,7 +10590,7 @@
         <v>45229.75</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
         <v>38</v>
@@ -10602,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K114">
         <v>2.05</v>
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K115">
         <v>1.25</v>
@@ -10771,7 +10771,7 @@
         <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K116">
         <v>2.2</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K117">
         <v>4</v>
@@ -10958,7 +10958,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K118">
         <v>2.2</v>
@@ -11047,7 +11047,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K119">
         <v>4.333</v>
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K120">
         <v>5</v>
@@ -11213,10 +11213,10 @@
         <v>45233.85416666666</v>
       </c>
       <c r="F121" t="s">
+        <v>29</v>
+      </c>
+      <c r="G121" t="s">
         <v>30</v>
-      </c>
-      <c r="G121" t="s">
-        <v>31</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K121">
         <v>1.533</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K122">
         <v>2.6</v>
@@ -11391,7 +11391,7 @@
         <v>45235.85416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
         <v>37</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K123">
         <v>1.909</v>
@@ -11483,7 +11483,7 @@
         <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11492,7 +11492,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K124">
         <v>2.05</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K125">
         <v>1.615</v>
@@ -11670,7 +11670,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K126">
         <v>2.5</v>
@@ -11750,7 +11750,7 @@
         <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K127">
         <v>1.833</v>
@@ -11848,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K128">
         <v>3</v>
@@ -11937,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K129">
         <v>2</v>
@@ -12014,7 +12014,7 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
         <v>36</v>
@@ -12026,7 +12026,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K130">
         <v>4</v>
@@ -12103,7 +12103,7 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
         <v>39</v>
@@ -12115,7 +12115,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K131">
         <v>1.285</v>
@@ -12195,7 +12195,7 @@
         <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12204,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K132">
         <v>3.4</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K133">
         <v>2.75</v>
@@ -12358,7 +12358,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7493428</v>
+        <v>7493427</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12370,13 +12370,13 @@
         <v>45253.8125</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H134">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>1</v>
@@ -12385,61 +12385,61 @@
         <v>44</v>
       </c>
       <c r="K134">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M134">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N134">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O134">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P134">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q134">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R134">
+        <v>2.025</v>
+      </c>
+      <c r="S134">
         <v>1.775</v>
       </c>
-      <c r="S134">
-        <v>2.025</v>
-      </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
+        <v>1.975</v>
+      </c>
+      <c r="V134">
         <v>1.825</v>
       </c>
-      <c r="V134">
-        <v>1.975</v>
-      </c>
       <c r="W134">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
         <v>0.825</v>
-      </c>
-      <c r="AC134">
-        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12447,7 +12447,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7493427</v>
+        <v>7493428</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12459,76 +12459,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K135">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L135">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N135">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O135">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P135">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q135">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R135">
+        <v>1.775</v>
+      </c>
+      <c r="S135">
         <v>2.025</v>
       </c>
-      <c r="S135">
-        <v>1.775</v>
-      </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U135">
+        <v>1.825</v>
+      </c>
+      <c r="V135">
         <v>1.975</v>
       </c>
-      <c r="V135">
-        <v>1.825</v>
-      </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X135">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K136">
         <v>1.85</v>
@@ -12625,7 +12625,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7499440</v>
+        <v>7499442</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12637,55 +12637,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K137">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L137">
         <v>3.4</v>
       </c>
       <c r="M137">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N137">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O137">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P137">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q137">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12694,19 +12694,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB137">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12714,7 +12714,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7499442</v>
+        <v>7499440</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12726,55 +12726,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F138" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K138">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L138">
         <v>3.4</v>
       </c>
       <c r="M138">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N138">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O138">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P138">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q138">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12783,19 +12783,19 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC138">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12818,7 +12818,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12827,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K139">
         <v>2.375</v>
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7493431</v>
+        <v>7493310</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,76 +12904,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H140">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K140">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="L140">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M140">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="N140">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="O140">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P140">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R140">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U140">
+        <v>1.8</v>
+      </c>
+      <c r="V140">
         <v>2</v>
       </c>
-      <c r="V140">
-        <v>1.8</v>
-      </c>
       <c r="W140">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z140">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12981,7 +12981,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7493310</v>
+        <v>7493431</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12993,13 +12993,13 @@
         <v>45259.8125</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I141">
         <v>2</v>
@@ -13008,61 +13008,61 @@
         <v>43</v>
       </c>
       <c r="K141">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="L141">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M141">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="N141">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="O141">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P141">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R141">
+        <v>1.925</v>
+      </c>
+      <c r="S141">
+        <v>1.875</v>
+      </c>
+      <c r="T141">
+        <v>2.5</v>
+      </c>
+      <c r="U141">
+        <v>2</v>
+      </c>
+      <c r="V141">
         <v>1.8</v>
       </c>
-      <c r="S141">
-        <v>2</v>
-      </c>
-      <c r="T141">
-        <v>2.75</v>
-      </c>
-      <c r="U141">
-        <v>1.8</v>
-      </c>
-      <c r="V141">
-        <v>2</v>
-      </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA141">
+        <v>-1</v>
+      </c>
+      <c r="AB141">
         <v>1</v>
       </c>
-      <c r="AB141">
-        <v>0.4</v>
-      </c>
       <c r="AC141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13094,7 +13094,7 @@
         <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K142">
         <v>4</v>
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7493312</v>
+        <v>7493433</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13174,73 +13174,73 @@
         <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H143">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
         <v>44</v>
       </c>
       <c r="K143">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L143">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M143">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N143">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="O143">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P143">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q143">
+        <v>0.25</v>
+      </c>
+      <c r="R143">
+        <v>1.75</v>
+      </c>
+      <c r="S143">
+        <v>2.05</v>
+      </c>
+      <c r="T143">
+        <v>2.25</v>
+      </c>
+      <c r="U143">
+        <v>2</v>
+      </c>
+      <c r="V143">
+        <v>1.8</v>
+      </c>
+      <c r="W143">
+        <v>-1</v>
+      </c>
+      <c r="X143">
+        <v>2.1</v>
+      </c>
+      <c r="Y143">
+        <v>-1</v>
+      </c>
+      <c r="Z143">
+        <v>0.375</v>
+      </c>
+      <c r="AA143">
         <v>-0.5</v>
       </c>
-      <c r="R143">
-        <v>1.8</v>
-      </c>
-      <c r="S143">
-        <v>2</v>
-      </c>
-      <c r="T143">
-        <v>2.75</v>
-      </c>
-      <c r="U143">
-        <v>1.875</v>
-      </c>
-      <c r="V143">
-        <v>1.925</v>
-      </c>
-      <c r="W143">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X143">
-        <v>-1</v>
-      </c>
-      <c r="Y143">
-        <v>-1</v>
-      </c>
-      <c r="Z143">
-        <v>0.8</v>
-      </c>
-      <c r="AA143">
-        <v>-1</v>
-      </c>
       <c r="AB143">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7493311</v>
+        <v>7493312</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,76 +13260,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G144" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H144">
+        <v>4</v>
+      </c>
+      <c r="I144">
         <v>0</v>
-      </c>
-      <c r="I144">
-        <v>1</v>
       </c>
       <c r="J144" t="s">
         <v>43</v>
       </c>
       <c r="K144">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L144">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M144">
+        <v>4.333</v>
+      </c>
+      <c r="N144">
+        <v>1.727</v>
+      </c>
+      <c r="O144">
+        <v>3.75</v>
+      </c>
+      <c r="P144">
+        <v>4.2</v>
+      </c>
+      <c r="Q144">
+        <v>-0.5</v>
+      </c>
+      <c r="R144">
+        <v>1.8</v>
+      </c>
+      <c r="S144">
         <v>2</v>
       </c>
-      <c r="N144">
-        <v>3.2</v>
-      </c>
-      <c r="O144">
-        <v>3.25</v>
-      </c>
-      <c r="P144">
-        <v>2.1</v>
-      </c>
-      <c r="Q144">
-        <v>0.25</v>
-      </c>
-      <c r="R144">
-        <v>1.95</v>
-      </c>
-      <c r="S144">
-        <v>1.85</v>
-      </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V144">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC144">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7493433</v>
+        <v>7493311</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,13 +13349,13 @@
         <v>45261.8125</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>1</v>
@@ -13364,61 +13364,61 @@
         <v>45</v>
       </c>
       <c r="K145">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="L145">
+        <v>3.3</v>
+      </c>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="N145">
         <v>3.2</v>
       </c>
-      <c r="M145">
-        <v>2.4</v>
-      </c>
-      <c r="N145">
-        <v>2.75</v>
-      </c>
       <c r="O145">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P145">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q145">
         <v>0.25</v>
       </c>
       <c r="R145">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S145">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
         <v>2.25</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V145">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z145">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>0.4</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K146">
         <v>2.625</v>
@@ -13539,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K147">
         <v>1.444</v>
@@ -13616,7 +13616,7 @@
         <v>45311.75</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G148" t="s">
         <v>42</v>
@@ -13628,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K148">
         <v>1.8</v>
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K149">
         <v>2.2</v>
@@ -13794,7 +13794,7 @@
         <v>45312.75</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
         <v>38</v>
@@ -13806,7 +13806,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K150">
         <v>1.533</v>
@@ -13883,7 +13883,7 @@
         <v>45312.85416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K151">
         <v>3.75</v>
@@ -13984,7 +13984,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K152">
         <v>1.65</v>
@@ -14073,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K153">
         <v>4.333</v>
@@ -14153,7 +14153,7 @@
         <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14162,7 +14162,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K154">
         <v>3.3</v>
@@ -14242,7 +14242,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K155">
         <v>1.533</v>
@@ -14340,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K156">
         <v>3.5</v>
@@ -14420,7 +14420,7 @@
         <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14429,7 +14429,7 @@
         <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K157">
         <v>3.75</v>
@@ -14506,7 +14506,7 @@
         <v>45318.77083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
         <v>41</v>
@@ -14518,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K158">
         <v>2.25</v>
@@ -14607,7 +14607,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K159">
         <v>2.3</v>
@@ -14696,7 +14696,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K160">
         <v>2.7</v>
@@ -14773,7 +14773,7 @@
         <v>45319.86805555555</v>
       </c>
       <c r="F161" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
         <v>39</v>
@@ -14785,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K161">
         <v>1.833</v>
@@ -14874,7 +14874,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K162">
         <v>6.5</v>
@@ -14954,7 +14954,7 @@
         <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14963,7 +14963,7 @@
         <v>4</v>
       </c>
       <c r="J163" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K163">
         <v>1.909</v>
@@ -15052,7 +15052,7 @@
         <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K164">
         <v>2.5</v>
@@ -15132,7 +15132,7 @@
         <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15141,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K165">
         <v>2.8</v>
@@ -15221,7 +15221,7 @@
         <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15230,7 +15230,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K166">
         <v>4.5</v>
@@ -15319,7 +15319,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K167">
         <v>1.25</v>
@@ -15408,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K168">
         <v>3.5</v>
@@ -15497,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K169">
         <v>2.875</v>
@@ -15586,7 +15586,7 @@
         <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K170">
         <v>2</v>
@@ -15663,7 +15663,7 @@
         <v>45332.76041666666</v>
       </c>
       <c r="F171" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
         <v>32</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K171">
         <v>2.15</v>
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K172">
         <v>1.55</v>
@@ -15841,7 +15841,7 @@
         <v>45333.76041666666</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G173" t="s">
         <v>36</v>
@@ -15853,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15930,7 +15930,7 @@
         <v>45333.86458333334</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G174" t="s">
         <v>33</v>
@@ -15942,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K174">
         <v>1.95</v>
@@ -16022,7 +16022,7 @@
         <v>37</v>
       </c>
       <c r="G175" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16031,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K175">
         <v>2.7</v>
@@ -16111,7 +16111,7 @@
         <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16120,7 +16120,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K176">
         <v>2.5</v>
@@ -16200,7 +16200,7 @@
         <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16209,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K177">
         <v>3.4</v>
@@ -16298,7 +16298,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K178">
         <v>6</v>
@@ -16387,7 +16387,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K179">
         <v>1.909</v>
@@ -16476,7 +16476,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K180">
         <v>2.25</v>
@@ -16553,7 +16553,7 @@
         <v>45345.8125</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G181" t="s">
         <v>37</v>
@@ -16565,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K181">
         <v>1.7</v>
@@ -16654,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K182">
         <v>2.7</v>
@@ -16731,7 +16731,7 @@
         <v>45346.86458333334</v>
       </c>
       <c r="F183" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G183" t="s">
         <v>41</v>
@@ -16743,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K183">
         <v>1.45</v>
@@ -16832,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K184">
         <v>2.7</v>
@@ -16909,7 +16909,7 @@
         <v>45347.86458333334</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
         <v>40</v>
@@ -16921,7 +16921,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K185">
         <v>2.6</v>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K186">
         <v>1.363</v>
@@ -17087,10 +17087,10 @@
         <v>45352.8125</v>
       </c>
       <c r="F187" t="s">
+        <v>31</v>
+      </c>
+      <c r="G187" t="s">
         <v>29</v>
-      </c>
-      <c r="G187" t="s">
-        <v>30</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17099,7 +17099,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K187">
         <v>3.8</v>
@@ -17188,7 +17188,7 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K188">
         <v>2.2</v>
@@ -17268,7 +17268,7 @@
         <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17277,7 +17277,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K189">
         <v>2</v>
@@ -17366,7 +17366,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K190">
         <v>2.375</v>
@@ -17455,7 +17455,7 @@
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K191">
         <v>2</v>
@@ -17544,7 +17544,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K192">
         <v>2.75</v>
@@ -17633,7 +17633,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K193">
         <v>2</v>
@@ -17710,7 +17710,7 @@
         <v>45360.8125</v>
       </c>
       <c r="F194" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G194" t="s">
         <v>39</v>
@@ -17722,7 +17722,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K194">
         <v>1.363</v>
@@ -17811,7 +17811,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K195">
         <v>5.25</v>
@@ -17888,10 +17888,10 @@
         <v>45361.85416666666</v>
       </c>
       <c r="F196" t="s">
+        <v>30</v>
+      </c>
+      <c r="G196" t="s">
         <v>31</v>
-      </c>
-      <c r="G196" t="s">
-        <v>29</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17900,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K196">
         <v>2.1</v>
@@ -17989,7 +17989,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K197">
         <v>1.5</v>
@@ -18066,10 +18066,10 @@
         <v>45366.8125</v>
       </c>
       <c r="F198" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G198" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18078,7 +18078,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K198">
         <v>3.8</v>
@@ -18167,7 +18167,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K199">
         <v>1.666</v>
@@ -18256,7 +18256,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K200">
         <v>5.5</v>
@@ -18345,7 +18345,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K201">
         <v>1.909</v>
@@ -18422,7 +18422,7 @@
         <v>45368.875</v>
       </c>
       <c r="F202" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G202" t="s">
         <v>38</v>
@@ -18434,7 +18434,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K202">
         <v>1.909</v>
@@ -18523,7 +18523,7 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K203">
         <v>1.909</v>
@@ -18612,7 +18612,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K204">
         <v>2.75</v>
@@ -18692,7 +18692,7 @@
         <v>38</v>
       </c>
       <c r="G205" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18701,7 +18701,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K205">
         <v>3.6</v>
@@ -18778,7 +18778,7 @@
         <v>45381.79166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G206" t="s">
         <v>33</v>
@@ -18790,7 +18790,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K206">
         <v>1.5</v>
@@ -18879,7 +18879,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K207">
         <v>1.8</v>
@@ -18968,7 +18968,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K208">
         <v>2.1</v>
@@ -19048,7 +19048,7 @@
         <v>42</v>
       </c>
       <c r="G209" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19057,7 +19057,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K209">
         <v>2.2</v>
@@ -19146,7 +19146,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K210">
         <v>2.55</v>
@@ -19235,7 +19235,7 @@
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K211">
         <v>2.625</v>
@@ -19315,7 +19315,7 @@
         <v>38</v>
       </c>
       <c r="G212" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19324,7 +19324,7 @@
         <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K212">
         <v>6</v>
@@ -19404,7 +19404,7 @@
         <v>36</v>
       </c>
       <c r="G213" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -19413,7 +19413,7 @@
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K213">
         <v>1.5</v>
@@ -19502,7 +19502,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K214">
         <v>3.75</v>
@@ -19582,7 +19582,7 @@
         <v>42</v>
       </c>
       <c r="G215" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -19591,7 +19591,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K215">
         <v>2.4</v>
@@ -19656,7 +19656,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7609154</v>
+        <v>7609670</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19665,49 +19665,49 @@
         <v>28</v>
       </c>
       <c r="E216" s="2">
-        <v>45394.79166666666</v>
+        <v>45394.89583333334</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G216" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K216">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="L216">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M216">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="N216">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="O216">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P216">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q216">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R216">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S216">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T216">
         <v>2.25</v>
       </c>
       <c r="U216">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V216">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W216">
         <v>0</v>
@@ -19730,7 +19730,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7609670</v>
+        <v>7609153</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19739,40 +19739,40 @@
         <v>28</v>
       </c>
       <c r="E217" s="2">
-        <v>45394.89583333334</v>
+        <v>45395.79166666666</v>
       </c>
       <c r="F217" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G217" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K217">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="L217">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M217">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N217">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="O217">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P217">
-        <v>2.625</v>
+        <v>4.333</v>
       </c>
       <c r="Q217">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R217">
+        <v>1.85</v>
+      </c>
+      <c r="S217">
         <v>1.95</v>
-      </c>
-      <c r="S217">
-        <v>1.85</v>
       </c>
       <c r="T217">
         <v>2.5</v>
@@ -19804,7 +19804,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7609153</v>
+        <v>7609152</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19813,49 +19813,49 @@
         <v>28</v>
       </c>
       <c r="E218" s="2">
-        <v>45395.79166666666</v>
+        <v>45395.89583333334</v>
       </c>
       <c r="F218" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G218" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K218">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="L218">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M218">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="N218">
-        <v>1.666</v>
+        <v>2.625</v>
       </c>
       <c r="O218">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P218">
-        <v>4.333</v>
+        <v>2.55</v>
       </c>
       <c r="Q218">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R218">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S218">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T218">
         <v>2.5</v>
       </c>
       <c r="U218">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V218">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W218">
         <v>0</v>
@@ -19878,7 +19878,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7609152</v>
+        <v>7609205</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19887,49 +19887,49 @@
         <v>28</v>
       </c>
       <c r="E219" s="2">
-        <v>45395.89583333334</v>
+        <v>45396.77083333334</v>
       </c>
       <c r="F219" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G219" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K219">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="L219">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M219">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="N219">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="O219">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P219">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="Q219">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R219">
+        <v>1.85</v>
+      </c>
+      <c r="S219">
         <v>1.95</v>
-      </c>
-      <c r="S219">
-        <v>1.85</v>
       </c>
       <c r="T219">
         <v>2.25</v>
       </c>
       <c r="U219">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V219">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W219">
         <v>0</v>
@@ -19952,7 +19952,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7609205</v>
+        <v>7609204</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -19961,49 +19961,49 @@
         <v>28</v>
       </c>
       <c r="E220" s="2">
-        <v>45396.77083333334</v>
+        <v>45396.875</v>
       </c>
       <c r="F220" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G220" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K220">
-        <v>3.2</v>
+        <v>1.444</v>
       </c>
       <c r="L220">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M220">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="N220">
-        <v>3.6</v>
+        <v>1.45</v>
       </c>
       <c r="O220">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P220">
-        <v>1.909</v>
+        <v>6</v>
       </c>
       <c r="Q220">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R220">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S220">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T220">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V220">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W220">
         <v>0</v>
@@ -20018,80 +20018,6 @@
         <v>0</v>
       </c>
       <c r="AA220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:29">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
-      <c r="B221">
-        <v>7609204</v>
-      </c>
-      <c r="C221" t="s">
-        <v>28</v>
-      </c>
-      <c r="D221" t="s">
-        <v>28</v>
-      </c>
-      <c r="E221" s="2">
-        <v>45396.875</v>
-      </c>
-      <c r="F221" t="s">
-        <v>30</v>
-      </c>
-      <c r="G221" t="s">
-        <v>32</v>
-      </c>
-      <c r="K221">
-        <v>1.444</v>
-      </c>
-      <c r="L221">
-        <v>4.2</v>
-      </c>
-      <c r="M221">
-        <v>6.5</v>
-      </c>
-      <c r="N221">
-        <v>1.45</v>
-      </c>
-      <c r="O221">
-        <v>4.2</v>
-      </c>
-      <c r="P221">
-        <v>6</v>
-      </c>
-      <c r="Q221">
-        <v>-1</v>
-      </c>
-      <c r="R221">
-        <v>1.775</v>
-      </c>
-      <c r="S221">
-        <v>2.025</v>
-      </c>
-      <c r="T221">
-        <v>2.75</v>
-      </c>
-      <c r="U221">
-        <v>2</v>
-      </c>
-      <c r="V221">
-        <v>1.8</v>
-      </c>
-      <c r="W221">
-        <v>0</v>
-      </c>
-      <c r="X221">
-        <v>0</v>
-      </c>
-      <c r="Y221">
-        <v>0</v>
-      </c>
-      <c r="Z221">
-        <v>0</v>
-      </c>
-      <c r="AA221">
         <v>0</v>
       </c>
     </row>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,13 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
-    <t>Cerro Porteno</t>
-  </si>
-  <si>
     <t>Sportivo Luqueno</t>
   </si>
   <si>
     <t>Guarani Asuncion</t>
+  </si>
+  <si>
+    <t>Cerro Porteno</t>
   </si>
   <si>
     <t>Sportivo Ameliano</t>
@@ -145,13 +145,13 @@
     <t>2 de Mayo</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC220"/>
+  <dimension ref="A1:AC219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6720843</v>
+        <v>6720873</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,73 +625,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L2">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M2">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N2">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O2">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P2">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q2">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R2">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S2">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T2">
         <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V2">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W2">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6720873</v>
+        <v>6720844</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,10 +714,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -726,58 +726,58 @@
         <v>44</v>
       </c>
       <c r="K3">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="L3">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M3">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N3">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P3">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S3">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
         <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AB3">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6720844</v>
+        <v>6720843</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,31 +803,31 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>45</v>
       </c>
       <c r="K4">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M4">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N4">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O4">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P4">
         <v>1.85</v>
@@ -836,10 +836,10 @@
         <v>0.5</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
         <v>2.5</v>
@@ -851,25 +851,25 @@
         <v>1.875</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5">
         <v>1.95</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>1.571</v>
@@ -1079,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7">
         <v>2.4</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8">
         <v>2.75</v>
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9">
         <v>1.333</v>
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10">
         <v>2.3</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1515,7 +1515,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12">
         <v>5.5</v>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K13">
         <v>1.363</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>2.7</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K15">
         <v>1.55</v>
@@ -1880,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -1969,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K17">
         <v>1.4</v>
@@ -2046,10 +2046,10 @@
         <v>45116.70833333334</v>
       </c>
       <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
         <v>30</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K18">
         <v>2.375</v>
@@ -2135,7 +2135,7 @@
         <v>45116.8125</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -2147,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K19">
         <v>1.4</v>
@@ -2236,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K20">
         <v>4.75</v>
@@ -2316,7 +2316,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K21">
         <v>3.6</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K22">
         <v>2.625</v>
@@ -2491,7 +2491,7 @@
         <v>45123.8125</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
@@ -2503,7 +2503,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2583,7 +2583,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2592,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K24">
         <v>2.625</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K25">
         <v>1.666</v>
@@ -2761,7 +2761,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K26">
         <v>2.9</v>
@@ -2859,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K27">
         <v>1.65</v>
@@ -2936,7 +2936,7 @@
         <v>45129.8125</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K28">
         <v>1.45</v>
@@ -3025,7 +3025,7 @@
         <v>45130.70833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -3037,7 +3037,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29">
         <v>2.15</v>
@@ -3126,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30">
         <v>1.7</v>
@@ -3215,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K31">
         <v>1.25</v>
@@ -3295,7 +3295,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K32">
         <v>2.625</v>
@@ -3381,7 +3381,7 @@
         <v>45135.85416666666</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3571,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K35">
         <v>4.2</v>
@@ -3660,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K36">
         <v>2.2</v>
@@ -3740,7 +3740,7 @@
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K37">
         <v>4.5</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K38">
         <v>1.363</v>
@@ -3915,7 +3915,7 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K39">
         <v>1.666</v>
@@ -4004,7 +4004,7 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
         <v>34</v>
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4096,7 +4096,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -4105,7 +4105,7 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K41">
         <v>1.615</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K42">
         <v>1.65</v>
@@ -4283,7 +4283,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K43">
         <v>2.625</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K44">
         <v>2.75</v>
@@ -4461,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -4541,7 +4541,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4627,7 +4627,7 @@
         <v>45151.72916666666</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>40</v>
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K47">
         <v>2.15</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K48">
         <v>2.05</v>
@@ -4808,7 +4808,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4817,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K49">
         <v>2.375</v>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K50">
         <v>1.5</v>
@@ -4983,7 +4983,7 @@
         <v>45157.75</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
@@ -4995,7 +4995,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K51">
         <v>2.25</v>
@@ -5084,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K52">
         <v>1.444</v>
@@ -5161,10 +5161,10 @@
         <v>45158.75</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5173,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K53">
         <v>3.5</v>
@@ -5262,7 +5262,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K54">
         <v>1.666</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K55">
         <v>2.3</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K56">
         <v>1.7</v>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5606,7 +5606,7 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K58">
         <v>2.375</v>
@@ -5695,7 +5695,7 @@
         <v>45165.72916666666</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
         <v>40</v>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -5787,7 +5787,7 @@
         <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K60">
         <v>2.8</v>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K61">
         <v>3.4</v>
@@ -5974,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6054,7 +6054,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6063,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K63">
         <v>4.75</v>
@@ -6143,7 +6143,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K64">
         <v>1.5</v>
@@ -6229,7 +6229,7 @@
         <v>45172.72916666666</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -6241,7 +6241,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K65">
         <v>1.85</v>
@@ -6330,7 +6330,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K66">
         <v>1.909</v>
@@ -6410,7 +6410,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K67">
         <v>2.45</v>
@@ -6508,7 +6508,7 @@
         <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K68">
         <v>2.875</v>
@@ -6585,7 +6585,7 @@
         <v>45179.72916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
         <v>39</v>
@@ -6597,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K69">
         <v>1.85</v>
@@ -6674,7 +6674,7 @@
         <v>45179.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K70">
         <v>1.833</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K71">
         <v>2.2</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K72">
         <v>2.55</v>
@@ -6944,7 +6944,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -7042,7 +7042,7 @@
         <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K74">
         <v>5.75</v>
@@ -7131,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K75">
         <v>1.533</v>
@@ -7220,7 +7220,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7297,10 +7297,10 @@
         <v>45186.83333333334</v>
       </c>
       <c r="F77" t="s">
+        <v>30</v>
+      </c>
+      <c r="G77" t="s">
         <v>31</v>
-      </c>
-      <c r="G77" t="s">
-        <v>29</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K77">
         <v>3.8</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K78">
         <v>1.615</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K79">
         <v>2.2</v>
@@ -7567,7 +7567,7 @@
         <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K80">
         <v>5.25</v>
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K81">
         <v>6</v>
@@ -7754,7 +7754,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K82">
         <v>4</v>
@@ -7831,10 +7831,10 @@
         <v>45193.77083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K83">
         <v>2.15</v>
@@ -7932,7 +7932,7 @@
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K84">
         <v>1.95</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K85">
         <v>1.85</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K86">
         <v>2.1</v>
@@ -8199,7 +8199,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K87">
         <v>3.8</v>
@@ -8276,7 +8276,7 @@
         <v>45200.75</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8288,7 +8288,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K88">
         <v>1.55</v>
@@ -8368,7 +8368,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K89">
         <v>1.5</v>
@@ -8454,7 +8454,7 @@
         <v>45201.75</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K90">
         <v>1.8</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K91">
         <v>1.333</v>
@@ -8635,7 +8635,7 @@
         <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K92">
         <v>4.2</v>
@@ -8733,7 +8733,7 @@
         <v>5</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K93">
         <v>5.75</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K94">
         <v>2.875</v>
@@ -8911,7 +8911,7 @@
         <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K95">
         <v>2.7</v>
@@ -8988,7 +8988,7 @@
         <v>45207.85416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
         <v>39</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K96">
         <v>1.75</v>
@@ -9080,7 +9080,7 @@
         <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9089,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K97">
         <v>2.15</v>
@@ -9169,7 +9169,7 @@
         <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K98">
         <v>1.95</v>
@@ -9267,7 +9267,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K99">
         <v>2.375</v>
@@ -9344,7 +9344,7 @@
         <v>45218.8125</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9356,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K100">
         <v>1.909</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K101">
         <v>1.444</v>
@@ -9534,7 +9534,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K102">
         <v>1.7</v>
@@ -9611,7 +9611,7 @@
         <v>45220.85416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -9623,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K103">
         <v>1.363</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K104">
         <v>3.6</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K105">
         <v>6</v>
@@ -9890,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K106">
         <v>1.75</v>
@@ -9970,7 +9970,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9979,7 +9979,7 @@
         <v>5</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K107">
         <v>3.75</v>
@@ -10056,7 +10056,7 @@
         <v>45223.85416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10068,7 +10068,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K108">
         <v>3.6</v>
@@ -10148,7 +10148,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K109">
         <v>3.2</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K110">
         <v>2.75</v>
@@ -10335,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K111">
         <v>1.909</v>
@@ -10412,7 +10412,7 @@
         <v>45227.85416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
         <v>35</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K112">
         <v>1.85</v>
@@ -10504,7 +10504,7 @@
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K113">
         <v>2.25</v>
@@ -10590,7 +10590,7 @@
         <v>45229.75</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
         <v>38</v>
@@ -10602,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K114">
         <v>2.05</v>
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K115">
         <v>1.25</v>
@@ -10771,7 +10771,7 @@
         <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K116">
         <v>2.2</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K117">
         <v>4</v>
@@ -10958,7 +10958,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K118">
         <v>2.2</v>
@@ -11047,7 +11047,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K119">
         <v>4.333</v>
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K120">
         <v>5</v>
@@ -11213,10 +11213,10 @@
         <v>45233.85416666666</v>
       </c>
       <c r="F121" t="s">
+        <v>31</v>
+      </c>
+      <c r="G121" t="s">
         <v>29</v>
-      </c>
-      <c r="G121" t="s">
-        <v>30</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K121">
         <v>1.533</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K122">
         <v>2.6</v>
@@ -11391,7 +11391,7 @@
         <v>45235.85416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
         <v>37</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K123">
         <v>1.909</v>
@@ -11483,7 +11483,7 @@
         <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11492,7 +11492,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K124">
         <v>2.05</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K125">
         <v>1.615</v>
@@ -11670,7 +11670,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K126">
         <v>2.5</v>
@@ -11750,7 +11750,7 @@
         <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K127">
         <v>1.833</v>
@@ -11848,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K128">
         <v>3</v>
@@ -11937,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K129">
         <v>2</v>
@@ -12014,7 +12014,7 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
         <v>36</v>
@@ -12026,7 +12026,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K130">
         <v>4</v>
@@ -12103,7 +12103,7 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
         <v>39</v>
@@ -12115,7 +12115,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K131">
         <v>1.285</v>
@@ -12195,7 +12195,7 @@
         <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12204,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K132">
         <v>3.4</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K133">
         <v>2.75</v>
@@ -12358,7 +12358,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7493427</v>
+        <v>7493428</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12370,76 +12370,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K134">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L134">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N134">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O134">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P134">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q134">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R134">
+        <v>1.775</v>
+      </c>
+      <c r="S134">
         <v>2.025</v>
       </c>
-      <c r="S134">
-        <v>1.775</v>
-      </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
+        <v>1.825</v>
+      </c>
+      <c r="V134">
         <v>1.975</v>
       </c>
-      <c r="V134">
-        <v>1.825</v>
-      </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X134">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC134">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12447,7 +12447,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7493428</v>
+        <v>7493427</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12459,13 +12459,13 @@
         <v>45253.8125</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H135">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -12474,61 +12474,61 @@
         <v>43</v>
       </c>
       <c r="K135">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M135">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N135">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O135">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P135">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q135">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R135">
+        <v>2.025</v>
+      </c>
+      <c r="S135">
         <v>1.775</v>
       </c>
-      <c r="S135">
-        <v>2.025</v>
-      </c>
       <c r="T135">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
+        <v>1.975</v>
+      </c>
+      <c r="V135">
         <v>1.825</v>
       </c>
-      <c r="V135">
-        <v>1.975</v>
-      </c>
       <c r="W135">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB135">
+        <v>-1</v>
+      </c>
+      <c r="AC135">
         <v>0.825</v>
-      </c>
-      <c r="AC135">
-        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K136">
         <v>1.85</v>
@@ -12637,7 +12637,7 @@
         <v>45255.8125</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
         <v>38</v>
@@ -12649,7 +12649,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K137">
         <v>2</v>
@@ -12738,7 +12738,7 @@
         <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K138">
         <v>2.7</v>
@@ -12818,7 +12818,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12827,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K139">
         <v>2.375</v>
@@ -12916,7 +12916,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K140">
         <v>1.363</v>
@@ -13005,7 +13005,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K141">
         <v>2.05</v>
@@ -13094,7 +13094,7 @@
         <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K142">
         <v>4</v>
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7493433</v>
+        <v>7493312</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F143" t="s">
+        <v>31</v>
+      </c>
+      <c r="G143" t="s">
         <v>30</v>
       </c>
-      <c r="G143" t="s">
-        <v>33</v>
-      </c>
       <c r="H143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K143">
+        <v>1.7</v>
+      </c>
+      <c r="L143">
+        <v>3.6</v>
+      </c>
+      <c r="M143">
+        <v>4.333</v>
+      </c>
+      <c r="N143">
+        <v>1.727</v>
+      </c>
+      <c r="O143">
+        <v>3.75</v>
+      </c>
+      <c r="P143">
+        <v>4.2</v>
+      </c>
+      <c r="Q143">
+        <v>-0.5</v>
+      </c>
+      <c r="R143">
+        <v>1.8</v>
+      </c>
+      <c r="S143">
+        <v>2</v>
+      </c>
+      <c r="T143">
         <v>2.75</v>
       </c>
-      <c r="L143">
-        <v>3.2</v>
-      </c>
-      <c r="M143">
-        <v>2.4</v>
-      </c>
-      <c r="N143">
-        <v>2.75</v>
-      </c>
-      <c r="O143">
-        <v>3.1</v>
-      </c>
-      <c r="P143">
-        <v>2.45</v>
-      </c>
-      <c r="Q143">
-        <v>0.25</v>
-      </c>
-      <c r="R143">
-        <v>1.75</v>
-      </c>
-      <c r="S143">
-        <v>2.05</v>
-      </c>
-      <c r="T143">
-        <v>2.25</v>
-      </c>
       <c r="U143">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V143">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X143">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC143">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7493312</v>
+        <v>7493433</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13263,73 +13263,73 @@
         <v>29</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
         <v>43</v>
       </c>
       <c r="K144">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L144">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M144">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N144">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="O144">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P144">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q144">
+        <v>0.25</v>
+      </c>
+      <c r="R144">
+        <v>1.75</v>
+      </c>
+      <c r="S144">
+        <v>2.05</v>
+      </c>
+      <c r="T144">
+        <v>2.25</v>
+      </c>
+      <c r="U144">
+        <v>2</v>
+      </c>
+      <c r="V144">
+        <v>1.8</v>
+      </c>
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
+        <v>2.1</v>
+      </c>
+      <c r="Y144">
+        <v>-1</v>
+      </c>
+      <c r="Z144">
+        <v>0.375</v>
+      </c>
+      <c r="AA144">
         <v>-0.5</v>
       </c>
-      <c r="R144">
-        <v>1.8</v>
-      </c>
-      <c r="S144">
-        <v>2</v>
-      </c>
-      <c r="T144">
-        <v>2.75</v>
-      </c>
-      <c r="U144">
-        <v>1.875</v>
-      </c>
-      <c r="V144">
-        <v>1.925</v>
-      </c>
-      <c r="W144">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X144">
-        <v>-1</v>
-      </c>
-      <c r="Y144">
-        <v>-1</v>
-      </c>
-      <c r="Z144">
-        <v>0.8</v>
-      </c>
-      <c r="AA144">
-        <v>-1</v>
-      </c>
       <c r="AB144">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13361,7 +13361,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K145">
         <v>3.4</v>
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K146">
         <v>2.625</v>
@@ -13539,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K147">
         <v>1.444</v>
@@ -13616,7 +13616,7 @@
         <v>45311.75</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
         <v>42</v>
@@ -13628,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K148">
         <v>1.8</v>
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K149">
         <v>2.2</v>
@@ -13794,7 +13794,7 @@
         <v>45312.75</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
         <v>38</v>
@@ -13806,7 +13806,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K150">
         <v>1.533</v>
@@ -13883,7 +13883,7 @@
         <v>45312.85416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K151">
         <v>3.75</v>
@@ -13984,7 +13984,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K152">
         <v>1.65</v>
@@ -14073,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K153">
         <v>4.333</v>
@@ -14153,7 +14153,7 @@
         <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14162,7 +14162,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K154">
         <v>3.3</v>
@@ -14242,7 +14242,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K155">
         <v>1.533</v>
@@ -14340,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K156">
         <v>3.5</v>
@@ -14420,7 +14420,7 @@
         <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14429,7 +14429,7 @@
         <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K157">
         <v>3.75</v>
@@ -14506,7 +14506,7 @@
         <v>45318.77083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
         <v>41</v>
@@ -14518,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K158">
         <v>2.25</v>
@@ -14607,7 +14607,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K159">
         <v>2.3</v>
@@ -14696,7 +14696,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K160">
         <v>2.7</v>
@@ -14773,7 +14773,7 @@
         <v>45319.86805555555</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
         <v>39</v>
@@ -14785,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K161">
         <v>1.833</v>
@@ -14874,7 +14874,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K162">
         <v>6.5</v>
@@ -14954,7 +14954,7 @@
         <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14963,7 +14963,7 @@
         <v>4</v>
       </c>
       <c r="J163" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K163">
         <v>1.909</v>
@@ -15052,7 +15052,7 @@
         <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K164">
         <v>2.5</v>
@@ -15132,7 +15132,7 @@
         <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15141,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K165">
         <v>2.8</v>
@@ -15221,7 +15221,7 @@
         <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15230,7 +15230,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K166">
         <v>4.5</v>
@@ -15319,7 +15319,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K167">
         <v>1.25</v>
@@ -15408,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K168">
         <v>3.5</v>
@@ -15497,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K169">
         <v>2.875</v>
@@ -15586,7 +15586,7 @@
         <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K170">
         <v>2</v>
@@ -15663,7 +15663,7 @@
         <v>45332.76041666666</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G171" t="s">
         <v>32</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K171">
         <v>2.15</v>
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K172">
         <v>1.55</v>
@@ -15841,7 +15841,7 @@
         <v>45333.76041666666</v>
       </c>
       <c r="F173" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G173" t="s">
         <v>36</v>
@@ -15853,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15930,7 +15930,7 @@
         <v>45333.86458333334</v>
       </c>
       <c r="F174" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G174" t="s">
         <v>33</v>
@@ -15942,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K174">
         <v>1.95</v>
@@ -16022,7 +16022,7 @@
         <v>37</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16031,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K175">
         <v>2.7</v>
@@ -16111,7 +16111,7 @@
         <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16120,7 +16120,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K176">
         <v>2.5</v>
@@ -16200,7 +16200,7 @@
         <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16209,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K177">
         <v>3.4</v>
@@ -16298,7 +16298,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K178">
         <v>6</v>
@@ -16387,7 +16387,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K179">
         <v>1.909</v>
@@ -16476,7 +16476,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K180">
         <v>2.25</v>
@@ -16553,7 +16553,7 @@
         <v>45345.8125</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G181" t="s">
         <v>37</v>
@@ -16565,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K181">
         <v>1.7</v>
@@ -16654,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K182">
         <v>2.7</v>
@@ -16731,7 +16731,7 @@
         <v>45346.86458333334</v>
       </c>
       <c r="F183" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G183" t="s">
         <v>41</v>
@@ -16743,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K183">
         <v>1.45</v>
@@ -16832,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K184">
         <v>2.7</v>
@@ -16909,7 +16909,7 @@
         <v>45347.86458333334</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G185" t="s">
         <v>40</v>
@@ -16921,7 +16921,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K185">
         <v>2.6</v>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K186">
         <v>1.363</v>
@@ -17087,10 +17087,10 @@
         <v>45352.8125</v>
       </c>
       <c r="F187" t="s">
+        <v>30</v>
+      </c>
+      <c r="G187" t="s">
         <v>31</v>
-      </c>
-      <c r="G187" t="s">
-        <v>29</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17099,7 +17099,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K187">
         <v>3.8</v>
@@ -17188,7 +17188,7 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K188">
         <v>2.2</v>
@@ -17268,7 +17268,7 @@
         <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17277,7 +17277,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K189">
         <v>2</v>
@@ -17366,7 +17366,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K190">
         <v>2.375</v>
@@ -17455,7 +17455,7 @@
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K191">
         <v>2</v>
@@ -17544,7 +17544,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K192">
         <v>2.75</v>
@@ -17633,7 +17633,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K193">
         <v>2</v>
@@ -17710,7 +17710,7 @@
         <v>45360.8125</v>
       </c>
       <c r="F194" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G194" t="s">
         <v>39</v>
@@ -17722,7 +17722,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K194">
         <v>1.363</v>
@@ -17811,7 +17811,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K195">
         <v>5.25</v>
@@ -17888,10 +17888,10 @@
         <v>45361.85416666666</v>
       </c>
       <c r="F196" t="s">
+        <v>29</v>
+      </c>
+      <c r="G196" t="s">
         <v>30</v>
-      </c>
-      <c r="G196" t="s">
-        <v>31</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17900,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K196">
         <v>2.1</v>
@@ -17989,7 +17989,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K197">
         <v>1.5</v>
@@ -18066,10 +18066,10 @@
         <v>45366.8125</v>
       </c>
       <c r="F198" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18078,7 +18078,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K198">
         <v>3.8</v>
@@ -18167,7 +18167,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K199">
         <v>1.666</v>
@@ -18256,7 +18256,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K200">
         <v>5.5</v>
@@ -18345,7 +18345,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K201">
         <v>1.909</v>
@@ -18422,7 +18422,7 @@
         <v>45368.875</v>
       </c>
       <c r="F202" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G202" t="s">
         <v>38</v>
@@ -18434,7 +18434,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K202">
         <v>1.909</v>
@@ -18523,7 +18523,7 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K203">
         <v>1.909</v>
@@ -18612,7 +18612,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K204">
         <v>2.75</v>
@@ -18692,7 +18692,7 @@
         <v>38</v>
       </c>
       <c r="G205" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18701,7 +18701,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K205">
         <v>3.6</v>
@@ -18778,7 +18778,7 @@
         <v>45381.79166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
         <v>33</v>
@@ -18790,7 +18790,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K206">
         <v>1.5</v>
@@ -18879,7 +18879,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K207">
         <v>1.8</v>
@@ -18968,7 +18968,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K208">
         <v>2.1</v>
@@ -19048,7 +19048,7 @@
         <v>42</v>
       </c>
       <c r="G209" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19057,7 +19057,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K209">
         <v>2.2</v>
@@ -19146,7 +19146,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K210">
         <v>2.55</v>
@@ -19235,7 +19235,7 @@
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K211">
         <v>2.625</v>
@@ -19315,7 +19315,7 @@
         <v>38</v>
       </c>
       <c r="G212" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19324,7 +19324,7 @@
         <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K212">
         <v>6</v>
@@ -19404,7 +19404,7 @@
         <v>36</v>
       </c>
       <c r="G213" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -19413,7 +19413,7 @@
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K213">
         <v>1.5</v>
@@ -19502,7 +19502,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K214">
         <v>3.75</v>
@@ -19582,7 +19582,7 @@
         <v>42</v>
       </c>
       <c r="G215" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -19591,7 +19591,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K215">
         <v>2.4</v>
@@ -19656,7 +19656,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7609670</v>
+        <v>7609153</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19665,49 +19665,49 @@
         <v>28</v>
       </c>
       <c r="E216" s="2">
-        <v>45394.89583333334</v>
+        <v>45395.79166666666</v>
       </c>
       <c r="F216" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G216" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K216">
-        <v>2.55</v>
+        <v>1.666</v>
       </c>
       <c r="L216">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M216">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="N216">
-        <v>3.25</v>
+        <v>1.666</v>
       </c>
       <c r="O216">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P216">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q216">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R216">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S216">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T216">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U216">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V216">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W216">
         <v>0</v>
@@ -19730,7 +19730,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7609153</v>
+        <v>7609152</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19739,49 +19739,49 @@
         <v>28</v>
       </c>
       <c r="E217" s="2">
-        <v>45395.79166666666</v>
+        <v>45395.89583333334</v>
       </c>
       <c r="F217" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G217" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K217">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="L217">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M217">
-        <v>4.333</v>
+        <v>2.625</v>
       </c>
       <c r="N217">
-        <v>1.666</v>
+        <v>2.55</v>
       </c>
       <c r="O217">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P217">
-        <v>4.333</v>
+        <v>2.6</v>
       </c>
       <c r="Q217">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R217">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S217">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T217">
         <v>2.5</v>
       </c>
       <c r="U217">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V217">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W217">
         <v>0</v>
@@ -19804,7 +19804,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7609152</v>
+        <v>7609205</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19813,49 +19813,49 @@
         <v>28</v>
       </c>
       <c r="E218" s="2">
-        <v>45395.89583333334</v>
+        <v>45396.77083333334</v>
       </c>
       <c r="F218" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G218" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K218">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="L218">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M218">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="N218">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="O218">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P218">
-        <v>2.55</v>
+        <v>1.909</v>
       </c>
       <c r="Q218">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R218">
+        <v>1.85</v>
+      </c>
+      <c r="S218">
         <v>1.95</v>
       </c>
-      <c r="S218">
+      <c r="T218">
+        <v>2.25</v>
+      </c>
+      <c r="U218">
         <v>1.85</v>
       </c>
-      <c r="T218">
-        <v>2.5</v>
-      </c>
-      <c r="U218">
-        <v>1.975</v>
-      </c>
       <c r="V218">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W218">
         <v>0</v>
@@ -19878,7 +19878,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7609205</v>
+        <v>7609204</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19887,49 +19887,49 @@
         <v>28</v>
       </c>
       <c r="E219" s="2">
-        <v>45396.77083333334</v>
+        <v>45396.875</v>
       </c>
       <c r="F219" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G219" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K219">
-        <v>3.2</v>
+        <v>1.444</v>
       </c>
       <c r="L219">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M219">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="N219">
-        <v>3.6</v>
+        <v>1.444</v>
       </c>
       <c r="O219">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P219">
-        <v>1.909</v>
+        <v>6.5</v>
       </c>
       <c r="Q219">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R219">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S219">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T219">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U219">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V219">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W219">
         <v>0</v>
@@ -19944,80 +19944,6 @@
         <v>0</v>
       </c>
       <c r="AA219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:29">
-      <c r="A220" s="1">
-        <v>218</v>
-      </c>
-      <c r="B220">
-        <v>7609204</v>
-      </c>
-      <c r="C220" t="s">
-        <v>28</v>
-      </c>
-      <c r="D220" t="s">
-        <v>28</v>
-      </c>
-      <c r="E220" s="2">
-        <v>45396.875</v>
-      </c>
-      <c r="F220" t="s">
-        <v>29</v>
-      </c>
-      <c r="G220" t="s">
-        <v>32</v>
-      </c>
-      <c r="K220">
-        <v>1.444</v>
-      </c>
-      <c r="L220">
-        <v>4.2</v>
-      </c>
-      <c r="M220">
-        <v>6.5</v>
-      </c>
-      <c r="N220">
-        <v>1.45</v>
-      </c>
-      <c r="O220">
-        <v>4.2</v>
-      </c>
-      <c r="P220">
-        <v>6</v>
-      </c>
-      <c r="Q220">
-        <v>-1</v>
-      </c>
-      <c r="R220">
-        <v>1.775</v>
-      </c>
-      <c r="S220">
-        <v>2.025</v>
-      </c>
-      <c r="T220">
-        <v>2.75</v>
-      </c>
-      <c r="U220">
-        <v>2</v>
-      </c>
-      <c r="V220">
-        <v>1.8</v>
-      </c>
-      <c r="W220">
-        <v>0</v>
-      </c>
-      <c r="X220">
-        <v>0</v>
-      </c>
-      <c r="Y220">
-        <v>0</v>
-      </c>
-      <c r="Z220">
-        <v>0</v>
-      </c>
-      <c r="AA220">
         <v>0</v>
       </c>
     </row>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>Sportivo Luqueno</t>
   </si>
   <si>
-    <t>Guarani Asuncion</t>
+    <t>Cerro Porteno</t>
   </si>
   <si>
-    <t>Cerro Porteno</t>
+    <t>Guarani Asuncion</t>
   </si>
   <si>
     <t>Sportivo Ameliano</t>
@@ -148,10 +148,10 @@
     <t>D</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6720844</v>
+        <v>6720843</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,31 +714,31 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
       </c>
       <c r="K3">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M3">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O3">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P3">
         <v>1.85</v>
@@ -747,10 +747,10 @@
         <v>0.5</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T3">
         <v>2.5</v>
@@ -762,25 +762,25 @@
         <v>1.875</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6720843</v>
+        <v>6720844</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,31 +803,31 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>2</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>45</v>
       </c>
       <c r="K4">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>2.75</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
         <v>3.2</v>
-      </c>
-      <c r="M4">
-        <v>2.7</v>
-      </c>
-      <c r="N4">
-        <v>3.75</v>
-      </c>
-      <c r="O4">
-        <v>3.3</v>
       </c>
       <c r="P4">
         <v>1.85</v>
@@ -836,10 +836,10 @@
         <v>0.5</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
         <v>2.5</v>
@@ -851,25 +851,25 @@
         <v>1.875</v>
       </c>
       <c r="W4">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K5">
         <v>1.95</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K6">
         <v>1.571</v>
@@ -1079,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>2.4</v>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8">
         <v>2.75</v>
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1515,7 +1515,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K13">
         <v>1.363</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K15">
         <v>1.55</v>
@@ -1880,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -1969,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K17">
         <v>1.4</v>
@@ -2049,7 +2049,7 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K18">
         <v>2.375</v>
@@ -2135,7 +2135,7 @@
         <v>45116.8125</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -2147,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K19">
         <v>1.4</v>
@@ -2236,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K20">
         <v>4.75</v>
@@ -2316,7 +2316,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K21">
         <v>3.6</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K22">
         <v>2.625</v>
@@ -2491,7 +2491,7 @@
         <v>45123.8125</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
@@ -2503,7 +2503,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2761,7 +2761,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
         <v>2.9</v>
@@ -2859,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27">
         <v>1.65</v>
@@ -2936,7 +2936,7 @@
         <v>45129.8125</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K28">
         <v>1.45</v>
@@ -3037,7 +3037,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29">
         <v>2.15</v>
@@ -3126,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K30">
         <v>1.7</v>
@@ -3215,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K31">
         <v>1.25</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32">
         <v>2.625</v>
@@ -3381,7 +3381,7 @@
         <v>45135.85416666666</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3571,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K35">
         <v>4.2</v>
@@ -3660,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K36">
         <v>2.2</v>
@@ -3740,7 +3740,7 @@
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K37">
         <v>4.5</v>
@@ -3915,7 +3915,7 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K39">
         <v>1.666</v>
@@ -4096,7 +4096,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -4105,7 +4105,7 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K41">
         <v>1.615</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K42">
         <v>1.65</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K44">
         <v>2.75</v>
@@ -4461,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -4541,7 +4541,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4627,7 +4627,7 @@
         <v>45151.72916666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
         <v>40</v>
@@ -4817,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K49">
         <v>2.375</v>
@@ -4983,7 +4983,7 @@
         <v>45157.75</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
@@ -4995,7 +4995,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K51">
         <v>2.25</v>
@@ -5084,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K52">
         <v>1.444</v>
@@ -5164,7 +5164,7 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5262,7 +5262,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K54">
         <v>1.666</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K55">
         <v>2.3</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K56">
         <v>1.7</v>
@@ -5606,7 +5606,7 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -5787,7 +5787,7 @@
         <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K60">
         <v>2.8</v>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K61">
         <v>3.4</v>
@@ -5974,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6054,7 +6054,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K64">
         <v>1.5</v>
@@ -6229,7 +6229,7 @@
         <v>45172.72916666666</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -6241,7 +6241,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K65">
         <v>1.85</v>
@@ -6330,7 +6330,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K66">
         <v>1.909</v>
@@ -6410,7 +6410,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6508,7 +6508,7 @@
         <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K68">
         <v>2.875</v>
@@ -6597,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K69">
         <v>1.85</v>
@@ -6674,7 +6674,7 @@
         <v>45179.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K71">
         <v>2.2</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K72">
         <v>2.55</v>
@@ -6953,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -7042,7 +7042,7 @@
         <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K74">
         <v>5.75</v>
@@ -7131,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K75">
         <v>1.533</v>
@@ -7220,7 +7220,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7297,10 +7297,10 @@
         <v>45186.83333333334</v>
       </c>
       <c r="F77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" t="s">
         <v>30</v>
-      </c>
-      <c r="G77" t="s">
-        <v>31</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K77">
         <v>3.8</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K78">
         <v>1.615</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K79">
         <v>2.2</v>
@@ -7567,7 +7567,7 @@
         <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K80">
         <v>5.25</v>
@@ -7754,7 +7754,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K82">
         <v>4</v>
@@ -7831,7 +7831,7 @@
         <v>45193.77083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
         <v>29</v>
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K83">
         <v>2.15</v>
@@ -7932,7 +7932,7 @@
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K84">
         <v>1.95</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K85">
         <v>1.85</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K86">
         <v>2.1</v>
@@ -8199,7 +8199,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K87">
         <v>3.8</v>
@@ -8276,7 +8276,7 @@
         <v>45200.75</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8288,7 +8288,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K88">
         <v>1.55</v>
@@ -8368,7 +8368,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K90">
         <v>1.8</v>
@@ -8635,7 +8635,7 @@
         <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8733,7 +8733,7 @@
         <v>5</v>
       </c>
       <c r="J93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K93">
         <v>5.75</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K94">
         <v>2.875</v>
@@ -8911,7 +8911,7 @@
         <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K95">
         <v>2.7</v>
@@ -8988,7 +8988,7 @@
         <v>45207.85416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
         <v>39</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K96">
         <v>1.75</v>
@@ -9089,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K97">
         <v>2.15</v>
@@ -9169,7 +9169,7 @@
         <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K98">
         <v>1.95</v>
@@ -9267,7 +9267,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K99">
         <v>2.375</v>
@@ -9356,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K100">
         <v>1.909</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K101">
         <v>1.444</v>
@@ -9611,7 +9611,7 @@
         <v>45220.85416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -9623,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K103">
         <v>1.363</v>
@@ -9890,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K106">
         <v>1.75</v>
@@ -9970,7 +9970,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9979,7 +9979,7 @@
         <v>5</v>
       </c>
       <c r="J107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K107">
         <v>3.75</v>
@@ -10056,7 +10056,7 @@
         <v>45223.85416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10068,7 +10068,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K108">
         <v>3.6</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K110">
         <v>2.75</v>
@@ -10335,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K111">
         <v>1.909</v>
@@ -10412,7 +10412,7 @@
         <v>45227.85416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
         <v>35</v>
@@ -10504,7 +10504,7 @@
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10602,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K114">
         <v>2.05</v>
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K115">
         <v>1.25</v>
@@ -10771,7 +10771,7 @@
         <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10958,7 +10958,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K118">
         <v>2.2</v>
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K120">
         <v>5</v>
@@ -11213,7 +11213,7 @@
         <v>45233.85416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
         <v>29</v>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K121">
         <v>1.533</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K122">
         <v>2.6</v>
@@ -11391,7 +11391,7 @@
         <v>45235.85416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
         <v>37</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K123">
         <v>1.909</v>
@@ -11483,7 +11483,7 @@
         <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K125">
         <v>1.615</v>
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K127">
         <v>1.833</v>
@@ -11848,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K128">
         <v>3</v>
@@ -12026,7 +12026,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K130">
         <v>4</v>
@@ -12103,7 +12103,7 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
         <v>39</v>
@@ -12195,7 +12195,7 @@
         <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12204,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K132">
         <v>3.4</v>
@@ -12358,7 +12358,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7493428</v>
+        <v>7493427</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12370,76 +12370,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H134">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K134">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M134">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N134">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O134">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P134">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q134">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R134">
+        <v>2.025</v>
+      </c>
+      <c r="S134">
         <v>1.775</v>
       </c>
-      <c r="S134">
-        <v>2.025</v>
-      </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
+        <v>1.975</v>
+      </c>
+      <c r="V134">
         <v>1.825</v>
       </c>
-      <c r="V134">
-        <v>1.975</v>
-      </c>
       <c r="W134">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
         <v>0.825</v>
-      </c>
-      <c r="AC134">
-        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12447,7 +12447,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7493427</v>
+        <v>7493428</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12459,76 +12459,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K135">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L135">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N135">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O135">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P135">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q135">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R135">
+        <v>1.775</v>
+      </c>
+      <c r="S135">
         <v>2.025</v>
       </c>
-      <c r="S135">
-        <v>1.775</v>
-      </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U135">
+        <v>1.825</v>
+      </c>
+      <c r="V135">
         <v>1.975</v>
       </c>
-      <c r="V135">
-        <v>1.825</v>
-      </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X135">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K136">
         <v>1.85</v>
@@ -12637,7 +12637,7 @@
         <v>45255.8125</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
         <v>38</v>
@@ -12649,7 +12649,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K137">
         <v>2</v>
@@ -12738,7 +12738,7 @@
         <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K138">
         <v>2.7</v>
@@ -12818,7 +12818,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12916,7 +12916,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K140">
         <v>1.363</v>
@@ -13005,7 +13005,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K141">
         <v>2.05</v>
@@ -13094,7 +13094,7 @@
         <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K142">
         <v>4</v>
@@ -13171,10 +13171,10 @@
         <v>45261.8125</v>
       </c>
       <c r="F143" t="s">
+        <v>30</v>
+      </c>
+      <c r="G143" t="s">
         <v>31</v>
-      </c>
-      <c r="G143" t="s">
-        <v>30</v>
       </c>
       <c r="H143">
         <v>4</v>
@@ -13183,7 +13183,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K143">
         <v>1.7</v>
@@ -13361,7 +13361,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K145">
         <v>3.4</v>
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K146">
         <v>2.625</v>
@@ -13628,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K148">
         <v>1.8</v>
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K149">
         <v>2.2</v>
@@ -13794,7 +13794,7 @@
         <v>45312.75</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G150" t="s">
         <v>38</v>
@@ -13806,7 +13806,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K150">
         <v>1.533</v>
@@ -13883,7 +13883,7 @@
         <v>45312.85416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -14073,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K153">
         <v>4.333</v>
@@ -14153,7 +14153,7 @@
         <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K155">
         <v>1.533</v>
@@ -14340,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K156">
         <v>3.5</v>
@@ -14420,7 +14420,7 @@
         <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14429,7 +14429,7 @@
         <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K157">
         <v>3.75</v>
@@ -14773,7 +14773,7 @@
         <v>45319.86805555555</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
         <v>39</v>
@@ -14785,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K161">
         <v>1.833</v>
@@ -14874,7 +14874,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K162">
         <v>6.5</v>
@@ -14954,7 +14954,7 @@
         <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14963,7 +14963,7 @@
         <v>4</v>
       </c>
       <c r="J163" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K163">
         <v>1.909</v>
@@ -15052,7 +15052,7 @@
         <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K164">
         <v>2.5</v>
@@ -15221,7 +15221,7 @@
         <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15319,7 +15319,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K167">
         <v>1.25</v>
@@ -15408,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K168">
         <v>3.5</v>
@@ -15497,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K169">
         <v>2.875</v>
@@ -15586,7 +15586,7 @@
         <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K170">
         <v>2</v>
@@ -15663,7 +15663,7 @@
         <v>45332.76041666666</v>
       </c>
       <c r="F171" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
         <v>32</v>
@@ -15841,7 +15841,7 @@
         <v>45333.76041666666</v>
       </c>
       <c r="F173" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G173" t="s">
         <v>36</v>
@@ -15942,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K174">
         <v>1.95</v>
@@ -16022,7 +16022,7 @@
         <v>37</v>
       </c>
       <c r="G175" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16120,7 +16120,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K176">
         <v>2.5</v>
@@ -16200,7 +16200,7 @@
         <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16298,7 +16298,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K178">
         <v>6</v>
@@ -16387,7 +16387,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K179">
         <v>1.909</v>
@@ -16654,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K182">
         <v>2.7</v>
@@ -16731,7 +16731,7 @@
         <v>45346.86458333334</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G183" t="s">
         <v>41</v>
@@ -16832,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K184">
         <v>2.7</v>
@@ -16909,7 +16909,7 @@
         <v>45347.86458333334</v>
       </c>
       <c r="F185" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
         <v>40</v>
@@ -16921,7 +16921,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K185">
         <v>2.6</v>
@@ -17087,10 +17087,10 @@
         <v>45352.8125</v>
       </c>
       <c r="F187" t="s">
+        <v>31</v>
+      </c>
+      <c r="G187" t="s">
         <v>30</v>
-      </c>
-      <c r="G187" t="s">
-        <v>31</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17188,7 +17188,7 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K188">
         <v>2.2</v>
@@ -17277,7 +17277,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K189">
         <v>2</v>
@@ -17366,7 +17366,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K190">
         <v>2.375</v>
@@ -17455,7 +17455,7 @@
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K191">
         <v>2</v>
@@ -17544,7 +17544,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K192">
         <v>2.75</v>
@@ -17710,7 +17710,7 @@
         <v>45360.8125</v>
       </c>
       <c r="F194" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G194" t="s">
         <v>39</v>
@@ -17722,7 +17722,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K194">
         <v>1.363</v>
@@ -17891,7 +17891,7 @@
         <v>29</v>
       </c>
       <c r="G196" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17900,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K196">
         <v>2.1</v>
@@ -17989,7 +17989,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K197">
         <v>1.5</v>
@@ -18069,7 +18069,7 @@
         <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18078,7 +18078,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K198">
         <v>3.8</v>
@@ -18167,7 +18167,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K199">
         <v>1.666</v>
@@ -18256,7 +18256,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K200">
         <v>5.5</v>
@@ -18345,7 +18345,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K201">
         <v>1.909</v>
@@ -18422,7 +18422,7 @@
         <v>45368.875</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G202" t="s">
         <v>38</v>
@@ -18434,7 +18434,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K202">
         <v>1.909</v>
@@ -18523,7 +18523,7 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K203">
         <v>1.909</v>
@@ -18701,7 +18701,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K205">
         <v>3.6</v>
@@ -18778,7 +18778,7 @@
         <v>45381.79166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G206" t="s">
         <v>33</v>
@@ -18790,7 +18790,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K206">
         <v>1.5</v>
@@ -18968,7 +18968,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K208">
         <v>2.1</v>
@@ -19048,7 +19048,7 @@
         <v>42</v>
       </c>
       <c r="G209" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19057,7 +19057,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K209">
         <v>2.2</v>
@@ -19315,7 +19315,7 @@
         <v>38</v>
       </c>
       <c r="G212" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19324,7 +19324,7 @@
         <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K212">
         <v>6</v>
@@ -19404,7 +19404,7 @@
         <v>36</v>
       </c>
       <c r="G213" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -19413,7 +19413,7 @@
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K213">
         <v>1.5</v>
@@ -19656,7 +19656,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7609153</v>
+        <v>7609154</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19665,64 +19665,79 @@
         <v>28</v>
       </c>
       <c r="E216" s="2">
-        <v>45395.79166666666</v>
+        <v>45394.79166666666</v>
       </c>
       <c r="F216" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G216" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216" t="s">
+        <v>44</v>
       </c>
       <c r="K216">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L216">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M216">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="N216">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="O216">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P216">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q216">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R216">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S216">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T216">
         <v>2.5</v>
       </c>
       <c r="U216">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V216">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W216">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="X216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA216">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB216">
+        <v>-1</v>
+      </c>
+      <c r="AC216">
+        <v>0.875</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19730,7 +19745,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7609152</v>
+        <v>7609670</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19739,64 +19754,79 @@
         <v>28</v>
       </c>
       <c r="E217" s="2">
-        <v>45395.89583333334</v>
+        <v>45394.91666666666</v>
       </c>
       <c r="F217" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G217" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="I217">
+        <v>2</v>
+      </c>
+      <c r="J217" t="s">
+        <v>45</v>
       </c>
       <c r="K217">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="L217">
+        <v>3.2</v>
+      </c>
+      <c r="M217">
+        <v>2.7</v>
+      </c>
+      <c r="N217">
+        <v>2.9</v>
+      </c>
+      <c r="O217">
         <v>3</v>
       </c>
-      <c r="M217">
-        <v>2.625</v>
-      </c>
-      <c r="N217">
-        <v>2.55</v>
-      </c>
-      <c r="O217">
-        <v>3.25</v>
-      </c>
       <c r="P217">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Q217">
         <v>0</v>
       </c>
       <c r="R217">
+        <v>2</v>
+      </c>
+      <c r="S217">
+        <v>1.8</v>
+      </c>
+      <c r="T217">
+        <v>2.25</v>
+      </c>
+      <c r="U217">
         <v>1.9</v>
       </c>
-      <c r="S217">
+      <c r="V217">
         <v>1.9</v>
       </c>
-      <c r="T217">
-        <v>2.5</v>
-      </c>
-      <c r="U217">
-        <v>1.975</v>
-      </c>
-      <c r="V217">
-        <v>1.825</v>
-      </c>
       <c r="W217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Z217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA217">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB217">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC217">
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19831,31 +19861,31 @@
         <v>2.1</v>
       </c>
       <c r="N218">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O218">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P218">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="Q218">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R218">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S218">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T218">
         <v>2.25</v>
       </c>
       <c r="U218">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V218">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W218">
         <v>0</v>
@@ -19890,7 +19920,7 @@
         <v>45396.875</v>
       </c>
       <c r="F219" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G219" t="s">
         <v>32</v>
@@ -19923,13 +19953,13 @@
         <v>1.775</v>
       </c>
       <c r="T219">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U219">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V219">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W219">
         <v>0</v>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
-    <t>Sportivo Luqueno</t>
+    <t>Cerro Porteno</t>
   </si>
   <si>
-    <t>Cerro Porteno</t>
+    <t>Sportivo Luqueno</t>
   </si>
   <si>
     <t>Guarani Asuncion</t>
@@ -145,10 +145,10 @@
     <t>2 de Mayo</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
     <t>A</t>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6720873</v>
+        <v>6720843</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,73 +625,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="L2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M2">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N2">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="O2">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P2">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R2">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S2">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T2">
         <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V2">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X2">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA2">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6720843</v>
+        <v>6720873</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,73 +714,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
       </c>
       <c r="K3">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M3">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N3">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O3">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P3">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q3">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T3">
         <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6">
         <v>1.571</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9">
         <v>1.333</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10">
         <v>2.3</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1515,7 +1515,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12">
         <v>5.5</v>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13">
         <v>1.363</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14">
         <v>2.7</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15">
         <v>1.55</v>
@@ -1880,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -2046,7 +2046,7 @@
         <v>45116.70833333334</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>31</v>
@@ -2135,7 +2135,7 @@
         <v>45116.8125</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -2236,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K20">
         <v>4.75</v>
@@ -2316,7 +2316,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K22">
         <v>2.625</v>
@@ -2583,7 +2583,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2592,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K24">
         <v>2.625</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25">
         <v>1.666</v>
@@ -2936,7 +2936,7 @@
         <v>45129.8125</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K28">
         <v>1.45</v>
@@ -3025,7 +3025,7 @@
         <v>45130.70833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -3215,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>1.25</v>
@@ -3295,7 +3295,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K32">
         <v>2.625</v>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3740,7 +3740,7 @@
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K38">
         <v>1.363</v>
@@ -3915,7 +3915,7 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K39">
         <v>1.666</v>
@@ -4004,7 +4004,7 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
         <v>34</v>
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4105,7 +4105,7 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K41">
         <v>1.615</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K42">
         <v>1.65</v>
@@ -4283,7 +4283,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K43">
         <v>2.625</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K44">
         <v>2.75</v>
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4627,7 +4627,7 @@
         <v>45151.72916666666</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
         <v>40</v>
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K47">
         <v>2.15</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K48">
         <v>2.05</v>
@@ -4808,7 +4808,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K50">
         <v>1.5</v>
@@ -5161,10 +5161,10 @@
         <v>45158.75</v>
       </c>
       <c r="F53" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" t="s">
         <v>29</v>
-      </c>
-      <c r="G53" t="s">
-        <v>30</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5173,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K53">
         <v>3.5</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K55">
         <v>2.3</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K56">
         <v>1.7</v>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5606,7 +5606,7 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K58">
         <v>2.375</v>
@@ -5695,7 +5695,7 @@
         <v>45165.72916666666</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
         <v>40</v>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K61">
         <v>3.4</v>
@@ -5974,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6054,7 +6054,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6063,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K63">
         <v>4.75</v>
@@ -6143,7 +6143,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K64">
         <v>1.5</v>
@@ -6241,7 +6241,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K65">
         <v>1.85</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K67">
         <v>2.45</v>
@@ -6585,7 +6585,7 @@
         <v>45179.72916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
         <v>39</v>
@@ -6597,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K69">
         <v>1.85</v>
@@ -6674,7 +6674,7 @@
         <v>45179.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K70">
         <v>1.833</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K71">
         <v>2.2</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K72">
         <v>2.55</v>
@@ -6944,7 +6944,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -7131,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K75">
         <v>1.533</v>
@@ -7300,7 +7300,7 @@
         <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K77">
         <v>3.8</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K78">
         <v>1.615</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K79">
         <v>2.2</v>
@@ -7567,7 +7567,7 @@
         <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K81">
         <v>6</v>
@@ -7834,7 +7834,7 @@
         <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K83">
         <v>2.15</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K85">
         <v>1.85</v>
@@ -8276,7 +8276,7 @@
         <v>45200.75</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8288,7 +8288,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K88">
         <v>1.55</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K89">
         <v>1.5</v>
@@ -8454,7 +8454,7 @@
         <v>45201.75</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K90">
         <v>1.8</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K91">
         <v>1.333</v>
@@ -8635,7 +8635,7 @@
         <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K92">
         <v>4.2</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K94">
         <v>2.875</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K96">
         <v>1.75</v>
@@ -9080,7 +9080,7 @@
         <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K98">
         <v>1.95</v>
@@ -9344,7 +9344,7 @@
         <v>45218.8125</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9356,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K100">
         <v>1.909</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K101">
         <v>1.444</v>
@@ -9534,7 +9534,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K102">
         <v>1.7</v>
@@ -9611,7 +9611,7 @@
         <v>45220.85416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -9623,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K103">
         <v>1.363</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K104">
         <v>3.6</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K105">
         <v>6</v>
@@ -9890,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K106">
         <v>1.75</v>
@@ -9970,7 +9970,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -10148,7 +10148,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K109">
         <v>3.2</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K110">
         <v>2.75</v>
@@ -10335,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K111">
         <v>1.909</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K112">
         <v>1.85</v>
@@ -10504,7 +10504,7 @@
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K113">
         <v>2.25</v>
@@ -10590,7 +10590,7 @@
         <v>45229.75</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
         <v>38</v>
@@ -10602,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K114">
         <v>2.05</v>
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K115">
         <v>1.25</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K116">
         <v>2.2</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K117">
         <v>4</v>
@@ -11047,7 +11047,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K119">
         <v>4.333</v>
@@ -11213,10 +11213,10 @@
         <v>45233.85416666666</v>
       </c>
       <c r="F121" t="s">
+        <v>29</v>
+      </c>
+      <c r="G121" t="s">
         <v>30</v>
-      </c>
-      <c r="G121" t="s">
-        <v>29</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K121">
         <v>1.533</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K122">
         <v>2.6</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K123">
         <v>1.909</v>
@@ -11483,7 +11483,7 @@
         <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11492,7 +11492,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K124">
         <v>2.05</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K125">
         <v>1.615</v>
@@ -11670,7 +11670,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K126">
         <v>2.5</v>
@@ -11750,7 +11750,7 @@
         <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K127">
         <v>1.833</v>
@@ -11848,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K128">
         <v>3</v>
@@ -11937,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K129">
         <v>2</v>
@@ -12002,7 +12002,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7454842</v>
+        <v>7453204</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12017,73 +12017,73 @@
         <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K130">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="L130">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M130">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="N130">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O130">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P130">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U130">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y130">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12091,7 +12091,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7453204</v>
+        <v>7454842</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12106,73 +12106,73 @@
         <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K131">
-        <v>1.285</v>
+        <v>4</v>
       </c>
       <c r="L131">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M131">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="N131">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O131">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P131">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="Q131">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K133">
         <v>2.75</v>
@@ -12373,7 +12373,7 @@
         <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12382,7 +12382,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K134">
         <v>3.4</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K135">
         <v>1.727</v>
@@ -12818,7 +12818,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12827,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K139">
         <v>2.375</v>
@@ -13005,7 +13005,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K141">
         <v>2.05</v>
@@ -13171,7 +13171,7 @@
         <v>45261.8125</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G143" t="s">
         <v>31</v>
@@ -13183,7 +13183,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K143">
         <v>1.7</v>
@@ -13260,7 +13260,7 @@
         <v>45261.8125</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
         <v>33</v>
@@ -13272,7 +13272,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K144">
         <v>2.75</v>
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K146">
         <v>2.625</v>
@@ -13539,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K147">
         <v>1.444</v>
@@ -13616,7 +13616,7 @@
         <v>45311.75</v>
       </c>
       <c r="F148" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G148" t="s">
         <v>42</v>
@@ -13628,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K148">
         <v>1.8</v>
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K149">
         <v>2.2</v>
@@ -13794,7 +13794,7 @@
         <v>45312.75</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
         <v>38</v>
@@ -13806,7 +13806,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K150">
         <v>1.533</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K151">
         <v>3.75</v>
@@ -13984,7 +13984,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K152">
         <v>1.65</v>
@@ -14162,7 +14162,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K154">
         <v>3.3</v>
@@ -14242,7 +14242,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K155">
         <v>1.533</v>
@@ -14340,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K156">
         <v>3.5</v>
@@ -14420,7 +14420,7 @@
         <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14506,7 +14506,7 @@
         <v>45318.77083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
         <v>41</v>
@@ -14518,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K158">
         <v>2.25</v>
@@ -14607,7 +14607,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K159">
         <v>2.3</v>
@@ -14696,7 +14696,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K160">
         <v>2.7</v>
@@ -14785,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K161">
         <v>1.833</v>
@@ -15132,7 +15132,7 @@
         <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15141,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K165">
         <v>2.8</v>
@@ -15221,7 +15221,7 @@
         <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15230,7 +15230,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K166">
         <v>4.5</v>
@@ -15319,7 +15319,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K167">
         <v>1.25</v>
@@ -15408,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K168">
         <v>3.5</v>
@@ -15497,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K169">
         <v>2.875</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K171">
         <v>2.15</v>
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K172">
         <v>1.55</v>
@@ -15841,7 +15841,7 @@
         <v>45333.76041666666</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G173" t="s">
         <v>36</v>
@@ -15853,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15930,7 +15930,7 @@
         <v>45333.86458333334</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G174" t="s">
         <v>33</v>
@@ -15942,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K174">
         <v>1.95</v>
@@ -16031,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K175">
         <v>2.7</v>
@@ -16111,7 +16111,7 @@
         <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16200,7 +16200,7 @@
         <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16209,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K177">
         <v>3.4</v>
@@ -16387,7 +16387,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K179">
         <v>1.909</v>
@@ -16476,7 +16476,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K180">
         <v>2.25</v>
@@ -16553,7 +16553,7 @@
         <v>45345.8125</v>
       </c>
       <c r="F181" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G181" t="s">
         <v>37</v>
@@ -16565,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K181">
         <v>1.7</v>
@@ -16654,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K182">
         <v>2.7</v>
@@ -16731,7 +16731,7 @@
         <v>45346.86458333334</v>
       </c>
       <c r="F183" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G183" t="s">
         <v>41</v>
@@ -16743,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K183">
         <v>1.45</v>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K186">
         <v>1.363</v>
@@ -17090,7 +17090,7 @@
         <v>31</v>
       </c>
       <c r="G187" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17099,7 +17099,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K187">
         <v>3.8</v>
@@ -17268,7 +17268,7 @@
         <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17277,7 +17277,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K189">
         <v>2</v>
@@ -17366,7 +17366,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K190">
         <v>2.375</v>
@@ -17544,7 +17544,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K192">
         <v>2.75</v>
@@ -17633,7 +17633,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K193">
         <v>2</v>
@@ -17710,7 +17710,7 @@
         <v>45360.8125</v>
       </c>
       <c r="F194" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G194" t="s">
         <v>39</v>
@@ -17811,7 +17811,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K195">
         <v>5.25</v>
@@ -17888,7 +17888,7 @@
         <v>45361.85416666666</v>
       </c>
       <c r="F196" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G196" t="s">
         <v>31</v>
@@ -17900,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K196">
         <v>2.1</v>
@@ -17989,7 +17989,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K197">
         <v>1.5</v>
@@ -18066,10 +18066,10 @@
         <v>45366.8125</v>
       </c>
       <c r="F198" t="s">
+        <v>30</v>
+      </c>
+      <c r="G198" t="s">
         <v>29</v>
-      </c>
-      <c r="G198" t="s">
-        <v>30</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18167,7 +18167,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K199">
         <v>1.666</v>
@@ -18523,7 +18523,7 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K203">
         <v>1.909</v>
@@ -18612,7 +18612,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K204">
         <v>2.75</v>
@@ -18692,7 +18692,7 @@
         <v>38</v>
       </c>
       <c r="G205" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18778,7 +18778,7 @@
         <v>45381.79166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G206" t="s">
         <v>33</v>
@@ -18790,7 +18790,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K206">
         <v>1.5</v>
@@ -18879,7 +18879,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K207">
         <v>1.8</v>
@@ -18968,7 +18968,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K208">
         <v>2.1</v>
@@ -19146,7 +19146,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K210">
         <v>2.55</v>
@@ -19235,7 +19235,7 @@
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K211">
         <v>2.625</v>
@@ -19315,7 +19315,7 @@
         <v>38</v>
       </c>
       <c r="G212" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K213">
         <v>1.5</v>
@@ -19502,7 +19502,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K214">
         <v>3.75</v>
@@ -19582,7 +19582,7 @@
         <v>42</v>
       </c>
       <c r="G215" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -19591,7 +19591,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K215">
         <v>2.4</v>
@@ -19680,7 +19680,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K216">
         <v>2.05</v>
@@ -19834,7 +19834,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7609205</v>
+        <v>7609153</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19843,64 +19843,79 @@
         <v>28</v>
       </c>
       <c r="E218" s="2">
-        <v>45396.77083333334</v>
+        <v>45395.79166666666</v>
       </c>
       <c r="F218" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G218" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="H218">
+        <v>2</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218" t="s">
+        <v>43</v>
       </c>
       <c r="K218">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="L218">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M218">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="N218">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="O218">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P218">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="Q218">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R218">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S218">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T218">
         <v>2.25</v>
       </c>
       <c r="U218">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V218">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W218">
-        <v>0</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z218">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA218">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB218">
+        <v>0.8</v>
+      </c>
+      <c r="AC218">
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19908,7 +19923,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7609204</v>
+        <v>7609152</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19917,64 +19932,79 @@
         <v>28</v>
       </c>
       <c r="E219" s="2">
-        <v>45396.875</v>
+        <v>45395.89583333334</v>
       </c>
       <c r="F219" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G219" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+      <c r="I219">
+        <v>2</v>
+      </c>
+      <c r="J219" t="s">
+        <v>45</v>
       </c>
       <c r="K219">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="L219">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="M219">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="N219">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="O219">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P219">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q219">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R219">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S219">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T219">
         <v>2.5</v>
       </c>
       <c r="U219">
+        <v>1.95</v>
+      </c>
+      <c r="V219">
+        <v>1.85</v>
+      </c>
+      <c r="W219">
+        <v>-1</v>
+      </c>
+      <c r="X219">
+        <v>-1</v>
+      </c>
+      <c r="Y219">
         <v>1.8</v>
       </c>
-      <c r="V219">
-        <v>2</v>
-      </c>
-      <c r="W219">
-        <v>0</v>
-      </c>
-      <c r="X219">
-        <v>0</v>
-      </c>
-      <c r="Y219">
-        <v>0</v>
-      </c>
       <c r="Z219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA219">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB219">
+        <v>0.95</v>
+      </c>
+      <c r="AC219">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,13 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
-    <t>Cerro Porteno</t>
+    <t>Guarani Asuncion</t>
   </si>
   <si>
     <t>Sportivo Luqueno</t>
   </si>
   <si>
-    <t>Guarani Asuncion</t>
+    <t>Cerro Porteno</t>
   </si>
   <si>
     <t>Sportivo Ameliano</t>
@@ -145,13 +145,13 @@
     <t>2 de Mayo</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC219"/>
+  <dimension ref="A1:AC227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6720843</v>
+        <v>6720844</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,31 +625,31 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>2</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>2.75</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
         <v>3.2</v>
-      </c>
-      <c r="M2">
-        <v>2.7</v>
-      </c>
-      <c r="N2">
-        <v>3.75</v>
-      </c>
-      <c r="O2">
-        <v>3.3</v>
       </c>
       <c r="P2">
         <v>1.85</v>
@@ -658,10 +658,10 @@
         <v>0.5</v>
       </c>
       <c r="R2">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S2">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T2">
         <v>2.5</v>
@@ -673,25 +673,25 @@
         <v>1.875</v>
       </c>
       <c r="W2">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z2">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6720844</v>
+        <v>6720843</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,31 +803,31 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>45</v>
       </c>
       <c r="K4">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M4">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N4">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O4">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P4">
         <v>1.85</v>
@@ -836,10 +836,10 @@
         <v>0.5</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T4">
         <v>2.5</v>
@@ -851,25 +851,25 @@
         <v>1.875</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K5">
         <v>1.95</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>1.571</v>
@@ -1079,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K7">
         <v>2.4</v>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K8">
         <v>2.75</v>
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1515,7 +1515,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K13">
         <v>1.363</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K15">
         <v>1.55</v>
@@ -1880,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -1969,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K17">
         <v>1.4</v>
@@ -2049,7 +2049,7 @@
         <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K18">
         <v>2.375</v>
@@ -2135,7 +2135,7 @@
         <v>45116.8125</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -2147,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K19">
         <v>1.4</v>
@@ -2236,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K20">
         <v>4.75</v>
@@ -2316,7 +2316,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K21">
         <v>3.6</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K22">
         <v>2.625</v>
@@ -2491,7 +2491,7 @@
         <v>45123.8125</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
@@ -2503,7 +2503,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2761,7 +2761,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K26">
         <v>2.9</v>
@@ -2859,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K27">
         <v>1.65</v>
@@ -2936,7 +2936,7 @@
         <v>45129.8125</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K28">
         <v>1.45</v>
@@ -3037,7 +3037,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K29">
         <v>2.15</v>
@@ -3126,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K30">
         <v>1.7</v>
@@ -3215,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K31">
         <v>1.25</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K32">
         <v>2.625</v>
@@ -3381,7 +3381,7 @@
         <v>45135.85416666666</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3571,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K35">
         <v>4.2</v>
@@ -3660,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K36">
         <v>2.2</v>
@@ -3740,7 +3740,7 @@
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K37">
         <v>4.5</v>
@@ -3915,7 +3915,7 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K39">
         <v>1.666</v>
@@ -4096,7 +4096,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -4105,7 +4105,7 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K41">
         <v>1.615</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K42">
         <v>1.65</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K44">
         <v>2.75</v>
@@ -4461,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -4541,7 +4541,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4627,7 +4627,7 @@
         <v>45151.72916666666</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>40</v>
@@ -4817,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K49">
         <v>2.375</v>
@@ -4983,7 +4983,7 @@
         <v>45157.75</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
@@ -4995,7 +4995,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K51">
         <v>2.25</v>
@@ -5084,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K52">
         <v>1.444</v>
@@ -5164,7 +5164,7 @@
         <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5262,7 +5262,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K54">
         <v>1.666</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K55">
         <v>2.3</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K56">
         <v>1.7</v>
@@ -5606,7 +5606,7 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -5787,7 +5787,7 @@
         <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K60">
         <v>2.8</v>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K61">
         <v>3.4</v>
@@ -5974,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6054,7 +6054,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K64">
         <v>1.5</v>
@@ -6229,7 +6229,7 @@
         <v>45172.72916666666</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -6241,7 +6241,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K65">
         <v>1.85</v>
@@ -6330,7 +6330,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K66">
         <v>1.909</v>
@@ -6410,7 +6410,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6508,7 +6508,7 @@
         <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K68">
         <v>2.875</v>
@@ -6597,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K69">
         <v>1.85</v>
@@ -6674,7 +6674,7 @@
         <v>45179.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K71">
         <v>2.2</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K72">
         <v>2.55</v>
@@ -6953,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -7042,7 +7042,7 @@
         <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K74">
         <v>5.75</v>
@@ -7131,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K75">
         <v>1.533</v>
@@ -7220,7 +7220,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7297,10 +7297,10 @@
         <v>45186.83333333334</v>
       </c>
       <c r="F77" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" t="s">
         <v>31</v>
-      </c>
-      <c r="G77" t="s">
-        <v>29</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K77">
         <v>3.8</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K78">
         <v>1.615</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K79">
         <v>2.2</v>
@@ -7567,7 +7567,7 @@
         <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K80">
         <v>5.25</v>
@@ -7754,7 +7754,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K82">
         <v>4</v>
@@ -7831,7 +7831,7 @@
         <v>45193.77083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
         <v>30</v>
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K83">
         <v>2.15</v>
@@ -7932,7 +7932,7 @@
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K84">
         <v>1.95</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K85">
         <v>1.85</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K86">
         <v>2.1</v>
@@ -8199,7 +8199,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K87">
         <v>3.8</v>
@@ -8276,7 +8276,7 @@
         <v>45200.75</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8288,7 +8288,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K88">
         <v>1.55</v>
@@ -8368,7 +8368,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K90">
         <v>1.8</v>
@@ -8635,7 +8635,7 @@
         <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8733,7 +8733,7 @@
         <v>5</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K93">
         <v>5.75</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K94">
         <v>2.875</v>
@@ -8911,7 +8911,7 @@
         <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K95">
         <v>2.7</v>
@@ -8988,7 +8988,7 @@
         <v>45207.85416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
         <v>39</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K96">
         <v>1.75</v>
@@ -9089,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K97">
         <v>2.15</v>
@@ -9169,7 +9169,7 @@
         <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K98">
         <v>1.95</v>
@@ -9267,7 +9267,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K99">
         <v>2.375</v>
@@ -9356,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K100">
         <v>1.909</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K101">
         <v>1.444</v>
@@ -9611,7 +9611,7 @@
         <v>45220.85416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -9623,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K103">
         <v>1.363</v>
@@ -9890,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K106">
         <v>1.75</v>
@@ -9970,7 +9970,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9979,7 +9979,7 @@
         <v>5</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K107">
         <v>3.75</v>
@@ -10056,7 +10056,7 @@
         <v>45223.85416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10068,7 +10068,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K108">
         <v>3.6</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K110">
         <v>2.75</v>
@@ -10335,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K111">
         <v>1.909</v>
@@ -10412,7 +10412,7 @@
         <v>45227.85416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
         <v>35</v>
@@ -10504,7 +10504,7 @@
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10602,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K114">
         <v>2.05</v>
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K115">
         <v>1.25</v>
@@ -10771,7 +10771,7 @@
         <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10958,7 +10958,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K118">
         <v>2.2</v>
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K120">
         <v>5</v>
@@ -11213,7 +11213,7 @@
         <v>45233.85416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
         <v>30</v>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K121">
         <v>1.533</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K122">
         <v>2.6</v>
@@ -11391,7 +11391,7 @@
         <v>45235.85416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
         <v>37</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K123">
         <v>1.909</v>
@@ -11483,7 +11483,7 @@
         <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K125">
         <v>1.615</v>
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K127">
         <v>1.833</v>
@@ -11848,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K128">
         <v>3</v>
@@ -12014,7 +12014,7 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
         <v>39</v>
@@ -12115,7 +12115,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K131">
         <v>4</v>
@@ -12195,7 +12195,7 @@
         <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12204,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K132">
         <v>3.4</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K135">
         <v>1.727</v>
@@ -12560,7 +12560,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K136">
         <v>1.85</v>
@@ -12625,7 +12625,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7499442</v>
+        <v>7499440</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12637,55 +12637,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K137">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L137">
         <v>3.4</v>
       </c>
       <c r="M137">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N137">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O137">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P137">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R137">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12694,19 +12694,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12714,7 +12714,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7499440</v>
+        <v>7499442</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12726,55 +12726,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K138">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L138">
         <v>3.4</v>
       </c>
       <c r="M138">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N138">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O138">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P138">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q138">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R138">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12783,19 +12783,19 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB138">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12818,7 +12818,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12916,7 +12916,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K140">
         <v>1.363</v>
@@ -13005,7 +13005,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K141">
         <v>2.05</v>
@@ -13094,7 +13094,7 @@
         <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K142">
         <v>4</v>
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7493312</v>
+        <v>7493311</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H143">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
         <v>43</v>
       </c>
       <c r="K143">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L143">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M143">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N143">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O143">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P143">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R143">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V143">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W143">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7493311</v>
+        <v>7493312</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H145">
+        <v>4</v>
+      </c>
+      <c r="I145">
         <v>0</v>
-      </c>
-      <c r="I145">
-        <v>1</v>
       </c>
       <c r="J145" t="s">
         <v>45</v>
       </c>
       <c r="K145">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L145">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M145">
+        <v>4.333</v>
+      </c>
+      <c r="N145">
+        <v>1.727</v>
+      </c>
+      <c r="O145">
+        <v>3.75</v>
+      </c>
+      <c r="P145">
+        <v>4.2</v>
+      </c>
+      <c r="Q145">
+        <v>-0.5</v>
+      </c>
+      <c r="R145">
+        <v>1.8</v>
+      </c>
+      <c r="S145">
         <v>2</v>
       </c>
-      <c r="N145">
-        <v>3.2</v>
-      </c>
-      <c r="O145">
-        <v>3.25</v>
-      </c>
-      <c r="P145">
-        <v>2.1</v>
-      </c>
-      <c r="Q145">
-        <v>0.25</v>
-      </c>
-      <c r="R145">
-        <v>1.95</v>
-      </c>
-      <c r="S145">
-        <v>1.85</v>
-      </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC145">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K146">
         <v>2.625</v>
@@ -13628,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K148">
         <v>1.8</v>
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K149">
         <v>2.2</v>
@@ -13794,7 +13794,7 @@
         <v>45312.75</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
         <v>38</v>
@@ -13806,7 +13806,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K150">
         <v>1.533</v>
@@ -13883,7 +13883,7 @@
         <v>45312.85416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -14073,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K153">
         <v>4.333</v>
@@ -14153,7 +14153,7 @@
         <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K155">
         <v>1.533</v>
@@ -14340,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K156">
         <v>3.5</v>
@@ -14420,7 +14420,7 @@
         <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14429,7 +14429,7 @@
         <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K157">
         <v>3.75</v>
@@ -14773,7 +14773,7 @@
         <v>45319.86805555555</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G161" t="s">
         <v>39</v>
@@ -14785,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K161">
         <v>1.833</v>
@@ -14874,7 +14874,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K162">
         <v>6.5</v>
@@ -14954,7 +14954,7 @@
         <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14963,7 +14963,7 @@
         <v>4</v>
       </c>
       <c r="J163" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K163">
         <v>1.909</v>
@@ -15052,7 +15052,7 @@
         <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K164">
         <v>2.5</v>
@@ -15221,7 +15221,7 @@
         <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15319,7 +15319,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K167">
         <v>1.25</v>
@@ -15408,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K168">
         <v>3.5</v>
@@ -15497,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K169">
         <v>2.875</v>
@@ -15586,7 +15586,7 @@
         <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K170">
         <v>2</v>
@@ -15663,7 +15663,7 @@
         <v>45332.76041666666</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G171" t="s">
         <v>32</v>
@@ -15841,7 +15841,7 @@
         <v>45333.76041666666</v>
       </c>
       <c r="F173" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G173" t="s">
         <v>36</v>
@@ -15942,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K174">
         <v>1.95</v>
@@ -16022,7 +16022,7 @@
         <v>37</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16120,7 +16120,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K176">
         <v>2.5</v>
@@ -16200,7 +16200,7 @@
         <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16298,7 +16298,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K178">
         <v>6</v>
@@ -16387,7 +16387,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K179">
         <v>1.909</v>
@@ -16654,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K182">
         <v>2.7</v>
@@ -16731,7 +16731,7 @@
         <v>45346.86458333334</v>
       </c>
       <c r="F183" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G183" t="s">
         <v>41</v>
@@ -16832,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K184">
         <v>2.7</v>
@@ -16909,7 +16909,7 @@
         <v>45347.86458333334</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G185" t="s">
         <v>40</v>
@@ -16921,7 +16921,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K185">
         <v>2.6</v>
@@ -17087,10 +17087,10 @@
         <v>45352.8125</v>
       </c>
       <c r="F187" t="s">
+        <v>29</v>
+      </c>
+      <c r="G187" t="s">
         <v>31</v>
-      </c>
-      <c r="G187" t="s">
-        <v>29</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17188,7 +17188,7 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K188">
         <v>2.2</v>
@@ -17277,7 +17277,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K189">
         <v>2</v>
@@ -17366,7 +17366,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K190">
         <v>2.375</v>
@@ -17455,7 +17455,7 @@
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K191">
         <v>2</v>
@@ -17544,7 +17544,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K192">
         <v>2.75</v>
@@ -17710,7 +17710,7 @@
         <v>45360.8125</v>
       </c>
       <c r="F194" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G194" t="s">
         <v>39</v>
@@ -17722,7 +17722,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K194">
         <v>1.363</v>
@@ -17891,7 +17891,7 @@
         <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17900,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K196">
         <v>2.1</v>
@@ -17989,7 +17989,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K197">
         <v>1.5</v>
@@ -18069,7 +18069,7 @@
         <v>30</v>
       </c>
       <c r="G198" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18078,7 +18078,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K198">
         <v>3.8</v>
@@ -18167,7 +18167,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K199">
         <v>1.666</v>
@@ -18256,7 +18256,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K200">
         <v>5.5</v>
@@ -18345,7 +18345,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K201">
         <v>1.909</v>
@@ -18422,7 +18422,7 @@
         <v>45368.875</v>
       </c>
       <c r="F202" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G202" t="s">
         <v>38</v>
@@ -18434,7 +18434,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K202">
         <v>1.909</v>
@@ -18523,7 +18523,7 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K203">
         <v>1.909</v>
@@ -18701,7 +18701,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K205">
         <v>3.6</v>
@@ -18778,7 +18778,7 @@
         <v>45381.79166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
         <v>33</v>
@@ -18790,7 +18790,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K206">
         <v>1.5</v>
@@ -18968,7 +18968,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K208">
         <v>2.1</v>
@@ -19048,7 +19048,7 @@
         <v>42</v>
       </c>
       <c r="G209" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19057,7 +19057,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K209">
         <v>2.2</v>
@@ -19315,7 +19315,7 @@
         <v>38</v>
       </c>
       <c r="G212" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19324,7 +19324,7 @@
         <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K212">
         <v>6</v>
@@ -19404,7 +19404,7 @@
         <v>36</v>
       </c>
       <c r="G213" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -19413,7 +19413,7 @@
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K213">
         <v>1.5</v>
@@ -19668,7 +19668,7 @@
         <v>45394.79166666666</v>
       </c>
       <c r="F216" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
         <v>41</v>
@@ -19680,7 +19680,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K216">
         <v>2.05</v>
@@ -19769,7 +19769,7 @@
         <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K217">
         <v>2.55</v>
@@ -19858,7 +19858,7 @@
         <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K218">
         <v>1.666</v>
@@ -19947,7 +19947,7 @@
         <v>2</v>
       </c>
       <c r="J219" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K219">
         <v>2.75</v>
@@ -20005,6 +20005,628 @@
       </c>
       <c r="AC219">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>7609205</v>
+      </c>
+      <c r="C220" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45396.77083333334</v>
+      </c>
+      <c r="F220" t="s">
+        <v>30</v>
+      </c>
+      <c r="G220" t="s">
+        <v>36</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>3</v>
+      </c>
+      <c r="J220" t="s">
+        <v>43</v>
+      </c>
+      <c r="K220">
+        <v>3.2</v>
+      </c>
+      <c r="L220">
+        <v>3.4</v>
+      </c>
+      <c r="M220">
+        <v>2.1</v>
+      </c>
+      <c r="N220">
+        <v>3.1</v>
+      </c>
+      <c r="O220">
+        <v>3.4</v>
+      </c>
+      <c r="P220">
+        <v>2.15</v>
+      </c>
+      <c r="Q220">
+        <v>0.25</v>
+      </c>
+      <c r="R220">
+        <v>1.875</v>
+      </c>
+      <c r="S220">
+        <v>1.925</v>
+      </c>
+      <c r="T220">
+        <v>2.25</v>
+      </c>
+      <c r="U220">
+        <v>1.875</v>
+      </c>
+      <c r="V220">
+        <v>1.925</v>
+      </c>
+      <c r="W220">
+        <v>-1</v>
+      </c>
+      <c r="X220">
+        <v>-1</v>
+      </c>
+      <c r="Y220">
+        <v>1.15</v>
+      </c>
+      <c r="Z220">
+        <v>-1</v>
+      </c>
+      <c r="AA220">
+        <v>0.925</v>
+      </c>
+      <c r="AB220">
+        <v>0.875</v>
+      </c>
+      <c r="AC220">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>7609204</v>
+      </c>
+      <c r="C221" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45396.875</v>
+      </c>
+      <c r="F221" t="s">
+        <v>31</v>
+      </c>
+      <c r="G221" t="s">
+        <v>32</v>
+      </c>
+      <c r="H221">
+        <v>3</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221" t="s">
+        <v>45</v>
+      </c>
+      <c r="K221">
+        <v>1.444</v>
+      </c>
+      <c r="L221">
+        <v>4.2</v>
+      </c>
+      <c r="M221">
+        <v>6.5</v>
+      </c>
+      <c r="N221">
+        <v>1.45</v>
+      </c>
+      <c r="O221">
+        <v>4</v>
+      </c>
+      <c r="P221">
+        <v>6</v>
+      </c>
+      <c r="Q221">
+        <v>-1</v>
+      </c>
+      <c r="R221">
+        <v>1.775</v>
+      </c>
+      <c r="S221">
+        <v>2.025</v>
+      </c>
+      <c r="T221">
+        <v>2.5</v>
+      </c>
+      <c r="U221">
+        <v>1.825</v>
+      </c>
+      <c r="V221">
+        <v>1.975</v>
+      </c>
+      <c r="W221">
+        <v>0.45</v>
+      </c>
+      <c r="X221">
+        <v>-1</v>
+      </c>
+      <c r="Y221">
+        <v>-1</v>
+      </c>
+      <c r="Z221">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA221">
+        <v>-1</v>
+      </c>
+      <c r="AB221">
+        <v>0.825</v>
+      </c>
+      <c r="AC221">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>7609206</v>
+      </c>
+      <c r="C222" t="s">
+        <v>28</v>
+      </c>
+      <c r="D222" t="s">
+        <v>28</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45401.79166666666</v>
+      </c>
+      <c r="F222" t="s">
+        <v>41</v>
+      </c>
+      <c r="G222" t="s">
+        <v>30</v>
+      </c>
+      <c r="K222">
+        <v>2.55</v>
+      </c>
+      <c r="L222">
+        <v>3.2</v>
+      </c>
+      <c r="M222">
+        <v>2.625</v>
+      </c>
+      <c r="N222">
+        <v>2.55</v>
+      </c>
+      <c r="O222">
+        <v>3.2</v>
+      </c>
+      <c r="P222">
+        <v>2.625</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>1.85</v>
+      </c>
+      <c r="S222">
+        <v>1.95</v>
+      </c>
+      <c r="T222">
+        <v>2.25</v>
+      </c>
+      <c r="U222">
+        <v>1.85</v>
+      </c>
+      <c r="V222">
+        <v>1.95</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>7609669</v>
+      </c>
+      <c r="C223" t="s">
+        <v>28</v>
+      </c>
+      <c r="D223" t="s">
+        <v>28</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45401.89583333334</v>
+      </c>
+      <c r="F223" t="s">
+        <v>42</v>
+      </c>
+      <c r="G223" t="s">
+        <v>31</v>
+      </c>
+      <c r="K223">
+        <v>4</v>
+      </c>
+      <c r="L223">
+        <v>3.5</v>
+      </c>
+      <c r="M223">
+        <v>1.833</v>
+      </c>
+      <c r="N223">
+        <v>4</v>
+      </c>
+      <c r="O223">
+        <v>3.5</v>
+      </c>
+      <c r="P223">
+        <v>1.833</v>
+      </c>
+      <c r="Q223">
+        <v>0.5</v>
+      </c>
+      <c r="R223">
+        <v>1.975</v>
+      </c>
+      <c r="S223">
+        <v>1.825</v>
+      </c>
+      <c r="T223">
+        <v>2.5</v>
+      </c>
+      <c r="U223">
+        <v>1.875</v>
+      </c>
+      <c r="V223">
+        <v>1.925</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>7609158</v>
+      </c>
+      <c r="C224" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224" t="s">
+        <v>28</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45402.77083333334</v>
+      </c>
+      <c r="F224" t="s">
+        <v>32</v>
+      </c>
+      <c r="G224" t="s">
+        <v>37</v>
+      </c>
+      <c r="K224">
+        <v>2.05</v>
+      </c>
+      <c r="L224">
+        <v>3.4</v>
+      </c>
+      <c r="M224">
+        <v>3.3</v>
+      </c>
+      <c r="N224">
+        <v>2.05</v>
+      </c>
+      <c r="O224">
+        <v>3.4</v>
+      </c>
+      <c r="P224">
+        <v>3.3</v>
+      </c>
+      <c r="Q224">
+        <v>-0.25</v>
+      </c>
+      <c r="R224">
+        <v>1.825</v>
+      </c>
+      <c r="S224">
+        <v>1.975</v>
+      </c>
+      <c r="T224">
+        <v>2.25</v>
+      </c>
+      <c r="U224">
+        <v>1.8</v>
+      </c>
+      <c r="V224">
+        <v>2</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>7609155</v>
+      </c>
+      <c r="C225" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45402.875</v>
+      </c>
+      <c r="F225" t="s">
+        <v>36</v>
+      </c>
+      <c r="G225" t="s">
+        <v>38</v>
+      </c>
+      <c r="K225">
+        <v>1.3</v>
+      </c>
+      <c r="L225">
+        <v>4.5</v>
+      </c>
+      <c r="M225">
+        <v>9</v>
+      </c>
+      <c r="N225">
+        <v>1.444</v>
+      </c>
+      <c r="O225">
+        <v>4</v>
+      </c>
+      <c r="P225">
+        <v>6</v>
+      </c>
+      <c r="Q225">
+        <v>-1.25</v>
+      </c>
+      <c r="R225">
+        <v>2</v>
+      </c>
+      <c r="S225">
+        <v>1.8</v>
+      </c>
+      <c r="T225">
+        <v>2.75</v>
+      </c>
+      <c r="U225">
+        <v>1.9</v>
+      </c>
+      <c r="V225">
+        <v>1.9</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:27">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>7609156</v>
+      </c>
+      <c r="C226" t="s">
+        <v>28</v>
+      </c>
+      <c r="D226" t="s">
+        <v>28</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45403.77083333334</v>
+      </c>
+      <c r="F226" t="s">
+        <v>39</v>
+      </c>
+      <c r="G226" t="s">
+        <v>29</v>
+      </c>
+      <c r="K226">
+        <v>2.875</v>
+      </c>
+      <c r="L226">
+        <v>3.2</v>
+      </c>
+      <c r="M226">
+        <v>2.375</v>
+      </c>
+      <c r="N226">
+        <v>2.8</v>
+      </c>
+      <c r="O226">
+        <v>3.2</v>
+      </c>
+      <c r="P226">
+        <v>2.4</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>2.05</v>
+      </c>
+      <c r="S226">
+        <v>1.75</v>
+      </c>
+      <c r="T226">
+        <v>2.25</v>
+      </c>
+      <c r="U226">
+        <v>1.85</v>
+      </c>
+      <c r="V226">
+        <v>1.95</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>7609157</v>
+      </c>
+      <c r="C227" t="s">
+        <v>28</v>
+      </c>
+      <c r="D227" t="s">
+        <v>28</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45403.875</v>
+      </c>
+      <c r="F227" t="s">
+        <v>33</v>
+      </c>
+      <c r="G227" t="s">
+        <v>40</v>
+      </c>
+      <c r="K227">
+        <v>3.3</v>
+      </c>
+      <c r="L227">
+        <v>3.1</v>
+      </c>
+      <c r="M227">
+        <v>2.1</v>
+      </c>
+      <c r="N227">
+        <v>3.25</v>
+      </c>
+      <c r="O227">
+        <v>3.1</v>
+      </c>
+      <c r="P227">
+        <v>2.15</v>
+      </c>
+      <c r="Q227">
+        <v>0.25</v>
+      </c>
+      <c r="R227">
+        <v>1.925</v>
+      </c>
+      <c r="S227">
+        <v>1.875</v>
+      </c>
+      <c r="T227">
+        <v>2.25</v>
+      </c>
+      <c r="U227">
+        <v>1.9</v>
+      </c>
+      <c r="V227">
+        <v>1.9</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
-    <t>Guarani Asuncion</t>
+    <t>Sportivo Luqueno</t>
   </si>
   <si>
-    <t>Sportivo Luqueno</t>
+    <t>Guarani Asuncion</t>
   </si>
   <si>
     <t>Cerro Porteno</t>
@@ -145,10 +145,10 @@
     <t>2 de Mayo</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
     <t>H</t>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC227"/>
+  <dimension ref="A1:AC228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6720844</v>
+        <v>6720873</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,10 +625,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -637,58 +637,58 @@
         <v>43</v>
       </c>
       <c r="K2">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M2">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N2">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O2">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P2">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q2">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R2">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S2">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T2">
         <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V2">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y2">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA2">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
       <c r="AB2">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC2">
         <v>-1</v>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6720873</v>
+        <v>6720844</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,10 +714,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -726,58 +726,58 @@
         <v>44</v>
       </c>
       <c r="K3">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="L3">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M3">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N3">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P3">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S3">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
         <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AB3">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K5">
         <v>1.95</v>
@@ -1079,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7">
         <v>2.4</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8">
         <v>2.75</v>
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9">
         <v>1.333</v>
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10">
         <v>2.3</v>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12">
         <v>5.5</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>2.7</v>
@@ -1969,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K17">
         <v>1.4</v>
@@ -2046,10 +2046,10 @@
         <v>45116.70833333334</v>
       </c>
       <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
         <v>30</v>
-      </c>
-      <c r="G18" t="s">
-        <v>29</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K18">
         <v>2.375</v>
@@ -2147,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K19">
         <v>1.4</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K21">
         <v>3.6</v>
@@ -2491,7 +2491,7 @@
         <v>45123.8125</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
@@ -2503,7 +2503,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2583,7 +2583,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2592,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K24">
         <v>2.625</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K25">
         <v>1.666</v>
@@ -2761,7 +2761,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K26">
         <v>2.9</v>
@@ -2859,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K27">
         <v>1.65</v>
@@ -3025,7 +3025,7 @@
         <v>45130.70833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -3037,7 +3037,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K29">
         <v>2.15</v>
@@ -3126,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K30">
         <v>1.7</v>
@@ -3295,7 +3295,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>45135.85416666666</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3571,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K35">
         <v>4.2</v>
@@ -3660,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K36">
         <v>2.2</v>
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K37">
         <v>4.5</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K38">
         <v>1.363</v>
@@ -4004,7 +4004,7 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
         <v>34</v>
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4096,7 +4096,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -4283,7 +4283,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K43">
         <v>2.625</v>
@@ -4461,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -4541,7 +4541,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K47">
         <v>2.15</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K48">
         <v>2.05</v>
@@ -4808,7 +4808,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4817,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K49">
         <v>2.375</v>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K50">
         <v>1.5</v>
@@ -4983,7 +4983,7 @@
         <v>45157.75</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
@@ -4995,7 +4995,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K51">
         <v>2.25</v>
@@ -5084,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K52">
         <v>1.444</v>
@@ -5161,7 +5161,7 @@
         <v>45158.75</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
         <v>31</v>
@@ -5173,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K53">
         <v>3.5</v>
@@ -5262,7 +5262,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K54">
         <v>1.666</v>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K58">
         <v>2.375</v>
@@ -5695,7 +5695,7 @@
         <v>45165.72916666666</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
         <v>40</v>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -5787,7 +5787,7 @@
         <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K60">
         <v>2.8</v>
@@ -6063,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K63">
         <v>4.75</v>
@@ -6143,7 +6143,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6229,7 +6229,7 @@
         <v>45172.72916666666</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -6330,7 +6330,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K66">
         <v>1.909</v>
@@ -6410,7 +6410,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K67">
         <v>2.45</v>
@@ -6508,7 +6508,7 @@
         <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K68">
         <v>2.875</v>
@@ -6585,7 +6585,7 @@
         <v>45179.72916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
         <v>39</v>
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K70">
         <v>1.833</v>
@@ -6944,7 +6944,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7042,7 +7042,7 @@
         <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K74">
         <v>5.75</v>
@@ -7220,7 +7220,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7297,7 +7297,7 @@
         <v>45186.83333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
         <v>31</v>
@@ -7576,7 +7576,7 @@
         <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K80">
         <v>5.25</v>
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K81">
         <v>6</v>
@@ -7754,7 +7754,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K82">
         <v>4</v>
@@ -7831,10 +7831,10 @@
         <v>45193.77083333334</v>
       </c>
       <c r="F83" t="s">
+        <v>30</v>
+      </c>
+      <c r="G83" t="s">
         <v>29</v>
-      </c>
-      <c r="G83" t="s">
-        <v>30</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7932,7 +7932,7 @@
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K84">
         <v>1.95</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K86">
         <v>2.1</v>
@@ -8199,7 +8199,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K87">
         <v>3.8</v>
@@ -8368,7 +8368,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K89">
         <v>1.5</v>
@@ -8454,7 +8454,7 @@
         <v>45201.75</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K91">
         <v>1.333</v>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K92">
         <v>4.2</v>
@@ -8733,7 +8733,7 @@
         <v>5</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K93">
         <v>5.75</v>
@@ -8911,7 +8911,7 @@
         <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K95">
         <v>2.7</v>
@@ -8988,7 +8988,7 @@
         <v>45207.85416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
         <v>39</v>
@@ -9080,7 +9080,7 @@
         <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9089,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K97">
         <v>2.15</v>
@@ -9169,7 +9169,7 @@
         <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9267,7 +9267,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K99">
         <v>2.375</v>
@@ -9344,7 +9344,7 @@
         <v>45218.8125</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9534,7 +9534,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K102">
         <v>1.7</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K104">
         <v>3.6</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K105">
         <v>6</v>
@@ -9979,7 +9979,7 @@
         <v>5</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K107">
         <v>3.75</v>
@@ -10056,7 +10056,7 @@
         <v>45223.85416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10068,7 +10068,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K108">
         <v>3.6</v>
@@ -10148,7 +10148,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K109">
         <v>3.2</v>
@@ -10412,7 +10412,7 @@
         <v>45227.85416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
         <v>35</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K112">
         <v>1.85</v>
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K113">
         <v>2.25</v>
@@ -10590,7 +10590,7 @@
         <v>45229.75</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
         <v>38</v>
@@ -10771,7 +10771,7 @@
         <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K116">
         <v>2.2</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K117">
         <v>4</v>
@@ -10958,7 +10958,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K118">
         <v>2.2</v>
@@ -11047,7 +11047,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K119">
         <v>4.333</v>
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K120">
         <v>5</v>
@@ -11216,7 +11216,7 @@
         <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11391,7 +11391,7 @@
         <v>45235.85416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
         <v>37</v>
@@ -11492,7 +11492,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K124">
         <v>2.05</v>
@@ -11670,7 +11670,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K126">
         <v>2.5</v>
@@ -11750,7 +11750,7 @@
         <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11937,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K129">
         <v>2</v>
@@ -12026,7 +12026,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K130">
         <v>1.285</v>
@@ -12103,7 +12103,7 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
         <v>36</v>
@@ -12115,7 +12115,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K131">
         <v>4</v>
@@ -12195,7 +12195,7 @@
         <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12204,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K132">
         <v>3.4</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K133">
         <v>2.75</v>
@@ -12358,7 +12358,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7493427</v>
+        <v>7493428</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12370,76 +12370,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K134">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L134">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N134">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O134">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P134">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q134">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R134">
+        <v>1.775</v>
+      </c>
+      <c r="S134">
         <v>2.025</v>
       </c>
-      <c r="S134">
-        <v>1.775</v>
-      </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
+        <v>1.825</v>
+      </c>
+      <c r="V134">
         <v>1.975</v>
       </c>
-      <c r="V134">
-        <v>1.825</v>
-      </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X134">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC134">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12447,7 +12447,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7493428</v>
+        <v>7493427</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12459,76 +12459,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H135">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K135">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M135">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N135">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O135">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P135">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q135">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R135">
+        <v>2.025</v>
+      </c>
+      <c r="S135">
         <v>1.775</v>
       </c>
-      <c r="S135">
-        <v>2.025</v>
-      </c>
       <c r="T135">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
+        <v>1.975</v>
+      </c>
+      <c r="V135">
         <v>1.825</v>
       </c>
-      <c r="V135">
-        <v>1.975</v>
-      </c>
       <c r="W135">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB135">
+        <v>-1</v>
+      </c>
+      <c r="AC135">
         <v>0.825</v>
-      </c>
-      <c r="AC135">
-        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K136">
         <v>1.85</v>
@@ -12625,7 +12625,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7499440</v>
+        <v>7499442</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12637,55 +12637,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K137">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L137">
         <v>3.4</v>
       </c>
       <c r="M137">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N137">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O137">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P137">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q137">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12694,19 +12694,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB137">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12714,7 +12714,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7499442</v>
+        <v>7499440</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12726,55 +12726,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F138" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K138">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L138">
         <v>3.4</v>
       </c>
       <c r="M138">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N138">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O138">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P138">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q138">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12783,19 +12783,19 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC138">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12827,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K139">
         <v>2.375</v>
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7493310</v>
+        <v>7493431</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,76 +12904,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I140">
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K140">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="L140">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M140">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="N140">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="O140">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P140">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R140">
+        <v>1.925</v>
+      </c>
+      <c r="S140">
+        <v>1.875</v>
+      </c>
+      <c r="T140">
+        <v>2.5</v>
+      </c>
+      <c r="U140">
+        <v>2</v>
+      </c>
+      <c r="V140">
         <v>1.8</v>
       </c>
-      <c r="S140">
-        <v>2</v>
-      </c>
-      <c r="T140">
-        <v>2.75</v>
-      </c>
-      <c r="U140">
-        <v>1.8</v>
-      </c>
-      <c r="V140">
-        <v>2</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA140">
+        <v>-1</v>
+      </c>
+      <c r="AB140">
         <v>1</v>
       </c>
-      <c r="AB140">
-        <v>0.4</v>
-      </c>
       <c r="AC140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12981,7 +12981,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7493431</v>
+        <v>7493310</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12993,76 +12993,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H141">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K141">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="L141">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M141">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="N141">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="O141">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P141">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S141">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
+        <v>1.8</v>
+      </c>
+      <c r="V141">
         <v>2</v>
       </c>
-      <c r="V141">
-        <v>1.8</v>
-      </c>
       <c r="W141">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB141">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13094,7 +13094,7 @@
         <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K142">
         <v>4</v>
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7493311</v>
+        <v>7493433</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,13 +13171,13 @@
         <v>45261.8125</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143">
         <v>1</v>
@@ -13186,61 +13186,61 @@
         <v>43</v>
       </c>
       <c r="K143">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="L143">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M143">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N143">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="O143">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P143">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q143">
         <v>0.25</v>
       </c>
       <c r="R143">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S143">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T143">
         <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V143">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y143">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA143">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC143">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7493433</v>
+        <v>7493312</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,76 +13260,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F144" t="s">
+        <v>31</v>
+      </c>
+      <c r="G144" t="s">
         <v>30</v>
       </c>
-      <c r="G144" t="s">
-        <v>33</v>
-      </c>
       <c r="H144">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K144">
+        <v>1.7</v>
+      </c>
+      <c r="L144">
+        <v>3.6</v>
+      </c>
+      <c r="M144">
+        <v>4.333</v>
+      </c>
+      <c r="N144">
+        <v>1.727</v>
+      </c>
+      <c r="O144">
+        <v>3.75</v>
+      </c>
+      <c r="P144">
+        <v>4.2</v>
+      </c>
+      <c r="Q144">
+        <v>-0.5</v>
+      </c>
+      <c r="R144">
+        <v>1.8</v>
+      </c>
+      <c r="S144">
+        <v>2</v>
+      </c>
+      <c r="T144">
         <v>2.75</v>
       </c>
-      <c r="L144">
-        <v>3.2</v>
-      </c>
-      <c r="M144">
-        <v>2.4</v>
-      </c>
-      <c r="N144">
-        <v>2.75</v>
-      </c>
-      <c r="O144">
-        <v>3.1</v>
-      </c>
-      <c r="P144">
-        <v>2.45</v>
-      </c>
-      <c r="Q144">
-        <v>0.25</v>
-      </c>
-      <c r="R144">
-        <v>1.75</v>
-      </c>
-      <c r="S144">
-        <v>2.05</v>
-      </c>
-      <c r="T144">
-        <v>2.25</v>
-      </c>
       <c r="U144">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V144">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X144">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC144">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7493312</v>
+        <v>7493311</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K145">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M145">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N145">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O145">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P145">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V145">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W145">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z145">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB145">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13539,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K147">
         <v>1.444</v>
@@ -13616,7 +13616,7 @@
         <v>45311.75</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
         <v>42</v>
@@ -13883,7 +13883,7 @@
         <v>45312.85416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K151">
         <v>3.75</v>
@@ -13984,7 +13984,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K152">
         <v>1.65</v>
@@ -14073,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K153">
         <v>4.333</v>
@@ -14153,7 +14153,7 @@
         <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14162,7 +14162,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K154">
         <v>3.3</v>
@@ -14242,7 +14242,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14429,7 +14429,7 @@
         <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K157">
         <v>3.75</v>
@@ -14506,7 +14506,7 @@
         <v>45318.77083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G158" t="s">
         <v>41</v>
@@ -14518,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K158">
         <v>2.25</v>
@@ -14607,7 +14607,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K159">
         <v>2.3</v>
@@ -14696,7 +14696,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K160">
         <v>2.7</v>
@@ -14773,7 +14773,7 @@
         <v>45319.86805555555</v>
       </c>
       <c r="F161" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
         <v>39</v>
@@ -14874,7 +14874,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K162">
         <v>6.5</v>
@@ -14954,7 +14954,7 @@
         <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14963,7 +14963,7 @@
         <v>4</v>
       </c>
       <c r="J163" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K163">
         <v>1.909</v>
@@ -15052,7 +15052,7 @@
         <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K164">
         <v>2.5</v>
@@ -15132,7 +15132,7 @@
         <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15141,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K165">
         <v>2.8</v>
@@ -15230,7 +15230,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K166">
         <v>4.5</v>
@@ -15586,7 +15586,7 @@
         <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K170">
         <v>2</v>
@@ -15663,7 +15663,7 @@
         <v>45332.76041666666</v>
       </c>
       <c r="F171" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G171" t="s">
         <v>32</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K171">
         <v>2.15</v>
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K172">
         <v>1.55</v>
@@ -15853,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15930,7 +15930,7 @@
         <v>45333.86458333334</v>
       </c>
       <c r="F174" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G174" t="s">
         <v>33</v>
@@ -16022,7 +16022,7 @@
         <v>37</v>
       </c>
       <c r="G175" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16031,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K175">
         <v>2.7</v>
@@ -16111,7 +16111,7 @@
         <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16120,7 +16120,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K176">
         <v>2.5</v>
@@ -16209,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K177">
         <v>3.4</v>
@@ -16298,7 +16298,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K178">
         <v>6</v>
@@ -16476,7 +16476,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K180">
         <v>2.25</v>
@@ -16553,7 +16553,7 @@
         <v>45345.8125</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G181" t="s">
         <v>37</v>
@@ -16565,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K181">
         <v>1.7</v>
@@ -16743,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K183">
         <v>1.45</v>
@@ -16832,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K184">
         <v>2.7</v>
@@ -16909,7 +16909,7 @@
         <v>45347.86458333334</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G185" t="s">
         <v>40</v>
@@ -16921,7 +16921,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K185">
         <v>2.6</v>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K186">
         <v>1.363</v>
@@ -17087,7 +17087,7 @@
         <v>45352.8125</v>
       </c>
       <c r="F187" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G187" t="s">
         <v>31</v>
@@ -17099,7 +17099,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K187">
         <v>3.8</v>
@@ -17188,7 +17188,7 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K188">
         <v>2.2</v>
@@ -17268,7 +17268,7 @@
         <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17455,7 +17455,7 @@
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K191">
         <v>2</v>
@@ -17633,7 +17633,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K193">
         <v>2</v>
@@ -17722,7 +17722,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K194">
         <v>1.363</v>
@@ -17811,7 +17811,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K195">
         <v>5.25</v>
@@ -17888,10 +17888,10 @@
         <v>45361.85416666666</v>
       </c>
       <c r="F196" t="s">
+        <v>29</v>
+      </c>
+      <c r="G196" t="s">
         <v>30</v>
-      </c>
-      <c r="G196" t="s">
-        <v>29</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18066,7 +18066,7 @@
         <v>45366.8125</v>
       </c>
       <c r="F198" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G198" t="s">
         <v>31</v>
@@ -18078,7 +18078,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K198">
         <v>3.8</v>
@@ -18256,7 +18256,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K200">
         <v>5.5</v>
@@ -18345,7 +18345,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K201">
         <v>1.909</v>
@@ -18422,7 +18422,7 @@
         <v>45368.875</v>
       </c>
       <c r="F202" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G202" t="s">
         <v>38</v>
@@ -18434,7 +18434,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K202">
         <v>1.909</v>
@@ -18612,7 +18612,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K204">
         <v>2.75</v>
@@ -18692,7 +18692,7 @@
         <v>38</v>
       </c>
       <c r="G205" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18701,7 +18701,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K205">
         <v>3.6</v>
@@ -18879,7 +18879,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K207">
         <v>1.8</v>
@@ -19048,7 +19048,7 @@
         <v>42</v>
       </c>
       <c r="G209" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19057,7 +19057,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K209">
         <v>2.2</v>
@@ -19146,7 +19146,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K210">
         <v>2.55</v>
@@ -19235,7 +19235,7 @@
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K211">
         <v>2.625</v>
@@ -19324,7 +19324,7 @@
         <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K212">
         <v>6</v>
@@ -19404,7 +19404,7 @@
         <v>36</v>
       </c>
       <c r="G213" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -19502,7 +19502,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K214">
         <v>3.75</v>
@@ -19582,7 +19582,7 @@
         <v>42</v>
       </c>
       <c r="G215" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -19591,7 +19591,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K215">
         <v>2.4</v>
@@ -19668,7 +19668,7 @@
         <v>45394.79166666666</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G216" t="s">
         <v>41</v>
@@ -19769,7 +19769,7 @@
         <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K217">
         <v>2.55</v>
@@ -19947,7 +19947,7 @@
         <v>2</v>
       </c>
       <c r="J219" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K219">
         <v>2.75</v>
@@ -20024,7 +20024,7 @@
         <v>45396.77083333334</v>
       </c>
       <c r="F220" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G220" t="s">
         <v>36</v>
@@ -20036,7 +20036,7 @@
         <v>3</v>
       </c>
       <c r="J220" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K220">
         <v>3.2</v>
@@ -20190,7 +20190,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7609206</v>
+        <v>8008320</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20199,64 +20199,79 @@
         <v>28</v>
       </c>
       <c r="E222" s="2">
-        <v>45401.79166666666</v>
+        <v>45399.83333333334</v>
       </c>
       <c r="F222" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G222" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="H222">
+        <v>1</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222" t="s">
+        <v>43</v>
       </c>
       <c r="K222">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="L222">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M222">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="N222">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="O222">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="P222">
-        <v>2.625</v>
+        <v>1.666</v>
       </c>
       <c r="Q222">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R222">
+        <v>1.95</v>
+      </c>
+      <c r="S222">
         <v>1.85</v>
       </c>
-      <c r="S222">
-        <v>1.95</v>
-      </c>
       <c r="T222">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U222">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V222">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X222">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Y222">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA222">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB222">
+        <v>-1</v>
+      </c>
+      <c r="AC222">
+        <v>0.825</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20264,7 +20279,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7609669</v>
+        <v>7609206</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20273,49 +20288,49 @@
         <v>28</v>
       </c>
       <c r="E223" s="2">
-        <v>45401.89583333334</v>
+        <v>45401.79166666666</v>
       </c>
       <c r="F223" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G223" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K223">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="L223">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M223">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="N223">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="O223">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P223">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="Q223">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R223">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S223">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V223">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W223">
         <v>0</v>
@@ -20338,7 +20353,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7609158</v>
+        <v>7609669</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20347,49 +20362,49 @@
         <v>28</v>
       </c>
       <c r="E224" s="2">
-        <v>45402.77083333334</v>
+        <v>45401.89583333334</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G224" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K224">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="L224">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M224">
-        <v>3.3</v>
+        <v>1.833</v>
       </c>
       <c r="N224">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="O224">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P224">
-        <v>3.3</v>
+        <v>1.833</v>
       </c>
       <c r="Q224">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R224">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S224">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T224">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U224">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V224">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W224">
         <v>0</v>
@@ -20412,7 +20427,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7609155</v>
+        <v>7609158</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20421,49 +20436,49 @@
         <v>28</v>
       </c>
       <c r="E225" s="2">
-        <v>45402.875</v>
+        <v>45402.77083333334</v>
       </c>
       <c r="F225" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G225" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K225">
-        <v>1.3</v>
+        <v>2.05</v>
       </c>
       <c r="L225">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M225">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="N225">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="O225">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P225">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="Q225">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R225">
+        <v>1.825</v>
+      </c>
+      <c r="S225">
+        <v>1.975</v>
+      </c>
+      <c r="T225">
+        <v>2.25</v>
+      </c>
+      <c r="U225">
+        <v>1.8</v>
+      </c>
+      <c r="V225">
         <v>2</v>
-      </c>
-      <c r="S225">
-        <v>1.8</v>
-      </c>
-      <c r="T225">
-        <v>2.75</v>
-      </c>
-      <c r="U225">
-        <v>1.9</v>
-      </c>
-      <c r="V225">
-        <v>1.9</v>
       </c>
       <c r="W225">
         <v>0</v>
@@ -20486,7 +20501,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7609156</v>
+        <v>7609155</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20495,49 +20510,49 @@
         <v>28</v>
       </c>
       <c r="E226" s="2">
-        <v>45403.77083333334</v>
+        <v>45402.875</v>
       </c>
       <c r="F226" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G226" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K226">
-        <v>2.875</v>
+        <v>1.3</v>
       </c>
       <c r="L226">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M226">
-        <v>2.375</v>
+        <v>9</v>
       </c>
       <c r="N226">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="O226">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P226">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q226">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R226">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S226">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T226">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U226">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V226">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W226">
         <v>0</v>
@@ -20560,7 +20575,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7609157</v>
+        <v>7609156</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20569,49 +20584,49 @@
         <v>28</v>
       </c>
       <c r="E227" s="2">
-        <v>45403.875</v>
+        <v>45403.77083333334</v>
       </c>
       <c r="F227" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G227" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K227">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="L227">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M227">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="N227">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="O227">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P227">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="Q227">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R227">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S227">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T227">
         <v>2.25</v>
       </c>
       <c r="U227">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V227">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W227">
         <v>0</v>
@@ -20626,6 +20641,80 @@
         <v>0</v>
       </c>
       <c r="AA227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:27">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>7609157</v>
+      </c>
+      <c r="C228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" t="s">
+        <v>28</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45403.875</v>
+      </c>
+      <c r="F228" t="s">
+        <v>33</v>
+      </c>
+      <c r="G228" t="s">
+        <v>40</v>
+      </c>
+      <c r="K228">
+        <v>3.3</v>
+      </c>
+      <c r="L228">
+        <v>3.1</v>
+      </c>
+      <c r="M228">
+        <v>2.1</v>
+      </c>
+      <c r="N228">
+        <v>3.25</v>
+      </c>
+      <c r="O228">
+        <v>3.1</v>
+      </c>
+      <c r="P228">
+        <v>2.1</v>
+      </c>
+      <c r="Q228">
+        <v>0.25</v>
+      </c>
+      <c r="R228">
+        <v>1.95</v>
+      </c>
+      <c r="S228">
+        <v>1.85</v>
+      </c>
+      <c r="T228">
+        <v>2.25</v>
+      </c>
+      <c r="U228">
+        <v>1.9</v>
+      </c>
+      <c r="V228">
+        <v>1.9</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
         <v>0</v>
       </c>
     </row>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>Sportivo Luqueno</t>
   </si>
   <si>
-    <t>Guarani Asuncion</t>
+    <t>Cerro Porteno</t>
   </si>
   <si>
-    <t>Cerro Porteno</t>
+    <t>Guarani Asuncion</t>
   </si>
   <si>
     <t>Sportivo Ameliano</t>
@@ -148,10 +148,10 @@
     <t>D</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC228"/>
+  <dimension ref="A1:AC227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6720844</v>
+        <v>6720843</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,31 +714,31 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
       </c>
       <c r="K3">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M3">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O3">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P3">
         <v>1.85</v>
@@ -747,10 +747,10 @@
         <v>0.5</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T3">
         <v>2.5</v>
@@ -762,25 +762,25 @@
         <v>1.875</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6720843</v>
+        <v>6720844</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,31 +803,31 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>2</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>45</v>
       </c>
       <c r="K4">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>2.75</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
         <v>3.2</v>
-      </c>
-      <c r="M4">
-        <v>2.7</v>
-      </c>
-      <c r="N4">
-        <v>3.75</v>
-      </c>
-      <c r="O4">
-        <v>3.3</v>
       </c>
       <c r="P4">
         <v>1.85</v>
@@ -836,10 +836,10 @@
         <v>0.5</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
         <v>2.5</v>
@@ -851,25 +851,25 @@
         <v>1.875</v>
       </c>
       <c r="W4">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC4">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K5">
         <v>1.95</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K6">
         <v>1.571</v>
@@ -1079,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>2.4</v>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8">
         <v>2.75</v>
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1515,7 +1515,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K13">
         <v>1.363</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K15">
         <v>1.55</v>
@@ -1880,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -1969,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K17">
         <v>1.4</v>
@@ -2049,7 +2049,7 @@
         <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K18">
         <v>2.375</v>
@@ -2135,7 +2135,7 @@
         <v>45116.8125</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -2147,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K19">
         <v>1.4</v>
@@ -2236,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K20">
         <v>4.75</v>
@@ -2316,7 +2316,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K21">
         <v>3.6</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K22">
         <v>2.625</v>
@@ -2491,7 +2491,7 @@
         <v>45123.8125</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
@@ -2503,7 +2503,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2761,7 +2761,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
         <v>2.9</v>
@@ -2859,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27">
         <v>1.65</v>
@@ -2936,7 +2936,7 @@
         <v>45129.8125</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K28">
         <v>1.45</v>
@@ -3037,7 +3037,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K29">
         <v>2.15</v>
@@ -3126,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K30">
         <v>1.7</v>
@@ -3215,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K31">
         <v>1.25</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32">
         <v>2.625</v>
@@ -3381,7 +3381,7 @@
         <v>45135.85416666666</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3571,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K35">
         <v>4.2</v>
@@ -3660,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K36">
         <v>2.2</v>
@@ -3740,7 +3740,7 @@
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K37">
         <v>4.5</v>
@@ -3915,7 +3915,7 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K39">
         <v>1.666</v>
@@ -4096,7 +4096,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -4105,7 +4105,7 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K41">
         <v>1.615</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K42">
         <v>1.65</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K44">
         <v>2.75</v>
@@ -4461,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -4541,7 +4541,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4627,7 +4627,7 @@
         <v>45151.72916666666</v>
       </c>
       <c r="F47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
         <v>40</v>
@@ -4817,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K49">
         <v>2.375</v>
@@ -4983,7 +4983,7 @@
         <v>45157.75</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
@@ -4995,7 +4995,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K51">
         <v>2.25</v>
@@ -5084,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K52">
         <v>1.444</v>
@@ -5164,7 +5164,7 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5262,7 +5262,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K54">
         <v>1.666</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K55">
         <v>2.3</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K56">
         <v>1.7</v>
@@ -5606,7 +5606,7 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -5787,7 +5787,7 @@
         <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K60">
         <v>2.8</v>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K61">
         <v>3.4</v>
@@ -5974,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6054,7 +6054,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K64">
         <v>1.5</v>
@@ -6229,7 +6229,7 @@
         <v>45172.72916666666</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -6241,7 +6241,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K65">
         <v>1.85</v>
@@ -6330,7 +6330,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K66">
         <v>1.909</v>
@@ -6410,7 +6410,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6508,7 +6508,7 @@
         <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K68">
         <v>2.875</v>
@@ -6597,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K69">
         <v>1.85</v>
@@ -6674,7 +6674,7 @@
         <v>45179.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K71">
         <v>2.2</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K72">
         <v>2.55</v>
@@ -6953,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -7042,7 +7042,7 @@
         <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K74">
         <v>5.75</v>
@@ -7131,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K75">
         <v>1.533</v>
@@ -7220,7 +7220,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7297,10 +7297,10 @@
         <v>45186.83333333334</v>
       </c>
       <c r="F77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" t="s">
         <v>30</v>
-      </c>
-      <c r="G77" t="s">
-        <v>31</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K77">
         <v>3.8</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K78">
         <v>1.615</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K79">
         <v>2.2</v>
@@ -7567,7 +7567,7 @@
         <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K80">
         <v>5.25</v>
@@ -7754,7 +7754,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K82">
         <v>4</v>
@@ -7831,7 +7831,7 @@
         <v>45193.77083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
         <v>29</v>
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K83">
         <v>2.15</v>
@@ -7932,7 +7932,7 @@
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K84">
         <v>1.95</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K85">
         <v>1.85</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K86">
         <v>2.1</v>
@@ -8199,7 +8199,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K87">
         <v>3.8</v>
@@ -8276,7 +8276,7 @@
         <v>45200.75</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8288,7 +8288,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K88">
         <v>1.55</v>
@@ -8368,7 +8368,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K90">
         <v>1.8</v>
@@ -8635,7 +8635,7 @@
         <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8733,7 +8733,7 @@
         <v>5</v>
       </c>
       <c r="J93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K93">
         <v>5.75</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K94">
         <v>2.875</v>
@@ -8911,7 +8911,7 @@
         <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K95">
         <v>2.7</v>
@@ -8988,7 +8988,7 @@
         <v>45207.85416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
         <v>39</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K96">
         <v>1.75</v>
@@ -9089,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K97">
         <v>2.15</v>
@@ -9169,7 +9169,7 @@
         <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K98">
         <v>1.95</v>
@@ -9267,7 +9267,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K99">
         <v>2.375</v>
@@ -9356,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K100">
         <v>1.909</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K101">
         <v>1.444</v>
@@ -9611,7 +9611,7 @@
         <v>45220.85416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -9623,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K103">
         <v>1.363</v>
@@ -9890,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K106">
         <v>1.75</v>
@@ -9970,7 +9970,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9979,7 +9979,7 @@
         <v>5</v>
       </c>
       <c r="J107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K107">
         <v>3.75</v>
@@ -10056,7 +10056,7 @@
         <v>45223.85416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10068,7 +10068,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K108">
         <v>3.6</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K110">
         <v>2.75</v>
@@ -10335,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K111">
         <v>1.909</v>
@@ -10412,7 +10412,7 @@
         <v>45227.85416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
         <v>35</v>
@@ -10504,7 +10504,7 @@
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10602,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K114">
         <v>2.05</v>
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K115">
         <v>1.25</v>
@@ -10771,7 +10771,7 @@
         <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10958,7 +10958,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K118">
         <v>2.2</v>
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K120">
         <v>5</v>
@@ -11213,7 +11213,7 @@
         <v>45233.85416666666</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
         <v>29</v>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K121">
         <v>1.533</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K122">
         <v>2.6</v>
@@ -11391,7 +11391,7 @@
         <v>45235.85416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
         <v>37</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K123">
         <v>1.909</v>
@@ -11483,7 +11483,7 @@
         <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K125">
         <v>1.615</v>
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K127">
         <v>1.833</v>
@@ -11848,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K128">
         <v>3</v>
@@ -12002,7 +12002,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7453204</v>
+        <v>7454842</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12014,76 +12014,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K130">
-        <v>1.285</v>
+        <v>4</v>
       </c>
       <c r="L130">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="N130">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O130">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P130">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="Q130">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T130">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12091,7 +12091,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7454842</v>
+        <v>7453204</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12103,76 +12103,76 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K131">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="L131">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M131">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="N131">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O131">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P131">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12195,7 +12195,7 @@
         <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12204,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K132">
         <v>3.4</v>
@@ -12358,7 +12358,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7493428</v>
+        <v>7493427</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12370,76 +12370,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H134">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K134">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M134">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N134">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O134">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P134">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q134">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R134">
+        <v>2.025</v>
+      </c>
+      <c r="S134">
         <v>1.775</v>
       </c>
-      <c r="S134">
-        <v>2.025</v>
-      </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
+        <v>1.975</v>
+      </c>
+      <c r="V134">
         <v>1.825</v>
       </c>
-      <c r="V134">
-        <v>1.975</v>
-      </c>
       <c r="W134">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
         <v>0.825</v>
-      </c>
-      <c r="AC134">
-        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12447,7 +12447,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7493427</v>
+        <v>7493428</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12459,76 +12459,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K135">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L135">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N135">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O135">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P135">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q135">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R135">
+        <v>1.775</v>
+      </c>
+      <c r="S135">
         <v>2.025</v>
       </c>
-      <c r="S135">
-        <v>1.775</v>
-      </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U135">
+        <v>1.825</v>
+      </c>
+      <c r="V135">
         <v>1.975</v>
       </c>
-      <c r="V135">
-        <v>1.825</v>
-      </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X135">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K136">
         <v>1.85</v>
@@ -12637,7 +12637,7 @@
         <v>45255.8125</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
         <v>38</v>
@@ -12649,7 +12649,7 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K137">
         <v>2</v>
@@ -12738,7 +12738,7 @@
         <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K138">
         <v>2.7</v>
@@ -12818,7 +12818,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12916,7 +12916,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K140">
         <v>2.05</v>
@@ -13005,7 +13005,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K141">
         <v>1.363</v>
@@ -13094,7 +13094,7 @@
         <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K142">
         <v>4</v>
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7493433</v>
+        <v>7493312</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K143">
+        <v>1.7</v>
+      </c>
+      <c r="L143">
+        <v>3.6</v>
+      </c>
+      <c r="M143">
+        <v>4.333</v>
+      </c>
+      <c r="N143">
+        <v>1.727</v>
+      </c>
+      <c r="O143">
+        <v>3.75</v>
+      </c>
+      <c r="P143">
+        <v>4.2</v>
+      </c>
+      <c r="Q143">
+        <v>-0.5</v>
+      </c>
+      <c r="R143">
+        <v>1.8</v>
+      </c>
+      <c r="S143">
+        <v>2</v>
+      </c>
+      <c r="T143">
         <v>2.75</v>
       </c>
-      <c r="L143">
-        <v>3.2</v>
-      </c>
-      <c r="M143">
-        <v>2.4</v>
-      </c>
-      <c r="N143">
-        <v>2.75</v>
-      </c>
-      <c r="O143">
-        <v>3.1</v>
-      </c>
-      <c r="P143">
-        <v>2.45</v>
-      </c>
-      <c r="Q143">
-        <v>0.25</v>
-      </c>
-      <c r="R143">
-        <v>1.75</v>
-      </c>
-      <c r="S143">
-        <v>2.05</v>
-      </c>
-      <c r="T143">
-        <v>2.25</v>
-      </c>
       <c r="U143">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V143">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X143">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA143">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC143">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7493312</v>
+        <v>7493433</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,76 +13260,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G144" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H144">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K144">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="L144">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M144">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="N144">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="O144">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P144">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="Q144">
+        <v>0.25</v>
+      </c>
+      <c r="R144">
+        <v>1.75</v>
+      </c>
+      <c r="S144">
+        <v>2.05</v>
+      </c>
+      <c r="T144">
+        <v>2.25</v>
+      </c>
+      <c r="U144">
+        <v>2</v>
+      </c>
+      <c r="V144">
+        <v>1.8</v>
+      </c>
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
+        <v>2.1</v>
+      </c>
+      <c r="Y144">
+        <v>-1</v>
+      </c>
+      <c r="Z144">
+        <v>0.375</v>
+      </c>
+      <c r="AA144">
         <v>-0.5</v>
       </c>
-      <c r="R144">
-        <v>1.8</v>
-      </c>
-      <c r="S144">
-        <v>2</v>
-      </c>
-      <c r="T144">
-        <v>2.75</v>
-      </c>
-      <c r="U144">
-        <v>1.875</v>
-      </c>
-      <c r="V144">
-        <v>1.925</v>
-      </c>
-      <c r="W144">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X144">
-        <v>-1</v>
-      </c>
-      <c r="Y144">
-        <v>-1</v>
-      </c>
-      <c r="Z144">
-        <v>0.8</v>
-      </c>
-      <c r="AA144">
-        <v>-1</v>
-      </c>
       <c r="AB144">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13361,7 +13361,7 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K145">
         <v>3.4</v>
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K146">
         <v>2.625</v>
@@ -13628,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K148">
         <v>1.8</v>
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K149">
         <v>2.2</v>
@@ -13794,7 +13794,7 @@
         <v>45312.75</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G150" t="s">
         <v>38</v>
@@ -13806,7 +13806,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K150">
         <v>1.533</v>
@@ -13883,7 +13883,7 @@
         <v>45312.85416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -14073,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K153">
         <v>4.333</v>
@@ -14153,7 +14153,7 @@
         <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K155">
         <v>1.533</v>
@@ -14340,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K156">
         <v>3.5</v>
@@ -14420,7 +14420,7 @@
         <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14429,7 +14429,7 @@
         <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K157">
         <v>3.75</v>
@@ -14773,7 +14773,7 @@
         <v>45319.86805555555</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
         <v>39</v>
@@ -14785,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K161">
         <v>1.833</v>
@@ -14874,7 +14874,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K162">
         <v>6.5</v>
@@ -14954,7 +14954,7 @@
         <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14963,7 +14963,7 @@
         <v>4</v>
       </c>
       <c r="J163" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K163">
         <v>1.909</v>
@@ -15052,7 +15052,7 @@
         <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K164">
         <v>2.5</v>
@@ -15221,7 +15221,7 @@
         <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15319,7 +15319,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K167">
         <v>1.25</v>
@@ -15408,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K168">
         <v>3.5</v>
@@ -15497,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K169">
         <v>2.875</v>
@@ -15586,7 +15586,7 @@
         <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K170">
         <v>2</v>
@@ -15663,7 +15663,7 @@
         <v>45332.76041666666</v>
       </c>
       <c r="F171" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
         <v>32</v>
@@ -15841,7 +15841,7 @@
         <v>45333.76041666666</v>
       </c>
       <c r="F173" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G173" t="s">
         <v>36</v>
@@ -15942,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K174">
         <v>1.95</v>
@@ -16022,7 +16022,7 @@
         <v>37</v>
       </c>
       <c r="G175" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16120,7 +16120,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K176">
         <v>2.5</v>
@@ -16200,7 +16200,7 @@
         <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16298,7 +16298,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K178">
         <v>6</v>
@@ -16387,7 +16387,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K179">
         <v>1.909</v>
@@ -16654,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K182">
         <v>2.7</v>
@@ -16731,7 +16731,7 @@
         <v>45346.86458333334</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G183" t="s">
         <v>41</v>
@@ -16832,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K184">
         <v>2.7</v>
@@ -16909,7 +16909,7 @@
         <v>45347.86458333334</v>
       </c>
       <c r="F185" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
         <v>40</v>
@@ -16921,7 +16921,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K185">
         <v>2.6</v>
@@ -17087,10 +17087,10 @@
         <v>45352.8125</v>
       </c>
       <c r="F187" t="s">
+        <v>31</v>
+      </c>
+      <c r="G187" t="s">
         <v>30</v>
-      </c>
-      <c r="G187" t="s">
-        <v>31</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17188,7 +17188,7 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K188">
         <v>2.2</v>
@@ -17277,7 +17277,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K189">
         <v>2</v>
@@ -17366,7 +17366,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K190">
         <v>2.375</v>
@@ -17455,7 +17455,7 @@
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K191">
         <v>2</v>
@@ -17544,7 +17544,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K192">
         <v>2.75</v>
@@ -17710,7 +17710,7 @@
         <v>45360.8125</v>
       </c>
       <c r="F194" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G194" t="s">
         <v>39</v>
@@ -17722,7 +17722,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K194">
         <v>1.363</v>
@@ -17891,7 +17891,7 @@
         <v>29</v>
       </c>
       <c r="G196" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17900,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K196">
         <v>2.1</v>
@@ -17989,7 +17989,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K197">
         <v>1.5</v>
@@ -18069,7 +18069,7 @@
         <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18078,7 +18078,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K198">
         <v>3.8</v>
@@ -18167,7 +18167,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K199">
         <v>1.666</v>
@@ -18256,7 +18256,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K200">
         <v>5.5</v>
@@ -18345,7 +18345,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K201">
         <v>1.909</v>
@@ -18422,7 +18422,7 @@
         <v>45368.875</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G202" t="s">
         <v>38</v>
@@ -18434,7 +18434,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K202">
         <v>1.909</v>
@@ -18523,7 +18523,7 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K203">
         <v>1.909</v>
@@ -18701,7 +18701,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K205">
         <v>3.6</v>
@@ -18778,7 +18778,7 @@
         <v>45381.79166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G206" t="s">
         <v>33</v>
@@ -18790,7 +18790,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K206">
         <v>1.5</v>
@@ -18968,7 +18968,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K208">
         <v>2.1</v>
@@ -19048,7 +19048,7 @@
         <v>42</v>
       </c>
       <c r="G209" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19057,7 +19057,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K209">
         <v>2.2</v>
@@ -19315,7 +19315,7 @@
         <v>38</v>
       </c>
       <c r="G212" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19324,7 +19324,7 @@
         <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K212">
         <v>6</v>
@@ -19404,7 +19404,7 @@
         <v>36</v>
       </c>
       <c r="G213" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -19413,7 +19413,7 @@
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K213">
         <v>1.5</v>
@@ -19668,7 +19668,7 @@
         <v>45394.79166666666</v>
       </c>
       <c r="F216" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G216" t="s">
         <v>41</v>
@@ -19680,7 +19680,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K216">
         <v>2.05</v>
@@ -19769,7 +19769,7 @@
         <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K217">
         <v>2.55</v>
@@ -19858,7 +19858,7 @@
         <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K218">
         <v>1.666</v>
@@ -19947,7 +19947,7 @@
         <v>2</v>
       </c>
       <c r="J219" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K219">
         <v>2.75</v>
@@ -20036,7 +20036,7 @@
         <v>3</v>
       </c>
       <c r="J220" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K220">
         <v>3.2</v>
@@ -20113,7 +20113,7 @@
         <v>45396.875</v>
       </c>
       <c r="F221" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G221" t="s">
         <v>32</v>
@@ -20125,7 +20125,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K221">
         <v>1.444</v>
@@ -20279,7 +20279,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7609206</v>
+        <v>7609669</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20288,49 +20288,49 @@
         <v>28</v>
       </c>
       <c r="E223" s="2">
-        <v>45401.79166666666</v>
+        <v>45401.89583333334</v>
       </c>
       <c r="F223" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G223" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K223">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="L223">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M223">
-        <v>2.625</v>
+        <v>1.833</v>
       </c>
       <c r="N223">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="O223">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P223">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="Q223">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R223">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S223">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T223">
         <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V223">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W223">
         <v>0</v>
@@ -20353,7 +20353,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7609669</v>
+        <v>7609158</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20362,49 +20362,49 @@
         <v>28</v>
       </c>
       <c r="E224" s="2">
-        <v>45401.89583333334</v>
+        <v>45402.77083333334</v>
       </c>
       <c r="F224" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G224" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K224">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="L224">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M224">
-        <v>1.833</v>
+        <v>3.3</v>
       </c>
       <c r="N224">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="O224">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P224">
-        <v>1.833</v>
+        <v>3.3</v>
       </c>
       <c r="Q224">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R224">
+        <v>1.825</v>
+      </c>
+      <c r="S224">
+        <v>1.975</v>
+      </c>
+      <c r="T224">
+        <v>2.25</v>
+      </c>
+      <c r="U224">
+        <v>1.8</v>
+      </c>
+      <c r="V224">
         <v>2</v>
-      </c>
-      <c r="S224">
-        <v>1.8</v>
-      </c>
-      <c r="T224">
-        <v>2.5</v>
-      </c>
-      <c r="U224">
-        <v>1.85</v>
-      </c>
-      <c r="V224">
-        <v>1.95</v>
       </c>
       <c r="W224">
         <v>0</v>
@@ -20427,7 +20427,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7609158</v>
+        <v>7609155</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20436,49 +20436,49 @@
         <v>28</v>
       </c>
       <c r="E225" s="2">
-        <v>45402.77083333334</v>
+        <v>45402.875</v>
       </c>
       <c r="F225" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G225" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K225">
-        <v>2.05</v>
+        <v>1.3</v>
       </c>
       <c r="L225">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M225">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="N225">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="O225">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P225">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q225">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R225">
+        <v>1.9</v>
+      </c>
+      <c r="S225">
+        <v>1.9</v>
+      </c>
+      <c r="T225">
+        <v>2.75</v>
+      </c>
+      <c r="U225">
         <v>1.825</v>
       </c>
-      <c r="S225">
+      <c r="V225">
         <v>1.975</v>
-      </c>
-      <c r="T225">
-        <v>2.25</v>
-      </c>
-      <c r="U225">
-        <v>1.8</v>
-      </c>
-      <c r="V225">
-        <v>2</v>
       </c>
       <c r="W225">
         <v>0</v>
@@ -20501,7 +20501,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7609155</v>
+        <v>7609156</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20510,49 +20510,49 @@
         <v>28</v>
       </c>
       <c r="E226" s="2">
-        <v>45402.875</v>
+        <v>45403.77083333334</v>
       </c>
       <c r="F226" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G226" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K226">
-        <v>1.3</v>
+        <v>2.875</v>
       </c>
       <c r="L226">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M226">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="N226">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="O226">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P226">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q226">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R226">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S226">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T226">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U226">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V226">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W226">
         <v>0</v>
@@ -20575,7 +20575,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7609156</v>
+        <v>7609157</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20584,49 +20584,49 @@
         <v>28</v>
       </c>
       <c r="E227" s="2">
-        <v>45403.77083333334</v>
+        <v>45403.875</v>
       </c>
       <c r="F227" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G227" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K227">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="L227">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M227">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="N227">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="O227">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P227">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q227">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R227">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S227">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T227">
         <v>2.25</v>
       </c>
       <c r="U227">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V227">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W227">
         <v>0</v>
@@ -20641,80 +20641,6 @@
         <v>0</v>
       </c>
       <c r="AA227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:27">
-      <c r="A228" s="1">
-        <v>226</v>
-      </c>
-      <c r="B228">
-        <v>7609157</v>
-      </c>
-      <c r="C228" t="s">
-        <v>28</v>
-      </c>
-      <c r="D228" t="s">
-        <v>28</v>
-      </c>
-      <c r="E228" s="2">
-        <v>45403.875</v>
-      </c>
-      <c r="F228" t="s">
-        <v>33</v>
-      </c>
-      <c r="G228" t="s">
-        <v>40</v>
-      </c>
-      <c r="K228">
-        <v>3.3</v>
-      </c>
-      <c r="L228">
-        <v>3.1</v>
-      </c>
-      <c r="M228">
-        <v>2.1</v>
-      </c>
-      <c r="N228">
-        <v>3.25</v>
-      </c>
-      <c r="O228">
-        <v>3.1</v>
-      </c>
-      <c r="P228">
-        <v>2.1</v>
-      </c>
-      <c r="Q228">
-        <v>0.25</v>
-      </c>
-      <c r="R228">
-        <v>1.95</v>
-      </c>
-      <c r="S228">
-        <v>1.85</v>
-      </c>
-      <c r="T228">
-        <v>2.25</v>
-      </c>
-      <c r="U228">
-        <v>1.9</v>
-      </c>
-      <c r="V228">
-        <v>1.9</v>
-      </c>
-      <c r="W228">
-        <v>0</v>
-      </c>
-      <c r="X228">
-        <v>0</v>
-      </c>
-      <c r="Y228">
-        <v>0</v>
-      </c>
-      <c r="Z228">
-        <v>0</v>
-      </c>
-      <c r="AA228">
         <v>0</v>
       </c>
     </row>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,13 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
-    <t>Sportivo Luqueno</t>
+    <t>Guarani Asuncion</t>
   </si>
   <si>
     <t>Cerro Porteno</t>
   </si>
   <si>
-    <t>Guarani Asuncion</t>
+    <t>Sportivo Luqueno</t>
   </si>
   <si>
     <t>Sportivo Ameliano</t>
@@ -145,13 +145,13 @@
     <t>2 de Mayo</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
     <t>H</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC227"/>
+  <dimension ref="A1:AC226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6720873</v>
+        <v>6720844</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,10 +625,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -637,58 +637,58 @@
         <v>43</v>
       </c>
       <c r="K2">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="L2">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M2">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N2">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P2">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R2">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S2">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T2">
         <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V2">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AB2">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC2">
         <v>-1</v>
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6720844</v>
+        <v>6720873</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,10 +803,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -815,58 +815,58 @@
         <v>45</v>
       </c>
       <c r="K4">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N4">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O4">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P4">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q4">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V4">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>0.925</v>
+        <v>0.3875</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K5">
         <v>1.95</v>
@@ -1079,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K7">
         <v>2.4</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K8">
         <v>2.75</v>
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K9">
         <v>1.333</v>
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K10">
         <v>2.3</v>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K12">
         <v>5.5</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K14">
         <v>2.7</v>
@@ -1969,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K17">
         <v>1.4</v>
@@ -2046,10 +2046,10 @@
         <v>45116.70833333334</v>
       </c>
       <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" t="s">
         <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K18">
         <v>2.375</v>
@@ -2147,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K19">
         <v>1.4</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K21">
         <v>3.6</v>
@@ -2491,7 +2491,7 @@
         <v>45123.8125</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
@@ -2503,7 +2503,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2583,7 +2583,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2592,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K24">
         <v>2.625</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K25">
         <v>1.666</v>
@@ -2761,7 +2761,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K26">
         <v>2.9</v>
@@ -2859,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K27">
         <v>1.65</v>
@@ -3025,7 +3025,7 @@
         <v>45130.70833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -3037,7 +3037,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K29">
         <v>2.15</v>
@@ -3126,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K30">
         <v>1.7</v>
@@ -3295,7 +3295,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>45135.85416666666</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3571,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K35">
         <v>4.2</v>
@@ -3660,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K36">
         <v>2.2</v>
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K37">
         <v>4.5</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K38">
         <v>1.363</v>
@@ -4004,7 +4004,7 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
         <v>34</v>
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4096,7 +4096,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -4283,7 +4283,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K43">
         <v>2.625</v>
@@ -4461,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -4541,7 +4541,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K47">
         <v>2.15</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K48">
         <v>2.05</v>
@@ -4808,7 +4808,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4817,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K49">
         <v>2.375</v>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K50">
         <v>1.5</v>
@@ -4983,7 +4983,7 @@
         <v>45157.75</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
@@ -4995,7 +4995,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K51">
         <v>2.25</v>
@@ -5084,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K52">
         <v>1.444</v>
@@ -5161,7 +5161,7 @@
         <v>45158.75</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
         <v>30</v>
@@ -5173,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K53">
         <v>3.5</v>
@@ -5262,7 +5262,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K54">
         <v>1.666</v>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K58">
         <v>2.375</v>
@@ -5695,7 +5695,7 @@
         <v>45165.72916666666</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
         <v>40</v>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -5787,7 +5787,7 @@
         <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K60">
         <v>2.8</v>
@@ -6063,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K63">
         <v>4.75</v>
@@ -6143,7 +6143,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6229,7 +6229,7 @@
         <v>45172.72916666666</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -6330,7 +6330,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K66">
         <v>1.909</v>
@@ -6410,7 +6410,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K67">
         <v>2.45</v>
@@ -6508,7 +6508,7 @@
         <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K68">
         <v>2.875</v>
@@ -6585,7 +6585,7 @@
         <v>45179.72916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
         <v>39</v>
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K70">
         <v>1.833</v>
@@ -6944,7 +6944,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7042,7 +7042,7 @@
         <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K74">
         <v>5.75</v>
@@ -7220,7 +7220,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7297,7 +7297,7 @@
         <v>45186.83333333334</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
         <v>30</v>
@@ -7576,7 +7576,7 @@
         <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K80">
         <v>5.25</v>
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K81">
         <v>6</v>
@@ -7754,7 +7754,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K82">
         <v>4</v>
@@ -7831,10 +7831,10 @@
         <v>45193.77083333334</v>
       </c>
       <c r="F83" t="s">
+        <v>29</v>
+      </c>
+      <c r="G83" t="s">
         <v>31</v>
-      </c>
-      <c r="G83" t="s">
-        <v>29</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7932,7 +7932,7 @@
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K84">
         <v>1.95</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K86">
         <v>2.1</v>
@@ -8199,7 +8199,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K87">
         <v>3.8</v>
@@ -8368,7 +8368,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K89">
         <v>1.5</v>
@@ -8454,7 +8454,7 @@
         <v>45201.75</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K91">
         <v>1.333</v>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K92">
         <v>4.2</v>
@@ -8733,7 +8733,7 @@
         <v>5</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K93">
         <v>5.75</v>
@@ -8911,7 +8911,7 @@
         <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K95">
         <v>2.7</v>
@@ -8988,7 +8988,7 @@
         <v>45207.85416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
         <v>39</v>
@@ -9080,7 +9080,7 @@
         <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9089,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K97">
         <v>2.15</v>
@@ -9169,7 +9169,7 @@
         <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9267,7 +9267,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K99">
         <v>2.375</v>
@@ -9344,7 +9344,7 @@
         <v>45218.8125</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9534,7 +9534,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K102">
         <v>1.7</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K104">
         <v>3.6</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K105">
         <v>6</v>
@@ -9979,7 +9979,7 @@
         <v>5</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K107">
         <v>3.75</v>
@@ -10056,7 +10056,7 @@
         <v>45223.85416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10068,7 +10068,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K108">
         <v>3.6</v>
@@ -10148,7 +10148,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K109">
         <v>3.2</v>
@@ -10412,7 +10412,7 @@
         <v>45227.85416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
         <v>35</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K112">
         <v>1.85</v>
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K113">
         <v>2.25</v>
@@ -10590,7 +10590,7 @@
         <v>45229.75</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
         <v>38</v>
@@ -10771,7 +10771,7 @@
         <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K116">
         <v>2.2</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K117">
         <v>4</v>
@@ -10958,7 +10958,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K118">
         <v>2.2</v>
@@ -11047,7 +11047,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K119">
         <v>4.333</v>
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K120">
         <v>5</v>
@@ -11216,7 +11216,7 @@
         <v>30</v>
       </c>
       <c r="G121" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11391,7 +11391,7 @@
         <v>45235.85416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
         <v>37</v>
@@ -11492,7 +11492,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K124">
         <v>2.05</v>
@@ -11670,7 +11670,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K126">
         <v>2.5</v>
@@ -11750,7 +11750,7 @@
         <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11937,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K129">
         <v>2</v>
@@ -12002,7 +12002,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7454842</v>
+        <v>7453204</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12014,13 +12014,13 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -12029,61 +12029,61 @@
         <v>45</v>
       </c>
       <c r="K130">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="L130">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M130">
-        <v>1.727</v>
+        <v>8</v>
       </c>
       <c r="N130">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O130">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P130">
-        <v>1.95</v>
+        <v>8</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U130">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y130">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12091,7 +12091,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7453204</v>
+        <v>7454842</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12103,13 +12103,13 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -12118,61 +12118,61 @@
         <v>43</v>
       </c>
       <c r="K131">
-        <v>1.285</v>
+        <v>4</v>
       </c>
       <c r="L131">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M131">
-        <v>8</v>
+        <v>1.727</v>
       </c>
       <c r="N131">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O131">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="P131">
-        <v>8</v>
+        <v>1.95</v>
       </c>
       <c r="Q131">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12195,7 +12195,7 @@
         <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12204,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K132">
         <v>3.4</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K133">
         <v>2.75</v>
@@ -12373,7 +12373,7 @@
         <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12382,7 +12382,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K134">
         <v>3.4</v>
@@ -12560,7 +12560,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K136">
         <v>1.85</v>
@@ -12625,7 +12625,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7499442</v>
+        <v>7499440</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12637,55 +12637,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K137">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L137">
         <v>3.4</v>
       </c>
       <c r="M137">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N137">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O137">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P137">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R137">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12694,19 +12694,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12714,7 +12714,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7499440</v>
+        <v>7499442</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12726,55 +12726,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K138">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L138">
         <v>3.4</v>
       </c>
       <c r="M138">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N138">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O138">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P138">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q138">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R138">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12783,19 +12783,19 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB138">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12827,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K139">
         <v>2.375</v>
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7493431</v>
+        <v>7493310</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,76 +12904,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H140">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K140">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="L140">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M140">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="N140">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="O140">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P140">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R140">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U140">
+        <v>1.8</v>
+      </c>
+      <c r="V140">
         <v>2</v>
       </c>
-      <c r="V140">
-        <v>1.8</v>
-      </c>
       <c r="W140">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z140">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12981,7 +12981,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7493310</v>
+        <v>7493431</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12993,76 +12993,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I141">
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K141">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="L141">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M141">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="N141">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="O141">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P141">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R141">
+        <v>1.925</v>
+      </c>
+      <c r="S141">
+        <v>1.875</v>
+      </c>
+      <c r="T141">
+        <v>2.5</v>
+      </c>
+      <c r="U141">
+        <v>2</v>
+      </c>
+      <c r="V141">
         <v>1.8</v>
       </c>
-      <c r="S141">
-        <v>2</v>
-      </c>
-      <c r="T141">
-        <v>2.75</v>
-      </c>
-      <c r="U141">
-        <v>1.8</v>
-      </c>
-      <c r="V141">
-        <v>2</v>
-      </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA141">
+        <v>-1</v>
+      </c>
+      <c r="AB141">
         <v>1</v>
       </c>
-      <c r="AB141">
-        <v>0.4</v>
-      </c>
       <c r="AC141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13094,7 +13094,7 @@
         <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K142">
         <v>4</v>
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7493312</v>
+        <v>7493311</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H143">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K143">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L143">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M143">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N143">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O143">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P143">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R143">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T143">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V143">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W143">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>45261.8125</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
         <v>33</v>
@@ -13272,7 +13272,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K144">
         <v>2.75</v>
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7493311</v>
+        <v>7493312</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F145" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H145">
+        <v>4</v>
+      </c>
+      <c r="I145">
         <v>0</v>
       </c>
-      <c r="I145">
-        <v>1</v>
-      </c>
       <c r="J145" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K145">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L145">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M145">
+        <v>4.333</v>
+      </c>
+      <c r="N145">
+        <v>1.727</v>
+      </c>
+      <c r="O145">
+        <v>3.75</v>
+      </c>
+      <c r="P145">
+        <v>4.2</v>
+      </c>
+      <c r="Q145">
+        <v>-0.5</v>
+      </c>
+      <c r="R145">
+        <v>1.8</v>
+      </c>
+      <c r="S145">
         <v>2</v>
       </c>
-      <c r="N145">
-        <v>3.2</v>
-      </c>
-      <c r="O145">
-        <v>3.25</v>
-      </c>
-      <c r="P145">
-        <v>2.1</v>
-      </c>
-      <c r="Q145">
-        <v>0.25</v>
-      </c>
-      <c r="R145">
-        <v>1.95</v>
-      </c>
-      <c r="S145">
-        <v>1.85</v>
-      </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V145">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA145">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC145">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13539,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K147">
         <v>1.444</v>
@@ -13616,7 +13616,7 @@
         <v>45311.75</v>
       </c>
       <c r="F148" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
         <v>42</v>
@@ -13883,7 +13883,7 @@
         <v>45312.85416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K151">
         <v>3.75</v>
@@ -13984,7 +13984,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K152">
         <v>1.65</v>
@@ -14073,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K153">
         <v>4.333</v>
@@ -14153,7 +14153,7 @@
         <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14162,7 +14162,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K154">
         <v>3.3</v>
@@ -14242,7 +14242,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14429,7 +14429,7 @@
         <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K157">
         <v>3.75</v>
@@ -14506,7 +14506,7 @@
         <v>45318.77083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G158" t="s">
         <v>41</v>
@@ -14518,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K158">
         <v>2.25</v>
@@ -14607,7 +14607,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K159">
         <v>2.3</v>
@@ -14696,7 +14696,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K160">
         <v>2.7</v>
@@ -14773,7 +14773,7 @@
         <v>45319.86805555555</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G161" t="s">
         <v>39</v>
@@ -14874,7 +14874,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K162">
         <v>6.5</v>
@@ -14954,7 +14954,7 @@
         <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14963,7 +14963,7 @@
         <v>4</v>
       </c>
       <c r="J163" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K163">
         <v>1.909</v>
@@ -15052,7 +15052,7 @@
         <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K164">
         <v>2.5</v>
@@ -15132,7 +15132,7 @@
         <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15141,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K165">
         <v>2.8</v>
@@ -15230,7 +15230,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K166">
         <v>4.5</v>
@@ -15586,7 +15586,7 @@
         <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K170">
         <v>2</v>
@@ -15663,7 +15663,7 @@
         <v>45332.76041666666</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G171" t="s">
         <v>32</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K171">
         <v>2.15</v>
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K172">
         <v>1.55</v>
@@ -15853,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15930,7 +15930,7 @@
         <v>45333.86458333334</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G174" t="s">
         <v>33</v>
@@ -16022,7 +16022,7 @@
         <v>37</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16031,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K175">
         <v>2.7</v>
@@ -16111,7 +16111,7 @@
         <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16120,7 +16120,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K176">
         <v>2.5</v>
@@ -16209,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K177">
         <v>3.4</v>
@@ -16298,7 +16298,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K178">
         <v>6</v>
@@ -16476,7 +16476,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K180">
         <v>2.25</v>
@@ -16553,7 +16553,7 @@
         <v>45345.8125</v>
       </c>
       <c r="F181" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G181" t="s">
         <v>37</v>
@@ -16565,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K181">
         <v>1.7</v>
@@ -16743,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K183">
         <v>1.45</v>
@@ -16832,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K184">
         <v>2.7</v>
@@ -16909,7 +16909,7 @@
         <v>45347.86458333334</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G185" t="s">
         <v>40</v>
@@ -16921,7 +16921,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K185">
         <v>2.6</v>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K186">
         <v>1.363</v>
@@ -17087,7 +17087,7 @@
         <v>45352.8125</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G187" t="s">
         <v>30</v>
@@ -17099,7 +17099,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K187">
         <v>3.8</v>
@@ -17188,7 +17188,7 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K188">
         <v>2.2</v>
@@ -17268,7 +17268,7 @@
         <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17455,7 +17455,7 @@
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K191">
         <v>2</v>
@@ -17633,7 +17633,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K193">
         <v>2</v>
@@ -17722,7 +17722,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K194">
         <v>1.363</v>
@@ -17811,7 +17811,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K195">
         <v>5.25</v>
@@ -17888,10 +17888,10 @@
         <v>45361.85416666666</v>
       </c>
       <c r="F196" t="s">
+        <v>31</v>
+      </c>
+      <c r="G196" t="s">
         <v>29</v>
-      </c>
-      <c r="G196" t="s">
-        <v>31</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -18066,7 +18066,7 @@
         <v>45366.8125</v>
       </c>
       <c r="F198" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G198" t="s">
         <v>30</v>
@@ -18078,7 +18078,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K198">
         <v>3.8</v>
@@ -18256,7 +18256,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K200">
         <v>5.5</v>
@@ -18345,7 +18345,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K201">
         <v>1.909</v>
@@ -18422,7 +18422,7 @@
         <v>45368.875</v>
       </c>
       <c r="F202" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G202" t="s">
         <v>38</v>
@@ -18434,7 +18434,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K202">
         <v>1.909</v>
@@ -18612,7 +18612,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K204">
         <v>2.75</v>
@@ -18692,7 +18692,7 @@
         <v>38</v>
       </c>
       <c r="G205" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18701,7 +18701,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K205">
         <v>3.6</v>
@@ -18879,7 +18879,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K207">
         <v>1.8</v>
@@ -19048,7 +19048,7 @@
         <v>42</v>
       </c>
       <c r="G209" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19057,7 +19057,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K209">
         <v>2.2</v>
@@ -19146,7 +19146,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K210">
         <v>2.55</v>
@@ -19235,7 +19235,7 @@
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K211">
         <v>2.625</v>
@@ -19324,7 +19324,7 @@
         <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K212">
         <v>6</v>
@@ -19404,7 +19404,7 @@
         <v>36</v>
       </c>
       <c r="G213" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -19502,7 +19502,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K214">
         <v>3.75</v>
@@ -19582,7 +19582,7 @@
         <v>42</v>
       </c>
       <c r="G215" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -19591,7 +19591,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K215">
         <v>2.4</v>
@@ -19668,7 +19668,7 @@
         <v>45394.79166666666</v>
       </c>
       <c r="F216" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
         <v>41</v>
@@ -19769,7 +19769,7 @@
         <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K217">
         <v>2.55</v>
@@ -19947,7 +19947,7 @@
         <v>2</v>
       </c>
       <c r="J219" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K219">
         <v>2.75</v>
@@ -20024,7 +20024,7 @@
         <v>45396.77083333334</v>
       </c>
       <c r="F220" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G220" t="s">
         <v>36</v>
@@ -20036,7 +20036,7 @@
         <v>3</v>
       </c>
       <c r="J220" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K220">
         <v>3.2</v>
@@ -20214,7 +20214,7 @@
         <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K222">
         <v>4</v>
@@ -20279,7 +20279,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7609669</v>
+        <v>7609158</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20288,49 +20288,49 @@
         <v>28</v>
       </c>
       <c r="E223" s="2">
-        <v>45401.89583333334</v>
+        <v>45402.77083333334</v>
       </c>
       <c r="F223" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G223" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K223">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="L223">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M223">
-        <v>1.833</v>
+        <v>3.3</v>
       </c>
       <c r="N223">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="O223">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P223">
-        <v>1.85</v>
+        <v>3.3</v>
       </c>
       <c r="Q223">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R223">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S223">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T223">
         <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V223">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W223">
         <v>0</v>
@@ -20353,7 +20353,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7609158</v>
+        <v>7609155</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20362,49 +20362,49 @@
         <v>28</v>
       </c>
       <c r="E224" s="2">
-        <v>45402.77083333334</v>
+        <v>45402.875</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G224" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K224">
-        <v>2.05</v>
+        <v>1.3</v>
       </c>
       <c r="L224">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M224">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="N224">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="O224">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P224">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q224">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R224">
+        <v>1.9</v>
+      </c>
+      <c r="S224">
+        <v>1.9</v>
+      </c>
+      <c r="T224">
+        <v>2.75</v>
+      </c>
+      <c r="U224">
         <v>1.825</v>
       </c>
-      <c r="S224">
+      <c r="V224">
         <v>1.975</v>
-      </c>
-      <c r="T224">
-        <v>2.25</v>
-      </c>
-      <c r="U224">
-        <v>1.8</v>
-      </c>
-      <c r="V224">
-        <v>2</v>
       </c>
       <c r="W224">
         <v>0</v>
@@ -20427,7 +20427,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7609155</v>
+        <v>7609156</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20436,49 +20436,49 @@
         <v>28</v>
       </c>
       <c r="E225" s="2">
-        <v>45402.875</v>
+        <v>45403.77083333334</v>
       </c>
       <c r="F225" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G225" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K225">
-        <v>1.3</v>
+        <v>2.875</v>
       </c>
       <c r="L225">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M225">
-        <v>9</v>
+        <v>2.375</v>
       </c>
       <c r="N225">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="O225">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P225">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q225">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R225">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S225">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T225">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U225">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V225">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W225">
         <v>0</v>
@@ -20501,7 +20501,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7609156</v>
+        <v>7609157</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20510,49 +20510,49 @@
         <v>28</v>
       </c>
       <c r="E226" s="2">
-        <v>45403.77083333334</v>
+        <v>45403.875</v>
       </c>
       <c r="F226" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G226" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K226">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="L226">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M226">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="N226">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="O226">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P226">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q226">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R226">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S226">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T226">
         <v>2.25</v>
       </c>
       <c r="U226">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V226">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W226">
         <v>0</v>
@@ -20567,80 +20567,6 @@
         <v>0</v>
       </c>
       <c r="AA226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:27">
-      <c r="A227" s="1">
-        <v>225</v>
-      </c>
-      <c r="B227">
-        <v>7609157</v>
-      </c>
-      <c r="C227" t="s">
-        <v>28</v>
-      </c>
-      <c r="D227" t="s">
-        <v>28</v>
-      </c>
-      <c r="E227" s="2">
-        <v>45403.875</v>
-      </c>
-      <c r="F227" t="s">
-        <v>33</v>
-      </c>
-      <c r="G227" t="s">
-        <v>40</v>
-      </c>
-      <c r="K227">
-        <v>3.3</v>
-      </c>
-      <c r="L227">
-        <v>3.1</v>
-      </c>
-      <c r="M227">
-        <v>2.1</v>
-      </c>
-      <c r="N227">
-        <v>3.25</v>
-      </c>
-      <c r="O227">
-        <v>3.1</v>
-      </c>
-      <c r="P227">
-        <v>2.1</v>
-      </c>
-      <c r="Q227">
-        <v>0.25</v>
-      </c>
-      <c r="R227">
-        <v>1.95</v>
-      </c>
-      <c r="S227">
-        <v>1.85</v>
-      </c>
-      <c r="T227">
-        <v>2.25</v>
-      </c>
-      <c r="U227">
-        <v>1.9</v>
-      </c>
-      <c r="V227">
-        <v>1.9</v>
-      </c>
-      <c r="W227">
-        <v>0</v>
-      </c>
-      <c r="X227">
-        <v>0</v>
-      </c>
-      <c r="Y227">
-        <v>0</v>
-      </c>
-      <c r="Z227">
-        <v>0</v>
-      </c>
-      <c r="AA227">
         <v>0</v>
       </c>
     </row>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,13 @@
     <t>Paraguay Division Profesional</t>
   </si>
   <si>
-    <t>Guarani Asuncion</t>
-  </si>
-  <si>
     <t>Cerro Porteno</t>
   </si>
   <si>
     <t>Sportivo Luqueno</t>
+  </si>
+  <si>
+    <t>Guarani Asuncion</t>
   </si>
   <si>
     <t>Sportivo Ameliano</t>
@@ -145,13 +145,13 @@
     <t>2 de Mayo</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC226"/>
+  <dimension ref="A1:AC224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6720844</v>
+        <v>6720843</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -625,31 +625,31 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>43</v>
       </c>
       <c r="K2">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M2">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N2">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O2">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P2">
         <v>1.85</v>
@@ -658,10 +658,10 @@
         <v>0.5</v>
       </c>
       <c r="R2">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S2">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T2">
         <v>2.5</v>
@@ -673,25 +673,25 @@
         <v>1.875</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA2">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -699,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6720843</v>
+        <v>6720873</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -714,73 +714,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>44</v>
       </c>
       <c r="K3">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M3">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="N3">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O3">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P3">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q3">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T3">
         <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC3">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6720873</v>
+        <v>6720844</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -803,10 +803,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -815,58 +815,58 @@
         <v>45</v>
       </c>
       <c r="K4">
-        <v>2.625</v>
+        <v>2.45</v>
       </c>
       <c r="L4">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="N4">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O4">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P4">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S4">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
         <v>2.5</v>
       </c>
       <c r="U4">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.3875</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -901,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K5">
         <v>1.95</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6">
         <v>1.571</v>
@@ -1079,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>2.4</v>
@@ -1159,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K8">
         <v>2.75</v>
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9">
         <v>1.333</v>
@@ -1337,7 +1337,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K10">
         <v>2.3</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11">
         <v>2.1</v>
@@ -1515,7 +1515,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K12">
         <v>5.5</v>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13">
         <v>1.363</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K14">
         <v>2.7</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K15">
         <v>1.55</v>
@@ -1880,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16">
         <v>2.3</v>
@@ -1969,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K17">
         <v>1.4</v>
@@ -2046,10 +2046,10 @@
         <v>45116.70833333334</v>
       </c>
       <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
         <v>31</v>
-      </c>
-      <c r="G18" t="s">
-        <v>29</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K18">
         <v>2.375</v>
@@ -2135,7 +2135,7 @@
         <v>45116.8125</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
@@ -2147,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K19">
         <v>1.4</v>
@@ -2236,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K20">
         <v>4.75</v>
@@ -2316,7 +2316,7 @@
         <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2325,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K21">
         <v>3.6</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K22">
         <v>2.625</v>
@@ -2491,7 +2491,7 @@
         <v>45123.8125</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
@@ -2503,7 +2503,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2583,7 +2583,7 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2592,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K24">
         <v>2.625</v>
@@ -2681,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K25">
         <v>1.666</v>
@@ -2761,7 +2761,7 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K26">
         <v>2.9</v>
@@ -2859,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K27">
         <v>1.65</v>
@@ -2936,7 +2936,7 @@
         <v>45129.8125</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K28">
         <v>1.45</v>
@@ -3025,7 +3025,7 @@
         <v>45130.70833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -3037,7 +3037,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K29">
         <v>2.15</v>
@@ -3126,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K30">
         <v>1.7</v>
@@ -3215,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
         <v>1.25</v>
@@ -3295,7 +3295,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K32">
         <v>2.625</v>
@@ -3381,7 +3381,7 @@
         <v>45135.85416666666</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3482,7 +3482,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -3571,7 +3571,7 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K35">
         <v>4.2</v>
@@ -3660,7 +3660,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K36">
         <v>2.2</v>
@@ -3740,7 +3740,7 @@
         <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K37">
         <v>4.5</v>
@@ -3838,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K38">
         <v>1.363</v>
@@ -3915,7 +3915,7 @@
         <v>45143.72916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -3927,7 +3927,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K39">
         <v>1.666</v>
@@ -4004,7 +4004,7 @@
         <v>45143.83333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
         <v>34</v>
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K40">
         <v>1.8</v>
@@ -4096,7 +4096,7 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>5</v>
@@ -4105,7 +4105,7 @@
         <v>3</v>
       </c>
       <c r="J41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K41">
         <v>1.615</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K42">
         <v>1.65</v>
@@ -4283,7 +4283,7 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K43">
         <v>2.625</v>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K44">
         <v>2.75</v>
@@ -4461,7 +4461,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K45">
         <v>6</v>
@@ -4541,7 +4541,7 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -4627,7 +4627,7 @@
         <v>45151.72916666666</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
         <v>40</v>
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K47">
         <v>2.15</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K48">
         <v>2.05</v>
@@ -4808,7 +4808,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4817,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K49">
         <v>2.375</v>
@@ -4906,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K50">
         <v>1.5</v>
@@ -4983,7 +4983,7 @@
         <v>45157.75</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
@@ -4995,7 +4995,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K51">
         <v>2.25</v>
@@ -5084,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K52">
         <v>1.444</v>
@@ -5161,10 +5161,10 @@
         <v>45158.75</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -5173,7 +5173,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K53">
         <v>3.5</v>
@@ -5262,7 +5262,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K54">
         <v>1.666</v>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K55">
         <v>2.3</v>
@@ -5440,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K56">
         <v>1.7</v>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K57">
         <v>2.1</v>
@@ -5606,7 +5606,7 @@
         <v>45164.85416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
         <v>36</v>
@@ -5618,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K58">
         <v>2.375</v>
@@ -5695,7 +5695,7 @@
         <v>45165.72916666666</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
         <v>40</v>
@@ -5707,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -5787,7 +5787,7 @@
         <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K60">
         <v>2.8</v>
@@ -5885,7 +5885,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K61">
         <v>3.4</v>
@@ -5974,7 +5974,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K62">
         <v>2.2</v>
@@ -6054,7 +6054,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6063,7 +6063,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K63">
         <v>4.75</v>
@@ -6143,7 +6143,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6152,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K64">
         <v>1.5</v>
@@ -6229,7 +6229,7 @@
         <v>45172.72916666666</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -6241,7 +6241,7 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K65">
         <v>1.85</v>
@@ -6330,7 +6330,7 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K66">
         <v>1.909</v>
@@ -6410,7 +6410,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K67">
         <v>2.45</v>
@@ -6508,7 +6508,7 @@
         <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K68">
         <v>2.875</v>
@@ -6585,7 +6585,7 @@
         <v>45179.72916666666</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
         <v>39</v>
@@ -6597,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K69">
         <v>1.85</v>
@@ -6674,7 +6674,7 @@
         <v>45179.83333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
         <v>33</v>
@@ -6686,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K70">
         <v>1.833</v>
@@ -6775,7 +6775,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K71">
         <v>2.2</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K72">
         <v>2.55</v>
@@ -6944,7 +6944,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6953,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K73">
         <v>2</v>
@@ -7042,7 +7042,7 @@
         <v>4</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K74">
         <v>5.75</v>
@@ -7131,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K75">
         <v>1.533</v>
@@ -7220,7 +7220,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K76">
         <v>1.727</v>
@@ -7297,10 +7297,10 @@
         <v>45186.83333333334</v>
       </c>
       <c r="F77" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" t="s">
         <v>29</v>
-      </c>
-      <c r="G77" t="s">
-        <v>30</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K77">
         <v>3.8</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K78">
         <v>1.615</v>
@@ -7487,7 +7487,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K79">
         <v>2.2</v>
@@ -7567,7 +7567,7 @@
         <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7576,7 +7576,7 @@
         <v>4</v>
       </c>
       <c r="J80" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K80">
         <v>5.25</v>
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K81">
         <v>6</v>
@@ -7754,7 +7754,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K82">
         <v>4</v>
@@ -7831,10 +7831,10 @@
         <v>45193.77083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7843,7 +7843,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K83">
         <v>2.15</v>
@@ -7932,7 +7932,7 @@
         <v>3</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K84">
         <v>1.95</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K85">
         <v>1.85</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K86">
         <v>2.1</v>
@@ -8199,7 +8199,7 @@
         <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K87">
         <v>3.8</v>
@@ -8276,7 +8276,7 @@
         <v>45200.75</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
         <v>32</v>
@@ -8288,7 +8288,7 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K88">
         <v>1.55</v>
@@ -8368,7 +8368,7 @@
         <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8377,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K89">
         <v>1.5</v>
@@ -8454,7 +8454,7 @@
         <v>45201.75</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K90">
         <v>1.8</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K91">
         <v>1.333</v>
@@ -8635,7 +8635,7 @@
         <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8644,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K92">
         <v>4.2</v>
@@ -8733,7 +8733,7 @@
         <v>5</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K93">
         <v>5.75</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K94">
         <v>2.875</v>
@@ -8911,7 +8911,7 @@
         <v>4</v>
       </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K95">
         <v>2.7</v>
@@ -8988,7 +8988,7 @@
         <v>45207.85416666666</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
         <v>39</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K96">
         <v>1.75</v>
@@ -9080,7 +9080,7 @@
         <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9089,7 +9089,7 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K97">
         <v>2.15</v>
@@ -9169,7 +9169,7 @@
         <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H98">
         <v>4</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K98">
         <v>1.95</v>
@@ -9267,7 +9267,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K99">
         <v>2.375</v>
@@ -9344,7 +9344,7 @@
         <v>45218.8125</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9356,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K100">
         <v>1.909</v>
@@ -9445,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K101">
         <v>1.444</v>
@@ -9534,7 +9534,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K102">
         <v>1.7</v>
@@ -9611,7 +9611,7 @@
         <v>45220.85416666666</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -9623,7 +9623,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K103">
         <v>1.363</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K104">
         <v>3.6</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K105">
         <v>6</v>
@@ -9890,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K106">
         <v>1.75</v>
@@ -9970,7 +9970,7 @@
         <v>38</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9979,7 +9979,7 @@
         <v>5</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K107">
         <v>3.75</v>
@@ -10056,7 +10056,7 @@
         <v>45223.85416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>40</v>
@@ -10068,7 +10068,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K108">
         <v>3.6</v>
@@ -10148,7 +10148,7 @@
         <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K109">
         <v>3.2</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K110">
         <v>2.75</v>
@@ -10335,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K111">
         <v>1.909</v>
@@ -10412,7 +10412,7 @@
         <v>45227.85416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
         <v>35</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K112">
         <v>1.85</v>
@@ -10504,7 +10504,7 @@
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K113">
         <v>2.25</v>
@@ -10590,7 +10590,7 @@
         <v>45229.75</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
         <v>38</v>
@@ -10602,7 +10602,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K114">
         <v>2.05</v>
@@ -10691,7 +10691,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K115">
         <v>1.25</v>
@@ -10771,7 +10771,7 @@
         <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K116">
         <v>2.2</v>
@@ -10869,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K117">
         <v>4</v>
@@ -10958,7 +10958,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K118">
         <v>2.2</v>
@@ -11047,7 +11047,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K119">
         <v>4.333</v>
@@ -11136,7 +11136,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K120">
         <v>5</v>
@@ -11213,10 +11213,10 @@
         <v>45233.85416666666</v>
       </c>
       <c r="F121" t="s">
+        <v>29</v>
+      </c>
+      <c r="G121" t="s">
         <v>30</v>
-      </c>
-      <c r="G121" t="s">
-        <v>31</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K121">
         <v>1.533</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K122">
         <v>2.6</v>
@@ -11391,7 +11391,7 @@
         <v>45235.85416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
         <v>37</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K123">
         <v>1.909</v>
@@ -11483,7 +11483,7 @@
         <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11492,7 +11492,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K124">
         <v>2.05</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K125">
         <v>1.615</v>
@@ -11670,7 +11670,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K126">
         <v>2.5</v>
@@ -11750,7 +11750,7 @@
         <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11759,7 +11759,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K127">
         <v>1.833</v>
@@ -11848,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K128">
         <v>3</v>
@@ -11937,7 +11937,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K129">
         <v>2</v>
@@ -12014,7 +12014,7 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
         <v>39</v>
@@ -12026,7 +12026,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K130">
         <v>1.285</v>
@@ -12103,7 +12103,7 @@
         <v>45242.79166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
         <v>36</v>
@@ -12115,7 +12115,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K131">
         <v>4</v>
@@ -12195,7 +12195,7 @@
         <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12204,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K132">
         <v>3.4</v>
@@ -12293,7 +12293,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K133">
         <v>2.75</v>
@@ -12358,7 +12358,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7493427</v>
+        <v>7493428</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12370,76 +12370,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K134">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L134">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M134">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N134">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O134">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P134">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q134">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R134">
+        <v>1.775</v>
+      </c>
+      <c r="S134">
         <v>2.025</v>
       </c>
-      <c r="S134">
-        <v>1.775</v>
-      </c>
       <c r="T134">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
+        <v>1.825</v>
+      </c>
+      <c r="V134">
         <v>1.975</v>
       </c>
-      <c r="V134">
-        <v>1.825</v>
-      </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X134">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC134">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12447,7 +12447,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7493428</v>
+        <v>7493427</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12459,13 +12459,13 @@
         <v>45253.8125</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H135">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -12474,61 +12474,61 @@
         <v>44</v>
       </c>
       <c r="K135">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L135">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M135">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N135">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O135">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P135">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q135">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R135">
+        <v>2.025</v>
+      </c>
+      <c r="S135">
         <v>1.775</v>
       </c>
-      <c r="S135">
-        <v>2.025</v>
-      </c>
       <c r="T135">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U135">
+        <v>1.975</v>
+      </c>
+      <c r="V135">
         <v>1.825</v>
       </c>
-      <c r="V135">
-        <v>1.975</v>
-      </c>
       <c r="W135">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB135">
+        <v>-1</v>
+      </c>
+      <c r="AC135">
         <v>0.825</v>
-      </c>
-      <c r="AC135">
-        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12560,7 +12560,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K136">
         <v>1.85</v>
@@ -12625,7 +12625,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7499440</v>
+        <v>7499442</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12637,55 +12637,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K137">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L137">
         <v>3.4</v>
       </c>
       <c r="M137">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N137">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O137">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P137">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q137">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12694,19 +12694,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB137">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12714,7 +12714,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7499442</v>
+        <v>7499440</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12726,55 +12726,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F138" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J138" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K138">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L138">
         <v>3.4</v>
       </c>
       <c r="M138">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N138">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O138">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P138">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q138">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12783,19 +12783,19 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC138">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12818,7 +12818,7 @@
         <v>33</v>
       </c>
       <c r="G139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12827,7 +12827,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K139">
         <v>2.375</v>
@@ -12916,7 +12916,7 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K140">
         <v>1.363</v>
@@ -13005,7 +13005,7 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K141">
         <v>2.05</v>
@@ -13094,7 +13094,7 @@
         <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K142">
         <v>4</v>
@@ -13183,7 +13183,7 @@
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K143">
         <v>3.4</v>
@@ -13260,7 +13260,7 @@
         <v>45261.8125</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
         <v>33</v>
@@ -13272,7 +13272,7 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K144">
         <v>2.75</v>
@@ -13349,10 +13349,10 @@
         <v>45261.8125</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H145">
         <v>4</v>
@@ -13361,7 +13361,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K145">
         <v>1.7</v>
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K146">
         <v>2.625</v>
@@ -13539,7 +13539,7 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K147">
         <v>1.444</v>
@@ -13616,7 +13616,7 @@
         <v>45311.75</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G148" t="s">
         <v>42</v>
@@ -13628,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K148">
         <v>1.8</v>
@@ -13717,7 +13717,7 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K149">
         <v>2.2</v>
@@ -13794,7 +13794,7 @@
         <v>45312.75</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
         <v>38</v>
@@ -13806,7 +13806,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K150">
         <v>1.533</v>
@@ -13883,7 +13883,7 @@
         <v>45312.85416666666</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G151" t="s">
         <v>36</v>
@@ -13895,7 +13895,7 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K151">
         <v>3.75</v>
@@ -13984,7 +13984,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K152">
         <v>1.65</v>
@@ -14073,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="J153" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K153">
         <v>4.333</v>
@@ -14153,7 +14153,7 @@
         <v>41</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -14162,7 +14162,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K154">
         <v>3.3</v>
@@ -14242,7 +14242,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14251,7 +14251,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K155">
         <v>1.533</v>
@@ -14340,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K156">
         <v>3.5</v>
@@ -14420,7 +14420,7 @@
         <v>32</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14429,7 +14429,7 @@
         <v>4</v>
       </c>
       <c r="J157" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K157">
         <v>3.75</v>
@@ -14506,7 +14506,7 @@
         <v>45318.77083333334</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
         <v>41</v>
@@ -14518,7 +14518,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K158">
         <v>2.25</v>
@@ -14607,7 +14607,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K159">
         <v>2.3</v>
@@ -14696,7 +14696,7 @@
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K160">
         <v>2.7</v>
@@ -14773,7 +14773,7 @@
         <v>45319.86805555555</v>
       </c>
       <c r="F161" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
         <v>39</v>
@@ -14785,7 +14785,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K161">
         <v>1.833</v>
@@ -14874,7 +14874,7 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K162">
         <v>6.5</v>
@@ -14954,7 +14954,7 @@
         <v>33</v>
       </c>
       <c r="G163" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -14963,7 +14963,7 @@
         <v>4</v>
       </c>
       <c r="J163" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K163">
         <v>1.909</v>
@@ -15052,7 +15052,7 @@
         <v>3</v>
       </c>
       <c r="J164" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K164">
         <v>2.5</v>
@@ -15132,7 +15132,7 @@
         <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -15141,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K165">
         <v>2.8</v>
@@ -15221,7 +15221,7 @@
         <v>37</v>
       </c>
       <c r="G166" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -15230,7 +15230,7 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K166">
         <v>4.5</v>
@@ -15319,7 +15319,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K167">
         <v>1.25</v>
@@ -15408,7 +15408,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K168">
         <v>3.5</v>
@@ -15497,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K169">
         <v>2.875</v>
@@ -15586,7 +15586,7 @@
         <v>3</v>
       </c>
       <c r="J170" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K170">
         <v>2</v>
@@ -15663,7 +15663,7 @@
         <v>45332.76041666666</v>
       </c>
       <c r="F171" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
         <v>32</v>
@@ -15675,7 +15675,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K171">
         <v>2.15</v>
@@ -15764,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K172">
         <v>1.55</v>
@@ -15841,7 +15841,7 @@
         <v>45333.76041666666</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G173" t="s">
         <v>36</v>
@@ -15853,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15930,7 +15930,7 @@
         <v>45333.86458333334</v>
       </c>
       <c r="F174" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G174" t="s">
         <v>33</v>
@@ -15942,7 +15942,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K174">
         <v>1.95</v>
@@ -16022,7 +16022,7 @@
         <v>37</v>
       </c>
       <c r="G175" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16031,7 +16031,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K175">
         <v>2.7</v>
@@ -16111,7 +16111,7 @@
         <v>32</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16120,7 +16120,7 @@
         <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K176">
         <v>2.5</v>
@@ -16200,7 +16200,7 @@
         <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16209,7 +16209,7 @@
         <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K177">
         <v>3.4</v>
@@ -16298,7 +16298,7 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K178">
         <v>6</v>
@@ -16387,7 +16387,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K179">
         <v>1.909</v>
@@ -16476,7 +16476,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K180">
         <v>2.25</v>
@@ -16553,7 +16553,7 @@
         <v>45345.8125</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G181" t="s">
         <v>37</v>
@@ -16565,7 +16565,7 @@
         <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K181">
         <v>1.7</v>
@@ -16654,7 +16654,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K182">
         <v>2.7</v>
@@ -16731,7 +16731,7 @@
         <v>45346.86458333334</v>
       </c>
       <c r="F183" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G183" t="s">
         <v>41</v>
@@ -16743,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K183">
         <v>1.45</v>
@@ -16832,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K184">
         <v>2.7</v>
@@ -16909,7 +16909,7 @@
         <v>45347.86458333334</v>
       </c>
       <c r="F185" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
         <v>40</v>
@@ -16921,7 +16921,7 @@
         <v>3</v>
       </c>
       <c r="J185" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K185">
         <v>2.6</v>
@@ -17010,7 +17010,7 @@
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K186">
         <v>1.363</v>
@@ -17087,11 +17087,11 @@
         <v>45352.8125</v>
       </c>
       <c r="F187" t="s">
+        <v>31</v>
+      </c>
+      <c r="G187" t="s">
         <v>29</v>
       </c>
-      <c r="G187" t="s">
-        <v>30</v>
-      </c>
       <c r="H187">
         <v>1</v>
       </c>
@@ -17099,7 +17099,7 @@
         <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K187">
         <v>3.8</v>
@@ -17188,7 +17188,7 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K188">
         <v>2.2</v>
@@ -17268,7 +17268,7 @@
         <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17277,7 +17277,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K189">
         <v>2</v>
@@ -17366,7 +17366,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K190">
         <v>2.375</v>
@@ -17455,7 +17455,7 @@
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K191">
         <v>2</v>
@@ -17544,7 +17544,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K192">
         <v>2.75</v>
@@ -17633,7 +17633,7 @@
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K193">
         <v>2</v>
@@ -17710,7 +17710,7 @@
         <v>45360.8125</v>
       </c>
       <c r="F194" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G194" t="s">
         <v>39</v>
@@ -17722,7 +17722,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K194">
         <v>1.363</v>
@@ -17811,7 +17811,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K195">
         <v>5.25</v>
@@ -17888,10 +17888,10 @@
         <v>45361.85416666666</v>
       </c>
       <c r="F196" t="s">
+        <v>30</v>
+      </c>
+      <c r="G196" t="s">
         <v>31</v>
-      </c>
-      <c r="G196" t="s">
-        <v>29</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17900,7 +17900,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K196">
         <v>2.1</v>
@@ -17989,7 +17989,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K197">
         <v>1.5</v>
@@ -18066,10 +18066,10 @@
         <v>45366.8125</v>
       </c>
       <c r="F198" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G198" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -18078,7 +18078,7 @@
         <v>1</v>
       </c>
       <c r="J198" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K198">
         <v>3.8</v>
@@ -18167,7 +18167,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K199">
         <v>1.666</v>
@@ -18256,7 +18256,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K200">
         <v>5.5</v>
@@ -18345,7 +18345,7 @@
         <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K201">
         <v>1.909</v>
@@ -18422,7 +18422,7 @@
         <v>45368.875</v>
       </c>
       <c r="F202" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G202" t="s">
         <v>38</v>
@@ -18434,7 +18434,7 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K202">
         <v>1.909</v>
@@ -18523,7 +18523,7 @@
         <v>1</v>
       </c>
       <c r="J203" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K203">
         <v>1.909</v>
@@ -18612,7 +18612,7 @@
         <v>1</v>
       </c>
       <c r="J204" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K204">
         <v>2.75</v>
@@ -18692,7 +18692,7 @@
         <v>38</v>
       </c>
       <c r="G205" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18701,7 +18701,7 @@
         <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K205">
         <v>3.6</v>
@@ -18778,7 +18778,7 @@
         <v>45381.79166666666</v>
       </c>
       <c r="F206" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G206" t="s">
         <v>33</v>
@@ -18790,7 +18790,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K206">
         <v>1.5</v>
@@ -18879,7 +18879,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K207">
         <v>1.8</v>
@@ -18968,7 +18968,7 @@
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K208">
         <v>2.1</v>
@@ -19048,7 +19048,7 @@
         <v>42</v>
       </c>
       <c r="G209" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -19057,7 +19057,7 @@
         <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K209">
         <v>2.2</v>
@@ -19146,7 +19146,7 @@
         <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K210">
         <v>2.55</v>
@@ -19235,7 +19235,7 @@
         <v>1</v>
       </c>
       <c r="J211" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K211">
         <v>2.625</v>
@@ -19315,7 +19315,7 @@
         <v>38</v>
       </c>
       <c r="G212" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H212">
         <v>1</v>
@@ -19324,7 +19324,7 @@
         <v>3</v>
       </c>
       <c r="J212" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K212">
         <v>6</v>
@@ -19404,7 +19404,7 @@
         <v>36</v>
       </c>
       <c r="G213" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H213">
         <v>2</v>
@@ -19413,7 +19413,7 @@
         <v>1</v>
       </c>
       <c r="J213" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K213">
         <v>1.5</v>
@@ -19502,7 +19502,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K214">
         <v>3.75</v>
@@ -19582,7 +19582,7 @@
         <v>42</v>
       </c>
       <c r="G215" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -19591,7 +19591,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K215">
         <v>2.4</v>
@@ -19668,7 +19668,7 @@
         <v>45394.79166666666</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G216" t="s">
         <v>41</v>
@@ -19680,7 +19680,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K216">
         <v>2.05</v>
@@ -19769,7 +19769,7 @@
         <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K217">
         <v>2.55</v>
@@ -19858,7 +19858,7 @@
         <v>1</v>
       </c>
       <c r="J218" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K218">
         <v>1.666</v>
@@ -19947,7 +19947,7 @@
         <v>2</v>
       </c>
       <c r="J219" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K219">
         <v>2.75</v>
@@ -20024,7 +20024,7 @@
         <v>45396.77083333334</v>
       </c>
       <c r="F220" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G220" t="s">
         <v>36</v>
@@ -20036,7 +20036,7 @@
         <v>3</v>
       </c>
       <c r="J220" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K220">
         <v>3.2</v>
@@ -20113,7 +20113,7 @@
         <v>45396.875</v>
       </c>
       <c r="F221" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G221" t="s">
         <v>32</v>
@@ -20125,7 +20125,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K221">
         <v>1.444</v>
@@ -20214,7 +20214,7 @@
         <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K222">
         <v>4</v>
@@ -20279,7 +20279,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7609158</v>
+        <v>7609156</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20288,49 +20288,49 @@
         <v>28</v>
       </c>
       <c r="E223" s="2">
-        <v>45402.77083333334</v>
+        <v>45403.77083333334</v>
       </c>
       <c r="F223" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G223" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K223">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="L223">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M223">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="N223">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="O223">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P223">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R223">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S223">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T223">
         <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V223">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W223">
         <v>0</v>
@@ -20353,7 +20353,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7609155</v>
+        <v>7609157</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20362,49 +20362,49 @@
         <v>28</v>
       </c>
       <c r="E224" s="2">
-        <v>45402.875</v>
+        <v>45403.875</v>
       </c>
       <c r="F224" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G224" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K224">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="L224">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M224">
-        <v>9</v>
+        <v>2.1</v>
       </c>
       <c r="N224">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="O224">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P224">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q224">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R224">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S224">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T224">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U224">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V224">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W224">
         <v>0</v>
@@ -20419,154 +20419,6 @@
         <v>0</v>
       </c>
       <c r="AA224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:27">
-      <c r="A225" s="1">
-        <v>223</v>
-      </c>
-      <c r="B225">
-        <v>7609156</v>
-      </c>
-      <c r="C225" t="s">
-        <v>28</v>
-      </c>
-      <c r="D225" t="s">
-        <v>28</v>
-      </c>
-      <c r="E225" s="2">
-        <v>45403.77083333334</v>
-      </c>
-      <c r="F225" t="s">
-        <v>39</v>
-      </c>
-      <c r="G225" t="s">
-        <v>29</v>
-      </c>
-      <c r="K225">
-        <v>2.875</v>
-      </c>
-      <c r="L225">
-        <v>3.2</v>
-      </c>
-      <c r="M225">
-        <v>2.375</v>
-      </c>
-      <c r="N225">
-        <v>2.8</v>
-      </c>
-      <c r="O225">
-        <v>3.2</v>
-      </c>
-      <c r="P225">
-        <v>2.4</v>
-      </c>
-      <c r="Q225">
-        <v>0</v>
-      </c>
-      <c r="R225">
-        <v>2.05</v>
-      </c>
-      <c r="S225">
-        <v>1.75</v>
-      </c>
-      <c r="T225">
-        <v>2.25</v>
-      </c>
-      <c r="U225">
-        <v>1.85</v>
-      </c>
-      <c r="V225">
-        <v>1.95</v>
-      </c>
-      <c r="W225">
-        <v>0</v>
-      </c>
-      <c r="X225">
-        <v>0</v>
-      </c>
-      <c r="Y225">
-        <v>0</v>
-      </c>
-      <c r="Z225">
-        <v>0</v>
-      </c>
-      <c r="AA225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:27">
-      <c r="A226" s="1">
-        <v>224</v>
-      </c>
-      <c r="B226">
-        <v>7609157</v>
-      </c>
-      <c r="C226" t="s">
-        <v>28</v>
-      </c>
-      <c r="D226" t="s">
-        <v>28</v>
-      </c>
-      <c r="E226" s="2">
-        <v>45403.875</v>
-      </c>
-      <c r="F226" t="s">
-        <v>33</v>
-      </c>
-      <c r="G226" t="s">
-        <v>40</v>
-      </c>
-      <c r="K226">
-        <v>3.3</v>
-      </c>
-      <c r="L226">
-        <v>3.1</v>
-      </c>
-      <c r="M226">
-        <v>2.1</v>
-      </c>
-      <c r="N226">
-        <v>3.25</v>
-      </c>
-      <c r="O226">
-        <v>3.1</v>
-      </c>
-      <c r="P226">
-        <v>2.1</v>
-      </c>
-      <c r="Q226">
-        <v>0.25</v>
-      </c>
-      <c r="R226">
-        <v>1.95</v>
-      </c>
-      <c r="S226">
-        <v>1.85</v>
-      </c>
-      <c r="T226">
-        <v>2.25</v>
-      </c>
-      <c r="U226">
-        <v>1.9</v>
-      </c>
-      <c r="V226">
-        <v>1.9</v>
-      </c>
-      <c r="W226">
-        <v>0</v>
-      </c>
-      <c r="X226">
-        <v>0</v>
-      </c>
-      <c r="Y226">
-        <v>0</v>
-      </c>
-      <c r="Z226">
-        <v>0</v>
-      </c>
-      <c r="AA226">
         <v>0</v>
       </c>
     </row>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC224"/>
+  <dimension ref="A1:AC228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12358,7 +12358,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7493428</v>
+        <v>7493427</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12370,76 +12370,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H134">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K134">
-        <v>1.727</v>
+        <v>3.4</v>
       </c>
       <c r="L134">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M134">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N134">
-        <v>1.45</v>
+        <v>3.2</v>
       </c>
       <c r="O134">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P134">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="Q134">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R134">
+        <v>2.025</v>
+      </c>
+      <c r="S134">
         <v>1.775</v>
       </c>
-      <c r="S134">
-        <v>2.025</v>
-      </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
+        <v>1.975</v>
+      </c>
+      <c r="V134">
         <v>1.825</v>
       </c>
-      <c r="V134">
-        <v>1.975</v>
-      </c>
       <c r="W134">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.7749999999999999</v>
+        <v>0.5125</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
         <v>0.825</v>
-      </c>
-      <c r="AC134">
-        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12447,7 +12447,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7493427</v>
+        <v>7493428</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12459,76 +12459,76 @@
         <v>45253.8125</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K135">
-        <v>3.4</v>
+        <v>1.727</v>
       </c>
       <c r="L135">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M135">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N135">
-        <v>3.2</v>
+        <v>1.45</v>
       </c>
       <c r="O135">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P135">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="Q135">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R135">
+        <v>1.775</v>
+      </c>
+      <c r="S135">
         <v>2.025</v>
       </c>
-      <c r="S135">
-        <v>1.775</v>
-      </c>
       <c r="T135">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U135">
+        <v>1.825</v>
+      </c>
+      <c r="V135">
         <v>1.975</v>
       </c>
-      <c r="V135">
-        <v>1.825</v>
-      </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X135">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.5125</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA135">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12625,7 +12625,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7499442</v>
+        <v>7499440</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12637,55 +12637,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J137" t="s">
         <v>45</v>
       </c>
       <c r="K137">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="L137">
         <v>3.4</v>
       </c>
       <c r="M137">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="N137">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="O137">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P137">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R137">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12694,19 +12694,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="Z137">
         <v>-1</v>
       </c>
       <c r="AA137">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12714,7 +12714,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7499440</v>
+        <v>7499442</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12726,55 +12726,55 @@
         <v>45255.8125</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
         <v>45</v>
       </c>
       <c r="K138">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L138">
         <v>3.4</v>
       </c>
       <c r="M138">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N138">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="O138">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P138">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q138">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R138">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
         <v>-1</v>
@@ -12783,19 +12783,19 @@
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="Z138">
         <v>-1</v>
       </c>
       <c r="AA138">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB138">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7493310</v>
+        <v>7493431</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,76 +12904,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I140">
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K140">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="L140">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M140">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="N140">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="O140">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P140">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R140">
+        <v>1.925</v>
+      </c>
+      <c r="S140">
+        <v>1.875</v>
+      </c>
+      <c r="T140">
+        <v>2.5</v>
+      </c>
+      <c r="U140">
+        <v>2</v>
+      </c>
+      <c r="V140">
         <v>1.8</v>
       </c>
-      <c r="S140">
-        <v>2</v>
-      </c>
-      <c r="T140">
-        <v>2.75</v>
-      </c>
-      <c r="U140">
-        <v>1.8</v>
-      </c>
-      <c r="V140">
-        <v>2</v>
-      </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA140">
+        <v>-1</v>
+      </c>
+      <c r="AB140">
         <v>1</v>
       </c>
-      <c r="AB140">
-        <v>0.4</v>
-      </c>
       <c r="AC140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12981,7 +12981,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7493431</v>
+        <v>7493310</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12993,76 +12993,76 @@
         <v>45259.8125</v>
       </c>
       <c r="F141" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H141">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I141">
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K141">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="L141">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M141">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="N141">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="O141">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P141">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q141">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S141">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T141">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U141">
+        <v>1.8</v>
+      </c>
+      <c r="V141">
         <v>2</v>
       </c>
-      <c r="V141">
-        <v>1.8</v>
-      </c>
       <c r="W141">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB141">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13159,7 +13159,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7493311</v>
+        <v>7493433</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13171,76 +13171,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K143">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="L143">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M143">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N143">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="O143">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P143">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q143">
         <v>0.25</v>
       </c>
       <c r="R143">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S143">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T143">
         <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V143">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W143">
         <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y143">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AA143">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC143">
-        <v>1.025</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7493433</v>
+        <v>7493312</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,76 +13260,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G144" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K144">
+        <v>1.7</v>
+      </c>
+      <c r="L144">
+        <v>3.6</v>
+      </c>
+      <c r="M144">
+        <v>4.333</v>
+      </c>
+      <c r="N144">
+        <v>1.727</v>
+      </c>
+      <c r="O144">
+        <v>3.75</v>
+      </c>
+      <c r="P144">
+        <v>4.2</v>
+      </c>
+      <c r="Q144">
+        <v>-0.5</v>
+      </c>
+      <c r="R144">
+        <v>1.8</v>
+      </c>
+      <c r="S144">
+        <v>2</v>
+      </c>
+      <c r="T144">
         <v>2.75</v>
       </c>
-      <c r="L144">
-        <v>3.2</v>
-      </c>
-      <c r="M144">
-        <v>2.4</v>
-      </c>
-      <c r="N144">
-        <v>2.75</v>
-      </c>
-      <c r="O144">
-        <v>3.1</v>
-      </c>
-      <c r="P144">
-        <v>2.45</v>
-      </c>
-      <c r="Q144">
-        <v>0.25</v>
-      </c>
-      <c r="R144">
-        <v>1.75</v>
-      </c>
-      <c r="S144">
-        <v>2.05</v>
-      </c>
-      <c r="T144">
-        <v>2.25</v>
-      </c>
       <c r="U144">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V144">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X144">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC144">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7493312</v>
+        <v>7493311</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45261.8125</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G145" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K145">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M145">
-        <v>4.333</v>
+        <v>2</v>
       </c>
       <c r="N145">
-        <v>1.727</v>
+        <v>3.2</v>
       </c>
       <c r="O145">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P145">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R145">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S145">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U145">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V145">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W145">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X145">
         <v>-1</v>
       </c>
       <c r="Y145">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z145">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB145">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -20279,7 +20279,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7609156</v>
+        <v>7609206</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20288,64 +20288,79 @@
         <v>28</v>
       </c>
       <c r="E223" s="2">
-        <v>45403.77083333334</v>
+        <v>45401.79166666666</v>
       </c>
       <c r="F223" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G223" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>3</v>
+      </c>
+      <c r="J223" t="s">
+        <v>45</v>
       </c>
       <c r="K223">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="L223">
         <v>3.2</v>
       </c>
       <c r="M223">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="N223">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="O223">
         <v>3.2</v>
       </c>
       <c r="P223">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="Q223">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R223">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S223">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T223">
         <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V223">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y223">
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="Z223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>0</v>
+        <v>1.05</v>
+      </c>
+      <c r="AB223">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC223">
+        <v>-1</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20353,7 +20368,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7609157</v>
+        <v>7609669</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20362,34 +20377,43 @@
         <v>28</v>
       </c>
       <c r="E224" s="2">
-        <v>45403.875</v>
+        <v>45401.89583333334</v>
       </c>
       <c r="F224" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G224" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>2</v>
+      </c>
+      <c r="J224" t="s">
+        <v>45</v>
       </c>
       <c r="K224">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="L224">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M224">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="N224">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="O224">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P224">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q224">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R224">
         <v>1.85</v>
@@ -20401,24 +20425,356 @@
         <v>2.25</v>
       </c>
       <c r="U224">
+        <v>1.95</v>
+      </c>
+      <c r="V224">
+        <v>1.85</v>
+      </c>
+      <c r="W224">
+        <v>-1</v>
+      </c>
+      <c r="X224">
+        <v>-1</v>
+      </c>
+      <c r="Y224">
+        <v>0.909</v>
+      </c>
+      <c r="Z224">
+        <v>-1</v>
+      </c>
+      <c r="AA224">
+        <v>0.95</v>
+      </c>
+      <c r="AB224">
+        <v>-0.5</v>
+      </c>
+      <c r="AC224">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>7609158</v>
+      </c>
+      <c r="C225" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45402.77083333334</v>
+      </c>
+      <c r="F225" t="s">
+        <v>32</v>
+      </c>
+      <c r="G225" t="s">
+        <v>37</v>
+      </c>
+      <c r="H225">
+        <v>2</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225" t="s">
+        <v>43</v>
+      </c>
+      <c r="K225">
+        <v>2.05</v>
+      </c>
+      <c r="L225">
+        <v>3.4</v>
+      </c>
+      <c r="M225">
+        <v>3.3</v>
+      </c>
+      <c r="N225">
+        <v>2.45</v>
+      </c>
+      <c r="O225">
+        <v>3.2</v>
+      </c>
+      <c r="P225">
+        <v>2.7</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>1.8</v>
+      </c>
+      <c r="S225">
+        <v>2</v>
+      </c>
+      <c r="T225">
+        <v>2.25</v>
+      </c>
+      <c r="U225">
+        <v>1.85</v>
+      </c>
+      <c r="V225">
+        <v>1.95</v>
+      </c>
+      <c r="W225">
+        <v>1.45</v>
+      </c>
+      <c r="X225">
+        <v>-1</v>
+      </c>
+      <c r="Y225">
+        <v>-1</v>
+      </c>
+      <c r="Z225">
+        <v>0.8</v>
+      </c>
+      <c r="AA225">
+        <v>-1</v>
+      </c>
+      <c r="AB225">
+        <v>-0.5</v>
+      </c>
+      <c r="AC225">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>7609155</v>
+      </c>
+      <c r="C226" t="s">
+        <v>28</v>
+      </c>
+      <c r="D226" t="s">
+        <v>28</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45402.875</v>
+      </c>
+      <c r="F226" t="s">
+        <v>36</v>
+      </c>
+      <c r="G226" t="s">
+        <v>38</v>
+      </c>
+      <c r="H226">
+        <v>2</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226" t="s">
+        <v>43</v>
+      </c>
+      <c r="K226">
+        <v>1.3</v>
+      </c>
+      <c r="L226">
+        <v>4.5</v>
+      </c>
+      <c r="M226">
+        <v>9</v>
+      </c>
+      <c r="N226">
+        <v>1.4</v>
+      </c>
+      <c r="O226">
+        <v>4</v>
+      </c>
+      <c r="P226">
+        <v>7</v>
+      </c>
+      <c r="Q226">
+        <v>-1.25</v>
+      </c>
+      <c r="R226">
+        <v>1.95</v>
+      </c>
+      <c r="S226">
+        <v>1.85</v>
+      </c>
+      <c r="T226">
+        <v>2.75</v>
+      </c>
+      <c r="U226">
+        <v>1.85</v>
+      </c>
+      <c r="V226">
+        <v>1.95</v>
+      </c>
+      <c r="W226">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X226">
+        <v>-1</v>
+      </c>
+      <c r="Y226">
+        <v>-1</v>
+      </c>
+      <c r="Z226">
+        <v>0.95</v>
+      </c>
+      <c r="AA226">
+        <v>-1</v>
+      </c>
+      <c r="AB226">
+        <v>-1</v>
+      </c>
+      <c r="AC226">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>7609156</v>
+      </c>
+      <c r="C227" t="s">
+        <v>28</v>
+      </c>
+      <c r="D227" t="s">
+        <v>28</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45403.77083333334</v>
+      </c>
+      <c r="F227" t="s">
+        <v>39</v>
+      </c>
+      <c r="G227" t="s">
+        <v>31</v>
+      </c>
+      <c r="K227">
+        <v>2.875</v>
+      </c>
+      <c r="L227">
+        <v>3.2</v>
+      </c>
+      <c r="M227">
+        <v>2.375</v>
+      </c>
+      <c r="N227">
+        <v>2.75</v>
+      </c>
+      <c r="O227">
+        <v>3.2</v>
+      </c>
+      <c r="P227">
+        <v>2.45</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>2.025</v>
+      </c>
+      <c r="S227">
+        <v>1.775</v>
+      </c>
+      <c r="T227">
+        <v>2.25</v>
+      </c>
+      <c r="U227">
+        <v>1.875</v>
+      </c>
+      <c r="V227">
         <v>1.925</v>
       </c>
-      <c r="V224">
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>7609157</v>
+      </c>
+      <c r="C228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" t="s">
+        <v>28</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45403.875</v>
+      </c>
+      <c r="F228" t="s">
+        <v>33</v>
+      </c>
+      <c r="G228" t="s">
+        <v>40</v>
+      </c>
+      <c r="K228">
+        <v>3.3</v>
+      </c>
+      <c r="L228">
+        <v>3.1</v>
+      </c>
+      <c r="M228">
+        <v>2.1</v>
+      </c>
+      <c r="N228">
+        <v>3.1</v>
+      </c>
+      <c r="O228">
+        <v>3.1</v>
+      </c>
+      <c r="P228">
+        <v>2.2</v>
+      </c>
+      <c r="Q228">
+        <v>0.25</v>
+      </c>
+      <c r="R228">
+        <v>1.85</v>
+      </c>
+      <c r="S228">
+        <v>1.95</v>
+      </c>
+      <c r="T228">
+        <v>2.25</v>
+      </c>
+      <c r="U228">
+        <v>1.925</v>
+      </c>
+      <c r="V228">
         <v>1.875</v>
       </c>
-      <c r="W224">
+      <c r="W228">
         <v>0</v>
       </c>
-      <c r="X224">
+      <c r="X228">
         <v>0</v>
       </c>
-      <c r="Y224">
+      <c r="Y228">
         <v>0</v>
       </c>
-      <c r="Z224">
+      <c r="Z228">
         <v>0</v>
       </c>
-      <c r="AA224">
+      <c r="AA228">
         <v>0</v>
       </c>
     </row>

--- a/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
+++ b/Paraguay Division Profesional/Paraguay Division Profesional.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -97,16 +97,34 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
+    <t>7609162</t>
+  </si>
+  <si>
+    <t>7609668</t>
+  </si>
+  <si>
+    <t>7609207</t>
+  </si>
+  <si>
+    <t>7609161</t>
+  </si>
+  <si>
+    <t>7609160</t>
+  </si>
+  <si>
+    <t>7609159</t>
+  </si>
+  <si>
     <t>Paraguay Division Profesional</t>
+  </si>
+  <si>
+    <t>Guarani Asuncion</t>
   </si>
   <si>
     <t>Cerro Porteno</t>
   </si>
   <si>
     <t>Sportivo Luqueno</t>
-  </si>
-  <si>
-    <t>Guarani Asuncion</t>
   </si>
   <si>
     <t>Sportivo Ameliano</t>
@@ -142,13 +160,13 @@
     <t>2 de Mayo</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
 </sst>
 </file>
@@ -510,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB226"/>
+  <dimension ref="A1:AB234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,43 +622,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6720843</v>
+        <v>6720844</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
         <v>45079.85416666666</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="J2">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>2.75</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
         <v>3.2</v>
-      </c>
-      <c r="L2">
-        <v>2.7</v>
-      </c>
-      <c r="M2">
-        <v>3.75</v>
-      </c>
-      <c r="N2">
-        <v>3.3</v>
       </c>
       <c r="O2">
         <v>1.85</v>
@@ -649,10 +667,10 @@
         <v>0.5</v>
       </c>
       <c r="Q2">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R2">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S2">
         <v>2.5</v>
@@ -664,25 +682,25 @@
         <v>1.875</v>
       </c>
       <c r="V2">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -690,85 +708,85 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6720873</v>
+        <v>6720843</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2">
         <v>45079.85416666666</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="J3">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="K3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L3">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="M3">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="N3">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O3">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="P3">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q3">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="R3">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
         <v>2.5</v>
       </c>
       <c r="T3">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V3">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="W3">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z3">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -776,82 +794,82 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6720844</v>
+        <v>6720873</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>45079.85416666666</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J4">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N4">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O4">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="P4">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q4">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
         <v>2.5</v>
       </c>
       <c r="T4">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U4">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V4">
         <v>-1</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X4">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA4">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB4">
         <v>-1</v>
@@ -865,16 +883,16 @@
         <v>6720874</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2">
         <v>45080.72916666666</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -883,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J5">
         <v>1.95</v>
@@ -931,10 +949,10 @@
         <v>2.6</v>
       </c>
       <c r="Y5">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA5">
         <v>-1</v>
@@ -951,16 +969,16 @@
         <v>6721063</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2">
         <v>45080.83333333334</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -969,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J6">
         <v>1.571</v>
@@ -1017,10 +1035,10 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z6">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
         <v>-0.5</v>
@@ -1037,16 +1055,16 @@
         <v>6721064</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2">
         <v>45081.77083333334</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1055,7 +1073,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J7">
         <v>2.4</v>
@@ -1103,10 +1121,10 @@
         <v>2.1</v>
       </c>
       <c r="Y7">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA7">
         <v>-0.5</v>
@@ -1123,16 +1141,16 @@
         <v>6504533</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2">
         <v>45086.75</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1141,7 +1159,7 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J8">
         <v>2.75</v>
@@ -1189,10 +1207,10 @@
         <v>1.45</v>
       </c>
       <c r="Y8">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA8">
         <v>-0.5</v>
@@ -1209,16 +1227,16 @@
         <v>6496045</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
         <v>45086.85416666666</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1227,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J9">
         <v>1.333</v>
@@ -1295,16 +1313,16 @@
         <v>6496054</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>45087.70833333334</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1313,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J10">
         <v>2.3</v>
@@ -1381,16 +1399,16 @@
         <v>6504202</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2">
         <v>45087.8125</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1399,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J11">
         <v>2.1</v>
@@ -1447,10 +1465,10 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z11">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
         <v>0.95</v>
@@ -1467,16 +1485,16 @@
         <v>6492468</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2">
         <v>45088.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1485,7 +1503,7 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J12">
         <v>5.5</v>
@@ -1553,16 +1571,16 @@
         <v>6496285</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2">
         <v>45088.8125</v>
       </c>
       <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
         <v>39</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1571,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J13">
         <v>1.363</v>
@@ -1619,10 +1637,10 @@
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
         <v>0.8999999999999999</v>
@@ -1639,16 +1657,16 @@
         <v>5979332</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
         <v>45114.75</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1657,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J14">
         <v>2.7</v>
@@ -1725,16 +1743,16 @@
         <v>5979331</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <v>45114.85416666666</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1743,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J15">
         <v>1.55</v>
@@ -1791,10 +1809,10 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
         <v>-1</v>
@@ -1811,16 +1829,16 @@
         <v>5979334</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2">
         <v>45115.70833333334</v>
       </c>
       <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
         <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>31</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1829,7 +1847,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J16">
         <v>2.3</v>
@@ -1877,10 +1895,10 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z16">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
         <v>1</v>
@@ -1897,16 +1915,16 @@
         <v>5978953</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2">
         <v>45115.8125</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1915,7 +1933,7 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J17">
         <v>1.4</v>
@@ -1983,16 +2001,16 @@
         <v>5979333</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2">
         <v>45116.70833333334</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2001,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J18">
         <v>2.375</v>
@@ -2049,10 +2067,10 @@
         <v>2.3</v>
       </c>
       <c r="Y18">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA18">
         <v>0.9750000000000001</v>
@@ -2069,16 +2087,16 @@
         <v>5979330</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2">
         <v>45116.8125</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2087,7 +2105,7 @@
         <v>3</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J19">
         <v>1.4</v>
@@ -2135,10 +2153,10 @@
         <v>7.5</v>
       </c>
       <c r="Y19">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA19">
         <v>0.8500000000000001</v>
@@ -2155,16 +2173,16 @@
         <v>6889947</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2">
         <v>45122.70833333334</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -2173,7 +2191,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J20">
         <v>4.75</v>
@@ -2221,10 +2239,10 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="Z20">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
         <v>0.8999999999999999</v>
@@ -2241,16 +2259,16 @@
         <v>6889949</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2">
         <v>45122.8125</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2259,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J21">
         <v>3.6</v>
@@ -2307,10 +2325,10 @@
         <v>0.95</v>
       </c>
       <c r="Y21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA21">
         <v>-1</v>
@@ -2327,16 +2345,16 @@
         <v>6899925</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2">
         <v>45123.70833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2345,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J22">
         <v>2.625</v>
@@ -2393,10 +2411,10 @@
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="Z22">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
         <v>-1</v>
@@ -2413,16 +2431,16 @@
         <v>6899970</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2">
         <v>45123.8125</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2431,7 +2449,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J23">
         <v>5</v>
@@ -2479,10 +2497,10 @@
         <v>0.7270000000000001</v>
       </c>
       <c r="Y23">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA23">
         <v>0.875</v>
@@ -2499,16 +2517,16 @@
         <v>6899924</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2">
         <v>45124.75</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2517,7 +2535,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J24">
         <v>2.625</v>
@@ -2585,16 +2603,16 @@
         <v>6899923</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2">
         <v>45124.85416666666</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2603,7 +2621,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J25">
         <v>1.666</v>
@@ -2671,16 +2689,16 @@
         <v>6933986</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2">
         <v>45128.83333333334</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2689,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J26">
         <v>2.9</v>
@@ -2737,10 +2755,10 @@
         <v>1.375</v>
       </c>
       <c r="Y26">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA26">
         <v>-1</v>
@@ -2757,16 +2775,16 @@
         <v>6933987</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2">
         <v>45129.70833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2775,7 +2793,7 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J27">
         <v>1.65</v>
@@ -2823,10 +2841,10 @@
         <v>3.2</v>
       </c>
       <c r="Y27">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA27">
         <v>0.825</v>
@@ -2843,16 +2861,16 @@
         <v>6933988</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2">
         <v>45129.8125</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2861,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J28">
         <v>1.45</v>
@@ -2909,10 +2927,10 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z28">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
         <v>-1</v>
@@ -2929,16 +2947,16 @@
         <v>6933989</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2">
         <v>45130.70833333334</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2947,7 +2965,7 @@
         <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J29">
         <v>2.15</v>
@@ -2995,10 +3013,10 @@
         <v>2.1</v>
       </c>
       <c r="Y29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA29">
         <v>0.95</v>
@@ -3015,16 +3033,16 @@
         <v>6933990</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2">
         <v>45130.8125</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3033,7 +3051,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J30">
         <v>1.7</v>
@@ -3081,10 +3099,10 @@
         <v>3</v>
       </c>
       <c r="Y30">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA30">
         <v>0.875</v>
@@ -3101,16 +3119,16 @@
         <v>6933991</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2">
         <v>45131.83333333334</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G31">
         <v>4</v>
@@ -3119,7 +3137,7 @@
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J31">
         <v>1.25</v>
@@ -3187,17 +3205,17 @@
         <v>6964428</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2">
         <v>45135.75</v>
       </c>
       <c r="E32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" t="s">
         <v>36</v>
       </c>
-      <c r="F32" t="s">
-        <v>29</v>
-      </c>
       <c r="G32">
         <v>1</v>
       </c>
@@ -3205,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J32">
         <v>2.625</v>
@@ -3253,10 +3271,10 @@
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z32">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
         <v>-1</v>
@@ -3273,16 +3291,16 @@
         <v>6964429</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2">
         <v>45135.85416666666</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3291,7 +3309,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J33">
         <v>2.7</v>
@@ -3359,16 +3377,16 @@
         <v>6964430</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2">
         <v>45136.72916666666</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3377,7 +3395,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J34">
         <v>3</v>
@@ -3445,16 +3463,16 @@
         <v>6964431</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2">
         <v>45136.83333333334</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -3463,7 +3481,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J35">
         <v>4.2</v>
@@ -3511,10 +3529,10 @@
         <v>1</v>
       </c>
       <c r="Y35">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA35">
         <v>-1</v>
@@ -3531,16 +3549,16 @@
         <v>6969028</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2">
         <v>45137.70833333334</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3549,7 +3567,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J36">
         <v>2.2</v>
@@ -3597,10 +3615,10 @@
         <v>2.3</v>
       </c>
       <c r="Y36">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA36">
         <v>0.8999999999999999</v>
@@ -3617,16 +3635,16 @@
         <v>6971434</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2">
         <v>45137.8125</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3635,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J37">
         <v>4.5</v>
@@ -3683,10 +3701,10 @@
         <v>0.55</v>
       </c>
       <c r="Y37">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA37">
         <v>-1</v>
@@ -3703,16 +3721,16 @@
         <v>6964641</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2">
         <v>45142.83333333334</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -3721,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J38">
         <v>1.363</v>
@@ -3789,16 +3807,16 @@
         <v>6964642</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2">
         <v>45143.72916666666</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -3807,7 +3825,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J39">
         <v>1.666</v>
@@ -3855,10 +3873,10 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z39">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
         <v>0.8500000000000001</v>
@@ -3875,16 +3893,16 @@
         <v>6964433</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2">
         <v>45143.83333333334</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3893,7 +3911,7 @@
         <v>2</v>
       </c>
       <c r="I40" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J40">
         <v>1.8</v>
@@ -3961,16 +3979,16 @@
         <v>6971652</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2">
         <v>45144.70833333334</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G41">
         <v>5</v>
@@ -3979,7 +3997,7 @@
         <v>3</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J41">
         <v>1.615</v>
@@ -4027,10 +4045,10 @@
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z41">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
         <v>0.875</v>
@@ -4047,16 +4065,16 @@
         <v>6971630</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2">
         <v>45144.8125</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4065,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J42">
         <v>1.65</v>
@@ -4113,10 +4131,10 @@
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z42">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
         <v>-0.5</v>
@@ -4133,16 +4151,16 @@
         <v>6964436</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2">
         <v>45145.83333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4151,7 +4169,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J43">
         <v>2.625</v>
@@ -4219,16 +4237,16 @@
         <v>7012895</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2">
         <v>45149.83333333334</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G44">
         <v>2</v>
@@ -4237,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J44">
         <v>2.75</v>
@@ -4285,10 +4303,10 @@
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
         <v>-0.5</v>
@@ -4305,16 +4323,16 @@
         <v>7011918</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2">
         <v>45150.75</v>
       </c>
       <c r="E45" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4323,7 +4341,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J45">
         <v>6</v>
@@ -4371,10 +4389,10 @@
         <v>0.5329999999999999</v>
       </c>
       <c r="Y45">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA45">
         <v>-1</v>
@@ -4391,16 +4409,16 @@
         <v>7011955</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2">
         <v>45150.85416666666</v>
       </c>
       <c r="E46" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" t="s">
         <v>34</v>
-      </c>
-      <c r="F46" t="s">
-        <v>30</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4409,7 +4427,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J46">
         <v>3</v>
@@ -4457,10 +4475,10 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z46">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
         <v>1.15</v>
@@ -4477,16 +4495,16 @@
         <v>7011919</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2">
         <v>45151.72916666666</v>
       </c>
       <c r="E47" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4495,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J47">
         <v>2.15</v>
@@ -4563,16 +4581,16 @@
         <v>7011956</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2">
         <v>45152.75</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4581,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J48">
         <v>2.05</v>
@@ -4649,16 +4667,16 @@
         <v>7012896</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2">
         <v>45152.85416666666</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4667,7 +4685,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J49">
         <v>2.375</v>
@@ -4715,10 +4733,10 @@
         <v>1.55</v>
       </c>
       <c r="Y49">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA49">
         <v>0.9750000000000001</v>
@@ -4735,16 +4753,16 @@
         <v>7011920</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2">
         <v>45156.83333333334</v>
       </c>
       <c r="E50" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4753,7 +4771,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J50">
         <v>1.5</v>
@@ -4821,16 +4839,16 @@
         <v>7011957</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2">
         <v>45157.75</v>
       </c>
       <c r="E51" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4839,7 +4857,7 @@
         <v>3</v>
       </c>
       <c r="I51" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J51">
         <v>2.25</v>
@@ -4887,10 +4905,10 @@
         <v>1.5</v>
       </c>
       <c r="Y51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA51">
         <v>0.8</v>
@@ -4907,16 +4925,16 @@
         <v>7011921</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2">
         <v>45157.85416666666</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4925,7 +4943,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J52">
         <v>1.444</v>
@@ -4973,10 +4991,10 @@
         <v>5</v>
       </c>
       <c r="Y52">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA52">
         <v>-1</v>
@@ -4993,16 +5011,16 @@
         <v>7011922</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2">
         <v>45158.75</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F53" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5011,7 +5029,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J53">
         <v>3.5</v>
@@ -5079,16 +5097,16 @@
         <v>7012897</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2">
         <v>45158.85416666666</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G54">
         <v>2</v>
@@ -5097,7 +5115,7 @@
         <v>3</v>
       </c>
       <c r="I54" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J54">
         <v>1.666</v>
@@ -5145,10 +5163,10 @@
         <v>3.75</v>
       </c>
       <c r="Y54">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA54">
         <v>1</v>
@@ -5165,16 +5183,16 @@
         <v>7011958</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2">
         <v>45159.83333333334</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -5183,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J55">
         <v>2.3</v>
@@ -5231,10 +5249,10 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z55">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
         <v>-1</v>
@@ -5251,16 +5269,16 @@
         <v>7098836</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2">
         <v>45163.83333333334</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G56">
         <v>4</v>
@@ -5269,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J56">
         <v>1.7</v>
@@ -5317,10 +5335,10 @@
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z56">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
         <v>0.7749999999999999</v>
@@ -5337,16 +5355,16 @@
         <v>7098837</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2">
         <v>45164.75</v>
       </c>
       <c r="E57" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5355,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J57">
         <v>2.1</v>
@@ -5423,16 +5441,16 @@
         <v>7098921</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2">
         <v>45164.85416666666</v>
       </c>
       <c r="E58" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5441,7 +5459,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J58">
         <v>2.375</v>
@@ -5509,16 +5527,16 @@
         <v>7098907</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2">
         <v>45165.72916666666</v>
       </c>
       <c r="E59" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5527,7 +5545,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J59">
         <v>3</v>
@@ -5575,10 +5593,10 @@
         <v>1.3</v>
       </c>
       <c r="Y59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA59">
         <v>-1</v>
@@ -5595,16 +5613,16 @@
         <v>7098908</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D60" s="2">
         <v>45165.83333333334</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5613,7 +5631,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J60">
         <v>2.8</v>
@@ -5661,10 +5679,10 @@
         <v>1.6</v>
       </c>
       <c r="Y60">
+        <v>-1</v>
+      </c>
+      <c r="Z60">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z60">
-        <v>-1</v>
       </c>
       <c r="AA60">
         <v>-1</v>
@@ -5681,16 +5699,16 @@
         <v>7098909</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2">
         <v>45166.83333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5699,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J61">
         <v>3.4</v>
@@ -5747,10 +5765,10 @@
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z61">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
         <v>0.8999999999999999</v>
@@ -5767,16 +5785,16 @@
         <v>7131743</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2">
         <v>45171.41666666666</v>
       </c>
       <c r="E62" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -5785,7 +5803,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J62">
         <v>2.2</v>
@@ -5833,10 +5851,10 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
         <v>0.825</v>
@@ -5853,16 +5871,16 @@
         <v>7132292</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2">
         <v>45171.75</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5871,7 +5889,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J63">
         <v>4.75</v>
@@ -5939,16 +5957,16 @@
         <v>7131744</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2">
         <v>45171.85416666666</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -5957,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J64">
         <v>1.5</v>
@@ -6005,10 +6023,10 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z64">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -6025,16 +6043,16 @@
         <v>7131745</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2">
         <v>45172.72916666666</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -6043,7 +6061,7 @@
         <v>2</v>
       </c>
       <c r="I65" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J65">
         <v>1.85</v>
@@ -6091,10 +6109,10 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z65">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
         <v>1</v>
@@ -6111,16 +6129,16 @@
         <v>7131746</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D66" s="2">
         <v>45172.83333333334</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6129,7 +6147,7 @@
         <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J66">
         <v>1.909</v>
@@ -6177,10 +6195,10 @@
         <v>3.333</v>
       </c>
       <c r="Y66">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA66">
         <v>0.875</v>
@@ -6197,16 +6215,16 @@
         <v>7166929</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D67" s="2">
         <v>45178.72916666666</v>
       </c>
       <c r="E67" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6215,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J67">
         <v>2.45</v>
@@ -6283,16 +6301,16 @@
         <v>7168057</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2">
         <v>45178.83333333334</v>
       </c>
       <c r="E68" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6301,7 +6319,7 @@
         <v>4</v>
       </c>
       <c r="I68" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J68">
         <v>2.875</v>
@@ -6349,10 +6367,10 @@
         <v>1.375</v>
       </c>
       <c r="Y68">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA68">
         <v>1</v>
@@ -6369,16 +6387,16 @@
         <v>7167178</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D69" s="2">
         <v>45179.72916666666</v>
       </c>
       <c r="E69" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -6387,7 +6405,7 @@
         <v>1</v>
       </c>
       <c r="I69" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J69">
         <v>1.85</v>
@@ -6435,10 +6453,10 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z69">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
         <v>0.9750000000000001</v>
@@ -6455,16 +6473,16 @@
         <v>7167214</v>
       </c>
       <c r="C70" t="s">
-   